--- a/outputs/normalizedPortfolio.xlsx
+++ b/outputs/normalizedPortfolio.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1115"/>
+  <dimension ref="A1:B1121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         <v>42291</v>
       </c>
       <c r="B11" t="n">
-        <v>1.030472257981125</v>
+        <v>1.030472257981126</v>
       </c>
     </row>
     <row r="12">
@@ -472,7 +472,7 @@
         <v>42293</v>
       </c>
       <c r="B13" t="n">
-        <v>1.049342204057468</v>
+        <v>1.049342204057469</v>
       </c>
     </row>
     <row r="14">
@@ -488,7 +488,7 @@
         <v>42297</v>
       </c>
       <c r="B15" t="n">
-        <v>1.052539778582287</v>
+        <v>1.052539778582288</v>
       </c>
     </row>
     <row r="16">
@@ -512,7 +512,7 @@
         <v>42300</v>
       </c>
       <c r="B18" t="n">
-        <v>1.065332354408169</v>
+        <v>1.06533235440817</v>
       </c>
     </row>
     <row r="19">
@@ -528,7 +528,7 @@
         <v>42304</v>
       </c>
       <c r="B20" t="n">
-        <v>1.063721350761117</v>
+        <v>1.063721350761118</v>
       </c>
     </row>
     <row r="21">
@@ -560,7 +560,7 @@
         <v>42310</v>
       </c>
       <c r="B24" t="n">
-        <v>1.075091540157045</v>
+        <v>1.075091540157046</v>
       </c>
     </row>
     <row r="25">
@@ -608,7 +608,7 @@
         <v>42318</v>
       </c>
       <c r="B30" t="n">
-        <v>1.06422647310512</v>
+        <v>1.064226473105121</v>
       </c>
     </row>
     <row r="31">
@@ -656,7 +656,7 @@
         <v>42326</v>
       </c>
       <c r="B36" t="n">
-        <v>1.071527829216766</v>
+        <v>1.071527829216767</v>
       </c>
     </row>
     <row r="37">
@@ -712,7 +712,7 @@
         <v>42338</v>
       </c>
       <c r="B43" t="n">
-        <v>1.084683720328016</v>
+        <v>1.084683720328017</v>
       </c>
     </row>
     <row r="44">
@@ -736,7 +736,7 @@
         <v>42341</v>
       </c>
       <c r="B46" t="n">
-        <v>1.068108560152445</v>
+        <v>1.068108560152446</v>
       </c>
     </row>
     <row r="47">
@@ -792,7 +792,7 @@
         <v>42352</v>
       </c>
       <c r="B53" t="n">
-        <v>1.060870405778446</v>
+        <v>1.060870405778447</v>
       </c>
     </row>
     <row r="54">
@@ -816,7 +816,7 @@
         <v>42355</v>
       </c>
       <c r="B56" t="n">
-        <v>1.072721203682437</v>
+        <v>1.072721203682438</v>
       </c>
     </row>
     <row r="57">
@@ -912,7 +912,7 @@
         <v>42375</v>
       </c>
       <c r="B68" t="n">
-        <v>1.058020642239058</v>
+        <v>1.058020642239059</v>
       </c>
     </row>
     <row r="69">
@@ -952,7 +952,7 @@
         <v>42382</v>
       </c>
       <c r="B73" t="n">
-        <v>1.002720068490814</v>
+        <v>1.002720068490815</v>
       </c>
     </row>
     <row r="74">
@@ -960,7 +960,7 @@
         <v>42383</v>
       </c>
       <c r="B74" t="n">
-        <v>1.013742591916481</v>
+        <v>1.013742591916482</v>
       </c>
     </row>
     <row r="75">
@@ -968,7 +968,7 @@
         <v>42384</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9949332572303846</v>
+        <v>0.9949332572303849</v>
       </c>
     </row>
     <row r="76">
@@ -976,7 +976,7 @@
         <v>42388</v>
       </c>
       <c r="B76" t="n">
-        <v>1.004219388918779</v>
+        <v>1.00421938891878</v>
       </c>
     </row>
     <row r="77">
@@ -984,7 +984,7 @@
         <v>42389</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9882248974318976</v>
+        <v>0.9882248974318978</v>
       </c>
     </row>
     <row r="78">
@@ -992,7 +992,7 @@
         <v>42390</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9936052538035293</v>
+        <v>0.9936052538035295</v>
       </c>
     </row>
     <row r="79">
@@ -1000,7 +1000,7 @@
         <v>42391</v>
       </c>
       <c r="B79" t="n">
-        <v>1.015865879440098</v>
+        <v>1.015865879440099</v>
       </c>
     </row>
     <row r="80">
@@ -1008,7 +1008,7 @@
         <v>42394</v>
       </c>
       <c r="B80" t="n">
-        <v>1.005201301229765</v>
+        <v>1.005201301229766</v>
       </c>
     </row>
     <row r="81">
@@ -1216,7 +1216,7 @@
         <v>42431</v>
       </c>
       <c r="B106" t="n">
-        <v>1.038942832119235</v>
+        <v>1.039132552222911</v>
       </c>
     </row>
     <row r="107">
@@ -1224,7 +1224,7 @@
         <v>42432</v>
       </c>
       <c r="B107" t="n">
-        <v>1.044096220250338</v>
+        <v>1.044286881408036</v>
       </c>
     </row>
     <row r="108">
@@ -1232,7 +1232,7 @@
         <v>42433</v>
       </c>
       <c r="B108" t="n">
-        <v>1.043165726881087</v>
+        <v>1.043356218122508</v>
       </c>
     </row>
     <row r="109">
@@ -1240,7 +1240,7 @@
         <v>42436</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04487119723176</v>
+        <v>1.045061999907075</v>
       </c>
     </row>
     <row r="110">
@@ -1248,7 +1248,7 @@
         <v>42437</v>
       </c>
       <c r="B110" t="n">
-        <v>1.033787672855988</v>
+        <v>1.033976451582219</v>
       </c>
     </row>
     <row r="111">
@@ -1256,7 +1256,7 @@
         <v>42438</v>
       </c>
       <c r="B111" t="n">
-        <v>1.038812999760814</v>
+        <v>1.03900269615596</v>
       </c>
     </row>
     <row r="112">
@@ -1264,7 +1264,7 @@
         <v>42439</v>
       </c>
       <c r="B112" t="n">
-        <v>1.038916615184936</v>
+        <v>1.03910633050117</v>
       </c>
     </row>
     <row r="113">
@@ -1272,7 +1272,7 @@
         <v>42440</v>
       </c>
       <c r="B113" t="n">
-        <v>1.054117390742495</v>
+        <v>1.054755533666137</v>
       </c>
     </row>
     <row r="114">
@@ -1280,7 +1280,7 @@
         <v>42443</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05412188604546</v>
+        <v>1.054760031690475</v>
       </c>
     </row>
     <row r="115">
@@ -1288,7 +1288,7 @@
         <v>42444</v>
       </c>
       <c r="B115" t="n">
-        <v>1.049727805171986</v>
+        <v>1.050363290722745</v>
       </c>
     </row>
     <row r="116">
@@ -1296,7 +1296,7 @@
         <v>42445</v>
       </c>
       <c r="B116" t="n">
-        <v>1.056449533705605</v>
+        <v>1.057089088464914</v>
       </c>
     </row>
     <row r="117">
@@ -1304,7 +1304,7 @@
         <v>42446</v>
       </c>
       <c r="B117" t="n">
-        <v>1.065353812592948</v>
+        <v>1.065998757835909</v>
       </c>
     </row>
     <row r="118">
@@ -1312,7 +1312,7 @@
         <v>42447</v>
       </c>
       <c r="B118" t="n">
-        <v>1.066728243331132</v>
+        <v>1.067374020628717</v>
       </c>
     </row>
     <row r="119">
@@ -1320,7 +1320,7 @@
         <v>42450</v>
       </c>
       <c r="B119" t="n">
-        <v>1.064321980814747</v>
+        <v>1.064966301406076</v>
       </c>
     </row>
     <row r="120">
@@ -1328,7 +1328,7 @@
         <v>42451</v>
       </c>
       <c r="B120" t="n">
-        <v>1.064071780118078</v>
+        <v>1.064715949242592</v>
       </c>
     </row>
     <row r="121">
@@ -1336,7 +1336,7 @@
         <v>42452</v>
       </c>
       <c r="B121" t="n">
-        <v>1.058122992909464</v>
+        <v>1.058763560749629</v>
       </c>
     </row>
     <row r="122">
@@ -1344,7 +1344,7 @@
         <v>42453</v>
       </c>
       <c r="B122" t="n">
-        <v>1.058751234654852</v>
+        <v>1.059392182820802</v>
       </c>
     </row>
     <row r="123">
@@ -1352,7 +1352,7 @@
         <v>42457</v>
       </c>
       <c r="B123" t="n">
-        <v>1.064812495586656</v>
+        <v>1.065457113126441</v>
       </c>
     </row>
     <row r="124">
@@ -1360,7 +1360,7 @@
         <v>42458</v>
       </c>
       <c r="B124" t="n">
-        <v>1.076192601531775</v>
+        <v>1.076844108374537</v>
       </c>
     </row>
     <row r="125">
@@ -1368,7 +1368,7 @@
         <v>42459</v>
       </c>
       <c r="B125" t="n">
-        <v>1.075070680500326</v>
+        <v>1.07572150815311</v>
       </c>
     </row>
     <row r="126">
@@ -1376,7 +1376,7 @@
         <v>42460</v>
       </c>
       <c r="B126" t="n">
-        <v>1.078020506299883</v>
+        <v>1.078673119721953</v>
       </c>
     </row>
     <row r="127">
@@ -1384,7 +1384,7 @@
         <v>42461</v>
       </c>
       <c r="B127" t="n">
-        <v>1.081112451125241</v>
+        <v>1.081766936352794</v>
       </c>
     </row>
     <row r="128">
@@ -1392,7 +1392,7 @@
         <v>42464</v>
       </c>
       <c r="B128" t="n">
-        <v>1.077944011645402</v>
+        <v>1.078596578759041</v>
       </c>
     </row>
     <row r="129">
@@ -1400,7 +1400,7 @@
         <v>42465</v>
       </c>
       <c r="B129" t="n">
-        <v>1.065739249356376</v>
+        <v>1.066384427935533</v>
       </c>
     </row>
     <row r="130">
@@ -1408,7 +1408,7 @@
         <v>42466</v>
       </c>
       <c r="B130" t="n">
-        <v>1.075657315782378</v>
+        <v>1.076308498573174</v>
       </c>
     </row>
     <row r="131">
@@ -1416,7 +1416,7 @@
         <v>42467</v>
       </c>
       <c r="B131" t="n">
-        <v>1.065294031163832</v>
+        <v>1.065938940216235</v>
       </c>
     </row>
     <row r="132">
@@ -1424,7 +1424,7 @@
         <v>42468</v>
       </c>
       <c r="B132" t="n">
-        <v>1.068344981452758</v>
+        <v>1.068991737493319</v>
       </c>
     </row>
     <row r="133">
@@ -1432,7 +1432,7 @@
         <v>42471</v>
       </c>
       <c r="B133" t="n">
-        <v>1.063832308268169</v>
+        <v>1.064476332420911</v>
       </c>
     </row>
     <row r="134">
@@ -1440,7 +1440,7 @@
         <v>42472</v>
       </c>
       <c r="B134" t="n">
-        <v>1.073381542263119</v>
+        <v>1.074031347343254</v>
       </c>
     </row>
     <row r="135">
@@ -1448,7 +1448,7 @@
         <v>42473</v>
       </c>
       <c r="B135" t="n">
-        <v>1.080014802625872</v>
+        <v>1.080668623357583</v>
       </c>
     </row>
     <row r="136">
@@ -1456,7 +1456,7 @@
         <v>42474</v>
       </c>
       <c r="B136" t="n">
-        <v>1.075189935455611</v>
+        <v>1.075840835303112</v>
       </c>
     </row>
     <row r="137">
@@ -1464,7 +1464,7 @@
         <v>42475</v>
       </c>
       <c r="B137" t="n">
-        <v>1.080047233860277</v>
+        <v>1.08070107422525</v>
       </c>
     </row>
     <row r="138">
@@ -1472,7 +1472,7 @@
         <v>42478</v>
       </c>
       <c r="B138" t="n">
-        <v>1.088760491371624</v>
+        <v>1.089419606579486</v>
       </c>
     </row>
     <row r="139">
@@ -1480,7 +1480,7 @@
         <v>42479</v>
       </c>
       <c r="B139" t="n">
-        <v>1.088375370449304</v>
+        <v>1.089034252512173</v>
       </c>
     </row>
     <row r="140">
@@ -1488,7 +1488,7 @@
         <v>42480</v>
       </c>
       <c r="B140" t="n">
-        <v>1.087336094302657</v>
+        <v>1.087994347207214</v>
       </c>
     </row>
     <row r="141">
@@ -1496,7 +1496,7 @@
         <v>42481</v>
       </c>
       <c r="B141" t="n">
-        <v>1.074876125626613</v>
+        <v>1.075526835499522</v>
       </c>
     </row>
     <row r="142">
@@ -1504,7 +1504,7 @@
         <v>42482</v>
       </c>
       <c r="B142" t="n">
-        <v>1.077769528405907</v>
+        <v>1.078421989890662</v>
       </c>
     </row>
     <row r="143">
@@ -1512,7 +1512,7 @@
         <v>42485</v>
       </c>
       <c r="B143" t="n">
-        <v>1.078741667415</v>
+        <v>1.079394717414501</v>
       </c>
     </row>
     <row r="144">
@@ -1520,7 +1520,7 @@
         <v>42486</v>
       </c>
       <c r="B144" t="n">
-        <v>1.070692006814548</v>
+        <v>1.071340183700301</v>
       </c>
     </row>
     <row r="145">
@@ -1528,7 +1528,7 @@
         <v>42487</v>
       </c>
       <c r="B145" t="n">
-        <v>1.073532115855352</v>
+        <v>1.074182012089919</v>
       </c>
     </row>
     <row r="146">
@@ -1536,7 +1536,7 @@
         <v>42488</v>
       </c>
       <c r="B146" t="n">
-        <v>1.062466308284014</v>
+        <v>1.063109505485953</v>
       </c>
     </row>
     <row r="147">
@@ -1544,7 +1544,7 @@
         <v>42489</v>
       </c>
       <c r="B147" t="n">
-        <v>1.059804515038665</v>
+        <v>1.06044610084083</v>
       </c>
     </row>
     <row r="148">
@@ -1552,7 +1552,7 @@
         <v>42492</v>
       </c>
       <c r="B148" t="n">
-        <v>1.070405838644614</v>
+        <v>1.071053842289516</v>
       </c>
     </row>
     <row r="149">
@@ -1560,7 +1560,7 @@
         <v>42493</v>
       </c>
       <c r="B149" t="n">
-        <v>1.063599197926067</v>
+        <v>1.064243080958175</v>
       </c>
     </row>
     <row r="150">
@@ -1568,7 +1568,7 @@
         <v>42494</v>
       </c>
       <c r="B150" t="n">
-        <v>1.066525612261247</v>
+        <v>1.067171266889779</v>
       </c>
     </row>
     <row r="151">
@@ -1576,7 +1576,7 @@
         <v>42495</v>
       </c>
       <c r="B151" t="n">
-        <v>1.068242797468542</v>
+        <v>1.068889491648833</v>
       </c>
     </row>
     <row r="152">
@@ -1584,7 +1584,7 @@
         <v>42496</v>
       </c>
       <c r="B152" t="n">
-        <v>1.072330236726229</v>
+        <v>1.072979405365685</v>
       </c>
     </row>
     <row r="153">
@@ -1592,7 +1592,7 @@
         <v>42499</v>
       </c>
       <c r="B153" t="n">
-        <v>1.076538961218048</v>
+        <v>1.077190677740478</v>
       </c>
     </row>
     <row r="154">
@@ -1600,7 +1600,7 @@
         <v>42500</v>
       </c>
       <c r="B154" t="n">
-        <v>1.083276033989096</v>
+        <v>1.083931829009188</v>
       </c>
     </row>
     <row r="155">
@@ -1608,7 +1608,7 @@
         <v>42501</v>
       </c>
       <c r="B155" t="n">
-        <v>1.068065105611766</v>
+        <v>1.068711692220735</v>
       </c>
     </row>
     <row r="156">
@@ -1616,7 +1616,7 @@
         <v>42502</v>
       </c>
       <c r="B156" t="n">
-        <v>1.071412177010327</v>
+        <v>1.072060789873627</v>
       </c>
     </row>
     <row r="157">
@@ -1624,7 +1624,7 @@
         <v>42503</v>
       </c>
       <c r="B157" t="n">
-        <v>1.06306693788324</v>
+        <v>1.063710498695088</v>
       </c>
     </row>
     <row r="158">
@@ -1632,7 +1632,7 @@
         <v>42506</v>
       </c>
       <c r="B158" t="n">
-        <v>1.074597348387246</v>
+        <v>1.075247889493636</v>
       </c>
     </row>
     <row r="159">
@@ -1640,7 +1640,7 @@
         <v>42507</v>
       </c>
       <c r="B159" t="n">
-        <v>1.063102934167496</v>
+        <v>1.06374651677082</v>
       </c>
     </row>
     <row r="160">
@@ -1648,7 +1648,7 @@
         <v>42508</v>
       </c>
       <c r="B160" t="n">
-        <v>1.059853174681389</v>
+        <v>1.060494789941191</v>
       </c>
     </row>
     <row r="161">
@@ -1656,7 +1656,7 @@
         <v>42509</v>
       </c>
       <c r="B161" t="n">
-        <v>1.059590895045361</v>
+        <v>1.060232351525984</v>
       </c>
     </row>
     <row r="162">
@@ -1664,7 +1664,7 @@
         <v>42510</v>
       </c>
       <c r="B162" t="n">
-        <v>1.065701054480805</v>
+        <v>1.066346209937501</v>
       </c>
     </row>
     <row r="163">
@@ -1672,7 +1672,7 @@
         <v>42513</v>
       </c>
       <c r="B163" t="n">
-        <v>1.062750003504162</v>
+        <v>1.063393372449873</v>
       </c>
     </row>
     <row r="164">
@@ -1680,7 +1680,7 @@
         <v>42514</v>
       </c>
       <c r="B164" t="n">
-        <v>1.076940245856306</v>
+        <v>1.077592205308939</v>
       </c>
     </row>
     <row r="165">
@@ -1688,7 +1688,7 @@
         <v>42515</v>
       </c>
       <c r="B165" t="n">
-        <v>1.080357708792696</v>
+        <v>1.081011737113378</v>
       </c>
     </row>
     <row r="166">
@@ -1696,7 +1696,7 @@
         <v>42516</v>
       </c>
       <c r="B166" t="n">
-        <v>1.080609690443273</v>
+        <v>1.081263871308926</v>
       </c>
     </row>
     <row r="167">
@@ -1704,7 +1704,7 @@
         <v>42517</v>
       </c>
       <c r="B167" t="n">
-        <v>1.086137929439904</v>
+        <v>1.086795456997896</v>
       </c>
     </row>
     <row r="168">
@@ -1712,7 +1712,7 @@
         <v>42521</v>
       </c>
       <c r="B168" t="n">
-        <v>1.086285946450151</v>
+        <v>1.086943563614869</v>
       </c>
     </row>
     <row r="169">
@@ -1720,7 +1720,7 @@
         <v>42522</v>
       </c>
       <c r="B169" t="n">
-        <v>1.090864946285417</v>
+        <v>1.091525335490866</v>
       </c>
     </row>
     <row r="170">
@@ -1728,7 +1728,7 @@
         <v>42523</v>
       </c>
       <c r="B170" t="n">
-        <v>1.094460041701169</v>
+        <v>1.095122607310042</v>
       </c>
     </row>
     <row r="171">
@@ -1736,7 +1736,7 @@
         <v>42524</v>
       </c>
       <c r="B171" t="n">
-        <v>1.090328258073138</v>
+        <v>1.090988322377596</v>
       </c>
     </row>
     <row r="172">
@@ -1744,7 +1744,7 @@
         <v>42527</v>
       </c>
       <c r="B172" t="n">
-        <v>1.090406372164193</v>
+        <v>1.091066483757458</v>
       </c>
     </row>
     <row r="173">
@@ -1752,7 +1752,7 @@
         <v>42528</v>
       </c>
       <c r="B173" t="n">
-        <v>1.090612395336425</v>
+        <v>1.09127263165226</v>
       </c>
     </row>
     <row r="174">
@@ -1760,7 +1760,7 @@
         <v>42529</v>
       </c>
       <c r="B174" t="n">
-        <v>1.094742906197139</v>
+        <v>1.09540564304688</v>
       </c>
     </row>
     <row r="175">
@@ -1768,7 +1768,7 @@
         <v>42530</v>
       </c>
       <c r="B175" t="n">
-        <v>1.093152928372823</v>
+        <v>1.093814702679772</v>
       </c>
     </row>
     <row r="176">
@@ -1776,7 +1776,7 @@
         <v>42531</v>
       </c>
       <c r="B176" t="n">
-        <v>1.083158081219957</v>
+        <v>1.083813804833653</v>
       </c>
     </row>
     <row r="177">
@@ -1784,7 +1784,7 @@
         <v>42534</v>
       </c>
       <c r="B177" t="n">
-        <v>1.0740590537482</v>
+        <v>1.074709268981099</v>
       </c>
     </row>
     <row r="178">
@@ -1792,7 +1792,7 @@
         <v>42535</v>
       </c>
       <c r="B178" t="n">
-        <v>1.070568054497184</v>
+        <v>1.071216156344526</v>
       </c>
     </row>
     <row r="179">
@@ -1800,7 +1800,7 @@
         <v>42536</v>
       </c>
       <c r="B179" t="n">
-        <v>1.070301397345907</v>
+        <v>1.070949337764004</v>
       </c>
     </row>
     <row r="180">
@@ -1808,7 +1808,7 @@
         <v>42537</v>
       </c>
       <c r="B180" t="n">
-        <v>1.073695281913627</v>
+        <v>1.07434527692587</v>
       </c>
     </row>
     <row r="181">
@@ -1816,7 +1816,7 @@
         <v>42538</v>
       </c>
       <c r="B181" t="n">
-        <v>1.069526081623468</v>
+        <v>1.07017355267995</v>
       </c>
     </row>
     <row r="182">
@@ -1824,7 +1824,7 @@
         <v>42541</v>
       </c>
       <c r="B182" t="n">
-        <v>1.075643960212374</v>
+        <v>1.076295134917959</v>
       </c>
     </row>
     <row r="183">
@@ -1832,7 +1832,7 @@
         <v>42542</v>
       </c>
       <c r="B183" t="n">
-        <v>1.079032007825634</v>
+        <v>1.079685233591782</v>
       </c>
     </row>
     <row r="184">
@@ -1840,7 +1840,7 @@
         <v>42543</v>
       </c>
       <c r="B184" t="n">
-        <v>1.08105429788731</v>
+        <v>1.081708747909982</v>
       </c>
     </row>
     <row r="185">
@@ -1848,7 +1848,7 @@
         <v>42544</v>
       </c>
       <c r="B185" t="n">
-        <v>1.09087300681151</v>
+        <v>1.09153340089665</v>
       </c>
     </row>
     <row r="186">
@@ -1856,7 +1856,7 @@
         <v>42545</v>
       </c>
       <c r="B186" t="n">
-        <v>1.063416925155368</v>
+        <v>1.064060697842955</v>
       </c>
     </row>
     <row r="187">
@@ -1864,7 +1864,7 @@
         <v>42548</v>
       </c>
       <c r="B187" t="n">
-        <v>1.054411392201219</v>
+        <v>1.055049713107839</v>
       </c>
     </row>
     <row r="188">
@@ -1872,7 +1872,7 @@
         <v>42549</v>
       </c>
       <c r="B188" t="n">
-        <v>1.071263544861322</v>
+        <v>1.071912067745504</v>
       </c>
     </row>
     <row r="189">
@@ -1880,7 +1880,7 @@
         <v>42550</v>
       </c>
       <c r="B189" t="n">
-        <v>1.086371555509436</v>
+        <v>1.087029224500275</v>
       </c>
     </row>
     <row r="190">
@@ -1888,7 +1888,7 @@
         <v>42551</v>
       </c>
       <c r="B190" t="n">
-        <v>1.105682066477848</v>
+        <v>1.106351425690322</v>
       </c>
     </row>
     <row r="191">
@@ -1896,7 +1896,7 @@
         <v>42552</v>
       </c>
       <c r="B191" t="n">
-        <v>1.10437166828636</v>
+        <v>1.105040234208313</v>
       </c>
     </row>
     <row r="192">
@@ -1904,7 +1904,7 @@
         <v>42556</v>
       </c>
       <c r="B192" t="n">
-        <v>1.103639283385232</v>
+        <v>1.104307405935085</v>
       </c>
     </row>
     <row r="193">
@@ -1912,7 +1912,7 @@
         <v>42557</v>
       </c>
       <c r="B193" t="n">
-        <v>1.108690930045762</v>
+        <v>1.109362110767881</v>
       </c>
     </row>
     <row r="194">
@@ -1920,7 +1920,7 @@
         <v>42558</v>
       </c>
       <c r="B194" t="n">
-        <v>1.10414317640609</v>
+        <v>1.10481160400334</v>
       </c>
     </row>
     <row r="195">
@@ -1928,7 +1928,7 @@
         <v>42559</v>
       </c>
       <c r="B195" t="n">
-        <v>1.118222536601349</v>
+        <v>1.11889948757954</v>
       </c>
     </row>
     <row r="196">
@@ -1936,7 +1936,7 @@
         <v>42562</v>
       </c>
       <c r="B196" t="n">
-        <v>1.121538656320429</v>
+        <v>1.122217614815383</v>
       </c>
     </row>
     <row r="197">
@@ -1944,7 +1944,7 @@
         <v>42563</v>
       </c>
       <c r="B197" t="n">
-        <v>1.125101486120369</v>
+        <v>1.125782601485748</v>
       </c>
     </row>
     <row r="198">
@@ -1952,7 +1952,7 @@
         <v>42564</v>
       </c>
       <c r="B198" t="n">
-        <v>1.125140819590886</v>
+        <v>1.125821958768011</v>
       </c>
     </row>
     <row r="199">
@@ -1960,7 +1960,7 @@
         <v>42565</v>
       </c>
       <c r="B199" t="n">
-        <v>1.126245740831749</v>
+        <v>1.126927548907497</v>
       </c>
     </row>
     <row r="200">
@@ -1968,7 +1968,7 @@
         <v>42566</v>
       </c>
       <c r="B200" t="n">
-        <v>1.123452765909092</v>
+        <v>1.124132883170137</v>
       </c>
     </row>
     <row r="201">
@@ -1976,7 +1976,7 @@
         <v>42569</v>
       </c>
       <c r="B201" t="n">
-        <v>1.125127601149194</v>
+        <v>1.125808732324123</v>
       </c>
     </row>
     <row r="202">
@@ -1984,7 +1984,7 @@
         <v>42570</v>
       </c>
       <c r="B202" t="n">
-        <v>1.123176076644615</v>
+        <v>1.123856026403162</v>
       </c>
     </row>
     <row r="203">
@@ -1992,7 +1992,7 @@
         <v>42571</v>
       </c>
       <c r="B203" t="n">
-        <v>1.125113385700543</v>
+        <v>1.125794508269705</v>
       </c>
     </row>
     <row r="204">
@@ -2000,7 +2000,7 @@
         <v>42572</v>
       </c>
       <c r="B204" t="n">
-        <v>1.1202538565954</v>
+        <v>1.120932037296666</v>
       </c>
     </row>
     <row r="205">
@@ -2008,7 +2008,7 @@
         <v>42573</v>
       </c>
       <c r="B205" t="n">
-        <v>1.126894354079863</v>
+        <v>1.127576554813922</v>
       </c>
     </row>
     <row r="206">
@@ -2016,7 +2016,7 @@
         <v>42576</v>
       </c>
       <c r="B206" t="n">
-        <v>1.122396620556592</v>
+        <v>1.123076098447023</v>
       </c>
     </row>
     <row r="207">
@@ -2024,7 +2024,7 @@
         <v>42577</v>
       </c>
       <c r="B207" t="n">
-        <v>1.124494680130958</v>
+        <v>1.125175428147357</v>
       </c>
     </row>
     <row r="208">
@@ -2032,7 +2032,7 @@
         <v>42578</v>
       </c>
       <c r="B208" t="n">
-        <v>1.120160244722653</v>
+        <v>1.120838368753044</v>
       </c>
     </row>
     <row r="209">
@@ -2040,7 +2040,7 @@
         <v>42579</v>
       </c>
       <c r="B209" t="n">
-        <v>1.121703697184759</v>
+        <v>1.12238275559236</v>
       </c>
     </row>
     <row r="210">
@@ -2048,7 +2048,7 @@
         <v>42580</v>
       </c>
       <c r="B210" t="n">
-        <v>1.126018339225052</v>
+        <v>1.126700009636127</v>
       </c>
     </row>
     <row r="211">
@@ -2056,7 +2056,7 @@
         <v>42583</v>
       </c>
       <c r="B211" t="n">
-        <v>1.123097588865311</v>
+        <v>1.123777491108827</v>
       </c>
     </row>
     <row r="212">
@@ -2064,7 +2064,7 @@
         <v>42584</v>
       </c>
       <c r="B212" t="n">
-        <v>1.116064073196269</v>
+        <v>1.116739717481144</v>
       </c>
     </row>
     <row r="213">
@@ -2072,7 +2072,7 @@
         <v>42585</v>
       </c>
       <c r="B213" t="n">
-        <v>1.116156321227285</v>
+        <v>1.11683202135739</v>
       </c>
     </row>
     <row r="214">
@@ -2080,7 +2080,7 @@
         <v>42586</v>
       </c>
       <c r="B214" t="n">
-        <v>1.116906734900213</v>
+        <v>1.117582889316699</v>
       </c>
     </row>
     <row r="215">
@@ -2088,7 +2088,7 @@
         <v>42587</v>
       </c>
       <c r="B215" t="n">
-        <v>1.12187828460999</v>
+        <v>1.122557448709548</v>
       </c>
     </row>
     <row r="216">
@@ -2096,7 +2096,7 @@
         <v>42590</v>
       </c>
       <c r="B216" t="n">
-        <v>1.12019814943947</v>
+        <v>1.120876296416667</v>
       </c>
     </row>
     <row r="217">
@@ -2104,7 +2104,7 @@
         <v>42591</v>
       </c>
       <c r="B217" t="n">
-        <v>1.123192348915385</v>
+        <v>1.12387230852486</v>
       </c>
     </row>
     <row r="218">
@@ -2112,7 +2112,7 @@
         <v>42592</v>
       </c>
       <c r="B218" t="n">
-        <v>1.123277303644564</v>
+        <v>1.123957314684041</v>
       </c>
     </row>
     <row r="219">
@@ -2120,7 +2120,7 @@
         <v>42593</v>
       </c>
       <c r="B219" t="n">
-        <v>1.12571286899191</v>
+        <v>1.126394354477028</v>
       </c>
     </row>
     <row r="220">
@@ -2128,7 +2128,7 @@
         <v>42594</v>
       </c>
       <c r="B220" t="n">
-        <v>1.126569306276</v>
+        <v>1.127251310232208</v>
       </c>
     </row>
     <row r="221">
@@ -2136,7 +2136,7 @@
         <v>42597</v>
       </c>
       <c r="B221" t="n">
-        <v>1.126206573010126</v>
+        <v>1.126888357374408</v>
       </c>
     </row>
     <row r="222">
@@ -2144,7 +2144,7 @@
         <v>42598</v>
       </c>
       <c r="B222" t="n">
-        <v>1.114174290525248</v>
+        <v>1.114848790771091</v>
       </c>
     </row>
     <row r="223">
@@ -2152,7 +2152,7 @@
         <v>42599</v>
       </c>
       <c r="B223" t="n">
-        <v>1.117473022832673</v>
+        <v>1.118149520069267</v>
       </c>
     </row>
     <row r="224">
@@ -2160,7 +2160,7 @@
         <v>42600</v>
       </c>
       <c r="B224" t="n">
-        <v>1.11771343025299</v>
+        <v>1.118390073027733</v>
       </c>
     </row>
     <row r="225">
@@ -2168,7 +2168,7 @@
         <v>42601</v>
       </c>
       <c r="B225" t="n">
-        <v>1.115375450169851</v>
+        <v>1.116050677575245</v>
       </c>
     </row>
     <row r="226">
@@ -2176,7 +2176,7 @@
         <v>42604</v>
       </c>
       <c r="B226" t="n">
-        <v>1.117586940663617</v>
+        <v>1.118263506863932</v>
       </c>
     </row>
     <row r="227">
@@ -2184,7 +2184,7 @@
         <v>42605</v>
       </c>
       <c r="B227" t="n">
-        <v>1.118727764952391</v>
+        <v>1.119405021786361</v>
       </c>
     </row>
     <row r="228">
@@ -2192,7 +2192,7 @@
         <v>42606</v>
       </c>
       <c r="B228" t="n">
-        <v>1.112528765602222</v>
+        <v>1.1132022696781</v>
       </c>
     </row>
     <row r="229">
@@ -2200,7 +2200,7 @@
         <v>42607</v>
       </c>
       <c r="B229" t="n">
-        <v>1.111396094624156</v>
+        <v>1.112068913002239</v>
       </c>
     </row>
     <row r="230">
@@ -2208,7 +2208,7 @@
         <v>42608</v>
       </c>
       <c r="B230" t="n">
-        <v>1.107223242850325</v>
+        <v>1.107893535062106</v>
       </c>
     </row>
     <row r="231">
@@ -2216,7 +2216,7 @@
         <v>42611</v>
       </c>
       <c r="B231" t="n">
-        <v>1.113053691126989</v>
+        <v>1.113727512982947</v>
       </c>
     </row>
     <row r="232">
@@ -2224,7 +2224,7 @@
         <v>42612</v>
       </c>
       <c r="B232" t="n">
-        <v>1.112649593480588</v>
+        <v>1.113323170703399</v>
       </c>
     </row>
     <row r="233">
@@ -2232,7 +2232,7 @@
         <v>42613</v>
       </c>
       <c r="B233" t="n">
-        <v>1.112514535200134</v>
+        <v>1.113188030661193</v>
       </c>
     </row>
     <row r="234">
@@ -2240,7 +2240,7 @@
         <v>42614</v>
       </c>
       <c r="B234" t="n">
-        <v>1.112706362830872</v>
+        <v>1.113379974420786</v>
       </c>
     </row>
     <row r="235">
@@ -2248,7 +2248,7 @@
         <v>42615</v>
       </c>
       <c r="B235" t="n">
-        <v>1.119067631337304</v>
+        <v>1.119745093920018</v>
       </c>
     </row>
     <row r="236">
@@ -2256,7 +2256,7 @@
         <v>42619</v>
       </c>
       <c r="B236" t="n">
-        <v>1.121923526383658</v>
+        <v>1.122602717871739</v>
       </c>
     </row>
     <row r="237">
@@ -2264,7 +2264,7 @@
         <v>42620</v>
       </c>
       <c r="B237" t="n">
-        <v>1.124060547583963</v>
+        <v>1.12474103278465</v>
       </c>
     </row>
     <row r="238">
@@ -2272,7 +2272,7 @@
         <v>42621</v>
       </c>
       <c r="B238" t="n">
-        <v>1.117857512373011</v>
+        <v>1.118534242372371</v>
       </c>
     </row>
     <row r="239">
@@ -2280,7 +2280,7 @@
         <v>42622</v>
       </c>
       <c r="B239" t="n">
-        <v>1.088021501005796</v>
+        <v>1.088680168842733</v>
       </c>
     </row>
     <row r="240">
@@ -2288,7 +2288,7 @@
         <v>42625</v>
       </c>
       <c r="B240" t="n">
-        <v>1.098750999450387</v>
+        <v>1.099416162724707</v>
       </c>
     </row>
     <row r="241">
@@ -2296,7 +2296,7 @@
         <v>42626</v>
       </c>
       <c r="B241" t="n">
-        <v>1.078561824629868</v>
+        <v>1.079214765755917</v>
       </c>
     </row>
     <row r="242">
@@ -2304,7 +2304,7 @@
         <v>42627</v>
       </c>
       <c r="B242" t="n">
-        <v>1.074727320303095</v>
+        <v>1.075377940092048</v>
       </c>
     </row>
     <row r="243">
@@ -2312,7 +2312,7 @@
         <v>42628</v>
       </c>
       <c r="B243" t="n">
-        <v>1.082075980896877</v>
+        <v>1.082731049427305</v>
       </c>
     </row>
     <row r="244">
@@ -2320,7 +2320,7 @@
         <v>42629</v>
       </c>
       <c r="B244" t="n">
-        <v>1.076242622115558</v>
+        <v>1.076894159239846</v>
       </c>
     </row>
     <row r="245">
@@ -2328,7 +2328,7 @@
         <v>42632</v>
       </c>
       <c r="B245" t="n">
-        <v>1.08087764025237</v>
+        <v>1.081531983329819</v>
       </c>
     </row>
     <row r="246">
@@ -2336,7 +2336,7 @@
         <v>42633</v>
       </c>
       <c r="B246" t="n">
-        <v>1.081583650862082</v>
+        <v>1.082238421345129</v>
       </c>
     </row>
     <row r="247">
@@ -2344,7 +2344,7 @@
         <v>42634</v>
       </c>
       <c r="B247" t="n">
-        <v>1.091905404058321</v>
+        <v>1.092566423137416</v>
       </c>
     </row>
     <row r="248">
@@ -2352,7 +2352,7 @@
         <v>42635</v>
       </c>
       <c r="B248" t="n">
-        <v>1.103179590357681</v>
+        <v>1.103847434617985</v>
       </c>
     </row>
     <row r="249">
@@ -2360,7 +2360,7 @@
         <v>42636</v>
       </c>
       <c r="B249" t="n">
-        <v>1.099943323751599</v>
+        <v>1.100609208836718</v>
       </c>
     </row>
     <row r="250">
@@ -2368,7 +2368,7 @@
         <v>42639</v>
       </c>
       <c r="B250" t="n">
-        <v>1.093470574731581</v>
+        <v>1.094132541335685</v>
       </c>
     </row>
     <row r="251">
@@ -2376,7 +2376,7 @@
         <v>42640</v>
       </c>
       <c r="B251" t="n">
-        <v>1.096267839866654</v>
+        <v>1.096931499882674</v>
       </c>
     </row>
     <row r="252">
@@ -2384,7 +2384,7 @@
         <v>42641</v>
       </c>
       <c r="B252" t="n">
-        <v>1.097975456587603</v>
+        <v>1.098640150362801</v>
       </c>
     </row>
     <row r="253">
@@ -2392,7 +2392,7 @@
         <v>42642</v>
       </c>
       <c r="B253" t="n">
-        <v>1.088217450163958</v>
+        <v>1.088876236624845</v>
       </c>
     </row>
     <row r="254">
@@ -2400,7 +2400,7 @@
         <v>42643</v>
       </c>
       <c r="B254" t="n">
-        <v>1.092138063734698</v>
+        <v>1.092799223661603</v>
       </c>
     </row>
     <row r="255">
@@ -2408,7 +2408,7 @@
         <v>42646</v>
       </c>
       <c r="B255" t="n">
-        <v>1.082831173858039</v>
+        <v>1.083486699568141</v>
       </c>
     </row>
     <row r="256">
@@ -2416,7 +2416,7 @@
         <v>42647</v>
       </c>
       <c r="B256" t="n">
-        <v>1.076275105216308</v>
+        <v>1.076926662005256</v>
       </c>
     </row>
     <row r="257">
@@ -2424,7 +2424,7 @@
         <v>42648</v>
       </c>
       <c r="B257" t="n">
-        <v>1.072105733960671</v>
+        <v>1.072754766690357</v>
       </c>
     </row>
     <row r="258">
@@ -2432,7 +2432,7 @@
         <v>42649</v>
       </c>
       <c r="B258" t="n">
-        <v>1.074036782386969</v>
+        <v>1.074686984137202</v>
       </c>
     </row>
     <row r="259">
@@ -2440,7 +2440,7 @@
         <v>42650</v>
       </c>
       <c r="B259" t="n">
-        <v>1.073884751636828</v>
+        <v>1.074534861350492</v>
       </c>
     </row>
     <row r="260">
@@ -2448,7 +2448,7 @@
         <v>42653</v>
       </c>
       <c r="B260" t="n">
-        <v>1.079894380520934</v>
+        <v>1.080548128351359</v>
       </c>
     </row>
     <row r="261">
@@ -2456,7 +2456,7 @@
         <v>42654</v>
       </c>
       <c r="B261" t="n">
-        <v>1.070602975928669</v>
+        <v>1.071251098916791</v>
       </c>
     </row>
     <row r="262">
@@ -2464,7 +2464,7 @@
         <v>42655</v>
       </c>
       <c r="B262" t="n">
-        <v>1.074494650166767</v>
+        <v>1.075145129101578</v>
       </c>
     </row>
     <row r="263">
@@ -2472,7 +2472,7 @@
         <v>42656</v>
       </c>
       <c r="B263" t="n">
-        <v>1.074293497887606</v>
+        <v>1.074943855048595</v>
       </c>
     </row>
     <row r="264">
@@ -2480,7 +2480,7 @@
         <v>42657</v>
       </c>
       <c r="B264" t="n">
-        <v>1.075762052095737</v>
+        <v>1.076413298291936</v>
       </c>
     </row>
     <row r="265">
@@ -2488,7 +2488,7 @@
         <v>42660</v>
       </c>
       <c r="B265" t="n">
-        <v>1.07359333119548</v>
+        <v>1.074243264488668</v>
       </c>
     </row>
     <row r="266">
@@ -2496,7 +2496,7 @@
         <v>42661</v>
       </c>
       <c r="B266" t="n">
-        <v>1.079972586737405</v>
+        <v>1.080626381912408</v>
       </c>
     </row>
     <row r="267">
@@ -2504,7 +2504,7 @@
         <v>42662</v>
       </c>
       <c r="B267" t="n">
-        <v>1.082529452175847</v>
+        <v>1.083184795229294</v>
       </c>
     </row>
     <row r="268">
@@ -2512,7 +2512,7 @@
         <v>42663</v>
       </c>
       <c r="B268" t="n">
-        <v>1.084835978388263</v>
+        <v>1.085492717769474</v>
       </c>
     </row>
     <row r="269">
@@ -2520,7 +2520,7 @@
         <v>42664</v>
       </c>
       <c r="B269" t="n">
-        <v>1.084730295238699</v>
+        <v>1.085386970641312</v>
       </c>
     </row>
     <row r="270">
@@ -2528,7 +2528,7 @@
         <v>42667</v>
       </c>
       <c r="B270" t="n">
-        <v>1.08953647725331</v>
+        <v>1.090196062228489</v>
       </c>
     </row>
     <row r="271">
@@ -2536,7 +2536,7 @@
         <v>42668</v>
       </c>
       <c r="B271" t="n">
-        <v>1.082302513299924</v>
+        <v>1.082957718968826</v>
       </c>
     </row>
     <row r="272">
@@ -2544,7 +2544,7 @@
         <v>42669</v>
       </c>
       <c r="B272" t="n">
-        <v>1.080717392862439</v>
+        <v>1.081371638929119</v>
       </c>
     </row>
     <row r="273">
@@ -2552,7 +2552,7 @@
         <v>42670</v>
       </c>
       <c r="B273" t="n">
-        <v>1.072253921492693</v>
+        <v>1.072903043932336</v>
       </c>
     </row>
     <row r="274">
@@ -2560,7 +2560,7 @@
         <v>42671</v>
       </c>
       <c r="B274" t="n">
-        <v>1.061289885253422</v>
+        <v>1.061932370270893</v>
       </c>
     </row>
     <row r="275">
@@ -2568,7 +2568,7 @@
         <v>42674</v>
       </c>
       <c r="B275" t="n">
-        <v>1.064704963585069</v>
+        <v>1.065540670179784</v>
       </c>
     </row>
     <row r="276">
@@ -2576,7 +2576,7 @@
         <v>42675</v>
       </c>
       <c r="B276" t="n">
-        <v>1.051950978470197</v>
+        <v>1.052776674226385</v>
       </c>
     </row>
     <row r="277">
@@ -2584,7 +2584,7 @@
         <v>42676</v>
       </c>
       <c r="B277" t="n">
-        <v>1.047089441194617</v>
+        <v>1.047901544140104</v>
       </c>
     </row>
     <row r="278">
@@ -2592,7 +2592,7 @@
         <v>42677</v>
       </c>
       <c r="B278" t="n">
-        <v>1.04474609137472</v>
+        <v>1.045556376862007</v>
       </c>
     </row>
     <row r="279">
@@ -2600,7 +2600,7 @@
         <v>42678</v>
       </c>
       <c r="B279" t="n">
-        <v>1.041924392053609</v>
+        <v>1.042732489083788</v>
       </c>
     </row>
     <row r="280">
@@ -2608,7 +2608,7 @@
         <v>42681</v>
       </c>
       <c r="B280" t="n">
-        <v>1.059335329348378</v>
+        <v>1.060156929975197</v>
       </c>
     </row>
     <row r="281">
@@ -2616,7 +2616,7 @@
         <v>42682</v>
       </c>
       <c r="B281" t="n">
-        <v>1.062623538492516</v>
+        <v>1.063447689392719</v>
       </c>
     </row>
     <row r="282">
@@ -2624,7 +2624,7 @@
         <v>42683</v>
       </c>
       <c r="B282" t="n">
-        <v>1.072555049104348</v>
+        <v>1.073386902698039</v>
       </c>
     </row>
     <row r="283">
@@ -2632,7 +2632,7 @@
         <v>42684</v>
       </c>
       <c r="B283" t="n">
-        <v>1.069997972112009</v>
+        <v>1.070827842484712</v>
       </c>
     </row>
     <row r="284">
@@ -2640,7 +2640,7 @@
         <v>42685</v>
       </c>
       <c r="B284" t="n">
-        <v>1.067529934630612</v>
+        <v>1.068357890839701</v>
       </c>
     </row>
     <row r="285">
@@ -2648,7 +2648,7 @@
         <v>42688</v>
       </c>
       <c r="B285" t="n">
-        <v>1.061938966588555</v>
+        <v>1.06276258654762</v>
       </c>
     </row>
     <row r="286">
@@ -2656,7 +2656,7 @@
         <v>42689</v>
       </c>
       <c r="B286" t="n">
-        <v>1.06467076633566</v>
+        <v>1.065496505027408</v>
       </c>
     </row>
     <row r="287">
@@ -2664,7 +2664,7 @@
         <v>42690</v>
       </c>
       <c r="B287" t="n">
-        <v>1.06393386605884</v>
+        <v>1.064759033224545</v>
       </c>
     </row>
     <row r="288">
@@ -2672,7 +2672,7 @@
         <v>42691</v>
       </c>
       <c r="B288" t="n">
-        <v>1.067336156519586</v>
+        <v>1.068163962438005</v>
       </c>
     </row>
     <row r="289">
@@ -2680,7 +2680,7 @@
         <v>42692</v>
       </c>
       <c r="B289" t="n">
-        <v>1.064932657325152</v>
+        <v>1.065758599134643</v>
       </c>
     </row>
     <row r="290">
@@ -2688,7 +2688,7 @@
         <v>42695</v>
       </c>
       <c r="B290" t="n">
-        <v>1.074433365284656</v>
+        <v>1.075266675665173</v>
       </c>
     </row>
     <row r="291">
@@ -2696,7 +2696,7 @@
         <v>42696</v>
       </c>
       <c r="B291" t="n">
-        <v>1.079966587807149</v>
+        <v>1.080804189651348</v>
       </c>
     </row>
     <row r="292">
@@ -2704,7 +2704,7 @@
         <v>42697</v>
       </c>
       <c r="B292" t="n">
-        <v>1.080518332680967</v>
+        <v>1.081356362448149</v>
       </c>
     </row>
     <row r="293">
@@ -2712,7 +2712,7 @@
         <v>42699</v>
       </c>
       <c r="B293" t="n">
-        <v>1.084079578359694</v>
+        <v>1.084920370162278</v>
       </c>
     </row>
     <row r="294">
@@ -2720,7 +2720,7 @@
         <v>42702</v>
       </c>
       <c r="B294" t="n">
-        <v>1.080814329983672</v>
+        <v>1.081652589320814</v>
       </c>
     </row>
     <row r="295">
@@ -2728,7 +2728,7 @@
         <v>42703</v>
       </c>
       <c r="B295" t="n">
-        <v>1.081682195947589</v>
+        <v>1.082521128385307</v>
       </c>
     </row>
     <row r="296">
@@ -2736,7 +2736,7 @@
         <v>42704</v>
       </c>
       <c r="B296" t="n">
-        <v>1.082700489018976</v>
+        <v>1.083540211225714</v>
       </c>
     </row>
     <row r="297">
@@ -2744,7 +2744,7 @@
         <v>42705</v>
       </c>
       <c r="B297" t="n">
-        <v>1.074050571275971</v>
+        <v>1.074883584768629</v>
       </c>
     </row>
     <row r="298">
@@ -2752,7 +2752,7 @@
         <v>42706</v>
       </c>
       <c r="B298" t="n">
-        <v>1.077331648262964</v>
+        <v>1.078167206497438</v>
       </c>
     </row>
     <row r="299">
@@ -2760,7 +2760,7 @@
         <v>42709</v>
       </c>
       <c r="B299" t="n">
-        <v>1.085667916853223</v>
+        <v>1.086509940541372</v>
       </c>
     </row>
     <row r="300">
@@ -2768,7 +2768,7 @@
         <v>42710</v>
       </c>
       <c r="B300" t="n">
-        <v>1.090802904809247</v>
+        <v>1.091648911097812</v>
       </c>
     </row>
     <row r="301">
@@ -2776,7 +2776,7 @@
         <v>42711</v>
       </c>
       <c r="B301" t="n">
-        <v>1.104128493498723</v>
+        <v>1.104984834864121</v>
       </c>
     </row>
     <row r="302">
@@ -2784,7 +2784,7 @@
         <v>42712</v>
       </c>
       <c r="B302" t="n">
-        <v>1.110110241865626</v>
+        <v>1.110971222562944</v>
       </c>
     </row>
     <row r="303">
@@ -2792,7 +2792,7 @@
         <v>42713</v>
       </c>
       <c r="B303" t="n">
-        <v>1.115055416260223</v>
+        <v>1.115920232342116</v>
       </c>
     </row>
     <row r="304">
@@ -2800,7 +2800,7 @@
         <v>42716</v>
       </c>
       <c r="B304" t="n">
-        <v>1.117854014359167</v>
+        <v>1.118721000981294</v>
       </c>
     </row>
     <row r="305">
@@ -2808,7 +2808,7 @@
         <v>42717</v>
       </c>
       <c r="B305" t="n">
-        <v>1.125252872051649</v>
+        <v>1.126125597089128</v>
       </c>
     </row>
     <row r="306">
@@ -2816,7 +2816,7 @@
         <v>42718</v>
       </c>
       <c r="B306" t="n">
-        <v>1.112284913867776</v>
+        <v>1.11314758119994</v>
       </c>
     </row>
     <row r="307">
@@ -2824,7 +2824,7 @@
         <v>42719</v>
       </c>
       <c r="B307" t="n">
-        <v>1.114507815051174</v>
+        <v>1.115372206423833</v>
       </c>
     </row>
     <row r="308">
@@ -2832,7 +2832,7 @@
         <v>42720</v>
       </c>
       <c r="B308" t="n">
-        <v>1.114476878638793</v>
+        <v>1.115341246017751</v>
       </c>
     </row>
     <row r="309">
@@ -2840,7 +2840,7 @@
         <v>42723</v>
       </c>
       <c r="B309" t="n">
-        <v>1.118275767981728</v>
+        <v>1.11914308170806</v>
       </c>
     </row>
     <row r="310">
@@ -2848,7 +2848,7 @@
         <v>42724</v>
       </c>
       <c r="B310" t="n">
-        <v>1.120873899955544</v>
+        <v>1.121743228744339</v>
       </c>
     </row>
     <row r="311">
@@ -2856,7 +2856,7 @@
         <v>42725</v>
       </c>
       <c r="B311" t="n">
-        <v>1.117433883188313</v>
+        <v>1.118300543964577</v>
       </c>
     </row>
     <row r="312">
@@ -2864,7 +2864,7 @@
         <v>42726</v>
       </c>
       <c r="B312" t="n">
-        <v>1.117091907577958</v>
+        <v>1.117958303124349</v>
       </c>
     </row>
     <row r="313">
@@ -2872,7 +2872,7 @@
         <v>42727</v>
       </c>
       <c r="B313" t="n">
-        <v>1.117176809508579</v>
+        <v>1.118043270903316</v>
       </c>
     </row>
     <row r="314">
@@ -2880,7 +2880,7 @@
         <v>42731</v>
       </c>
       <c r="B314" t="n">
-        <v>1.119762099418241</v>
+        <v>1.120630565915377</v>
       </c>
     </row>
     <row r="315">
@@ -2888,7 +2888,7 @@
         <v>42732</v>
       </c>
       <c r="B315" t="n">
-        <v>1.109368480108042</v>
+        <v>1.110228885508844</v>
       </c>
     </row>
     <row r="316">
@@ -2896,7 +2896,7 @@
         <v>42733</v>
       </c>
       <c r="B316" t="n">
-        <v>1.111645236432316</v>
+        <v>1.112507407642651</v>
       </c>
     </row>
     <row r="317">
@@ -2904,7 +2904,7 @@
         <v>42734</v>
       </c>
       <c r="B317" t="n">
-        <v>1.10802074632068</v>
+        <v>1.108880106444416</v>
       </c>
     </row>
     <row r="318">
@@ -2912,7 +2912,7 @@
         <v>42738</v>
       </c>
       <c r="B318" t="n">
-        <v>1.114102495179248</v>
+        <v>1.114966572193411</v>
       </c>
     </row>
     <row r="319">
@@ -2920,7 +2920,7 @@
         <v>42739</v>
       </c>
       <c r="B319" t="n">
-        <v>1.122978016523626</v>
+        <v>1.123848977225794</v>
       </c>
     </row>
     <row r="320">
@@ -2928,7 +2928,7 @@
         <v>42740</v>
       </c>
       <c r="B320" t="n">
-        <v>1.121309500652776</v>
+        <v>1.122179167285307</v>
       </c>
     </row>
     <row r="321">
@@ -2936,7 +2936,7 @@
         <v>42741</v>
       </c>
       <c r="B321" t="n">
-        <v>1.126307731040816</v>
+        <v>1.127181274207156</v>
       </c>
     </row>
     <row r="322">
@@ -2944,7 +2944,7 @@
         <v>42744</v>
       </c>
       <c r="B322" t="n">
-        <v>1.121470598276378</v>
+        <v>1.122340389853207</v>
       </c>
     </row>
     <row r="323">
@@ -2952,7 +2952,7 @@
         <v>42745</v>
       </c>
       <c r="B323" t="n">
-        <v>1.120388461365633</v>
+        <v>1.121257413657355</v>
       </c>
     </row>
     <row r="324">
@@ -2960,7 +2960,7 @@
         <v>42746</v>
       </c>
       <c r="B324" t="n">
-        <v>1.121596497802511</v>
+        <v>1.122466387024652</v>
       </c>
     </row>
     <row r="325">
@@ -2968,7 +2968,7 @@
         <v>42747</v>
       </c>
       <c r="B325" t="n">
-        <v>1.119078587814461</v>
+        <v>1.119946524192807</v>
       </c>
     </row>
     <row r="326">
@@ -2976,7 +2976,7 @@
         <v>42748</v>
       </c>
       <c r="B326" t="n">
-        <v>1.118764122848101</v>
+        <v>1.119631815333313</v>
       </c>
     </row>
     <row r="327">
@@ -2984,7 +2984,7 @@
         <v>42752</v>
       </c>
       <c r="B327" t="n">
-        <v>1.118770379547724</v>
+        <v>1.119638076885515</v>
       </c>
     </row>
     <row r="328">
@@ -2992,7 +2992,7 @@
         <v>42753</v>
       </c>
       <c r="B328" t="n">
-        <v>1.122517662038322</v>
+        <v>1.123388265698179</v>
       </c>
     </row>
     <row r="329">
@@ -3000,7 +3000,7 @@
         <v>42754</v>
       </c>
       <c r="B329" t="n">
-        <v>1.115700199070446</v>
+        <v>1.116565515233803</v>
       </c>
     </row>
     <row r="330">
@@ -3008,7 +3008,7 @@
         <v>42755</v>
       </c>
       <c r="B330" t="n">
-        <v>1.122590098744272</v>
+        <v>1.123460758584681</v>
       </c>
     </row>
     <row r="331">
@@ -3016,7 +3016,7 @@
         <v>42758</v>
       </c>
       <c r="B331" t="n">
-        <v>1.123252135409752</v>
+        <v>1.124123308713391</v>
       </c>
     </row>
     <row r="332">
@@ -3024,7 +3024,7 @@
         <v>42759</v>
       </c>
       <c r="B332" t="n">
-        <v>1.133209930766865</v>
+        <v>1.134088827149948</v>
       </c>
     </row>
     <row r="333">
@@ -3032,7 +3032,7 @@
         <v>42760</v>
       </c>
       <c r="B333" t="n">
-        <v>1.138834981592602</v>
+        <v>1.139718240659678</v>
       </c>
     </row>
     <row r="334">
@@ -3040,7 +3040,7 @@
         <v>42761</v>
       </c>
       <c r="B334" t="n">
-        <v>1.134918845359084</v>
+        <v>1.135799067144296</v>
       </c>
     </row>
     <row r="335">
@@ -3048,7 +3048,7 @@
         <v>42762</v>
       </c>
       <c r="B335" t="n">
-        <v>1.132613828477827</v>
+        <v>1.133492262535148</v>
       </c>
     </row>
     <row r="336">
@@ -3056,7 +3056,7 @@
         <v>42765</v>
       </c>
       <c r="B336" t="n">
-        <v>1.125190907991854</v>
+        <v>1.12606358497117</v>
       </c>
     </row>
     <row r="337">
@@ -3064,7 +3064,7 @@
         <v>42766</v>
       </c>
       <c r="B337" t="n">
-        <v>1.127983283003484</v>
+        <v>1.128858125696523</v>
       </c>
     </row>
     <row r="338">
@@ -3072,7 +3072,7 @@
         <v>42767</v>
       </c>
       <c r="B338" t="n">
-        <v>1.122427890021799</v>
+        <v>1.123298424056164</v>
       </c>
     </row>
     <row r="339">
@@ -3080,7 +3080,7 @@
         <v>42768</v>
       </c>
       <c r="B339" t="n">
-        <v>1.124833906023746</v>
+        <v>1.125706306119027</v>
       </c>
     </row>
     <row r="340">
@@ -3088,7 +3088,7 @@
         <v>42769</v>
       </c>
       <c r="B340" t="n">
-        <v>1.129414821577791</v>
+        <v>1.130290774545318</v>
       </c>
     </row>
     <row r="341">
@@ -3096,7 +3096,7 @@
         <v>42772</v>
       </c>
       <c r="B341" t="n">
-        <v>1.124070872528563</v>
+        <v>1.124942680829366</v>
       </c>
     </row>
     <row r="342">
@@ -3104,7 +3104,7 @@
         <v>42773</v>
       </c>
       <c r="B342" t="n">
-        <v>1.12330103180726</v>
+        <v>1.124172243034029</v>
       </c>
     </row>
     <row r="343">
@@ -3112,7 +3112,7 @@
         <v>42774</v>
       </c>
       <c r="B343" t="n">
-        <v>1.123420425797807</v>
+        <v>1.124291729624317</v>
       </c>
     </row>
     <row r="344">
@@ -3120,7 +3120,7 @@
         <v>42775</v>
       </c>
       <c r="B344" t="n">
-        <v>1.129977956196554</v>
+        <v>1.130854345920737</v>
       </c>
     </row>
     <row r="345">
@@ -3128,7 +3128,7 @@
         <v>42776</v>
       </c>
       <c r="B345" t="n">
-        <v>1.133569098761357</v>
+        <v>1.134448273708406</v>
       </c>
     </row>
     <row r="346">
@@ -3136,7 +3136,7 @@
         <v>42779</v>
       </c>
       <c r="B346" t="n">
-        <v>1.136599191520486</v>
+        <v>1.137480716550687</v>
       </c>
     </row>
     <row r="347">
@@ -3144,7 +3144,7 @@
         <v>42780</v>
       </c>
       <c r="B347" t="n">
-        <v>1.142079726288598</v>
+        <v>1.142965501918846</v>
       </c>
     </row>
     <row r="348">
@@ -3152,7 +3152,7 @@
         <v>42781</v>
       </c>
       <c r="B348" t="n">
-        <v>1.144167849686991</v>
+        <v>1.145055244826611</v>
       </c>
     </row>
     <row r="349">
@@ -3160,7 +3160,7 @@
         <v>42782</v>
       </c>
       <c r="B349" t="n">
-        <v>1.14833746982784</v>
+        <v>1.149228098846692</v>
       </c>
     </row>
     <row r="350">
@@ -3168,7 +3168,7 @@
         <v>42783</v>
       </c>
       <c r="B350" t="n">
-        <v>1.147981440443934</v>
+        <v>1.148871793333068</v>
       </c>
     </row>
     <row r="351">
@@ -3176,7 +3176,7 @@
         <v>42787</v>
       </c>
       <c r="B351" t="n">
-        <v>1.151838986580555</v>
+        <v>1.152732331310172</v>
       </c>
     </row>
     <row r="352">
@@ -3184,7 +3184,7 @@
         <v>42788</v>
       </c>
       <c r="B352" t="n">
-        <v>1.148150173268584</v>
+        <v>1.149040657023735</v>
       </c>
     </row>
     <row r="353">
@@ -3192,7 +3192,7 @@
         <v>42789</v>
       </c>
       <c r="B353" t="n">
-        <v>1.153367875710195</v>
+        <v>1.154262406217566</v>
       </c>
     </row>
     <row r="354">
@@ -3200,7 +3200,7 @@
         <v>42790</v>
       </c>
       <c r="B354" t="n">
-        <v>1.155789011811733</v>
+        <v>1.156685420106886</v>
       </c>
     </row>
     <row r="355">
@@ -3208,7 +3208,7 @@
         <v>42793</v>
       </c>
       <c r="B355" t="n">
-        <v>1.156448109125948</v>
+        <v>1.157345028604625</v>
       </c>
     </row>
     <row r="356">
@@ -3216,7 +3216,7 @@
         <v>42794</v>
       </c>
       <c r="B356" t="n">
-        <v>1.151593362591955</v>
+        <v>1.152486516820211</v>
       </c>
     </row>
     <row r="357">
@@ -3224,7 +3224,7 @@
         <v>42795</v>
       </c>
       <c r="B357" t="n">
-        <v>1.172059268153206</v>
+        <v>1.173253680642359</v>
       </c>
     </row>
     <row r="358">
@@ -3232,7 +3232,7 @@
         <v>42796</v>
       </c>
       <c r="B358" t="n">
-        <v>1.163790162829627</v>
+        <v>1.164976148507148</v>
       </c>
     </row>
     <row r="359">
@@ -3240,7 +3240,7 @@
         <v>42797</v>
       </c>
       <c r="B359" t="n">
-        <v>1.16317449998845</v>
+        <v>1.164359858261363</v>
       </c>
     </row>
     <row r="360">
@@ -3248,7 +3248,7 @@
         <v>42800</v>
       </c>
       <c r="B360" t="n">
-        <v>1.158053023500558</v>
+        <v>1.159233162621465</v>
       </c>
     </row>
     <row r="361">
@@ -3256,7 +3256,7 @@
         <v>42801</v>
       </c>
       <c r="B361" t="n">
-        <v>1.154365151038375</v>
+        <v>1.15554153195264</v>
       </c>
     </row>
     <row r="362">
@@ -3264,7 +3264,7 @@
         <v>42802</v>
       </c>
       <c r="B362" t="n">
-        <v>1.148005873236105</v>
+        <v>1.149175773590013</v>
       </c>
     </row>
     <row r="363">
@@ -3272,7 +3272,7 @@
         <v>42803</v>
       </c>
       <c r="B363" t="n">
-        <v>1.148326274310467</v>
+        <v>1.149496501176059</v>
       </c>
     </row>
     <row r="364">
@@ -3280,7 +3280,7 @@
         <v>42804</v>
       </c>
       <c r="B364" t="n">
-        <v>1.149841940489494</v>
+        <v>1.15101371192767</v>
       </c>
     </row>
     <row r="365">
@@ -3288,7 +3288,7 @@
         <v>42807</v>
       </c>
       <c r="B365" t="n">
-        <v>1.149299996535025</v>
+        <v>1.150471215693427</v>
       </c>
     </row>
     <row r="366">
@@ -3296,7 +3296,7 @@
         <v>42808</v>
       </c>
       <c r="B366" t="n">
-        <v>1.145266889526339</v>
+        <v>1.146433998659325</v>
       </c>
     </row>
     <row r="367">
@@ -3304,7 +3304,7 @@
         <v>42809</v>
       </c>
       <c r="B367" t="n">
-        <v>1.156186317284235</v>
+        <v>1.157364554097571</v>
       </c>
     </row>
     <row r="368">
@@ -3312,7 +3312,7 @@
         <v>42810</v>
       </c>
       <c r="B368" t="n">
-        <v>1.154678205793472</v>
+        <v>1.155854905732993</v>
       </c>
     </row>
     <row r="369">
@@ -3320,7 +3320,7 @@
         <v>42811</v>
       </c>
       <c r="B369" t="n">
-        <v>1.154860843341851</v>
+        <v>1.156037729402138</v>
       </c>
     </row>
     <row r="370">
@@ -3328,7 +3328,7 @@
         <v>42814</v>
       </c>
       <c r="B370" t="n">
-        <v>1.149508277504697</v>
+        <v>1.150679708916351</v>
       </c>
     </row>
     <row r="371">
@@ -3336,7 +3336,7 @@
         <v>42815</v>
       </c>
       <c r="B371" t="n">
-        <v>1.138782378924688</v>
+        <v>1.139942879876109</v>
       </c>
     </row>
     <row r="372">
@@ -3344,7 +3344,7 @@
         <v>42816</v>
       </c>
       <c r="B372" t="n">
-        <v>1.142008147690513</v>
+        <v>1.143171935931754</v>
       </c>
     </row>
     <row r="373">
@@ -3352,7 +3352,7 @@
         <v>42817</v>
       </c>
       <c r="B373" t="n">
-        <v>1.139800609966755</v>
+        <v>1.140962148568667</v>
       </c>
     </row>
     <row r="374">
@@ -3360,7 +3360,7 @@
         <v>42818</v>
       </c>
       <c r="B374" t="n">
-        <v>1.138610664047956</v>
+        <v>1.139770990009598</v>
       </c>
     </row>
     <row r="375">
@@ -3368,7 +3368,7 @@
         <v>42821</v>
       </c>
       <c r="B375" t="n">
-        <v>1.13617040121192</v>
+        <v>1.137328240370644</v>
       </c>
     </row>
     <row r="376">
@@ -3376,7 +3376,7 @@
         <v>42822</v>
       </c>
       <c r="B376" t="n">
-        <v>1.143963007992338</v>
+        <v>1.145128788376489</v>
       </c>
     </row>
     <row r="377">
@@ -3384,7 +3384,7 @@
         <v>42823</v>
       </c>
       <c r="B377" t="n">
-        <v>1.143145849460589</v>
+        <v>1.144310797101564</v>
       </c>
     </row>
     <row r="378">
@@ -3392,7 +3392,7 @@
         <v>42824</v>
       </c>
       <c r="B378" t="n">
-        <v>1.143882742348058</v>
+        <v>1.145048440935758</v>
       </c>
     </row>
     <row r="379">
@@ -3400,7 +3400,7 @@
         <v>42825</v>
       </c>
       <c r="B379" t="n">
-        <v>1.139269319694657</v>
+        <v>1.140430316873661</v>
       </c>
     </row>
     <row r="380">
@@ -3408,7 +3408,7 @@
         <v>42828</v>
       </c>
       <c r="B380" t="n">
-        <v>1.136277082257179</v>
+        <v>1.137435030131542</v>
       </c>
     </row>
     <row r="381">
@@ -3416,7 +3416,7 @@
         <v>42829</v>
       </c>
       <c r="B381" t="n">
-        <v>1.137144655834864</v>
+        <v>1.138303487828951</v>
       </c>
     </row>
     <row r="382">
@@ -3424,7 +3424,7 @@
         <v>42830</v>
       </c>
       <c r="B382" t="n">
-        <v>1.133264712893421</v>
+        <v>1.134419590947266</v>
       </c>
     </row>
     <row r="383">
@@ -3432,7 +3432,7 @@
         <v>42831</v>
       </c>
       <c r="B383" t="n">
-        <v>1.137741706523326</v>
+        <v>1.138901146954902</v>
       </c>
     </row>
     <row r="384">
@@ -3440,7 +3440,7 @@
         <v>42832</v>
       </c>
       <c r="B384" t="n">
-        <v>1.136017223315584</v>
+        <v>1.137174906375041</v>
       </c>
     </row>
     <row r="385">
@@ -3448,7 +3448,7 @@
         <v>42835</v>
       </c>
       <c r="B385" t="n">
-        <v>1.138115473864466</v>
+        <v>1.13927529519178</v>
       </c>
     </row>
     <row r="386">
@@ -3456,7 +3456,7 @@
         <v>42836</v>
       </c>
       <c r="B386" t="n">
-        <v>1.141630068859299</v>
+        <v>1.142793471811084</v>
       </c>
     </row>
     <row r="387">
@@ -3464,7 +3464,7 @@
         <v>42837</v>
       </c>
       <c r="B387" t="n">
-        <v>1.137542070830821</v>
+        <v>1.138701307819303</v>
       </c>
     </row>
     <row r="388">
@@ -3472,7 +3472,7 @@
         <v>42838</v>
       </c>
       <c r="B388" t="n">
-        <v>1.13028877455056</v>
+        <v>1.131440619909711</v>
       </c>
     </row>
     <row r="389">
@@ -3480,7 +3480,7 @@
         <v>42842</v>
       </c>
       <c r="B389" t="n">
-        <v>1.139792942733168</v>
+        <v>1.140954473521618</v>
       </c>
     </row>
     <row r="390">
@@ -3488,7 +3488,7 @@
         <v>42843</v>
       </c>
       <c r="B390" t="n">
-        <v>1.137416897423729</v>
+        <v>1.138576006851528</v>
       </c>
     </row>
     <row r="391">
@@ -3496,7 +3496,7 @@
         <v>42844</v>
       </c>
       <c r="B391" t="n">
-        <v>1.13245508928732</v>
+        <v>1.133370428314224</v>
       </c>
     </row>
     <row r="392">
@@ -3504,7 +3504,7 @@
         <v>42845</v>
       </c>
       <c r="B392" t="n">
-        <v>1.136098132931564</v>
+        <v>1.137124992462424</v>
       </c>
     </row>
     <row r="393">
@@ -3512,7 +3512,7 @@
         <v>42846</v>
       </c>
       <c r="B393" t="n">
-        <v>1.133719780151297</v>
+        <v>1.134744490013788</v>
       </c>
     </row>
     <row r="394">
@@ -3520,7 +3520,7 @@
         <v>42849</v>
       </c>
       <c r="B394" t="n">
-        <v>1.143248722365926</v>
+        <v>1.144282044939632</v>
       </c>
     </row>
     <row r="395">
@@ -3528,7 +3528,7 @@
         <v>42850</v>
       </c>
       <c r="B395" t="n">
-        <v>1.148449597631731</v>
+        <v>1.149487621003882</v>
       </c>
     </row>
     <row r="396">
@@ -3536,7 +3536,7 @@
         <v>42851</v>
       </c>
       <c r="B396" t="n">
-        <v>1.146331964214367</v>
+        <v>1.14736807356871</v>
       </c>
     </row>
     <row r="397">
@@ -3544,7 +3544,7 @@
         <v>42852</v>
       </c>
       <c r="B397" t="n">
-        <v>1.150444612349433</v>
+        <v>1.151484438910778</v>
       </c>
     </row>
     <row r="398">
@@ -3552,7 +3552,7 @@
         <v>42853</v>
       </c>
       <c r="B398" t="n">
-        <v>1.140148595864936</v>
+        <v>1.141179116396854</v>
       </c>
     </row>
     <row r="399">
@@ -3560,7 +3560,7 @@
         <v>42856</v>
       </c>
       <c r="B399" t="n">
-        <v>1.14050621663551</v>
+        <v>1.14153706040209</v>
       </c>
     </row>
     <row r="400">
@@ -3568,7 +3568,7 @@
         <v>42857</v>
       </c>
       <c r="B400" t="n">
-        <v>1.141521993233486</v>
+        <v>1.142553755107271</v>
       </c>
     </row>
     <row r="401">
@@ -3576,7 +3576,7 @@
         <v>42858</v>
       </c>
       <c r="B401" t="n">
-        <v>1.133329677761576</v>
+        <v>1.134354035030972</v>
       </c>
     </row>
     <row r="402">
@@ -3584,7 +3584,7 @@
         <v>42859</v>
       </c>
       <c r="B402" t="n">
-        <v>1.140443212232712</v>
+        <v>1.141473999052916</v>
       </c>
     </row>
     <row r="403">
@@ -3592,7 +3592,7 @@
         <v>42860</v>
       </c>
       <c r="B403" t="n">
-        <v>1.145114582081773</v>
+        <v>1.14614959110824</v>
       </c>
     </row>
     <row r="404">
@@ -3600,7 +3600,7 @@
         <v>42863</v>
       </c>
       <c r="B404" t="n">
-        <v>1.144987912243789</v>
+        <v>1.146022806780031</v>
       </c>
     </row>
     <row r="405">
@@ -3608,7 +3608,7 @@
         <v>42864</v>
       </c>
       <c r="B405" t="n">
-        <v>1.142281866367151</v>
+        <v>1.143314315050417</v>
       </c>
     </row>
     <row r="406">
@@ -3616,7 +3616,7 @@
         <v>42865</v>
       </c>
       <c r="B406" t="n">
-        <v>1.142598533476987</v>
+        <v>1.143631268379049</v>
       </c>
     </row>
     <row r="407">
@@ -3624,7 +3624,7 @@
         <v>42866</v>
       </c>
       <c r="B407" t="n">
-        <v>1.138200042005301</v>
+        <v>1.139228801341558</v>
       </c>
     </row>
     <row r="408">
@@ -3632,7 +3632,7 @@
         <v>42867</v>
       </c>
       <c r="B408" t="n">
-        <v>1.135056407192946</v>
+        <v>1.136082325162533</v>
       </c>
     </row>
     <row r="409">
@@ -3640,7 +3640,7 @@
         <v>42870</v>
       </c>
       <c r="B409" t="n">
-        <v>1.141104456801342</v>
+        <v>1.14213584128584</v>
       </c>
     </row>
     <row r="410">
@@ -3648,7 +3648,7 @@
         <v>42871</v>
       </c>
       <c r="B410" t="n">
-        <v>1.137247504672552</v>
+        <v>1.13827540306026</v>
       </c>
     </row>
     <row r="411">
@@ -3656,7 +3656,7 @@
         <v>42872</v>
       </c>
       <c r="B411" t="n">
-        <v>1.128138591314767</v>
+        <v>1.129158256633319</v>
       </c>
     </row>
     <row r="412">
@@ -3664,7 +3664,7 @@
         <v>42873</v>
       </c>
       <c r="B412" t="n">
-        <v>1.129870433470582</v>
+        <v>1.130891664110449</v>
       </c>
     </row>
     <row r="413">
@@ -3672,7 +3672,7 @@
         <v>42874</v>
       </c>
       <c r="B413" t="n">
-        <v>1.141362952249958</v>
+        <v>1.142394570374937</v>
       </c>
     </row>
     <row r="414">
@@ -3680,7 +3680,7 @@
         <v>42877</v>
       </c>
       <c r="B414" t="n">
-        <v>1.14767171779486</v>
+        <v>1.148709038082214</v>
       </c>
     </row>
     <row r="415">
@@ -3688,7 +3688,7 @@
         <v>42878</v>
       </c>
       <c r="B415" t="n">
-        <v>1.150196926874823</v>
+        <v>1.151236529566255</v>
       </c>
     </row>
     <row r="416">
@@ -3696,7 +3696,7 @@
         <v>42879</v>
       </c>
       <c r="B416" t="n">
-        <v>1.153316808887948</v>
+        <v>1.15435923147714</v>
       </c>
     </row>
     <row r="417">
@@ -3704,7 +3704,7 @@
         <v>42880</v>
       </c>
       <c r="B417" t="n">
-        <v>1.159585481069952</v>
+        <v>1.160633569583231</v>
       </c>
     </row>
     <row r="418">
@@ -3712,7 +3712,7 @@
         <v>42881</v>
       </c>
       <c r="B418" t="n">
-        <v>1.158885959383729</v>
+        <v>1.159933415636035</v>
       </c>
     </row>
     <row r="419">
@@ -3720,7 +3720,7 @@
         <v>42885</v>
       </c>
       <c r="B419" t="n">
-        <v>1.155732459266104</v>
+        <v>1.156777065235007</v>
       </c>
     </row>
     <row r="420">
@@ -3728,7 +3728,7 @@
         <v>42886</v>
       </c>
       <c r="B420" t="n">
-        <v>1.156533100541632</v>
+        <v>1.157578430168203</v>
       </c>
     </row>
     <row r="421">
@@ -3736,7 +3736,7 @@
         <v>42887</v>
       </c>
       <c r="B421" t="n">
-        <v>1.165277609932445</v>
+        <v>1.166330843262535</v>
       </c>
     </row>
     <row r="422">
@@ -3744,7 +3744,7 @@
         <v>42888</v>
       </c>
       <c r="B422" t="n">
-        <v>1.165966997325845</v>
+        <v>1.167020853757051</v>
       </c>
     </row>
     <row r="423">
@@ -3752,7 +3752,7 @@
         <v>42891</v>
       </c>
       <c r="B423" t="n">
-        <v>1.164043893067516</v>
+        <v>1.165096011305621</v>
       </c>
     </row>
     <row r="424">
@@ -3760,7 +3760,7 @@
         <v>42892</v>
       </c>
       <c r="B424" t="n">
-        <v>1.159803141264584</v>
+        <v>1.160851426509499</v>
       </c>
     </row>
     <row r="425">
@@ -3768,7 +3768,7 @@
         <v>42893</v>
       </c>
       <c r="B425" t="n">
-        <v>1.161877210894398</v>
+        <v>1.162927370782098</v>
       </c>
     </row>
     <row r="426">
@@ -3776,7 +3776,7 @@
         <v>42894</v>
       </c>
       <c r="B426" t="n">
-        <v>1.157304528602027</v>
+        <v>1.158350555481972</v>
       </c>
     </row>
     <row r="427">
@@ -3784,7 +3784,7 @@
         <v>42895</v>
       </c>
       <c r="B427" t="n">
-        <v>1.159518929877783</v>
+        <v>1.160566958238929</v>
       </c>
     </row>
     <row r="428">
@@ -3792,7 +3792,7 @@
         <v>42898</v>
       </c>
       <c r="B428" t="n">
-        <v>1.161126108681027</v>
+        <v>1.162175589686819</v>
       </c>
     </row>
     <row r="429">
@@ -3800,7 +3800,7 @@
         <v>42899</v>
       </c>
       <c r="B429" t="n">
-        <v>1.166763697903116</v>
+        <v>1.167818274430199</v>
       </c>
     </row>
     <row r="430">
@@ -3808,7 +3808,7 @@
         <v>42900</v>
       </c>
       <c r="B430" t="n">
-        <v>1.162340951535324</v>
+        <v>1.163391530573872</v>
       </c>
     </row>
     <row r="431">
@@ -3816,7 +3816,7 @@
         <v>42901</v>
       </c>
       <c r="B431" t="n">
-        <v>1.160026365834715</v>
+        <v>1.161074852840614</v>
       </c>
     </row>
     <row r="432">
@@ -3824,7 +3824,7 @@
         <v>42902</v>
       </c>
       <c r="B432" t="n">
-        <v>1.163758221934182</v>
+        <v>1.164810081969129</v>
       </c>
     </row>
     <row r="433">
@@ -3832,7 +3832,7 @@
         <v>42905</v>
       </c>
       <c r="B433" t="n">
-        <v>1.169417744755042</v>
+        <v>1.170474720135908</v>
       </c>
     </row>
     <row r="434">
@@ -3840,7 +3840,7 @@
         <v>42906</v>
       </c>
       <c r="B434" t="n">
-        <v>1.164457397159348</v>
+        <v>1.165509889142119</v>
       </c>
     </row>
     <row r="435">
@@ -3848,7 +3848,7 @@
         <v>42907</v>
       </c>
       <c r="B435" t="n">
-        <v>1.161414154968479</v>
+        <v>1.162463896324208</v>
       </c>
     </row>
     <row r="436">
@@ -3856,7 +3856,7 @@
         <v>42908</v>
       </c>
       <c r="B436" t="n">
-        <v>1.160440329420777</v>
+        <v>1.161489190586656</v>
       </c>
     </row>
     <row r="437">
@@ -3864,7 +3864,7 @@
         <v>42909</v>
       </c>
       <c r="B437" t="n">
-        <v>1.164381038498198</v>
+        <v>1.16543346146438</v>
       </c>
     </row>
     <row r="438">
@@ -3872,7 +3872,7 @@
         <v>42912</v>
       </c>
       <c r="B438" t="n">
-        <v>1.166804756352716</v>
+        <v>1.167859369990379</v>
       </c>
     </row>
     <row r="439">
@@ -3880,7 +3880,7 @@
         <v>42913</v>
       </c>
       <c r="B439" t="n">
-        <v>1.160023312925659</v>
+        <v>1.161071797172194</v>
       </c>
     </row>
     <row r="440">
@@ -3888,7 +3888,7 @@
         <v>42914</v>
       </c>
       <c r="B440" t="n">
-        <v>1.165884325011616</v>
+        <v>1.166938106719652</v>
       </c>
     </row>
     <row r="441">
@@ -3896,7 +3896,7 @@
         <v>42915</v>
       </c>
       <c r="B441" t="n">
-        <v>1.1574994376218</v>
+        <v>1.158545640669788</v>
       </c>
     </row>
     <row r="442">
@@ -3904,7 +3904,7 @@
         <v>42916</v>
       </c>
       <c r="B442" t="n">
-        <v>1.159386924041533</v>
+        <v>1.160434833089524</v>
       </c>
     </row>
     <row r="443">
@@ -3912,7 +3912,7 @@
         <v>42919</v>
       </c>
       <c r="B443" t="n">
-        <v>1.163095336562502</v>
+        <v>1.16414659745012</v>
       </c>
     </row>
     <row r="444">
@@ -3920,7 +3920,7 @@
         <v>42921</v>
       </c>
       <c r="B444" t="n">
-        <v>1.159893106604384</v>
+        <v>1.160941473164252</v>
       </c>
     </row>
     <row r="445">
@@ -3928,7 +3928,7 @@
         <v>42922</v>
       </c>
       <c r="B445" t="n">
-        <v>1.148291169417174</v>
+        <v>1.149329049594369</v>
       </c>
     </row>
     <row r="446">
@@ -3936,7 +3936,7 @@
         <v>42923</v>
       </c>
       <c r="B446" t="n">
-        <v>1.156832804968586</v>
+        <v>1.157878405482273</v>
       </c>
     </row>
     <row r="447">
@@ -3944,7 +3944,7 @@
         <v>42926</v>
       </c>
       <c r="B447" t="n">
-        <v>1.154673491510023</v>
+        <v>1.155717140333498</v>
       </c>
     </row>
     <row r="448">
@@ -3952,7 +3952,7 @@
         <v>42927</v>
       </c>
       <c r="B448" t="n">
-        <v>1.15221220236229</v>
+        <v>1.153253626555564</v>
       </c>
     </row>
     <row r="449">
@@ -3960,7 +3960,7 @@
         <v>42928</v>
       </c>
       <c r="B449" t="n">
-        <v>1.163485537324324</v>
+        <v>1.16453715089395</v>
       </c>
     </row>
     <row r="450">
@@ -3968,7 +3968,7 @@
         <v>42929</v>
       </c>
       <c r="B450" t="n">
-        <v>1.164857880516553</v>
+        <v>1.165910734475232</v>
       </c>
     </row>
     <row r="451">
@@ -3976,7 +3976,7 @@
         <v>42930</v>
       </c>
       <c r="B451" t="n">
-        <v>1.169545347043893</v>
+        <v>1.170602437757777</v>
       </c>
     </row>
     <row r="452">
@@ -3984,7 +3984,7 @@
         <v>42933</v>
       </c>
       <c r="B452" t="n">
-        <v>1.170124572374564</v>
+        <v>1.171182186619853</v>
       </c>
     </row>
     <row r="453">
@@ -3992,7 +3992,7 @@
         <v>42934</v>
       </c>
       <c r="B453" t="n">
-        <v>1.169579254930589</v>
+        <v>1.170636376292034</v>
       </c>
     </row>
     <row r="454">
@@ -4000,7 +4000,7 @@
         <v>42935</v>
       </c>
       <c r="B454" t="n">
-        <v>1.17718863225709</v>
+        <v>1.178252631335702</v>
       </c>
     </row>
     <row r="455">
@@ -4008,7 +4008,7 @@
         <v>42936</v>
       </c>
       <c r="B455" t="n">
-        <v>1.178128976429573</v>
+        <v>1.179193825435974</v>
       </c>
     </row>
     <row r="456">
@@ -4016,7 +4016,7 @@
         <v>42937</v>
       </c>
       <c r="B456" t="n">
-        <v>1.182108399559314</v>
+        <v>1.18317684535762</v>
       </c>
     </row>
     <row r="457">
@@ -4024,7 +4024,7 @@
         <v>42940</v>
       </c>
       <c r="B457" t="n">
-        <v>1.180382655703626</v>
+        <v>1.181449541692551</v>
       </c>
     </row>
     <row r="458">
@@ -4032,7 +4032,7 @@
         <v>42941</v>
       </c>
       <c r="B458" t="n">
-        <v>1.182499927715978</v>
+        <v>1.183568727396056</v>
       </c>
     </row>
     <row r="459">
@@ -4040,7 +4040,7 @@
         <v>42942</v>
       </c>
       <c r="B459" t="n">
-        <v>1.179029791862545</v>
+        <v>1.180095455068783</v>
       </c>
     </row>
     <row r="460">
@@ -4048,7 +4048,7 @@
         <v>42943</v>
       </c>
       <c r="B460" t="n">
-        <v>1.181783301803839</v>
+        <v>1.182851453763332</v>
       </c>
     </row>
     <row r="461">
@@ -4056,7 +4056,7 @@
         <v>42944</v>
       </c>
       <c r="B461" t="n">
-        <v>1.171614640789252</v>
+        <v>1.17267360182925</v>
       </c>
     </row>
     <row r="462">
@@ -4064,7 +4064,7 @@
         <v>42947</v>
       </c>
       <c r="B462" t="n">
-        <v>1.171788825299413</v>
+        <v>1.172847943775656</v>
       </c>
     </row>
     <row r="463">
@@ -4072,7 +4072,7 @@
         <v>42948</v>
       </c>
       <c r="B463" t="n">
-        <v>1.175210246129719</v>
+        <v>1.176272457048847</v>
       </c>
     </row>
     <row r="464">
@@ -4080,7 +4080,7 @@
         <v>42949</v>
       </c>
       <c r="B464" t="n">
-        <v>1.174433526560816</v>
+        <v>1.175495035443853</v>
       </c>
     </row>
     <row r="465">
@@ -4088,7 +4088,7 @@
         <v>42950</v>
       </c>
       <c r="B465" t="n">
-        <v>1.166017849630928</v>
+        <v>1.167071752024866</v>
       </c>
     </row>
     <row r="466">
@@ -4096,7 +4096,7 @@
         <v>42951</v>
       </c>
       <c r="B466" t="n">
-        <v>1.166411550500819</v>
+        <v>1.16746580874033</v>
       </c>
     </row>
     <row r="467">
@@ -4104,7 +4104,7 @@
         <v>42954</v>
       </c>
       <c r="B467" t="n">
-        <v>1.167514248376057</v>
+        <v>1.168569503286357</v>
       </c>
     </row>
     <row r="468">
@@ -4112,7 +4112,7 @@
         <v>42955</v>
       </c>
       <c r="B468" t="n">
-        <v>1.160213844371614</v>
+        <v>1.161262500829532</v>
       </c>
     </row>
     <row r="469">
@@ -4120,7 +4120,7 @@
         <v>42956</v>
       </c>
       <c r="B469" t="n">
-        <v>1.15799255833133</v>
+        <v>1.159039207085269</v>
       </c>
     </row>
     <row r="470">
@@ -4128,7 +4128,7 @@
         <v>42957</v>
       </c>
       <c r="B470" t="n">
-        <v>1.143725391771406</v>
+        <v>1.144759145181593</v>
       </c>
     </row>
     <row r="471">
@@ -4136,7 +4136,7 @@
         <v>42958</v>
       </c>
       <c r="B471" t="n">
-        <v>1.142360561441551</v>
+        <v>1.143393081253168</v>
       </c>
     </row>
     <row r="472">
@@ -4144,7 +4144,7 @@
         <v>42961</v>
       </c>
       <c r="B472" t="n">
-        <v>1.149612303598517</v>
+        <v>1.150651377879624</v>
       </c>
     </row>
     <row r="473">
@@ -4152,7 +4152,7 @@
         <v>42962</v>
       </c>
       <c r="B473" t="n">
-        <v>1.148978262887834</v>
+        <v>1.150016764092789</v>
       </c>
     </row>
     <row r="474">
@@ -4160,7 +4160,7 @@
         <v>42963</v>
       </c>
       <c r="B474" t="n">
-        <v>1.150700714109332</v>
+        <v>1.151740772147629</v>
       </c>
     </row>
     <row r="475">
@@ -4168,7 +4168,7 @@
         <v>42964</v>
       </c>
       <c r="B475" t="n">
-        <v>1.136654056252817</v>
+        <v>1.137681418253616</v>
       </c>
     </row>
     <row r="476">
@@ -4176,7 +4176,7 @@
         <v>42965</v>
       </c>
       <c r="B476" t="n">
-        <v>1.134811675891542</v>
+        <v>1.135837372661338</v>
       </c>
     </row>
     <row r="477">
@@ -4184,7 +4184,7 @@
         <v>42968</v>
       </c>
       <c r="B477" t="n">
-        <v>1.139475296779458</v>
+        <v>1.140505208751637</v>
       </c>
     </row>
     <row r="478">
@@ -4192,7 +4192,7 @@
         <v>42969</v>
       </c>
       <c r="B478" t="n">
-        <v>1.149441293531132</v>
+        <v>1.150480213245206</v>
       </c>
     </row>
     <row r="479">
@@ -4200,7 +4200,7 @@
         <v>42970</v>
       </c>
       <c r="B479" t="n">
-        <v>1.148535624527564</v>
+        <v>1.149573725654914</v>
       </c>
     </row>
     <row r="480">
@@ -4208,7 +4208,7 @@
         <v>42971</v>
       </c>
       <c r="B480" t="n">
-        <v>1.147654382893708</v>
+        <v>1.148691687512954</v>
       </c>
     </row>
     <row r="481">
@@ -4216,7 +4216,7 @@
         <v>42972</v>
       </c>
       <c r="B481" t="n">
-        <v>1.153849684743138</v>
+        <v>1.154892588970874</v>
       </c>
     </row>
     <row r="482">
@@ -4224,7 +4224,7 @@
         <v>42975</v>
       </c>
       <c r="B482" t="n">
-        <v>1.153781103597759</v>
+        <v>1.154823945838594</v>
       </c>
     </row>
     <row r="483">
@@ -4232,7 +4232,7 @@
         <v>42976</v>
       </c>
       <c r="B483" t="n">
-        <v>1.152895189772196</v>
+        <v>1.153937231281977</v>
       </c>
     </row>
     <row r="484">
@@ -4240,7 +4240,7 @@
         <v>42977</v>
       </c>
       <c r="B484" t="n">
-        <v>1.155265009462819</v>
+        <v>1.156309192928356</v>
       </c>
     </row>
     <row r="485">
@@ -4248,7 +4248,7 @@
         <v>42978</v>
       </c>
       <c r="B485" t="n">
-        <v>1.161024381962057</v>
+        <v>1.162073771022403</v>
       </c>
     </row>
     <row r="486">
@@ -4256,7 +4256,7 @@
         <v>42979</v>
       </c>
       <c r="B486" t="n">
-        <v>1.162578873261143</v>
+        <v>1.163629667344664</v>
       </c>
     </row>
     <row r="487">
@@ -4264,7 +4264,7 @@
         <v>42983</v>
       </c>
       <c r="B487" t="n">
-        <v>1.154079693914083</v>
+        <v>1.155122806035048</v>
       </c>
     </row>
     <row r="488">
@@ -4272,7 +4272,7 @@
         <v>42984</v>
       </c>
       <c r="B488" t="n">
-        <v>1.161713068628248</v>
+        <v>1.16276308015636</v>
       </c>
     </row>
     <row r="489">
@@ -4280,7 +4280,7 @@
         <v>42985</v>
       </c>
       <c r="B489" t="n">
-        <v>1.160364940434316</v>
+        <v>1.161413733460043</v>
       </c>
     </row>
     <row r="490">
@@ -4288,7 +4288,7 @@
         <v>42986</v>
       </c>
       <c r="B490" t="n">
-        <v>1.159905109818145</v>
+        <v>1.160953487227088</v>
       </c>
     </row>
     <row r="491">
@@ -4296,7 +4296,7 @@
         <v>42989</v>
       </c>
       <c r="B491" t="n">
-        <v>1.169289735768857</v>
+        <v>1.170346595449113</v>
       </c>
     </row>
     <row r="492">
@@ -4304,7 +4304,7 @@
         <v>42990</v>
       </c>
       <c r="B492" t="n">
-        <v>1.169304413343099</v>
+        <v>1.170361286289645</v>
       </c>
     </row>
     <row r="493">
@@ -4312,7 +4312,7 @@
         <v>42991</v>
       </c>
       <c r="B493" t="n">
-        <v>1.168064880980266</v>
+        <v>1.169120633578504</v>
       </c>
     </row>
     <row r="494">
@@ -4320,7 +4320,7 @@
         <v>42992</v>
       </c>
       <c r="B494" t="n">
-        <v>1.16278078355306</v>
+        <v>1.163831760132707</v>
       </c>
     </row>
     <row r="495">
@@ -4328,7 +4328,7 @@
         <v>42993</v>
       </c>
       <c r="B495" t="n">
-        <v>1.164663276034029</v>
+        <v>1.16571595409992</v>
       </c>
     </row>
     <row r="496">
@@ -4336,7 +4336,7 @@
         <v>42996</v>
       </c>
       <c r="B496" t="n">
-        <v>1.1654902080336</v>
+        <v>1.166543633519965</v>
       </c>
     </row>
     <row r="497">
@@ -4344,7 +4344,7 @@
         <v>42997</v>
       </c>
       <c r="B497" t="n">
-        <v>1.163956518618169</v>
+        <v>1.165008557883091</v>
       </c>
     </row>
     <row r="498">
@@ -4352,7 +4352,7 @@
         <v>42998</v>
       </c>
       <c r="B498" t="n">
-        <v>1.164349889792298</v>
+        <v>1.165402284604798</v>
       </c>
     </row>
     <row r="499">
@@ -4360,7 +4360,7 @@
         <v>42999</v>
       </c>
       <c r="B499" t="n">
-        <v>1.166106901717086</v>
+        <v>1.167160884600535</v>
       </c>
     </row>
     <row r="500">
@@ -4368,7 +4368,7 @@
         <v>43000</v>
       </c>
       <c r="B500" t="n">
-        <v>1.163810951205158</v>
+        <v>1.164862858899328</v>
       </c>
     </row>
     <row r="501">
@@ -4376,7 +4376,7 @@
         <v>43003</v>
       </c>
       <c r="B501" t="n">
-        <v>1.167743103993801</v>
+        <v>1.168798565754694</v>
       </c>
     </row>
     <row r="502">
@@ -4384,7 +4384,7 @@
         <v>43004</v>
       </c>
       <c r="B502" t="n">
-        <v>1.167838927317172</v>
+        <v>1.168894475687742</v>
       </c>
     </row>
     <row r="503">
@@ -4392,7 +4392,7 @@
         <v>43005</v>
       </c>
       <c r="B503" t="n">
-        <v>1.173278814061758</v>
+        <v>1.174339279260715</v>
       </c>
     </row>
     <row r="504">
@@ -4400,7 +4400,7 @@
         <v>43006</v>
       </c>
       <c r="B504" t="n">
-        <v>1.173510732461434</v>
+        <v>1.174571407279272</v>
       </c>
     </row>
     <row r="505">
@@ -4408,7 +4408,7 @@
         <v>43007</v>
       </c>
       <c r="B505" t="n">
-        <v>1.177427787668481</v>
+        <v>1.178492002907129</v>
       </c>
     </row>
     <row r="506">
@@ -4416,7 +4416,7 @@
         <v>43010</v>
       </c>
       <c r="B506" t="n">
-        <v>1.180084172758348</v>
+        <v>1.18115078896419</v>
       </c>
     </row>
     <row r="507">
@@ -4424,7 +4424,7 @@
         <v>43011</v>
       </c>
       <c r="B507" t="n">
-        <v>1.18520809995475</v>
+        <v>1.186279347409712</v>
       </c>
     </row>
     <row r="508">
@@ -4432,7 +4432,7 @@
         <v>43012</v>
       </c>
       <c r="B508" t="n">
-        <v>1.18685181722899</v>
+        <v>1.187924550353807</v>
       </c>
     </row>
     <row r="509">
@@ -4440,7 +4440,7 @@
         <v>43013</v>
       </c>
       <c r="B509" t="n">
-        <v>1.192603117178798</v>
+        <v>1.193681048602069</v>
       </c>
     </row>
     <row r="510">
@@ -4448,7 +4448,7 @@
         <v>43014</v>
       </c>
       <c r="B510" t="n">
-        <v>1.185324042492665</v>
+        <v>1.186395394742007</v>
       </c>
     </row>
     <row r="511">
@@ -4456,7 +4456,7 @@
         <v>43017</v>
       </c>
       <c r="B511" t="n">
-        <v>1.18394296280343</v>
+        <v>1.185013066767258</v>
       </c>
     </row>
     <row r="512">
@@ -4464,7 +4464,7 @@
         <v>43018</v>
       </c>
       <c r="B512" t="n">
-        <v>1.18789642867246</v>
+        <v>1.188970105966786</v>
       </c>
     </row>
     <row r="513">
@@ -4472,7 +4472,7 @@
         <v>43019</v>
       </c>
       <c r="B513" t="n">
-        <v>1.190239508977597</v>
+        <v>1.19131530405935</v>
       </c>
     </row>
     <row r="514">
@@ -4480,7 +4480,7 @@
         <v>43020</v>
       </c>
       <c r="B514" t="n">
-        <v>1.192508909597136</v>
+        <v>1.193586755871114</v>
       </c>
     </row>
     <row r="515">
@@ -4488,7 +4488,7 @@
         <v>43021</v>
       </c>
       <c r="B515" t="n">
-        <v>1.193367123523308</v>
+        <v>1.194445745491852</v>
       </c>
     </row>
     <row r="516">
@@ -4496,7 +4496,7 @@
         <v>43024</v>
       </c>
       <c r="B516" t="n">
-        <v>1.193239801643089</v>
+        <v>1.194318308532063</v>
       </c>
     </row>
     <row r="517">
@@ -4504,7 +4504,7 @@
         <v>43025</v>
       </c>
       <c r="B517" t="n">
-        <v>1.189484251969707</v>
+        <v>1.190559364414254</v>
       </c>
     </row>
     <row r="518">
@@ -4512,7 +4512,7 @@
         <v>43026</v>
       </c>
       <c r="B518" t="n">
-        <v>1.188159476836644</v>
+        <v>1.189233391886413</v>
       </c>
     </row>
     <row r="519">
@@ -4520,7 +4520,7 @@
         <v>43027</v>
       </c>
       <c r="B519" t="n">
-        <v>1.189433373115692</v>
+        <v>1.190508439573511</v>
       </c>
     </row>
     <row r="520">
@@ -4528,7 +4528,7 @@
         <v>43028</v>
       </c>
       <c r="B520" t="n">
-        <v>1.193439278824058</v>
+        <v>1.194517966009996</v>
       </c>
     </row>
     <row r="521">
@@ -4536,7 +4536,7 @@
         <v>43031</v>
       </c>
       <c r="B521" t="n">
-        <v>1.188580508475545</v>
+        <v>1.189654804073735</v>
       </c>
     </row>
     <row r="522">
@@ -4544,7 +4544,7 @@
         <v>43032</v>
       </c>
       <c r="B522" t="n">
-        <v>1.190914299219361</v>
+        <v>1.191990704208632</v>
       </c>
     </row>
     <row r="523">
@@ -4552,7 +4552,7 @@
         <v>43033</v>
       </c>
       <c r="B523" t="n">
-        <v>1.18860719142922</v>
+        <v>1.189607713601035</v>
       </c>
     </row>
     <row r="524">
@@ -4560,7 +4560,7 @@
         <v>43034</v>
       </c>
       <c r="B524" t="n">
-        <v>1.195045434245347</v>
+        <v>1.196051375873423</v>
       </c>
     </row>
     <row r="525">
@@ -4568,7 +4568,7 @@
         <v>43035</v>
       </c>
       <c r="B525" t="n">
-        <v>1.200031682758869</v>
+        <v>1.201041821612259</v>
       </c>
     </row>
     <row r="526">
@@ -4576,7 +4576,7 @@
         <v>43038</v>
       </c>
       <c r="B526" t="n">
-        <v>1.197922337902354</v>
+        <v>1.198930701193294</v>
       </c>
     </row>
     <row r="527">
@@ -4584,7 +4584,7 @@
         <v>43039</v>
       </c>
       <c r="B527" t="n">
-        <v>1.201278659766207</v>
+        <v>1.202289848275154</v>
       </c>
     </row>
     <row r="528">
@@ -4592,7 +4592,7 @@
         <v>43040</v>
       </c>
       <c r="B528" t="n">
-        <v>1.203528591286501</v>
+        <v>1.20454167369815</v>
       </c>
     </row>
     <row r="529">
@@ -4600,7 +4600,7 @@
         <v>43041</v>
       </c>
       <c r="B529" t="n">
-        <v>1.203334413774351</v>
+        <v>1.204347332735107</v>
       </c>
     </row>
     <row r="530">
@@ -4608,7 +4608,7 @@
         <v>43042</v>
       </c>
       <c r="B530" t="n">
-        <v>1.205603514362862</v>
+        <v>1.206618343362078</v>
       </c>
     </row>
     <row r="531">
@@ -4616,7 +4616,7 @@
         <v>43045</v>
       </c>
       <c r="B531" t="n">
-        <v>1.21315208517535</v>
+        <v>1.214173268260691</v>
       </c>
     </row>
     <row r="532">
@@ -4624,7 +4624,7 @@
         <v>43046</v>
       </c>
       <c r="B532" t="n">
-        <v>1.212391129374485</v>
+        <v>1.213411671917554</v>
       </c>
     </row>
     <row r="533">
@@ -4632,7 +4632,7 @@
         <v>43047</v>
       </c>
       <c r="B533" t="n">
-        <v>1.21325041168991</v>
+        <v>1.214271677542593</v>
       </c>
     </row>
     <row r="534">
@@ -4640,7 +4640,7 @@
         <v>43048</v>
       </c>
       <c r="B534" t="n">
-        <v>1.20877638722081</v>
+        <v>1.209660614012249</v>
       </c>
     </row>
     <row r="535">
@@ -4648,7 +4648,7 @@
         <v>43049</v>
       </c>
       <c r="B535" t="n">
-        <v>1.205872940974891</v>
+        <v>1.206755043878914</v>
       </c>
     </row>
     <row r="536">
@@ -4656,7 +4656,7 @@
         <v>43052</v>
       </c>
       <c r="B536" t="n">
-        <v>1.207614742796958</v>
+        <v>1.208498119838905</v>
       </c>
     </row>
     <row r="537">
@@ -4664,7 +4664,7 @@
         <v>43053</v>
       </c>
       <c r="B537" t="n">
-        <v>1.201908786002232</v>
+        <v>1.202787989104382</v>
       </c>
     </row>
     <row r="538">
@@ -4672,7 +4672,7 @@
         <v>43054</v>
       </c>
       <c r="B538" t="n">
-        <v>1.195424048727108</v>
+        <v>1.196298508207116</v>
       </c>
     </row>
     <row r="539">
@@ -4680,7 +4680,7 @@
         <v>43055</v>
       </c>
       <c r="B539" t="n">
-        <v>1.203837092954384</v>
+        <v>1.204717706624019</v>
       </c>
     </row>
     <row r="540">
@@ -4688,7 +4688,7 @@
         <v>43056</v>
       </c>
       <c r="B540" t="n">
-        <v>1.202686527880759</v>
+        <v>1.203566299905509</v>
       </c>
     </row>
     <row r="541">
@@ -4696,7 +4696,7 @@
         <v>43059</v>
       </c>
       <c r="B541" t="n">
-        <v>1.203223564590287</v>
+        <v>1.204103729460439</v>
       </c>
     </row>
     <row r="542">
@@ -4704,7 +4704,7 @@
         <v>43060</v>
       </c>
       <c r="B542" t="n">
-        <v>1.210615704256319</v>
+        <v>1.211501276518614</v>
       </c>
     </row>
     <row r="543">
@@ -4712,7 +4712,7 @@
         <v>43061</v>
       </c>
       <c r="B543" t="n">
-        <v>1.208117583003418</v>
+        <v>1.20900132787583</v>
       </c>
     </row>
     <row r="544">
@@ -4720,7 +4720,7 @@
         <v>43063</v>
       </c>
       <c r="B544" t="n">
-        <v>1.209989195661787</v>
+        <v>1.210874309629487</v>
       </c>
     </row>
     <row r="545">
@@ -4728,7 +4728,7 @@
         <v>43066</v>
       </c>
       <c r="B545" t="n">
-        <v>1.194023900211332</v>
+        <v>1.195067630618877</v>
       </c>
     </row>
     <row r="546">
@@ -4736,7 +4736,7 @@
         <v>43067</v>
       </c>
       <c r="B546" t="n">
-        <v>1.203189199143885</v>
+        <v>1.20401206087739</v>
       </c>
     </row>
     <row r="547">
@@ -4744,7 +4744,7 @@
         <v>43068</v>
       </c>
       <c r="B547" t="n">
-        <v>1.194912601274988</v>
+        <v>1.195019095103309</v>
       </c>
     </row>
     <row r="548">
@@ -4752,7 +4752,7 @@
         <v>43069</v>
       </c>
       <c r="B548" t="n">
-        <v>1.204193455336072</v>
+        <v>1.204300776299096</v>
       </c>
     </row>
     <row r="549">
@@ -4760,7 +4760,7 @@
         <v>43070</v>
       </c>
       <c r="B549" t="n">
-        <v>1.199024934055479</v>
+        <v>1.19913179438597</v>
       </c>
     </row>
     <row r="550">
@@ -4768,7 +4768,7 @@
         <v>43073</v>
       </c>
       <c r="B550" t="n">
-        <v>1.203378306587464</v>
+        <v>1.203473817427502</v>
       </c>
     </row>
     <row r="551">
@@ -4776,7 +4776,7 @@
         <v>43074</v>
       </c>
       <c r="B551" t="n">
-        <v>1.196265679766796</v>
+        <v>1.196360626085304</v>
       </c>
     </row>
     <row r="552">
@@ -4784,7 +4784,7 @@
         <v>43075</v>
       </c>
       <c r="B552" t="n">
-        <v>1.193816928982328</v>
+        <v>1.193911680946124</v>
       </c>
     </row>
     <row r="553">
@@ -4792,7 +4792,7 @@
         <v>43076</v>
       </c>
       <c r="B553" t="n">
-        <v>1.197575721759927</v>
+        <v>1.197670772055058</v>
       </c>
     </row>
     <row r="554">
@@ -4800,7 +4800,7 @@
         <v>43077</v>
       </c>
       <c r="B554" t="n">
-        <v>1.205807951389454</v>
+        <v>1.205903655067783</v>
       </c>
     </row>
     <row r="555">
@@ -4808,7 +4808,7 @@
         <v>43080</v>
       </c>
       <c r="B555" t="n">
-        <v>1.209042019767432</v>
+        <v>1.209137980130284</v>
       </c>
     </row>
     <row r="556">
@@ -4816,7 +4816,7 @@
         <v>43081</v>
       </c>
       <c r="B556" t="n">
-        <v>1.210342635070498</v>
+        <v>1.210438698661786</v>
       </c>
     </row>
     <row r="557">
@@ -4824,7 +4824,7 @@
         <v>43082</v>
       </c>
       <c r="B557" t="n">
-        <v>1.208483489230947</v>
+        <v>1.208579405263832</v>
       </c>
     </row>
     <row r="558">
@@ -4832,7 +4832,7 @@
         <v>43083</v>
       </c>
       <c r="B558" t="n">
-        <v>1.205671129474474</v>
+        <v>1.205766822293395</v>
       </c>
     </row>
     <row r="559">
@@ -4840,7 +4840,7 @@
         <v>43084</v>
       </c>
       <c r="B559" t="n">
-        <v>1.216703971522998</v>
+        <v>1.216800540006709</v>
       </c>
     </row>
     <row r="560">
@@ -4848,7 +4848,7 @@
         <v>43087</v>
       </c>
       <c r="B560" t="n">
-        <v>1.224375816055705</v>
+        <v>1.224472993445453</v>
       </c>
     </row>
     <row r="561">
@@ -4856,7 +4856,7 @@
         <v>43088</v>
       </c>
       <c r="B561" t="n">
-        <v>1.221957628859072</v>
+        <v>1.222054614319907</v>
       </c>
     </row>
     <row r="562">
@@ -4864,7 +4864,7 @@
         <v>43089</v>
       </c>
       <c r="B562" t="n">
-        <v>1.218335068675158</v>
+        <v>1.218431766617292</v>
       </c>
     </row>
     <row r="563">
@@ -4872,7 +4872,7 @@
         <v>43090</v>
       </c>
       <c r="B563" t="n">
-        <v>1.217805771933854</v>
+        <v>1.217902427866277</v>
       </c>
     </row>
     <row r="564">
@@ -4880,7 +4880,7 @@
         <v>43091</v>
       </c>
       <c r="B564" t="n">
-        <v>1.221052055494179</v>
+        <v>1.221148969080631</v>
       </c>
     </row>
     <row r="565">
@@ -4888,7 +4888,7 @@
         <v>43095</v>
       </c>
       <c r="B565" t="n">
-        <v>1.223390351731129</v>
+        <v>1.223487450905635</v>
       </c>
     </row>
     <row r="566">
@@ -4896,7 +4896,7 @@
         <v>43096</v>
       </c>
       <c r="B566" t="n">
-        <v>1.224009385023552</v>
+        <v>1.224106533330064</v>
       </c>
     </row>
     <row r="567">
@@ -4904,7 +4904,7 @@
         <v>43097</v>
       </c>
       <c r="B567" t="n">
-        <v>1.226527718093589</v>
+        <v>1.226625066277484</v>
       </c>
     </row>
     <row r="568">
@@ -4912,7 +4912,7 @@
         <v>43098</v>
       </c>
       <c r="B568" t="n">
-        <v>1.220489338730416</v>
+        <v>1.220586207654644</v>
       </c>
     </row>
     <row r="569">
@@ -4920,7 +4920,7 @@
         <v>43102</v>
       </c>
       <c r="B569" t="n">
-        <v>1.22764119388055</v>
+        <v>1.227738630439819</v>
       </c>
     </row>
     <row r="570">
@@ -4928,7 +4928,7 @@
         <v>43103</v>
       </c>
       <c r="B570" t="n">
-        <v>1.234293652626153</v>
+        <v>1.234391617183906</v>
       </c>
     </row>
     <row r="571">
@@ -4936,7 +4936,7 @@
         <v>43104</v>
       </c>
       <c r="B571" t="n">
-        <v>1.236154539325891</v>
+        <v>1.236252651580218</v>
       </c>
     </row>
     <row r="572">
@@ -4944,7 +4944,7 @@
         <v>43105</v>
       </c>
       <c r="B572" t="n">
-        <v>1.244302264891719</v>
+        <v>1.244401023822248</v>
       </c>
     </row>
     <row r="573">
@@ -4952,7 +4952,7 @@
         <v>43108</v>
       </c>
       <c r="B573" t="n">
-        <v>1.243495384494783</v>
+        <v>1.243594079384083</v>
       </c>
     </row>
     <row r="574">
@@ -4960,7 +4960,7 @@
         <v>43109</v>
       </c>
       <c r="B574" t="n">
-        <v>1.242432303599807</v>
+        <v>1.242530914113522</v>
       </c>
     </row>
     <row r="575">
@@ -4968,7 +4968,7 @@
         <v>43110</v>
       </c>
       <c r="B575" t="n">
-        <v>1.240136735538228</v>
+        <v>1.240235163855179</v>
       </c>
     </row>
     <row r="576">
@@ -4976,7 +4976,7 @@
         <v>43111</v>
       </c>
       <c r="B576" t="n">
-        <v>1.245257914909916</v>
+        <v>1.245356749689357</v>
       </c>
     </row>
     <row r="577">
@@ -4984,7 +4984,7 @@
         <v>43112</v>
       </c>
       <c r="B577" t="n">
-        <v>1.251303966137594</v>
+        <v>1.251403280785609</v>
       </c>
     </row>
     <row r="578">
@@ -4992,7 +4992,7 @@
         <v>43116</v>
       </c>
       <c r="B578" t="n">
-        <v>1.245908931231193</v>
+        <v>1.246007817681099</v>
       </c>
     </row>
     <row r="579">
@@ -5000,7 +5000,7 @@
         <v>43117</v>
       </c>
       <c r="B579" t="n">
-        <v>1.253461931211003</v>
+        <v>1.253561417134381</v>
       </c>
     </row>
     <row r="580">
@@ -5008,7 +5008,7 @@
         <v>43118</v>
       </c>
       <c r="B580" t="n">
-        <v>1.246642103682427</v>
+        <v>1.246741048323441</v>
       </c>
     </row>
     <row r="581">
@@ -5016,7 +5016,7 @@
         <v>43119</v>
       </c>
       <c r="B581" t="n">
-        <v>1.256155182298996</v>
+        <v>1.256254881982813</v>
       </c>
     </row>
     <row r="582">
@@ -5024,7 +5024,7 @@
         <v>43122</v>
       </c>
       <c r="B582" t="n">
-        <v>1.268453479891261</v>
+        <v>1.268554155677711</v>
       </c>
     </row>
     <row r="583">
@@ -5032,7 +5032,7 @@
         <v>43123</v>
       </c>
       <c r="B583" t="n">
-        <v>1.273334021208534</v>
+        <v>1.273435084358292</v>
       </c>
     </row>
     <row r="584">
@@ -5040,7 +5040,7 @@
         <v>43124</v>
       </c>
       <c r="B584" t="n">
-        <v>1.266917819027599</v>
+        <v>1.2670183729303</v>
       </c>
     </row>
     <row r="585">
@@ -5048,7 +5048,7 @@
         <v>43125</v>
       </c>
       <c r="B585" t="n">
-        <v>1.264823368498325</v>
+        <v>1.264923756166744</v>
       </c>
     </row>
     <row r="586">
@@ -5056,7 +5056,7 @@
         <v>43126</v>
       </c>
       <c r="B586" t="n">
-        <v>1.278267489962821</v>
+        <v>1.278368944676679</v>
       </c>
     </row>
     <row r="587">
@@ -5064,7 +5064,7 @@
         <v>43129</v>
       </c>
       <c r="B587" t="n">
-        <v>1.268269659855825</v>
+        <v>1.268370321052676</v>
       </c>
     </row>
     <row r="588">
@@ -5072,7 +5072,7 @@
         <v>43130</v>
       </c>
       <c r="B588" t="n">
-        <v>1.252880119110614</v>
+        <v>1.252979558856193</v>
       </c>
     </row>
     <row r="589">
@@ -5080,7 +5080,7 @@
         <v>43131</v>
       </c>
       <c r="B589" t="n">
-        <v>1.250354962186773</v>
+        <v>1.250454201513366</v>
       </c>
     </row>
     <row r="590">
@@ -5088,7 +5088,7 @@
         <v>43132</v>
       </c>
       <c r="B590" t="n">
-        <v>1.249181989825765</v>
+        <v>1.249281136054806</v>
       </c>
     </row>
     <row r="591">
@@ -5096,7 +5096,7 @@
         <v>43133</v>
       </c>
       <c r="B591" t="n">
-        <v>1.22789336103661</v>
+        <v>1.227990817610113</v>
       </c>
     </row>
     <row r="592">
@@ -5104,7 +5104,7 @@
         <v>43136</v>
       </c>
       <c r="B592" t="n">
-        <v>1.180223420011163</v>
+        <v>1.180317093072793</v>
       </c>
     </row>
     <row r="593">
@@ -5112,7 +5112,7 @@
         <v>43137</v>
       </c>
       <c r="B593" t="n">
-        <v>1.196487062828641</v>
+        <v>1.196582026718084</v>
       </c>
     </row>
     <row r="594">
@@ -5120,7 +5120,7 @@
         <v>43138</v>
       </c>
       <c r="B594" t="n">
-        <v>1.193808137254432</v>
+        <v>1.193902888520437</v>
       </c>
     </row>
     <row r="595">
@@ -5128,7 +5128,7 @@
         <v>43139</v>
       </c>
       <c r="B595" t="n">
-        <v>1.149090680544336</v>
+        <v>1.149181882633967</v>
       </c>
     </row>
     <row r="596">
@@ -5136,7 +5136,7 @@
         <v>43140</v>
       </c>
       <c r="B596" t="n">
-        <v>1.164945505066488</v>
+        <v>1.165037965536464</v>
       </c>
     </row>
     <row r="597">
@@ -5144,7 +5144,7 @@
         <v>43143</v>
       </c>
       <c r="B597" t="n">
-        <v>1.180960932103457</v>
+        <v>1.181054663700627</v>
       </c>
     </row>
     <row r="598">
@@ -5152,7 +5152,7 @@
         <v>43144</v>
       </c>
       <c r="B598" t="n">
-        <v>1.182019386022944</v>
+        <v>1.182113201628461</v>
       </c>
     </row>
     <row r="599">
@@ -5160,7 +5160,7 @@
         <v>43145</v>
       </c>
       <c r="B599" t="n">
-        <v>1.196538692950738</v>
+        <v>1.196633660938007</v>
       </c>
     </row>
     <row r="600">
@@ -5168,7 +5168,7 @@
         <v>43146</v>
       </c>
       <c r="B600" t="n">
-        <v>1.206146567751247</v>
+        <v>1.206242298305191</v>
       </c>
     </row>
     <row r="601">
@@ -5176,7 +5176,7 @@
         <v>43147</v>
       </c>
       <c r="B601" t="n">
-        <v>1.212242152237311</v>
+        <v>1.212338366591229</v>
       </c>
     </row>
     <row r="602">
@@ -5184,7 +5184,7 @@
         <v>43151</v>
       </c>
       <c r="B602" t="n">
-        <v>1.20321617606941</v>
+        <v>1.203311674041322</v>
       </c>
     </row>
     <row r="603">
@@ -5192,7 +5192,7 @@
         <v>43152</v>
       </c>
       <c r="B603" t="n">
-        <v>1.202582767363855</v>
+        <v>1.202681789455152</v>
       </c>
     </row>
     <row r="604">
@@ -5200,7 +5200,7 @@
         <v>43153</v>
       </c>
       <c r="B604" t="n">
-        <v>1.202953095186062</v>
+        <v>1.20305214777059</v>
       </c>
     </row>
     <row r="605">
@@ -5208,7 +5208,7 @@
         <v>43154</v>
       </c>
       <c r="B605" t="n">
-        <v>1.222444012484375</v>
+        <v>1.222544669974149</v>
       </c>
     </row>
     <row r="606">
@@ -5216,7 +5216,7 @@
         <v>43157</v>
       </c>
       <c r="B606" t="n">
-        <v>1.23208891113064</v>
+        <v>1.232190362792808</v>
       </c>
     </row>
     <row r="607">
@@ -5224,7 +5224,7 @@
         <v>43158</v>
       </c>
       <c r="B607" t="n">
-        <v>1.215506713800734</v>
+        <v>1.215606800065107</v>
       </c>
     </row>
     <row r="608">
@@ -5232,7 +5232,7 @@
         <v>43159</v>
       </c>
       <c r="B608" t="n">
-        <v>1.206002921596685</v>
+        <v>1.206102225307537</v>
       </c>
     </row>
     <row r="609">
@@ -5240,7 +5240,7 @@
         <v>43160</v>
       </c>
       <c r="B609" t="n">
-        <v>1.194159543032814</v>
+        <v>1.194257871545829</v>
       </c>
     </row>
     <row r="610">
@@ -5248,7 +5248,7 @@
         <v>43161</v>
       </c>
       <c r="B610" t="n">
-        <v>1.200978007308015</v>
+        <v>1.201076897261465</v>
       </c>
     </row>
     <row r="611">
@@ -5256,7 +5256,7 @@
         <v>43164</v>
       </c>
       <c r="B611" t="n">
-        <v>1.214827284277318</v>
+        <v>1.214927314596659</v>
       </c>
     </row>
     <row r="612">
@@ -5264,7 +5264,7 @@
         <v>43165</v>
       </c>
       <c r="B612" t="n">
-        <v>1.21844314211821</v>
+        <v>1.218543470171574</v>
       </c>
     </row>
     <row r="613">
@@ -5272,7 +5272,7 @@
         <v>43166</v>
       </c>
       <c r="B613" t="n">
-        <v>1.216757890307966</v>
+        <v>1.216858079595697</v>
       </c>
     </row>
     <row r="614">
@@ -5280,7 +5280,7 @@
         <v>43167</v>
       </c>
       <c r="B614" t="n">
-        <v>1.225254211194212</v>
+        <v>1.225355100079081</v>
       </c>
     </row>
     <row r="615">
@@ -5288,7 +5288,7 @@
         <v>43168</v>
       </c>
       <c r="B615" t="n">
-        <v>1.242801499172635</v>
+        <v>1.242903832922007</v>
       </c>
     </row>
     <row r="616">
@@ -5296,7 +5296,7 @@
         <v>43171</v>
       </c>
       <c r="B616" t="n">
-        <v>1.24500347980762</v>
+        <v>1.245105994870689</v>
       </c>
     </row>
     <row r="617">
@@ -5304,7 +5304,7 @@
         <v>43172</v>
       </c>
       <c r="B617" t="n">
-        <v>1.238671825042323</v>
+        <v>1.238773818749429</v>
       </c>
     </row>
     <row r="618">
@@ -5312,7 +5312,7 @@
         <v>43173</v>
       </c>
       <c r="B618" t="n">
-        <v>1.231288503114227</v>
+        <v>1.231271085616345</v>
       </c>
     </row>
     <row r="619">
@@ -5320,7 +5320,7 @@
         <v>43174</v>
       </c>
       <c r="B619" t="n">
-        <v>1.228345304598907</v>
+        <v>1.228327928734773</v>
       </c>
     </row>
     <row r="620">
@@ -5328,7 +5328,7 @@
         <v>43175</v>
       </c>
       <c r="B620" t="n">
-        <v>1.230570240609424</v>
+        <v>1.230552833271903</v>
       </c>
     </row>
     <row r="621">
@@ -5336,7 +5336,7 @@
         <v>43178</v>
       </c>
       <c r="B621" t="n">
-        <v>1.213542413423255</v>
+        <v>1.213525246957101</v>
       </c>
     </row>
     <row r="622">
@@ -5344,7 +5344,7 @@
         <v>43179</v>
       </c>
       <c r="B622" t="n">
-        <v>1.212685231785777</v>
+        <v>1.212668077445099</v>
       </c>
     </row>
     <row r="623">
@@ -5352,7 +5352,7 @@
         <v>43180</v>
       </c>
       <c r="B623" t="n">
-        <v>1.211380505686656</v>
+        <v>1.211363369802305</v>
       </c>
     </row>
     <row r="624">
@@ -5360,7 +5360,7 @@
         <v>43181</v>
       </c>
       <c r="B624" t="n">
-        <v>1.185145338157186</v>
+        <v>1.185128573388925</v>
       </c>
     </row>
     <row r="625">
@@ -5368,7 +5368,7 @@
         <v>43182</v>
       </c>
       <c r="B625" t="n">
-        <v>1.162529211633818</v>
+        <v>1.162512766787603</v>
       </c>
     </row>
     <row r="626">
@@ -5376,7 +5376,7 @@
         <v>43185</v>
       </c>
       <c r="B626" t="n">
-        <v>1.185498499490272</v>
+        <v>1.18548172972628</v>
       </c>
     </row>
     <row r="627">
@@ -5384,7 +5384,7 @@
         <v>43186</v>
       </c>
       <c r="B627" t="n">
-        <v>1.169053455190357</v>
+        <v>1.16903691805383</v>
       </c>
     </row>
     <row r="628">
@@ -5392,7 +5392,7 @@
         <v>43187</v>
       </c>
       <c r="B628" t="n">
-        <v>1.171609556951407</v>
+        <v>1.171726979798221</v>
       </c>
     </row>
     <row r="629">
@@ -5400,7 +5400,7 @@
         <v>43188</v>
       </c>
       <c r="B629" t="n">
-        <v>1.183423739101241</v>
+        <v>1.183542346007106</v>
       </c>
     </row>
     <row r="630">
@@ -5408,7 +5408,7 @@
         <v>43192</v>
       </c>
       <c r="B630" t="n">
-        <v>1.156603448278769</v>
+        <v>1.156719367160384</v>
       </c>
     </row>
     <row r="631">
@@ -5416,7 +5416,7 @@
         <v>43193</v>
       </c>
       <c r="B631" t="n">
-        <v>1.16918089530707</v>
+        <v>1.169298074744838</v>
       </c>
     </row>
     <row r="632">
@@ -5424,7 +5424,7 @@
         <v>43194</v>
       </c>
       <c r="B632" t="n">
-        <v>1.177945792361282</v>
+        <v>1.178063850247981</v>
       </c>
     </row>
     <row r="633">
@@ -5432,7 +5432,7 @@
         <v>43195</v>
       </c>
       <c r="B633" t="n">
-        <v>1.187321146646996</v>
+        <v>1.187440144164807</v>
       </c>
     </row>
     <row r="634">
@@ -5440,7 +5440,7 @@
         <v>43196</v>
       </c>
       <c r="B634" t="n">
-        <v>1.164487142304957</v>
+        <v>1.164603851318225</v>
       </c>
     </row>
     <row r="635">
@@ -5448,7 +5448,7 @@
         <v>43199</v>
       </c>
       <c r="B635" t="n">
-        <v>1.167938753753467</v>
+        <v>1.168144616132003</v>
       </c>
     </row>
     <row r="636">
@@ -5456,7 +5456,7 @@
         <v>43200</v>
       </c>
       <c r="B636" t="n">
-        <v>1.184085840447062</v>
+        <v>1.184294548931751</v>
       </c>
     </row>
     <row r="637">
@@ -5464,7 +5464,7 @@
         <v>43201</v>
       </c>
       <c r="B637" t="n">
-        <v>1.180627793313423</v>
+        <v>1.180835892278301</v>
       </c>
     </row>
     <row r="638">
@@ -5472,7 +5472,7 @@
         <v>43202</v>
       </c>
       <c r="B638" t="n">
-        <v>1.182602723720506</v>
+        <v>1.182893859506297</v>
       </c>
     </row>
     <row r="639">
@@ -5480,7 +5480,7 @@
         <v>43203</v>
       </c>
       <c r="B639" t="n">
-        <v>1.18042162283502</v>
+        <v>1.180712221672513</v>
       </c>
     </row>
     <row r="640">
@@ -5488,7 +5488,7 @@
         <v>43206</v>
       </c>
       <c r="B640" t="n">
-        <v>1.189877202748493</v>
+        <v>1.190170129381814</v>
       </c>
     </row>
     <row r="641">
@@ -5496,7 +5496,7 @@
         <v>43207</v>
       </c>
       <c r="B641" t="n">
-        <v>1.199950101748054</v>
+        <v>1.200245508150199</v>
       </c>
     </row>
     <row r="642">
@@ -5504,7 +5504,7 @@
         <v>43208</v>
       </c>
       <c r="B642" t="n">
-        <v>1.202130681072036</v>
+        <v>1.202426624294081</v>
       </c>
     </row>
     <row r="643">
@@ -5512,7 +5512,7 @@
         <v>43209</v>
       </c>
       <c r="B643" t="n">
-        <v>1.196363044967127</v>
+        <v>1.196657568299604</v>
       </c>
     </row>
     <row r="644">
@@ -5520,7 +5520,7 @@
         <v>43210</v>
       </c>
       <c r="B644" t="n">
-        <v>1.187833555767314</v>
+        <v>1.188125979291047</v>
       </c>
     </row>
     <row r="645">
@@ -5528,7 +5528,7 @@
         <v>43213</v>
       </c>
       <c r="B645" t="n">
-        <v>1.180859737110615</v>
+        <v>1.181107399021067</v>
       </c>
     </row>
     <row r="646">
@@ -5536,7 +5536,7 @@
         <v>43214</v>
       </c>
       <c r="B646" t="n">
-        <v>1.168049502578442</v>
+        <v>1.168294477796259</v>
       </c>
     </row>
     <row r="647">
@@ -5544,7 +5544,7 @@
         <v>43215</v>
       </c>
       <c r="B647" t="n">
-        <v>1.171751387793409</v>
+        <v>1.171997139408233</v>
       </c>
     </row>
     <row r="648">
@@ -5552,7 +5552,7 @@
         <v>43216</v>
       </c>
       <c r="B648" t="n">
-        <v>1.183576773006742</v>
+        <v>1.183825004761587</v>
       </c>
     </row>
     <row r="649">
@@ -5560,7 +5560,7 @@
         <v>43217</v>
       </c>
       <c r="B649" t="n">
-        <v>1.18653511623703</v>
+        <v>1.186783968445697</v>
       </c>
     </row>
     <row r="650">
@@ -5568,7 +5568,7 @@
         <v>43220</v>
       </c>
       <c r="B650" t="n">
-        <v>1.178423921924452</v>
+        <v>1.178671072970976</v>
       </c>
     </row>
     <row r="651">
@@ -5576,7 +5576,7 @@
         <v>43221</v>
       </c>
       <c r="B651" t="n">
-        <v>1.179691303068358</v>
+        <v>1.179938719922942</v>
       </c>
     </row>
     <row r="652">
@@ -5584,7 +5584,7 @@
         <v>43222</v>
       </c>
       <c r="B652" t="n">
-        <v>1.171311243914325</v>
+        <v>1.171556903217698</v>
       </c>
     </row>
     <row r="653">
@@ -5592,7 +5592,7 @@
         <v>43223</v>
       </c>
       <c r="B653" t="n">
-        <v>1.163503175714472</v>
+        <v>1.163747197430395</v>
       </c>
     </row>
     <row r="654">
@@ -5600,7 +5600,7 @@
         <v>43224</v>
       </c>
       <c r="B654" t="n">
-        <v>1.177632486815465</v>
+        <v>1.177879471874172</v>
       </c>
     </row>
     <row r="655">
@@ -5608,7 +5608,7 @@
         <v>43227</v>
       </c>
       <c r="B655" t="n">
-        <v>1.178408001565558</v>
+        <v>1.178655149273104</v>
       </c>
     </row>
     <row r="656">
@@ -5616,7 +5616,7 @@
         <v>43228</v>
       </c>
       <c r="B656" t="n">
-        <v>1.175561219166521</v>
+        <v>1.175807769817917</v>
       </c>
     </row>
     <row r="657">
@@ -5624,7 +5624,7 @@
         <v>43229</v>
       </c>
       <c r="B657" t="n">
-        <v>1.184477131598909</v>
+        <v>1.184725552186112</v>
       </c>
     </row>
     <row r="658">
@@ -5632,7 +5632,7 @@
         <v>43230</v>
       </c>
       <c r="B658" t="n">
-        <v>1.191997953504312</v>
+        <v>1.192247951434754</v>
       </c>
     </row>
     <row r="659">
@@ -5640,7 +5640,7 @@
         <v>43231</v>
       </c>
       <c r="B659" t="n">
-        <v>1.197079189001867</v>
+        <v>1.197330252620681</v>
       </c>
     </row>
     <row r="660">
@@ -5648,7 +5648,7 @@
         <v>43234</v>
       </c>
       <c r="B660" t="n">
-        <v>1.198603467947838</v>
+        <v>1.19885485125393</v>
       </c>
     </row>
     <row r="661">
@@ -5656,7 +5656,7 @@
         <v>43235</v>
       </c>
       <c r="B661" t="n">
-        <v>1.191820838843067</v>
+        <v>1.192070799627221</v>
       </c>
     </row>
     <row r="662">
@@ -5664,7 +5664,7 @@
         <v>43236</v>
       </c>
       <c r="B662" t="n">
-        <v>1.19722811746753</v>
+        <v>1.197479212321136</v>
       </c>
     </row>
     <row r="663">
@@ -5672,7 +5672,7 @@
         <v>43237</v>
       </c>
       <c r="B663" t="n">
-        <v>1.200457579752287</v>
+        <v>1.200709351921558</v>
       </c>
     </row>
     <row r="664">
@@ -5680,7 +5680,7 @@
         <v>43238</v>
       </c>
       <c r="B664" t="n">
-        <v>1.199096814597685</v>
+        <v>1.199348301373452</v>
       </c>
     </row>
     <row r="665">
@@ -5688,7 +5688,7 @@
         <v>43241</v>
       </c>
       <c r="B665" t="n">
-        <v>1.205374300336159</v>
+        <v>1.205627103690061</v>
       </c>
     </row>
     <row r="666">
@@ -5696,7 +5696,7 @@
         <v>43242</v>
       </c>
       <c r="B666" t="n">
-        <v>1.203449793180484</v>
+        <v>1.203702192907179</v>
       </c>
     </row>
     <row r="667">
@@ -5704,7 +5704,7 @@
         <v>43243</v>
       </c>
       <c r="B667" t="n">
-        <v>1.202542691328612</v>
+        <v>1.202794900808683</v>
       </c>
     </row>
     <row r="668">
@@ -5712,7 +5712,7 @@
         <v>43244</v>
       </c>
       <c r="B668" t="n">
-        <v>1.199808360435604</v>
+        <v>1.200059996443999</v>
       </c>
     </row>
     <row r="669">
@@ -5720,7 +5720,7 @@
         <v>43245</v>
       </c>
       <c r="B669" t="n">
-        <v>1.199536338980075</v>
+        <v>1.199787917937365</v>
       </c>
     </row>
     <row r="670">
@@ -5728,7 +5728,7 @@
         <v>43249</v>
       </c>
       <c r="B670" t="n">
-        <v>1.185923762874487</v>
+        <v>1.186172486863911</v>
       </c>
     </row>
     <row r="671">
@@ -5736,7 +5736,7 @@
         <v>43250</v>
       </c>
       <c r="B671" t="n">
-        <v>1.199677790024002</v>
+        <v>1.199929398647843</v>
       </c>
     </row>
     <row r="672">
@@ -5744,7 +5744,7 @@
         <v>43251</v>
       </c>
       <c r="B672" t="n">
-        <v>1.194397481985615</v>
+        <v>1.194647983169567</v>
       </c>
     </row>
     <row r="673">
@@ -5752,7 +5752,7 @@
         <v>43252</v>
       </c>
       <c r="B673" t="n">
-        <v>1.20589820474932</v>
+        <v>1.206151117981783</v>
       </c>
     </row>
     <row r="674">
@@ -5760,7 +5760,7 @@
         <v>43255</v>
       </c>
       <c r="B674" t="n">
-        <v>1.212763725375714</v>
+        <v>1.213018078514969</v>
       </c>
     </row>
     <row r="675">
@@ -5768,7 +5768,7 @@
         <v>43256</v>
       </c>
       <c r="B675" t="n">
-        <v>1.216026979545118</v>
+        <v>1.216282017087216</v>
       </c>
     </row>
     <row r="676">
@@ -5776,7 +5776,7 @@
         <v>43257</v>
       </c>
       <c r="B676" t="n">
-        <v>1.225994735780963</v>
+        <v>1.226251863862246</v>
       </c>
     </row>
     <row r="677">
@@ -5784,7 +5784,7 @@
         <v>43258</v>
       </c>
       <c r="B677" t="n">
-        <v>1.225224532618733</v>
+        <v>1.225481499165177</v>
       </c>
     </row>
     <row r="678">
@@ -5792,7 +5792,7 @@
         <v>43259</v>
       </c>
       <c r="B678" t="n">
-        <v>1.230763121391778</v>
+        <v>1.231021249547374</v>
       </c>
     </row>
     <row r="679">
@@ -5800,7 +5800,7 @@
         <v>43262</v>
       </c>
       <c r="B679" t="n">
-        <v>1.233186686496822</v>
+        <v>1.233445322947132</v>
       </c>
     </row>
     <row r="680">
@@ -5808,7 +5808,7 @@
         <v>43263</v>
       </c>
       <c r="B680" t="n">
-        <v>1.23507995799883</v>
+        <v>1.23533899152529</v>
       </c>
     </row>
     <row r="681">
@@ -5816,7 +5816,7 @@
         <v>43264</v>
       </c>
       <c r="B681" t="n">
-        <v>1.232779065173908</v>
+        <v>1.233037616133731</v>
       </c>
     </row>
     <row r="682">
@@ -5824,7 +5824,7 @@
         <v>43265</v>
       </c>
       <c r="B682" t="n">
-        <v>1.236393746377892</v>
+        <v>1.236653055445409</v>
       </c>
     </row>
     <row r="683">
@@ -5832,7 +5832,7 @@
         <v>43266</v>
       </c>
       <c r="B683" t="n">
-        <v>1.236736766302385</v>
+        <v>1.236996147311529</v>
       </c>
     </row>
     <row r="684">
@@ -5840,7 +5840,7 @@
         <v>43269</v>
       </c>
       <c r="B684" t="n">
-        <v>1.233468217362399</v>
+        <v>1.233726912858226</v>
       </c>
     </row>
     <row r="685">
@@ -5848,7 +5848,7 @@
         <v>43270</v>
       </c>
       <c r="B685" t="n">
-        <v>1.233297244951048</v>
+        <v>1.233555904588803</v>
       </c>
     </row>
     <row r="686">
@@ -5856,7 +5856,7 @@
         <v>43271</v>
       </c>
       <c r="B686" t="n">
-        <v>1.237396998624763</v>
+        <v>1.237656518104542</v>
       </c>
     </row>
     <row r="687">
@@ -5864,7 +5864,7 @@
         <v>43272</v>
       </c>
       <c r="B687" t="n">
-        <v>1.231811109188627</v>
+        <v>1.232069457138879</v>
       </c>
     </row>
     <row r="688">
@@ -5872,7 +5872,7 @@
         <v>43273</v>
       </c>
       <c r="B688" t="n">
-        <v>1.238690638497588</v>
+        <v>1.238950429292674</v>
       </c>
     </row>
     <row r="689">
@@ -5880,7 +5880,7 @@
         <v>43276</v>
       </c>
       <c r="B689" t="n">
-        <v>1.222623394092157</v>
+        <v>1.222879815101383</v>
       </c>
     </row>
     <row r="690">
@@ -5888,7 +5888,7 @@
         <v>43277</v>
       </c>
       <c r="B690" t="n">
-        <v>1.220280510688948</v>
+        <v>1.220536440324845</v>
       </c>
     </row>
     <row r="691">
@@ -5896,7 +5896,7 @@
         <v>43278</v>
       </c>
       <c r="B691" t="n">
-        <v>1.206352840585316</v>
+        <v>1.206605849168629</v>
       </c>
     </row>
     <row r="692">
@@ -5904,7 +5904,7 @@
         <v>43279</v>
       </c>
       <c r="B692" t="n">
-        <v>1.210480463629985</v>
+        <v>1.210734337900371</v>
       </c>
     </row>
     <row r="693">
@@ -5912,7 +5912,7 @@
         <v>43280</v>
       </c>
       <c r="B693" t="n">
-        <v>1.212267008120784</v>
+        <v>1.212521257083445</v>
       </c>
     </row>
     <row r="694">
@@ -5920,7 +5920,7 @@
         <v>43283</v>
       </c>
       <c r="B694" t="n">
-        <v>1.211285657755764</v>
+        <v>1.211539700899649</v>
       </c>
     </row>
     <row r="695">
@@ -5928,7 +5928,7 @@
         <v>43284</v>
       </c>
       <c r="B695" t="n">
-        <v>1.208028423263188</v>
+        <v>1.208281783266737</v>
       </c>
     </row>
     <row r="696">
@@ -5936,7 +5936,7 @@
         <v>43286</v>
       </c>
       <c r="B696" t="n">
-        <v>1.215470157756472</v>
+        <v>1.215725078516243</v>
       </c>
     </row>
     <row r="697">
@@ -5944,7 +5944,7 @@
         <v>43287</v>
       </c>
       <c r="B697" t="n">
-        <v>1.22412106318055</v>
+        <v>1.224377798296164</v>
       </c>
     </row>
     <row r="698">
@@ -5952,7 +5952,7 @@
         <v>43290</v>
       </c>
       <c r="B698" t="n">
-        <v>1.235044576001828</v>
+        <v>1.235303602107616</v>
       </c>
     </row>
     <row r="699">
@@ -5960,7 +5960,7 @@
         <v>43291</v>
       </c>
       <c r="B699" t="n">
-        <v>1.2367900562571</v>
+        <v>1.237049448442755</v>
       </c>
     </row>
     <row r="700">
@@ -5968,7 +5968,7 @@
         <v>43292</v>
       </c>
       <c r="B700" t="n">
-        <v>1.231860546026601</v>
+        <v>1.232118904345249</v>
       </c>
     </row>
     <row r="701">
@@ -5976,7 +5976,7 @@
         <v>43293</v>
       </c>
       <c r="B701" t="n">
-        <v>1.239476030454781</v>
+        <v>1.239735985970254</v>
       </c>
     </row>
     <row r="702">
@@ -5984,7 +5984,7 @@
         <v>43294</v>
       </c>
       <c r="B702" t="n">
-        <v>1.241692964944302</v>
+        <v>1.241953385417818</v>
       </c>
     </row>
     <row r="703">
@@ -5992,7 +5992,7 @@
         <v>43297</v>
       </c>
       <c r="B703" t="n">
-        <v>1.235897643494586</v>
+        <v>1.236156848514363</v>
       </c>
     </row>
     <row r="704">
@@ -6000,7 +6000,7 @@
         <v>43298</v>
       </c>
       <c r="B704" t="n">
-        <v>1.240706724398347</v>
+        <v>1.240966938027467</v>
       </c>
     </row>
     <row r="705">
@@ -6008,7 +6008,7 @@
         <v>43299</v>
       </c>
       <c r="B705" t="n">
-        <v>1.243372848732651</v>
+        <v>1.243633621528474</v>
       </c>
     </row>
     <row r="706">
@@ -6016,7 +6016,7 @@
         <v>43300</v>
       </c>
       <c r="B706" t="n">
-        <v>1.244452402881697</v>
+        <v>1.244713402092593</v>
       </c>
     </row>
     <row r="707">
@@ -6024,7 +6024,7 @@
         <v>43301</v>
       </c>
       <c r="B707" t="n">
-        <v>1.239886414812846</v>
+        <v>1.240146456398299</v>
       </c>
     </row>
     <row r="708">
@@ -6032,7 +6032,7 @@
         <v>43304</v>
       </c>
       <c r="B708" t="n">
-        <v>1.243966597873381</v>
+        <v>1.244227495196311</v>
       </c>
     </row>
     <row r="709">
@@ -6040,7 +6040,7 @@
         <v>43305</v>
       </c>
       <c r="B709" t="n">
-        <v>1.244611209363502</v>
+        <v>1.244872241880908</v>
       </c>
     </row>
     <row r="710">
@@ -6048,7 +6048,7 @@
         <v>43306</v>
       </c>
       <c r="B710" t="n">
-        <v>1.260687976890884</v>
+        <v>1.260952381191436</v>
       </c>
     </row>
     <row r="711">
@@ -6056,7 +6056,7 @@
         <v>43307</v>
       </c>
       <c r="B711" t="n">
-        <v>1.258003567103773</v>
+        <v>1.258267408402611</v>
       </c>
     </row>
     <row r="712">
@@ -6064,7 +6064,7 @@
         <v>43308</v>
       </c>
       <c r="B712" t="n">
-        <v>1.247300827739305</v>
+        <v>1.247562424350824</v>
       </c>
     </row>
     <row r="713">
@@ -6072,7 +6072,7 @@
         <v>43311</v>
       </c>
       <c r="B713" t="n">
-        <v>1.235174229369921</v>
+        <v>1.235433282667932</v>
       </c>
     </row>
     <row r="714">
@@ -6080,7 +6080,7 @@
         <v>43312</v>
       </c>
       <c r="B714" t="n">
-        <v>1.239397314624856</v>
+        <v>1.239657253631245</v>
       </c>
     </row>
     <row r="715">
@@ -6088,7 +6088,7 @@
         <v>43313</v>
       </c>
       <c r="B715" t="n">
-        <v>1.235780242027865</v>
+        <v>1.236039422425013</v>
       </c>
     </row>
     <row r="716">
@@ -6096,7 +6096,7 @@
         <v>43314</v>
       </c>
       <c r="B716" t="n">
-        <v>1.239748463942161</v>
+        <v>1.240008476595155</v>
       </c>
     </row>
     <row r="717">
@@ -6104,7 +6104,7 @@
         <v>43315</v>
       </c>
       <c r="B717" t="n">
-        <v>1.242791407551453</v>
+        <v>1.24305205840152</v>
       </c>
     </row>
     <row r="718">
@@ -6112,7 +6112,7 @@
         <v>43318</v>
       </c>
       <c r="B718" t="n">
-        <v>1.243766962244188</v>
+        <v>1.244027817697504</v>
       </c>
     </row>
     <row r="719">
@@ -6120,7 +6120,7 @@
         <v>43319</v>
       </c>
       <c r="B719" t="n">
-        <v>1.244984781667153</v>
+        <v>1.245245892533941</v>
       </c>
     </row>
     <row r="720">
@@ -6128,7 +6128,7 @@
         <v>43320</v>
       </c>
       <c r="B720" t="n">
-        <v>1.242546514262582</v>
+        <v>1.242807113751139</v>
       </c>
     </row>
     <row r="721">
@@ -6136,7 +6136,7 @@
         <v>43321</v>
       </c>
       <c r="B721" t="n">
-        <v>1.243965023543867</v>
+        <v>1.244225920536613</v>
       </c>
     </row>
     <row r="722">
@@ -6144,7 +6144,7 @@
         <v>43322</v>
       </c>
       <c r="B722" t="n">
-        <v>1.238166750927547</v>
+        <v>1.238426431847606</v>
       </c>
     </row>
     <row r="723">
@@ -6152,7 +6152,7 @@
         <v>43325</v>
       </c>
       <c r="B723" t="n">
-        <v>1.234279152004497</v>
+        <v>1.234538017577782</v>
       </c>
     </row>
     <row r="724">
@@ -6160,7 +6160,7 @@
         <v>43326</v>
       </c>
       <c r="B724" t="n">
-        <v>1.240734814355214</v>
+        <v>1.240995033875646</v>
       </c>
     </row>
     <row r="725">
@@ -6168,7 +6168,7 @@
         <v>43327</v>
       </c>
       <c r="B725" t="n">
-        <v>1.230996156220113</v>
+        <v>1.231254333250144</v>
       </c>
     </row>
     <row r="726">
@@ -6176,7 +6176,7 @@
         <v>43328</v>
       </c>
       <c r="B726" t="n">
-        <v>1.238073260190504</v>
+        <v>1.238332921502735</v>
       </c>
     </row>
     <row r="727">
@@ -6184,7 +6184,7 @@
         <v>43329</v>
       </c>
       <c r="B727" t="n">
-        <v>1.24491147469933</v>
+        <v>1.245172570191436</v>
       </c>
     </row>
     <row r="728">
@@ -6192,7 +6192,7 @@
         <v>43332</v>
       </c>
       <c r="B728" t="n">
-        <v>1.247596785998401</v>
+        <v>1.247858444681295</v>
       </c>
     </row>
     <row r="729">
@@ -6200,7 +6200,7 @@
         <v>43333</v>
       </c>
       <c r="B729" t="n">
-        <v>1.250032354655588</v>
+        <v>1.250294524150705</v>
       </c>
     </row>
     <row r="730">
@@ -6208,7 +6208,7 @@
         <v>43334</v>
       </c>
       <c r="B730" t="n">
-        <v>1.250565958697058</v>
+        <v>1.25082824010504</v>
       </c>
     </row>
     <row r="731">
@@ -6216,7 +6216,7 @@
         <v>43335</v>
       </c>
       <c r="B731" t="n">
-        <v>1.248003969577981</v>
+        <v>1.248265713659556</v>
       </c>
     </row>
     <row r="732">
@@ -6224,7 +6224,7 @@
         <v>43336</v>
       </c>
       <c r="B732" t="n">
-        <v>1.252762184001425</v>
+        <v>1.253024926024107</v>
       </c>
     </row>
     <row r="733">
@@ -6232,7 +6232,7 @@
         <v>43339</v>
       </c>
       <c r="B733" t="n">
-        <v>1.259660286286241</v>
+        <v>1.259924475049071</v>
       </c>
     </row>
     <row r="734">
@@ -6240,7 +6240,7 @@
         <v>43340</v>
       </c>
       <c r="B734" t="n">
-        <v>1.260437680608</v>
+        <v>1.260702032413871</v>
       </c>
     </row>
     <row r="735">
@@ -6248,7 +6248,7 @@
         <v>43341</v>
       </c>
       <c r="B735" t="n">
-        <v>1.268526975726848</v>
+        <v>1.26879302410194</v>
       </c>
     </row>
     <row r="736">
@@ -6256,7 +6256,7 @@
         <v>43342</v>
       </c>
       <c r="B736" t="n">
-        <v>1.261980674563407</v>
+        <v>1.262245349981659</v>
       </c>
     </row>
     <row r="737">
@@ -6264,7 +6264,7 @@
         <v>43343</v>
       </c>
       <c r="B737" t="n">
-        <v>1.261733789360766</v>
+        <v>1.261998412999743</v>
       </c>
     </row>
     <row r="738">
@@ -6272,7 +6272,7 @@
         <v>43347</v>
       </c>
       <c r="B738" t="n">
-        <v>1.259364786274375</v>
+        <v>1.259628913061938</v>
       </c>
     </row>
     <row r="739">
@@ -6280,7 +6280,7 @@
         <v>43348</v>
       </c>
       <c r="B739" t="n">
-        <v>1.254894901306355</v>
+        <v>1.255158090624195</v>
       </c>
     </row>
     <row r="740">
@@ -6288,7 +6288,7 @@
         <v>43349</v>
       </c>
       <c r="B740" t="n">
-        <v>1.253586749121669</v>
+        <v>1.253849664080532</v>
       </c>
     </row>
     <row r="741">
@@ -6296,7 +6296,7 @@
         <v>43350</v>
       </c>
       <c r="B741" t="n">
-        <v>1.250364345896721</v>
+        <v>1.250626585020416</v>
       </c>
     </row>
     <row r="742">
@@ -6304,7 +6304,7 @@
         <v>43353</v>
       </c>
       <c r="B742" t="n">
-        <v>1.252726042489499</v>
+        <v>1.252988776932217</v>
       </c>
     </row>
     <row r="743">
@@ -6312,7 +6312,7 @@
         <v>43354</v>
       </c>
       <c r="B743" t="n">
-        <v>1.254568846660326</v>
+        <v>1.254831967594671</v>
       </c>
     </row>
     <row r="744">
@@ -6320,7 +6320,7 @@
         <v>43355</v>
       </c>
       <c r="B744" t="n">
-        <v>1.255542025279774</v>
+        <v>1.255805350319034</v>
       </c>
     </row>
     <row r="745">
@@ -6328,7 +6328,7 @@
         <v>43356</v>
       </c>
       <c r="B745" t="n">
-        <v>1.260174916599562</v>
+        <v>1.260439213295895</v>
       </c>
     </row>
     <row r="746">
@@ -6336,7 +6336,7 @@
         <v>43357</v>
       </c>
       <c r="B746" t="n">
-        <v>1.261536248530829</v>
+        <v>1.261800830739535</v>
       </c>
     </row>
     <row r="747">
@@ -6344,7 +6344,7 @@
         <v>43360</v>
       </c>
       <c r="B747" t="n">
-        <v>1.257984259176213</v>
+        <v>1.258248096425597</v>
       </c>
     </row>
     <row r="748">
@@ -6352,7 +6352,7 @@
         <v>43361</v>
       </c>
       <c r="B748" t="n">
-        <v>1.26542782080303</v>
+        <v>1.26569321919184</v>
       </c>
     </row>
     <row r="749">
@@ -6360,7 +6360,7 @@
         <v>43362</v>
       </c>
       <c r="B749" t="n">
-        <v>1.265099639944596</v>
+        <v>1.26536496950398</v>
       </c>
     </row>
     <row r="750">
@@ -6368,7 +6368,7 @@
         <v>43363</v>
       </c>
       <c r="B750" t="n">
-        <v>1.278044219543964</v>
+        <v>1.278312263972196</v>
       </c>
     </row>
     <row r="751">
@@ -6376,7 +6376,7 @@
         <v>43364</v>
       </c>
       <c r="B751" t="n">
-        <v>1.274819040814872</v>
+        <v>1.275086408825829</v>
       </c>
     </row>
     <row r="752">
@@ -6384,7 +6384,7 @@
         <v>43367</v>
       </c>
       <c r="B752" t="n">
-        <v>1.268311207205826</v>
+        <v>1.26857721032775</v>
       </c>
     </row>
     <row r="753">
@@ -6392,7 +6392,7 @@
         <v>43368</v>
       </c>
       <c r="B753" t="n">
-        <v>1.267003982429314</v>
+        <v>1.267269711386767</v>
       </c>
     </row>
     <row r="754">
@@ -6400,7 +6400,7 @@
         <v>43369</v>
       </c>
       <c r="B754" t="n">
-        <v>1.265359588190279</v>
+        <v>1.265624972268653</v>
       </c>
     </row>
     <row r="755">
@@ -6408,7 +6408,7 @@
         <v>43370</v>
       </c>
       <c r="B755" t="n">
-        <v>1.258906557355923</v>
+        <v>1.259124094490164</v>
       </c>
     </row>
     <row r="756">
@@ -6416,7 +6416,7 @@
         <v>43371</v>
       </c>
       <c r="B756" t="n">
-        <v>1.26319751301579</v>
+        <v>1.263415791620629</v>
       </c>
     </row>
     <row r="757">
@@ -6424,7 +6424,7 @@
         <v>43374</v>
       </c>
       <c r="B757" t="n">
-        <v>1.259256442930323</v>
+        <v>1.259474040524258</v>
       </c>
     </row>
     <row r="758">
@@ -6432,7 +6432,7 @@
         <v>43375</v>
       </c>
       <c r="B758" t="n">
-        <v>1.257842037167393</v>
+        <v>1.258059390354168</v>
       </c>
     </row>
     <row r="759">
@@ -6440,7 +6440,7 @@
         <v>43376</v>
       </c>
       <c r="B759" t="n">
-        <v>1.257451845904956</v>
+        <v>1.257669131667276</v>
       </c>
     </row>
     <row r="760">
@@ -6448,7 +6448,7 @@
         <v>43377</v>
       </c>
       <c r="B760" t="n">
-        <v>1.247522940184912</v>
+        <v>1.247738510247458</v>
       </c>
     </row>
     <row r="761">
@@ -6456,7 +6456,7 @@
         <v>43378</v>
       </c>
       <c r="B761" t="n">
-        <v>1.243627717576546</v>
+        <v>1.243842614550562</v>
       </c>
     </row>
     <row r="762">
@@ -6464,7 +6464,7 @@
         <v>43381</v>
       </c>
       <c r="B762" t="n">
-        <v>1.244593606664683</v>
+        <v>1.244808670542861</v>
       </c>
     </row>
     <row r="763">
@@ -6472,7 +6472,7 @@
         <v>43382</v>
       </c>
       <c r="B763" t="n">
-        <v>1.245245238216036</v>
+        <v>1.245460414695153</v>
       </c>
     </row>
     <row r="764">
@@ -6480,7 +6480,7 @@
         <v>43383</v>
       </c>
       <c r="B764" t="n">
-        <v>1.209396577943429</v>
+        <v>1.209605559828694</v>
       </c>
     </row>
     <row r="765">
@@ -6488,7 +6488,7 @@
         <v>43384</v>
       </c>
       <c r="B765" t="n">
-        <v>1.185687948108588</v>
+        <v>1.185892833178754</v>
       </c>
     </row>
     <row r="766">
@@ -6496,7 +6496,7 @@
         <v>43385</v>
       </c>
       <c r="B766" t="n">
-        <v>1.198975506960323</v>
+        <v>1.199182688100405</v>
       </c>
     </row>
     <row r="767">
@@ -6504,7 +6504,7 @@
         <v>43388</v>
       </c>
       <c r="B767" t="n">
-        <v>1.195415987988135</v>
+        <v>1.195622554048764</v>
       </c>
     </row>
     <row r="768">
@@ -6512,7 +6512,7 @@
         <v>43389</v>
       </c>
       <c r="B768" t="n">
-        <v>1.225519982092302</v>
+        <v>1.225570325631044</v>
       </c>
     </row>
     <row r="769">
@@ -6520,7 +6520,7 @@
         <v>43390</v>
       </c>
       <c r="B769" t="n">
-        <v>1.228714642255304</v>
+        <v>1.228748408523415</v>
       </c>
     </row>
     <row r="770">
@@ -6528,7 +6528,7 @@
         <v>43391</v>
       </c>
       <c r="B770" t="n">
-        <v>1.211234304528889</v>
+        <v>1.211267590420394</v>
       </c>
     </row>
     <row r="771">
@@ -6536,7 +6536,7 @@
         <v>43392</v>
       </c>
       <c r="B771" t="n">
-        <v>1.212259840012759</v>
+        <v>1.212293154086971</v>
       </c>
     </row>
     <row r="772">
@@ -6544,7 +6544,7 @@
         <v>43395</v>
       </c>
       <c r="B772" t="n">
-        <v>1.204509289454169</v>
+        <v>1.204542390535748</v>
       </c>
     </row>
     <row r="773">
@@ -6552,7 +6552,7 @@
         <v>43396</v>
       </c>
       <c r="B773" t="n">
-        <v>1.197015029742931</v>
+        <v>1.197047924874997</v>
       </c>
     </row>
     <row r="774">
@@ -6560,7 +6560,7 @@
         <v>43397</v>
       </c>
       <c r="B774" t="n">
-        <v>1.165418193687605</v>
+        <v>1.165582178560632</v>
       </c>
     </row>
     <row r="775">
@@ -6568,7 +6568,7 @@
         <v>43398</v>
       </c>
       <c r="B775" t="n">
-        <v>1.184099641921145</v>
+        <v>1.184266255442783</v>
       </c>
     </row>
     <row r="776">
@@ -6576,7 +6576,7 @@
         <v>43399</v>
       </c>
       <c r="B776" t="n">
-        <v>1.167115356490557</v>
+        <v>1.16727958016973</v>
       </c>
     </row>
     <row r="777">
@@ -6584,7 +6584,7 @@
         <v>43402</v>
       </c>
       <c r="B777" t="n">
-        <v>1.162259573629542</v>
+        <v>1.162423114056179</v>
       </c>
     </row>
     <row r="778">
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="B778" t="n">
-        <v>1.179679301949742</v>
+        <v>1.179845293489596</v>
       </c>
     </row>
     <row r="779">
@@ -6600,7 +6600,7 @@
         <v>43404</v>
       </c>
       <c r="B779" t="n">
-        <v>1.191713046410999</v>
+        <v>1.19188073120746</v>
       </c>
     </row>
     <row r="780">
@@ -6608,7 +6608,7 @@
         <v>43405</v>
       </c>
       <c r="B780" t="n">
-        <v>1.206421612961035</v>
+        <v>1.206591367385748</v>
       </c>
     </row>
     <row r="781">
@@ -6616,7 +6616,7 @@
         <v>43406</v>
       </c>
       <c r="B781" t="n">
-        <v>1.195305447420462</v>
+        <v>1.195473637700214</v>
       </c>
     </row>
     <row r="782">
@@ -6624,7 +6624,7 @@
         <v>43409</v>
       </c>
       <c r="B782" t="n">
-        <v>1.198922226968891</v>
+        <v>1.199096984528654</v>
       </c>
     </row>
     <row r="783">
@@ -6632,7 +6632,7 @@
         <v>43410</v>
       </c>
       <c r="B783" t="n">
-        <v>1.205298640479274</v>
+        <v>1.205474327479196</v>
       </c>
     </row>
     <row r="784">
@@ -6640,7 +6640,7 @@
         <v>43411</v>
       </c>
       <c r="B784" t="n">
-        <v>1.226680130961862</v>
+        <v>1.226858934575203</v>
       </c>
     </row>
     <row r="785">
@@ -6648,7 +6648,7 @@
         <v>43412</v>
       </c>
       <c r="B785" t="n">
-        <v>1.22169166291804</v>
+        <v>1.221869739401228</v>
       </c>
     </row>
     <row r="786">
@@ -6656,7 +6656,7 @@
         <v>43413</v>
       </c>
       <c r="B786" t="n">
-        <v>1.212186204473228</v>
+        <v>1.212362895419735</v>
       </c>
     </row>
     <row r="787">
@@ -6664,7 +6664,7 @@
         <v>43416</v>
       </c>
       <c r="B787" t="n">
-        <v>1.190639500837387</v>
+        <v>1.190813051088641</v>
       </c>
     </row>
     <row r="788">
@@ -6672,7 +6672,7 @@
         <v>43417</v>
       </c>
       <c r="B788" t="n">
-        <v>1.18849330939961</v>
+        <v>1.188666546817245</v>
       </c>
     </row>
     <row r="789">
@@ -6680,7 +6680,7 @@
         <v>43418</v>
       </c>
       <c r="B789" t="n">
-        <v>1.181804549142189</v>
+        <v>1.181976811591311</v>
       </c>
     </row>
     <row r="790">
@@ -6688,7 +6688,7 @@
         <v>43419</v>
       </c>
       <c r="B790" t="n">
-        <v>1.18915040890098</v>
+        <v>1.189323742098894</v>
       </c>
     </row>
     <row r="791">
@@ -6696,7 +6696,7 @@
         <v>43420</v>
       </c>
       <c r="B791" t="n">
-        <v>1.185848270978054</v>
+        <v>1.186021122849029</v>
       </c>
     </row>
     <row r="792">
@@ -6704,7 +6704,7 @@
         <v>43423</v>
       </c>
       <c r="B792" t="n">
-        <v>1.17009427964029</v>
+        <v>1.170264835174588</v>
       </c>
     </row>
     <row r="793">
@@ -6712,7 +6712,7 @@
         <v>43424</v>
       </c>
       <c r="B793" t="n">
-        <v>1.144200885954869</v>
+        <v>1.144109063841889</v>
       </c>
     </row>
     <row r="794">
@@ -6720,7 +6720,7 @@
         <v>43425</v>
       </c>
       <c r="B794" t="n">
-        <v>1.147972524935479</v>
+        <v>1.147880400148498</v>
       </c>
     </row>
     <row r="795">
@@ -6728,7 +6728,7 @@
         <v>43427</v>
       </c>
       <c r="B795" t="n">
-        <v>1.144717726517877</v>
+        <v>1.144625862928445</v>
       </c>
     </row>
     <row r="796">
@@ -6736,7 +6736,7 @@
         <v>43430</v>
       </c>
       <c r="B796" t="n">
-        <v>1.158415318302465</v>
+        <v>1.15832235548139</v>
       </c>
     </row>
     <row r="797">
@@ -6744,7 +6744,7 @@
         <v>43431</v>
       </c>
       <c r="B797" t="n">
-        <v>1.161566636014606</v>
+        <v>1.161473420300307</v>
       </c>
     </row>
     <row r="798">
@@ -6752,7 +6752,7 @@
         <v>43432</v>
       </c>
       <c r="B798" t="n">
-        <v>1.182489878404488</v>
+        <v>1.182394983600136</v>
       </c>
     </row>
     <row r="799">
@@ -6760,7 +6760,7 @@
         <v>43433</v>
       </c>
       <c r="B799" t="n">
-        <v>1.178554863045593</v>
+        <v>1.178460284026196</v>
       </c>
     </row>
     <row r="800">
@@ -6768,7 +6768,7 @@
         <v>43434</v>
       </c>
       <c r="B800" t="n">
-        <v>1.182358880107603</v>
+        <v>1.182263995815864</v>
       </c>
     </row>
     <row r="801">
@@ -6776,7 +6776,7 @@
         <v>43437</v>
       </c>
       <c r="B801" t="n">
-        <v>1.190542674327066</v>
+        <v>1.190447133285898</v>
       </c>
     </row>
     <row r="802">
@@ -6784,7 +6784,7 @@
         <v>43438</v>
       </c>
       <c r="B802" t="n">
-        <v>1.160760847577059</v>
+        <v>1.160667696527277</v>
       </c>
     </row>
     <row r="803">
@@ -6792,7 +6792,7 @@
         <v>43440</v>
       </c>
       <c r="B803" t="n">
-        <v>1.159099002089443</v>
+        <v>1.15900598440275</v>
       </c>
     </row>
     <row r="804">
@@ -6800,7 +6800,7 @@
         <v>43441</v>
       </c>
       <c r="B804" t="n">
-        <v>1.140015308499631</v>
+        <v>1.139923822279212</v>
       </c>
     </row>
     <row r="805">
@@ -6808,7 +6808,7 @@
         <v>43444</v>
       </c>
       <c r="B805" t="n">
-        <v>1.13672988595523</v>
+        <v>1.136638663389947</v>
       </c>
     </row>
     <row r="806">
@@ -6816,7 +6816,7 @@
         <v>43445</v>
       </c>
       <c r="B806" t="n">
-        <v>1.134703763140697</v>
+        <v>1.134612703171756</v>
       </c>
     </row>
     <row r="807">
@@ -6824,7 +6824,7 @@
         <v>43446</v>
       </c>
       <c r="B807" t="n">
-        <v>1.138771071714151</v>
+        <v>1.138679685343727</v>
       </c>
     </row>
     <row r="808">
@@ -6832,7 +6832,7 @@
         <v>43447</v>
       </c>
       <c r="B808" t="n">
-        <v>1.134531122607335</v>
+        <v>1.134440076492795</v>
       </c>
     </row>
     <row r="809">
@@ -6840,7 +6840,7 @@
         <v>43448</v>
       </c>
       <c r="B809" t="n">
-        <v>1.116705659951174</v>
+        <v>1.116616044329887</v>
       </c>
     </row>
     <row r="810">
@@ -6848,7 +6848,7 @@
         <v>43451</v>
       </c>
       <c r="B810" t="n">
-        <v>1.094658875346733</v>
+        <v>1.094571028979754</v>
       </c>
     </row>
     <row r="811">
@@ -6856,7 +6856,7 @@
         <v>43452</v>
       </c>
       <c r="B811" t="n">
-        <v>1.089357976528031</v>
+        <v>1.089270555558144</v>
       </c>
     </row>
     <row r="812">
@@ -6864,7 +6864,7 @@
         <v>43453</v>
       </c>
       <c r="B812" t="n">
-        <v>1.081337744728284</v>
+        <v>1.081250967381942</v>
       </c>
     </row>
     <row r="813">
@@ -6872,7 +6872,7 @@
         <v>43454</v>
       </c>
       <c r="B813" t="n">
-        <v>1.068016829603712</v>
+        <v>1.067931121260715</v>
       </c>
     </row>
     <row r="814">
@@ -6880,7 +6880,7 @@
         <v>43455</v>
       </c>
       <c r="B814" t="n">
-        <v>1.047072314265241</v>
+        <v>1.046988286719451</v>
       </c>
     </row>
     <row r="815">
@@ -6888,7 +6888,7 @@
         <v>43458</v>
       </c>
       <c r="B815" t="n">
-        <v>1.022513981924737</v>
+        <v>1.022431925184943</v>
       </c>
     </row>
     <row r="816">
@@ -6896,7 +6896,7 @@
         <v>43460</v>
       </c>
       <c r="B816" t="n">
-        <v>1.060782706480947</v>
+        <v>1.060697578676279</v>
       </c>
     </row>
     <row r="817">
@@ -6904,7 +6904,7 @@
         <v>43461</v>
       </c>
       <c r="B817" t="n">
-        <v>1.067452341233323</v>
+        <v>1.067366678190514</v>
       </c>
     </row>
     <row r="818">
@@ -6912,7 +6912,7 @@
         <v>43462</v>
       </c>
       <c r="B818" t="n">
-        <v>1.066669883320592</v>
+        <v>1.066584283070025</v>
       </c>
     </row>
     <row r="819">
@@ -6920,7 +6920,7 @@
         <v>43465</v>
       </c>
       <c r="B819" t="n">
-        <v>1.075073062315971</v>
+        <v>1.074986787710349</v>
       </c>
     </row>
     <row r="820">
@@ -6928,7 +6928,7 @@
         <v>43467</v>
       </c>
       <c r="B820" t="n">
-        <v>1.075900439103759</v>
+        <v>1.075814098101155</v>
       </c>
     </row>
     <row r="821">
@@ -6936,7 +6936,7 @@
         <v>43468</v>
       </c>
       <c r="B821" t="n">
-        <v>1.058861554882353</v>
+        <v>1.058776581250088</v>
       </c>
     </row>
     <row r="822">
@@ -6944,7 +6944,7 @@
         <v>43469</v>
       </c>
       <c r="B822" t="n">
-        <v>1.088843092912264</v>
+        <v>1.088755713261784</v>
       </c>
     </row>
     <row r="823">
@@ -6952,7 +6952,7 @@
         <v>43472</v>
       </c>
       <c r="B823" t="n">
-        <v>1.0929536881592</v>
+        <v>1.09286597863348</v>
       </c>
     </row>
     <row r="824">
@@ -6960,7 +6960,7 @@
         <v>43473</v>
       </c>
       <c r="B824" t="n">
-        <v>1.106695066466018</v>
+        <v>1.106606254194787</v>
       </c>
     </row>
     <row r="825">
@@ -6968,7 +6968,7 @@
         <v>43474</v>
       </c>
       <c r="B825" t="n">
-        <v>1.112299953493985</v>
+        <v>1.11221069143061</v>
       </c>
     </row>
     <row r="826">
@@ -6976,7 +6976,7 @@
         <v>43475</v>
       </c>
       <c r="B826" t="n">
-        <v>1.11894012488671</v>
+        <v>1.118850329949628</v>
       </c>
     </row>
     <row r="827">
@@ -6984,7 +6984,7 @@
         <v>43476</v>
       </c>
       <c r="B827" t="n">
-        <v>1.117688862453835</v>
+        <v>1.117599167930555</v>
       </c>
     </row>
     <row r="828">
@@ -6992,7 +6992,7 @@
         <v>43479</v>
       </c>
       <c r="B828" t="n">
-        <v>1.111601000258779</v>
+        <v>1.111511794286396</v>
       </c>
     </row>
     <row r="829">
@@ -7000,7 +7000,7 @@
         <v>43480</v>
       </c>
       <c r="B829" t="n">
-        <v>1.121153643730231</v>
+        <v>1.121063671158278</v>
       </c>
     </row>
     <row r="830">
@@ -7008,7 +7008,7 @@
         <v>43481</v>
       </c>
       <c r="B830" t="n">
-        <v>1.123092699050004</v>
+        <v>1.123002570868875</v>
       </c>
     </row>
     <row r="831">
@@ -7016,7 +7016,7 @@
         <v>43482</v>
       </c>
       <c r="B831" t="n">
-        <v>1.130253285741615</v>
+        <v>1.130162582923454</v>
       </c>
     </row>
     <row r="832">
@@ -7024,7 +7024,7 @@
         <v>43483</v>
       </c>
       <c r="B832" t="n">
-        <v>1.141848304161421</v>
+        <v>1.141756670843115</v>
       </c>
     </row>
     <row r="833">
@@ -7032,7 +7032,7 @@
         <v>43487</v>
       </c>
       <c r="B833" t="n">
-        <v>1.127553063920834</v>
+        <v>1.127462577795455</v>
       </c>
     </row>
     <row r="834">
@@ -7040,7 +7040,7 @@
         <v>43488</v>
       </c>
       <c r="B834" t="n">
-        <v>1.132994436824357</v>
+        <v>1.132903514028842</v>
       </c>
     </row>
     <row r="835">
@@ -7048,7 +7048,7 @@
         <v>43489</v>
       </c>
       <c r="B835" t="n">
-        <v>1.133061221780223</v>
+        <v>1.132970293625215</v>
       </c>
     </row>
     <row r="836">
@@ -7056,7 +7056,7 @@
         <v>43490</v>
       </c>
       <c r="B836" t="n">
-        <v>1.142147317902676</v>
+        <v>1.142055660588519</v>
       </c>
     </row>
     <row r="837">
@@ -7064,7 +7064,7 @@
         <v>43493</v>
       </c>
       <c r="B837" t="n">
-        <v>1.138314306585696</v>
+        <v>1.138222956870669</v>
       </c>
     </row>
     <row r="838">
@@ -7072,7 +7072,7 @@
         <v>43494</v>
       </c>
       <c r="B838" t="n">
-        <v>1.140324756922693</v>
+        <v>1.140233245869041</v>
       </c>
     </row>
     <row r="839">
@@ -7080,7 +7080,7 @@
         <v>43495</v>
       </c>
       <c r="B839" t="n">
-        <v>1.152947490553353</v>
+        <v>1.152854966525417</v>
       </c>
     </row>
     <row r="840">
@@ -7088,7 +7088,7 @@
         <v>43496</v>
       </c>
       <c r="B840" t="n">
-        <v>1.16511735852477</v>
+        <v>1.165023857865016</v>
       </c>
     </row>
     <row r="841">
@@ -7096,7 +7096,7 @@
         <v>43497</v>
       </c>
       <c r="B841" t="n">
-        <v>1.161619959238837</v>
+        <v>1.161526739245351</v>
       </c>
     </row>
     <row r="842">
@@ -7104,7 +7104,7 @@
         <v>43500</v>
       </c>
       <c r="B842" t="n">
-        <v>1.165932406342097</v>
+        <v>1.165838840274761</v>
       </c>
     </row>
     <row r="843">
@@ -7112,7 +7112,7 @@
         <v>43501</v>
       </c>
       <c r="B843" t="n">
-        <v>1.171493373720075</v>
+        <v>1.171399361385147</v>
       </c>
     </row>
     <row r="844">
@@ -7120,7 +7120,7 @@
         <v>43502</v>
       </c>
       <c r="B844" t="n">
-        <v>1.164617637237767</v>
+        <v>1.164524176680643</v>
       </c>
     </row>
     <row r="845">
@@ -7128,7 +7128,7 @@
         <v>43503</v>
       </c>
       <c r="B845" t="n">
-        <v>1.15984177463775</v>
+        <v>1.159748697343566</v>
       </c>
     </row>
     <row r="846">
@@ -7136,7 +7136,7 @@
         <v>43504</v>
       </c>
       <c r="B846" t="n">
-        <v>1.159294888889515</v>
+        <v>1.159201855482907</v>
       </c>
     </row>
     <row r="847">
@@ -7144,7 +7144,7 @@
         <v>43507</v>
       </c>
       <c r="B847" t="n">
-        <v>1.156929762519568</v>
+        <v>1.156836918914336</v>
       </c>
     </row>
     <row r="848">
@@ -7152,7 +7152,7 @@
         <v>43508</v>
       </c>
       <c r="B848" t="n">
-        <v>1.16874784548327</v>
+        <v>1.168654053476963</v>
       </c>
     </row>
     <row r="849">
@@ -7160,7 +7160,7 @@
         <v>43509</v>
       </c>
       <c r="B849" t="n">
-        <v>1.174969124435022</v>
+        <v>1.174874833171123</v>
       </c>
     </row>
     <row r="850">
@@ -7168,7 +7168,7 @@
         <v>43510</v>
       </c>
       <c r="B850" t="n">
-        <v>1.174576433838475</v>
+        <v>1.174482174087994</v>
       </c>
     </row>
     <row r="851">
@@ -7176,7 +7176,7 @@
         <v>43511</v>
       </c>
       <c r="B851" t="n">
-        <v>1.186187067589699</v>
+        <v>1.186091876085941</v>
       </c>
     </row>
     <row r="852">
@@ -7184,7 +7184,7 @@
         <v>43515</v>
       </c>
       <c r="B852" t="n">
-        <v>1.190379686103844</v>
+        <v>1.190284158142481</v>
       </c>
     </row>
     <row r="853">
@@ -7192,7 +7192,7 @@
         <v>43516</v>
       </c>
       <c r="B853" t="n">
-        <v>1.191195732350053</v>
+        <v>1.191100138900984</v>
       </c>
     </row>
     <row r="854">
@@ -7200,7 +7200,7 @@
         <v>43517</v>
       </c>
       <c r="B854" t="n">
-        <v>1.185811470463528</v>
+        <v>1.185716309101437</v>
       </c>
     </row>
     <row r="855">
@@ -7208,7 +7208,7 @@
         <v>43518</v>
       </c>
       <c r="B855" t="n">
-        <v>1.194149914187763</v>
+        <v>1.194054083665623</v>
       </c>
     </row>
     <row r="856">
@@ -7216,7 +7216,7 @@
         <v>43521</v>
       </c>
       <c r="B856" t="n">
-        <v>1.193660136541447</v>
+        <v>1.193564345323959</v>
       </c>
     </row>
     <row r="857">
@@ -7224,7 +7224,7 @@
         <v>43522</v>
       </c>
       <c r="B857" t="n">
-        <v>1.189237280640784</v>
+        <v>1.189141844357451</v>
       </c>
     </row>
     <row r="858">
@@ -7232,7 +7232,7 @@
         <v>43523</v>
       </c>
       <c r="B858" t="n">
-        <v>1.187394220186551</v>
+        <v>1.187293234118855</v>
       </c>
     </row>
     <row r="859">
@@ -7240,7 +7240,7 @@
         <v>43524</v>
       </c>
       <c r="B859" t="n">
-        <v>1.188386283278967</v>
+        <v>1.188285212837819</v>
       </c>
     </row>
     <row r="860">
@@ -7248,7 +7248,7 @@
         <v>43525</v>
       </c>
       <c r="B860" t="n">
-        <v>1.193558096803628</v>
+        <v>1.193456586507626</v>
       </c>
     </row>
     <row r="861">
@@ -7256,7 +7256,7 @@
         <v>43528</v>
       </c>
       <c r="B861" t="n">
-        <v>1.187552058255067</v>
+        <v>1.187451058763485</v>
       </c>
     </row>
     <row r="862">
@@ -7264,7 +7264,7 @@
         <v>43529</v>
       </c>
       <c r="B862" t="n">
-        <v>1.187003187789599</v>
+        <v>1.186902234978613</v>
       </c>
     </row>
     <row r="863">
@@ -7272,7 +7272,7 @@
         <v>43530</v>
       </c>
       <c r="B863" t="n">
-        <v>1.198210049373238</v>
+        <v>1.197961163804347</v>
       </c>
     </row>
     <row r="864">
@@ -7280,7 +7280,7 @@
         <v>43531</v>
       </c>
       <c r="B864" t="n">
-        <v>1.189749132332637</v>
+        <v>1.189502004218669</v>
       </c>
     </row>
     <row r="865">
@@ -7288,7 +7288,7 @@
         <v>43532</v>
       </c>
       <c r="B865" t="n">
-        <v>1.186315210280244</v>
+        <v>1.186068795441586</v>
       </c>
     </row>
     <row r="866">
@@ -7296,7 +7296,7 @@
         <v>43535</v>
       </c>
       <c r="B866" t="n">
-        <v>1.202216300746499</v>
+        <v>1.201966583021215</v>
       </c>
     </row>
     <row r="867">
@@ -7304,7 +7304,7 @@
         <v>43536</v>
       </c>
       <c r="B867" t="n">
-        <v>1.204821165731461</v>
+        <v>1.204570906938019</v>
       </c>
     </row>
     <row r="868">
@@ -7312,7 +7312,7 @@
         <v>43537</v>
       </c>
       <c r="B868" t="n">
-        <v>1.211707254365843</v>
+        <v>1.211455565232131</v>
       </c>
     </row>
     <row r="869">
@@ -7320,7 +7320,7 @@
         <v>43538</v>
       </c>
       <c r="B869" t="n">
-        <v>1.210835058395162</v>
+        <v>1.210583550429175</v>
       </c>
     </row>
     <row r="870">
@@ -7328,7 +7328,7 @@
         <v>43539</v>
       </c>
       <c r="B870" t="n">
-        <v>1.216632438785759</v>
+        <v>1.21637972661996</v>
       </c>
     </row>
     <row r="871">
@@ -7336,7 +7336,7 @@
         <v>43542</v>
       </c>
       <c r="B871" t="n">
-        <v>1.219177899851399</v>
+        <v>1.218924658956496</v>
       </c>
     </row>
     <row r="872">
@@ -7344,7 +7344,7 @@
         <v>43543</v>
       </c>
       <c r="B872" t="n">
-        <v>1.216626557110893</v>
+        <v>1.216373846166803</v>
       </c>
     </row>
     <row r="873">
@@ -7352,7 +7352,7 @@
         <v>43544</v>
       </c>
       <c r="B873" t="n">
-        <v>1.210610893360173</v>
+        <v>1.210359431956509</v>
       </c>
     </row>
     <row r="874">
@@ -7360,7 +7360,7 @@
         <v>43545</v>
       </c>
       <c r="B874" t="n">
-        <v>1.221464815637717</v>
+        <v>1.221211099717307</v>
       </c>
     </row>
     <row r="875">
@@ -7368,7 +7368,7 @@
         <v>43546</v>
       </c>
       <c r="B875" t="n">
-        <v>1.203294633792532</v>
+        <v>1.203044692081868</v>
       </c>
     </row>
     <row r="876">
@@ -7376,7 +7376,7 @@
         <v>43549</v>
       </c>
       <c r="B876" t="n">
-        <v>1.205221835770143</v>
+        <v>1.204971493751736</v>
       </c>
     </row>
     <row r="877">
@@ -7384,7 +7384,7 @@
         <v>43550</v>
       </c>
       <c r="B877" t="n">
-        <v>1.212607722669993</v>
+        <v>1.212355846495981</v>
       </c>
     </row>
     <row r="878">
@@ -7392,7 +7392,7 @@
         <v>43551</v>
       </c>
       <c r="B878" t="n">
-        <v>1.207511853835374</v>
+        <v>1.20726103614707</v>
       </c>
     </row>
     <row r="879">
@@ -7400,7 +7400,7 @@
         <v>43552</v>
       </c>
       <c r="B879" t="n">
-        <v>1.207863451526856</v>
+        <v>1.207612560806624</v>
       </c>
     </row>
     <row r="880">
@@ -7408,7 +7408,7 @@
         <v>43553</v>
       </c>
       <c r="B880" t="n">
-        <v>1.216449862114636</v>
+        <v>1.216197187872654</v>
       </c>
     </row>
     <row r="881">
@@ -7416,7 +7416,7 @@
         <v>43556</v>
       </c>
       <c r="B881" t="n">
-        <v>1.22764665220866</v>
+        <v>1.227391652231324</v>
       </c>
     </row>
     <row r="882">
@@ -7424,7 +7424,7 @@
         <v>43557</v>
       </c>
       <c r="B882" t="n">
-        <v>1.230679782475876</v>
+        <v>1.230424152473486</v>
       </c>
     </row>
     <row r="883">
@@ -7432,7 +7432,7 @@
         <v>43558</v>
       </c>
       <c r="B883" t="n">
-        <v>1.224537594726411</v>
+        <v>1.224253960793324</v>
       </c>
     </row>
     <row r="884">
@@ -7440,7 +7440,7 @@
         <v>43559</v>
       </c>
       <c r="B884" t="n">
-        <v>1.22740953774004</v>
+        <v>1.227125238592184</v>
       </c>
     </row>
     <row r="885">
@@ -7448,7 +7448,7 @@
         <v>43560</v>
       </c>
       <c r="B885" t="n">
-        <v>1.234624145942842</v>
+        <v>1.23433817570893</v>
       </c>
     </row>
     <row r="886">
@@ -7456,7 +7456,7 @@
         <v>43563</v>
       </c>
       <c r="B886" t="n">
-        <v>1.238224308989968</v>
+        <v>1.237937504867076</v>
       </c>
     </row>
     <row r="887">
@@ -7464,7 +7464,7 @@
         <v>43564</v>
       </c>
       <c r="B887" t="n">
-        <v>1.23074122897241</v>
+        <v>1.230456158120449</v>
       </c>
     </row>
     <row r="888">
@@ -7472,7 +7472,7 @@
         <v>43565</v>
       </c>
       <c r="B888" t="n">
-        <v>1.237411956288648</v>
+        <v>1.237125340327225</v>
       </c>
     </row>
     <row r="889">
@@ -7480,7 +7480,7 @@
         <v>43566</v>
       </c>
       <c r="B889" t="n">
-        <v>1.236508277842012</v>
+        <v>1.236221871195414</v>
       </c>
     </row>
     <row r="890">
@@ -7488,7 +7488,7 @@
         <v>43567</v>
       </c>
       <c r="B890" t="n">
-        <v>1.248764473383981</v>
+        <v>1.248475227891959</v>
       </c>
     </row>
     <row r="891">
@@ -7496,7 +7496,7 @@
         <v>43570</v>
       </c>
       <c r="B891" t="n">
-        <v>1.248443001224259</v>
+        <v>1.248151348549454</v>
       </c>
     </row>
     <row r="892">
@@ -7504,7 +7504,7 @@
         <v>43571</v>
       </c>
       <c r="B892" t="n">
-        <v>1.245944263384267</v>
+        <v>1.245653194447425</v>
       </c>
     </row>
     <row r="893">
@@ -7512,7 +7512,7 @@
         <v>43572</v>
       </c>
       <c r="B893" t="n">
-        <v>1.242848607998078</v>
+        <v>1.242558262246974</v>
       </c>
     </row>
     <row r="894">
@@ -7520,7 +7520,7 @@
         <v>43573</v>
       </c>
       <c r="B894" t="n">
-        <v>1.235040385143716</v>
+        <v>1.23470008258492</v>
       </c>
     </row>
     <row r="895">
@@ -7528,7 +7528,7 @@
         <v>43577</v>
       </c>
       <c r="B895" t="n">
-        <v>1.237123252875781</v>
+        <v>1.236782376404401</v>
       </c>
     </row>
     <row r="896">
@@ -7536,7 +7536,7 @@
         <v>43578</v>
       </c>
       <c r="B896" t="n">
-        <v>1.250646782330632</v>
+        <v>1.25030217959108</v>
       </c>
     </row>
     <row r="897">
@@ -7544,7 +7544,7 @@
         <v>43579</v>
       </c>
       <c r="B897" t="n">
-        <v>1.247020987062266</v>
+        <v>1.246677383372967</v>
       </c>
     </row>
     <row r="898">
@@ -7552,7 +7552,7 @@
         <v>43580</v>
       </c>
       <c r="B898" t="n">
-        <v>1.245678806320354</v>
+        <v>1.245245126430468</v>
       </c>
     </row>
     <row r="899">
@@ -7560,7 +7560,7 @@
         <v>43581</v>
       </c>
       <c r="B899" t="n">
-        <v>1.253031010575401</v>
+        <v>1.252763322280309</v>
       </c>
     </row>
     <row r="900">
@@ -7568,7 +7568,7 @@
         <v>43584</v>
       </c>
       <c r="B900" t="n">
-        <v>1.255118210796255</v>
+        <v>1.254897851128416</v>
       </c>
     </row>
     <row r="901">
@@ -7576,7 +7576,7 @@
         <v>43585</v>
       </c>
       <c r="B901" t="n">
-        <v>1.255898441702535</v>
+        <v>1.255695793301923</v>
       </c>
     </row>
     <row r="902">
@@ -7584,7 +7584,7 @@
         <v>43586</v>
       </c>
       <c r="B902" t="n">
-        <v>1.243754043738448</v>
+        <v>1.243272792058751</v>
       </c>
     </row>
     <row r="903">
@@ -7592,7 +7592,7 @@
         <v>43587</v>
       </c>
       <c r="B903" t="n">
-        <v>1.244040234251775</v>
+        <v>1.24356548043077</v>
       </c>
     </row>
     <row r="904">
@@ -7600,7 +7600,7 @@
         <v>43588</v>
       </c>
       <c r="B904" t="n">
-        <v>1.254315244922909</v>
+        <v>1.254071833010723</v>
       </c>
     </row>
     <row r="905">
@@ -7608,7 +7608,7 @@
         <v>43591</v>
       </c>
       <c r="B905" t="n">
-        <v>1.248771251612563</v>
+        <v>1.248401378923308</v>
       </c>
     </row>
     <row r="906">
@@ -7616,7 +7616,7 @@
         <v>43592</v>
       </c>
       <c r="B906" t="n">
-        <v>1.230834505807479</v>
+        <v>1.230051298058299</v>
       </c>
     </row>
     <row r="907">
@@ -7624,7 +7624,7 @@
         <v>43593</v>
       </c>
       <c r="B907" t="n">
-        <v>1.227930892594554</v>
+        <v>1.22708162098237</v>
       </c>
     </row>
     <row r="908">
@@ -7632,7 +7632,7 @@
         <v>43594</v>
       </c>
       <c r="B908" t="n">
-        <v>1.226492445372938</v>
+        <v>1.22561048686967</v>
       </c>
     </row>
     <row r="909">
@@ -7640,7 +7640,7 @@
         <v>43595</v>
       </c>
       <c r="B909" t="n">
-        <v>1.233900356978726</v>
+        <v>1.233185453636621</v>
       </c>
     </row>
     <row r="910">
@@ -7648,7 +7648,7 @@
         <v>43598</v>
       </c>
       <c r="B910" t="n">
-        <v>1.205454855254083</v>
+        <v>1.20407878785901</v>
       </c>
     </row>
     <row r="911">
@@ -7656,7 +7656,7 @@
         <v>43599</v>
       </c>
       <c r="B911" t="n">
-        <v>1.215587283591747</v>
+        <v>1.21443881870154</v>
       </c>
     </row>
     <row r="912">
@@ -7664,7 +7664,7 @@
         <v>43600</v>
       </c>
       <c r="B912" t="n">
-        <v>1.223839730336343</v>
+        <v>1.222876946668523</v>
       </c>
     </row>
     <row r="913">
@@ -7672,7 +7672,7 @@
         <v>43601</v>
       </c>
       <c r="B913" t="n">
-        <v>1.234540247437163</v>
+        <v>1.233817713425232</v>
       </c>
     </row>
     <row r="914">
@@ -7680,7 +7680,7 @@
         <v>43602</v>
       </c>
       <c r="B914" t="n">
-        <v>1.225897305940226</v>
+        <v>1.224977498500617</v>
       </c>
     </row>
     <row r="915">
@@ -7688,7 +7688,7 @@
         <v>43605</v>
       </c>
       <c r="B915" t="n">
-        <v>1.218377997186618</v>
+        <v>1.217286728160404</v>
       </c>
     </row>
     <row r="916">
@@ -7696,7 +7696,7 @@
         <v>43606</v>
       </c>
       <c r="B916" t="n">
-        <v>1.225731174341192</v>
+        <v>1.224805415005827</v>
       </c>
     </row>
     <row r="917">
@@ -7704,7 +7704,7 @@
         <v>43607</v>
       </c>
       <c r="B917" t="n">
-        <v>1.22168741204275</v>
+        <v>1.220669732631915</v>
       </c>
     </row>
     <row r="918">
@@ -7712,7 +7712,7 @@
         <v>43608</v>
       </c>
       <c r="B918" t="n">
-        <v>1.209614561644983</v>
+        <v>1.208320542574178</v>
       </c>
     </row>
     <row r="919">
@@ -7720,7 +7720,7 @@
         <v>43609</v>
       </c>
       <c r="B919" t="n">
-        <v>1.213131361064776</v>
+        <v>1.211916738569972</v>
       </c>
     </row>
     <row r="920">
@@ -7728,7 +7728,7 @@
         <v>43613</v>
       </c>
       <c r="B920" t="n">
-        <v>1.204990311597064</v>
+        <v>1.203589999726971</v>
       </c>
     </row>
     <row r="921">
@@ -7736,7 +7736,7 @@
         <v>43614</v>
       </c>
       <c r="B921" t="n">
-        <v>1.196832459417204</v>
+        <v>1.195246072144848</v>
       </c>
     </row>
     <row r="922">
@@ -7744,7 +7744,7 @@
         <v>43615</v>
       </c>
       <c r="B922" t="n">
-        <v>1.19799998514735</v>
+        <v>1.196440005094543</v>
       </c>
     </row>
     <row r="923">
@@ -7752,7 +7752,7 @@
         <v>43616</v>
       </c>
       <c r="B923" t="n">
-        <v>1.185887144874348</v>
+        <v>1.184049902392003</v>
       </c>
     </row>
     <row r="924">
@@ -7760,7 +7760,7 @@
         <v>43619</v>
       </c>
       <c r="B924" t="n">
-        <v>1.185155198255226</v>
+        <v>1.183301375599443</v>
       </c>
     </row>
     <row r="925">
@@ -7768,7 +7768,7 @@
         <v>43620</v>
       </c>
       <c r="B925" t="n">
-        <v>1.205528551825022</v>
+        <v>1.20412724008343</v>
       </c>
     </row>
     <row r="926">
@@ -7776,7 +7776,7 @@
         <v>43621</v>
       </c>
       <c r="B926" t="n">
-        <v>1.21191020504549</v>
+        <v>1.210652438352399</v>
       </c>
     </row>
     <row r="927">
@@ -7784,7 +7784,7 @@
         <v>43622</v>
       </c>
       <c r="B927" t="n">
-        <v>1.218795400494386</v>
+        <v>1.217692435957158</v>
       </c>
     </row>
     <row r="928">
@@ -7792,7 +7792,7 @@
         <v>43623</v>
       </c>
       <c r="B928" t="n">
-        <v>1.227846171137553</v>
+        <v>1.226946311013129</v>
       </c>
     </row>
     <row r="929">
@@ -7800,7 +7800,7 @@
         <v>43626</v>
       </c>
       <c r="B929" t="n">
-        <v>1.232313038254524</v>
+        <v>1.231513815530374</v>
       </c>
     </row>
     <row r="930">
@@ -7808,7 +7808,7 @@
         <v>43627</v>
       </c>
       <c r="B930" t="n">
-        <v>1.22948635417734</v>
+        <v>1.228623048702592</v>
       </c>
     </row>
     <row r="931">
@@ -7816,7 +7816,7 @@
         <v>43628</v>
       </c>
       <c r="B931" t="n">
-        <v>1.227216234792249</v>
+        <v>1.226301488771287</v>
       </c>
     </row>
     <row r="932">
@@ -7824,7 +7824,7 @@
         <v>43629</v>
       </c>
       <c r="B932" t="n">
-        <v>1.233641749060634</v>
+        <v>1.232871515794759</v>
       </c>
     </row>
     <row r="933">
@@ -7832,7 +7832,7 @@
         <v>43630</v>
       </c>
       <c r="B933" t="n">
-        <v>1.23198572805601</v>
+        <v>1.231177992176077</v>
       </c>
     </row>
     <row r="934">
@@ -7840,7 +7840,7 @@
         <v>43633</v>
       </c>
       <c r="B934" t="n">
-        <v>1.23277520261462</v>
+        <v>1.231985308032167</v>
       </c>
     </row>
     <row r="935">
@@ -7848,7 +7848,7 @@
         <v>43634</v>
       </c>
       <c r="B935" t="n">
-        <v>1.241021964751776</v>
+        <v>1.240417251455777</v>
       </c>
     </row>
     <row r="936">
@@ -7856,7 +7856,7 @@
         <v>43635</v>
       </c>
       <c r="B936" t="n">
-        <v>1.248225290042497</v>
+        <v>1.247782470720264</v>
       </c>
     </row>
     <row r="937">
@@ -7864,7 +7864,7 @@
         <v>43636</v>
       </c>
       <c r="B937" t="n">
-        <v>1.258711919498213</v>
+        <v>1.25850413825384</v>
       </c>
     </row>
     <row r="938">
@@ -7872,7 +7872,7 @@
         <v>43637</v>
       </c>
       <c r="B938" t="n">
-        <v>1.257617392191284</v>
+        <v>1.257384844664364</v>
       </c>
     </row>
     <row r="939">
@@ -7880,7 +7880,7 @@
         <v>43640</v>
       </c>
       <c r="B939" t="n">
-        <v>1.255907899716868</v>
+        <v>1.255636651370615</v>
       </c>
     </row>
     <row r="940">
@@ -7888,7 +7888,7 @@
         <v>43641</v>
       </c>
       <c r="B940" t="n">
-        <v>1.24562055643923</v>
+        <v>1.245114774654676</v>
       </c>
     </row>
     <row r="941">
@@ -7896,7 +7896,7 @@
         <v>43642</v>
       </c>
       <c r="B941" t="n">
-        <v>1.243124513178308</v>
+        <v>1.242562193572845</v>
       </c>
     </row>
     <row r="942">
@@ -7904,7 +7904,7 @@
         <v>43643</v>
       </c>
       <c r="B942" t="n">
-        <v>1.246729580310413</v>
+        <v>1.246248501665306</v>
       </c>
     </row>
     <row r="943">
@@ -7912,7 +7912,7 @@
         <v>43644</v>
       </c>
       <c r="B943" t="n">
-        <v>1.253682423807033</v>
+        <v>1.2533575899861</v>
       </c>
     </row>
     <row r="944">
@@ -7920,7 +7920,7 @@
         <v>43647</v>
       </c>
       <c r="B944" t="n">
-        <v>1.261830335711358</v>
+        <v>1.261688420812438</v>
       </c>
     </row>
     <row r="945">
@@ -7928,7 +7928,7 @@
         <v>43648</v>
       </c>
       <c r="B945" t="n">
-        <v>1.267081644398424</v>
+        <v>1.267057900223803</v>
       </c>
     </row>
     <row r="946">
@@ -7936,7 +7936,7 @@
         <v>43649</v>
       </c>
       <c r="B946" t="n">
-        <v>1.275884313649637</v>
+        <v>1.276058086318932</v>
       </c>
     </row>
     <row r="947">
@@ -7944,7 +7944,7 @@
         <v>43650</v>
       </c>
       <c r="B947" t="n">
-        <v>1.275884313649637</v>
+        <v>1.276058086318932</v>
       </c>
     </row>
     <row r="948">
@@ -7952,7 +7952,7 @@
         <v>43651</v>
       </c>
       <c r="B948" t="n">
-        <v>1.274817930017567</v>
+        <v>1.274967585460389</v>
       </c>
     </row>
     <row r="949">
@@ -7960,7 +7960,7 @@
         <v>43654</v>
       </c>
       <c r="B949" t="n">
-        <v>1.267684610739654</v>
+        <v>1.267672159351461</v>
       </c>
     </row>
     <row r="950">
@@ -7968,7 +7968,7 @@
         <v>43655</v>
       </c>
       <c r="B950" t="n">
-        <v>1.268210615099376</v>
+        <v>1.268210043844966</v>
       </c>
     </row>
     <row r="951">
@@ -7976,7 +7976,7 @@
         <v>43656</v>
       </c>
       <c r="B951" t="n">
-        <v>1.27405769527433</v>
+        <v>1.274188617146114</v>
       </c>
     </row>
     <row r="952">
@@ -7984,7 +7984,7 @@
         <v>43657</v>
       </c>
       <c r="B952" t="n">
-        <v>1.276624294302723</v>
+        <v>1.276813087559787</v>
       </c>
     </row>
     <row r="953">
@@ -7992,7 +7992,7 @@
         <v>43658</v>
       </c>
       <c r="B953" t="n">
-        <v>1.281417295015669</v>
+        <v>1.281713968501451</v>
       </c>
     </row>
     <row r="954">
@@ -8000,7 +8000,7 @@
         <v>43661</v>
       </c>
       <c r="B954" t="n">
-        <v>1.28200986236178</v>
+        <v>1.282319917678168</v>
       </c>
     </row>
     <row r="955">
@@ -8008,7 +8008,7 @@
         <v>43662</v>
       </c>
       <c r="B955" t="n">
-        <v>1.278670481814678</v>
+        <v>1.278904890514241</v>
       </c>
     </row>
     <row r="956">
@@ -8016,7 +8016,7 @@
         <v>43663</v>
       </c>
       <c r="B956" t="n">
-        <v>1.272833347285467</v>
+        <v>1.272935266735996</v>
       </c>
     </row>
     <row r="957">
@@ -8024,7 +8024,7 @@
         <v>43664</v>
       </c>
       <c r="B957" t="n">
-        <v>1.275736512834464</v>
+        <v>1.275903868413073</v>
       </c>
     </row>
     <row r="958">
@@ -8032,7 +8032,7 @@
         <v>43665</v>
       </c>
       <c r="B958" t="n">
-        <v>1.267199748064632</v>
+        <v>1.26717293036981</v>
       </c>
     </row>
     <row r="959">
@@ -8040,7 +8040,7 @@
         <v>43668</v>
       </c>
       <c r="B959" t="n">
-        <v>1.268657192555202</v>
+        <v>1.268663259399012</v>
       </c>
     </row>
     <row r="960">
@@ -8048,7 +8048,7 @@
         <v>43669</v>
       </c>
       <c r="B960" t="n">
-        <v>1.278192639696986</v>
+        <v>1.278412454312415</v>
       </c>
     </row>
     <row r="961">
@@ -8056,7 +8056,7 @@
         <v>43670</v>
       </c>
       <c r="B961" t="n">
-        <v>1.284042741860061</v>
+        <v>1.284394079545545</v>
       </c>
     </row>
     <row r="962">
@@ -8064,7 +8064,7 @@
         <v>43671</v>
       </c>
       <c r="B962" t="n">
-        <v>1.277137007385764</v>
+        <v>1.277331524219411</v>
       </c>
     </row>
     <row r="963">
@@ -8072,7 +8072,7 @@
         <v>43672</v>
       </c>
       <c r="B963" t="n">
-        <v>1.285685850109373</v>
+        <v>1.286072128191142</v>
       </c>
     </row>
     <row r="964">
@@ -8080,7 +8080,7 @@
         <v>43675</v>
       </c>
       <c r="B964" t="n">
-        <v>1.282565273260739</v>
+        <v>1.2828809077835</v>
       </c>
     </row>
     <row r="965">
@@ -8088,7 +8088,7 @@
         <v>43676</v>
       </c>
       <c r="B965" t="n">
-        <v>1.28048003178553</v>
+        <v>1.280748499093171</v>
       </c>
     </row>
     <row r="966">
@@ -8096,7 +8096,7 @@
         <v>43677</v>
       </c>
       <c r="B966" t="n">
-        <v>1.265916460720229</v>
+        <v>1.265852259515837</v>
       </c>
     </row>
     <row r="967">
@@ -8104,7 +8104,7 @@
         <v>43678</v>
       </c>
       <c r="B967" t="n">
-        <v>1.257028472857673</v>
+        <v>1.256762170138117</v>
       </c>
     </row>
     <row r="968">
@@ -8112,7 +8112,7 @@
         <v>43679</v>
       </c>
       <c r="B968" t="n">
-        <v>1.249968096747446</v>
+        <v>1.249541489374433</v>
       </c>
     </row>
     <row r="969">
@@ -8120,7 +8120,7 @@
         <v>43682</v>
       </c>
       <c r="B969" t="n">
-        <v>1.211936180877922</v>
+        <v>1.210623959296422</v>
       </c>
     </row>
     <row r="970">
@@ -8128,7 +8128,7 @@
         <v>43683</v>
       </c>
       <c r="B970" t="n">
-        <v>1.226705586984119</v>
+        <v>1.225721728605915</v>
       </c>
     </row>
     <row r="971">
@@ -8136,7 +8136,7 @@
         <v>43684</v>
       </c>
       <c r="B971" t="n">
-        <v>1.226469175795369</v>
+        <v>1.225479992366729</v>
       </c>
     </row>
     <row r="972">
@@ -8144,7 +8144,7 @@
         <v>43685</v>
       </c>
       <c r="B972" t="n">
-        <v>1.248456807130189</v>
+        <v>1.247953377881734</v>
       </c>
     </row>
     <row r="973">
@@ -8152,7 +8152,7 @@
         <v>43686</v>
       </c>
       <c r="B973" t="n">
-        <v>1.241594251492602</v>
+        <v>1.240935498527281</v>
       </c>
     </row>
     <row r="974">
@@ -8160,7 +8160,7 @@
         <v>43689</v>
       </c>
       <c r="B974" t="n">
-        <v>1.227070350274186</v>
+        <v>1.22608075773456</v>
       </c>
     </row>
     <row r="975">
@@ -8168,7 +8168,7 @@
         <v>43690</v>
       </c>
       <c r="B975" t="n">
-        <v>1.240844679252819</v>
+        <v>1.240161276626011</v>
       </c>
     </row>
     <row r="976">
@@ -8176,7 +8176,7 @@
         <v>43691</v>
       </c>
       <c r="B976" t="n">
-        <v>1.208107891626966</v>
+        <v>1.206667846289971</v>
       </c>
     </row>
     <row r="977">
@@ -8184,7 +8184,7 @@
         <v>43692</v>
       </c>
       <c r="B977" t="n">
-        <v>1.213393490633932</v>
+        <v>1.212071581632855</v>
       </c>
     </row>
     <row r="978">
@@ -8192,7 +8192,7 @@
         <v>43693</v>
       </c>
       <c r="B978" t="n">
-        <v>1.230003039629437</v>
+        <v>1.22904862999702</v>
       </c>
     </row>
     <row r="979">
@@ -8200,7 +8200,7 @@
         <v>43696</v>
       </c>
       <c r="B979" t="n">
-        <v>1.242012057636708</v>
+        <v>1.241324423743805</v>
       </c>
     </row>
     <row r="980">
@@ -8208,7 +8208,7 @@
         <v>43697</v>
       </c>
       <c r="B980" t="n">
-        <v>1.238136699037192</v>
+        <v>1.237361809757177</v>
       </c>
     </row>
     <row r="981">
@@ -8216,7 +8216,7 @@
         <v>43698</v>
       </c>
       <c r="B981" t="n">
-        <v>1.248788089494608</v>
+        <v>1.24825007200718</v>
       </c>
     </row>
     <row r="982">
@@ -8224,7 +8224,7 @@
         <v>43699</v>
       </c>
       <c r="B982" t="n">
-        <v>1.248881850678707</v>
+        <v>1.248345936845743</v>
       </c>
     </row>
     <row r="983">
@@ -8232,7 +8232,7 @@
         <v>43700</v>
       </c>
       <c r="B983" t="n">
-        <v>1.219999229582093</v>
+        <v>1.218799613641643</v>
       </c>
     </row>
     <row r="984">
@@ -8240,7 +8240,7 @@
         <v>43703</v>
       </c>
       <c r="B984" t="n">
-        <v>1.22973665441201</v>
+        <v>1.228753414432107</v>
       </c>
     </row>
     <row r="985">
@@ -8248,7 +8248,7 @@
         <v>43704</v>
       </c>
       <c r="B985" t="n">
-        <v>1.226045734647576</v>
+        <v>1.224979521484814</v>
       </c>
     </row>
     <row r="986">
@@ -8256,7 +8256,7 @@
         <v>43705</v>
       </c>
       <c r="B986" t="n">
-        <v>1.233402763817355</v>
+        <v>1.232500360208404</v>
       </c>
     </row>
     <row r="987">
@@ -8264,7 +8264,7 @@
         <v>43706</v>
       </c>
       <c r="B987" t="n">
-        <v>1.247572813439036</v>
+        <v>1.24698406390399</v>
       </c>
     </row>
     <row r="988">
@@ -8272,7 +8272,7 @@
         <v>43707</v>
       </c>
       <c r="B988" t="n">
-        <v>1.245848832666529</v>
+        <v>1.245221409074724</v>
       </c>
     </row>
     <row r="989">
@@ -8280,7 +8280,7 @@
         <v>43710</v>
       </c>
       <c r="B989" t="n">
-        <v>1.24584226274389</v>
+        <v>1.245214691981221</v>
       </c>
     </row>
     <row r="990">
@@ -8288,7 +8288,7 @@
         <v>43711</v>
       </c>
       <c r="B990" t="n">
-        <v>1.239501794794749</v>
+        <v>1.238731437783581</v>
       </c>
     </row>
     <row r="991">
@@ -8296,7 +8296,7 @@
         <v>43712</v>
       </c>
       <c r="B991" t="n">
-        <v>1.250150919704866</v>
+        <v>1.249616941782067</v>
       </c>
     </row>
     <row r="992">
@@ -8304,7 +8304,7 @@
         <v>43713</v>
       </c>
       <c r="B992" t="n">
-        <v>1.264535666766473</v>
+        <v>1.264319984744643</v>
       </c>
     </row>
     <row r="993">
@@ -8312,7 +8312,7 @@
         <v>43714</v>
       </c>
       <c r="B993" t="n">
-        <v>1.266463900140725</v>
+        <v>1.266291322815016</v>
       </c>
     </row>
     <row r="994">
@@ -8320,7 +8320,7 @@
         <v>43717</v>
       </c>
       <c r="B994" t="n">
-        <v>1.263260764469371</v>
+        <v>1.263016283703353</v>
       </c>
     </row>
     <row r="995">
@@ -8328,7 +8328,7 @@
         <v>43718</v>
       </c>
       <c r="B995" t="n">
-        <v>1.259799004432151</v>
+        <v>1.259476798302116</v>
       </c>
     </row>
     <row r="996">
@@ -8336,7 +8336,7 @@
         <v>43719</v>
       </c>
       <c r="B996" t="n">
-        <v>1.263723931575137</v>
+        <v>1.263489317165317</v>
       </c>
     </row>
     <row r="997">
@@ -8344,7 +8344,7 @@
         <v>43720</v>
       </c>
       <c r="B997" t="n">
-        <v>1.270697918153254</v>
+        <v>1.270618552295442</v>
       </c>
     </row>
     <row r="998">
@@ -8352,7 +8352,7 @@
         <v>43721</v>
       </c>
       <c r="B998" t="n">
-        <v>1.268385435063341</v>
+        <v>1.268254202925563</v>
       </c>
     </row>
     <row r="999">
@@ -8360,7 +8360,7 @@
         <v>43724</v>
       </c>
       <c r="B999" t="n">
-        <v>1.264669500706005</v>
+        <v>1.264454829962397</v>
       </c>
     </row>
     <row r="1000">
@@ -8368,7 +8368,7 @@
         <v>43725</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.268636381218806</v>
+        <v>1.268510228059361</v>
       </c>
     </row>
     <row r="1001">
@@ -8376,7 +8376,7 @@
         <v>43726</v>
       </c>
       <c r="B1001" t="n">
-        <v>1.266151017390328</v>
+        <v>1.265969114827444</v>
       </c>
     </row>
     <row r="1002">
@@ -8384,7 +8384,7 @@
         <v>43727</v>
       </c>
       <c r="B1002" t="n">
-        <v>1.266464478992128</v>
+        <v>1.266289591749363</v>
       </c>
     </row>
     <row r="1003">
@@ -8392,7 +8392,7 @@
         <v>43728</v>
       </c>
       <c r="B1003" t="n">
-        <v>1.263986437201034</v>
+        <v>1.26375596518923</v>
       </c>
     </row>
     <row r="1004">
@@ -8400,7 +8400,7 @@
         <v>43731</v>
       </c>
       <c r="B1004" t="n">
-        <v>1.262906064011748</v>
+        <v>1.262651385801066</v>
       </c>
     </row>
     <row r="1005">
@@ -8408,7 +8408,7 @@
         <v>43732</v>
       </c>
       <c r="B1005" t="n">
-        <v>1.254689521060742</v>
+        <v>1.254249675315767</v>
       </c>
     </row>
     <row r="1006">
@@ -8416,7 +8416,7 @@
         <v>43733</v>
       </c>
       <c r="B1006" t="n">
-        <v>1.262041537930264</v>
+        <v>1.261765255658849</v>
       </c>
     </row>
     <row r="1007">
@@ -8424,7 +8424,7 @@
         <v>43734</v>
       </c>
       <c r="B1007" t="n">
-        <v>1.259528792169879</v>
+        <v>1.259196153866499</v>
       </c>
     </row>
     <row r="1008">
@@ -8432,7 +8432,7 @@
         <v>43735</v>
       </c>
       <c r="B1008" t="n">
-        <v>1.247709256128132</v>
+        <v>1.247109505345044</v>
       </c>
     </row>
     <row r="1009">
@@ -8440,7 +8440,7 @@
         <v>43738</v>
       </c>
       <c r="B1009" t="n">
-        <v>1.253913439854864</v>
+        <v>1.253451803196492</v>
       </c>
     </row>
     <row r="1010">
@@ -8448,7 +8448,7 @@
         <v>43739</v>
       </c>
       <c r="B1010" t="n">
-        <v>1.241926538356905</v>
+        <v>1.241194010185424</v>
       </c>
     </row>
     <row r="1011">
@@ -8456,7 +8456,7 @@
         <v>43740</v>
       </c>
       <c r="B1011" t="n">
-        <v>1.227703613112701</v>
+        <v>1.227042167721879</v>
       </c>
     </row>
     <row r="1012">
@@ -8464,7 +8464,7 @@
         <v>43741</v>
       </c>
       <c r="B1012" t="n">
-        <v>1.235920487977079</v>
+        <v>1.235254615610604</v>
       </c>
     </row>
     <row r="1013">
@@ -8472,7 +8472,7 @@
         <v>43742</v>
       </c>
       <c r="B1013" t="n">
-        <v>1.254046759383714</v>
+        <v>1.253371121192209</v>
       </c>
     </row>
     <row r="1014">
@@ -8480,7 +8480,7 @@
         <v>43745</v>
       </c>
       <c r="B1014" t="n">
-        <v>1.249849360080046</v>
+        <v>1.24917598330603</v>
       </c>
     </row>
     <row r="1015">
@@ -8488,7 +8488,7 @@
         <v>43746</v>
       </c>
       <c r="B1015" t="n">
-        <v>1.232542873556952</v>
+        <v>1.23187882093546</v>
       </c>
     </row>
     <row r="1016">
@@ -8496,7 +8496,7 @@
         <v>43747</v>
       </c>
       <c r="B1016" t="n">
-        <v>1.252497541034824</v>
+        <v>1.251358177290449</v>
       </c>
     </row>
     <row r="1017">
@@ -8504,7 +8504,7 @@
         <v>43748</v>
       </c>
       <c r="B1017" t="n">
-        <v>1.25848756611964</v>
+        <v>1.257243110631627</v>
       </c>
     </row>
     <row r="1018">
@@ -8512,7 +8512,7 @@
         <v>43749</v>
       </c>
       <c r="B1018" t="n">
-        <v>1.26693969577895</v>
+        <v>1.265547222775854</v>
       </c>
     </row>
     <row r="1019">
@@ -8520,7 +8520,7 @@
         <v>43752</v>
       </c>
       <c r="B1019" t="n">
-        <v>1.265547613481179</v>
+        <v>1.264179695022006</v>
       </c>
     </row>
     <row r="1020">
@@ -8528,7 +8528,7 @@
         <v>43753</v>
       </c>
       <c r="B1020" t="n">
-        <v>1.27452656030449</v>
+        <v>1.273001461755573</v>
       </c>
     </row>
     <row r="1021">
@@ -8536,7 +8536,7 @@
         <v>43754</v>
       </c>
       <c r="B1021" t="n">
-        <v>1.273982132684555</v>
+        <v>1.272466630277006</v>
       </c>
     </row>
     <row r="1022">
@@ -8544,7 +8544,7 @@
         <v>43755</v>
       </c>
       <c r="B1022" t="n">
-        <v>1.279843730157249</v>
+        <v>1.278225386901617</v>
       </c>
     </row>
     <row r="1023">
@@ -8552,7 +8552,7 @@
         <v>43756</v>
       </c>
       <c r="B1023" t="n">
-        <v>1.273856818982041</v>
+        <v>1.272344406771554</v>
       </c>
     </row>
     <row r="1024">
@@ -8560,7 +8560,7 @@
         <v>43759</v>
       </c>
       <c r="B1024" t="n">
-        <v>1.280140727085537</v>
+        <v>1.278518107046145</v>
       </c>
     </row>
     <row r="1025">
@@ -8568,7 +8568,7 @@
         <v>43760</v>
       </c>
       <c r="B1025" t="n">
-        <v>1.276303810986256</v>
+        <v>1.274748971032359</v>
       </c>
     </row>
     <row r="1026">
@@ -8576,7 +8576,7 @@
         <v>43761</v>
       </c>
       <c r="B1026" t="n">
-        <v>1.280094738858908</v>
+        <v>1.278473296646443</v>
       </c>
     </row>
     <row r="1027">
@@ -8584,7 +8584,7 @@
         <v>43762</v>
       </c>
       <c r="B1027" t="n">
-        <v>1.285720432273387</v>
+        <v>1.260877148772407</v>
       </c>
     </row>
     <row r="1028">
@@ -8592,7 +8592,7 @@
         <v>43763</v>
       </c>
       <c r="B1028" t="n">
-        <v>1.286453159793598</v>
+        <v>1.26172159109466</v>
       </c>
     </row>
     <row r="1029">
@@ -8600,7 +8600,7 @@
         <v>43766</v>
       </c>
       <c r="B1029" t="n">
-        <v>1.288098545171276</v>
+        <v>1.263104312357641</v>
       </c>
     </row>
     <row r="1030">
@@ -8608,7 +8608,7 @@
         <v>43767</v>
       </c>
       <c r="B1030" t="n">
-        <v>1.287887592495045</v>
+        <v>1.262754045991314</v>
       </c>
     </row>
     <row r="1031">
@@ -8616,7 +8616,7 @@
         <v>43768</v>
       </c>
       <c r="B1031" t="n">
-        <v>1.293013911201172</v>
+        <v>1.270155079176984</v>
       </c>
     </row>
     <row r="1032">
@@ -8624,7 +8624,7 @@
         <v>43769</v>
       </c>
       <c r="B1032" t="n">
-        <v>1.286685673132474</v>
+        <v>1.264994899018006</v>
       </c>
     </row>
     <row r="1033">
@@ -8632,7 +8632,7 @@
         <v>43770</v>
       </c>
       <c r="B1033" t="n">
-        <v>1.299956058691498</v>
+        <v>1.277137186595721</v>
       </c>
     </row>
     <row r="1034">
@@ -8640,7 +8640,7 @@
         <v>43773</v>
       </c>
       <c r="B1034" t="n">
-        <v>1.299508876329928</v>
+        <v>1.275773915485517</v>
       </c>
     </row>
     <row r="1035">
@@ -8648,7 +8648,7 @@
         <v>43774</v>
       </c>
       <c r="B1035" t="n">
-        <v>1.293977277024549</v>
+        <v>1.270948838479284</v>
       </c>
     </row>
     <row r="1036">
@@ -8656,7 +8656,7 @@
         <v>43775</v>
       </c>
       <c r="B1036" t="n">
-        <v>1.293807211609827</v>
+        <v>1.271151403249722</v>
       </c>
     </row>
     <row r="1037">
@@ -8664,7 +8664,7 @@
         <v>43776</v>
       </c>
       <c r="B1037" t="n">
-        <v>1.295814217802675</v>
+        <v>1.273082617929182</v>
       </c>
     </row>
     <row r="1038">
@@ -8672,7 +8672,7 @@
         <v>43777</v>
       </c>
       <c r="B1038" t="n">
-        <v>1.302283656811189</v>
+        <v>1.279382381441857</v>
       </c>
     </row>
     <row r="1039">
@@ -8680,7 +8680,7 @@
         <v>43780</v>
       </c>
       <c r="B1039" t="n">
-        <v>1.299352433216528</v>
+        <v>1.275903289683041</v>
       </c>
     </row>
     <row r="1040">
@@ -8688,7 +8688,7 @@
         <v>43781</v>
       </c>
       <c r="B1040" t="n">
-        <v>1.302519882645154</v>
+        <v>1.279124332507973</v>
       </c>
     </row>
     <row r="1041">
@@ -8696,7 +8696,7 @@
         <v>43782</v>
       </c>
       <c r="B1041" t="n">
-        <v>1.306609057258806</v>
+        <v>1.26925038031905</v>
       </c>
     </row>
     <row r="1042">
@@ -8704,7 +8704,7 @@
         <v>43783</v>
       </c>
       <c r="B1042" t="n">
-        <v>1.31128856575439</v>
+        <v>1.274035804287098</v>
       </c>
     </row>
     <row r="1043">
@@ -8712,7 +8712,7 @@
         <v>43784</v>
       </c>
       <c r="B1043" t="n">
-        <v>1.319520137705583</v>
+        <v>1.281868799638465</v>
       </c>
     </row>
     <row r="1044">
@@ -8720,7 +8720,7 @@
         <v>43787</v>
       </c>
       <c r="B1044" t="n">
-        <v>1.319766571759841</v>
+        <v>1.281507908918769</v>
       </c>
     </row>
     <row r="1045">
@@ -8728,7 +8728,7 @@
         <v>43788</v>
       </c>
       <c r="B1045" t="n">
-        <v>1.321103958147353</v>
+        <v>1.283274299832419</v>
       </c>
     </row>
     <row r="1046">
@@ -8736,7 +8736,7 @@
         <v>43789</v>
       </c>
       <c r="B1046" t="n">
-        <v>1.315617373222271</v>
+        <v>1.278972847380043</v>
       </c>
     </row>
     <row r="1047">
@@ -8744,7 +8744,7 @@
         <v>43790</v>
       </c>
       <c r="B1047" t="n">
-        <v>1.311685435348326</v>
+        <v>1.27515754957898</v>
       </c>
     </row>
     <row r="1048">
@@ -8752,7 +8752,7 @@
         <v>43791</v>
       </c>
       <c r="B1048" t="n">
-        <v>1.314501999285973</v>
+        <v>1.278130983616177</v>
       </c>
     </row>
     <row r="1049">
@@ -8760,7 +8760,7 @@
         <v>43794</v>
       </c>
       <c r="B1049" t="n">
-        <v>1.325983483541788</v>
+        <v>1.289113255153382</v>
       </c>
     </row>
     <row r="1050">
@@ -8768,7 +8768,7 @@
         <v>43795</v>
       </c>
       <c r="B1050" t="n">
-        <v>1.334971376898383</v>
+        <v>1.29704686734866</v>
       </c>
     </row>
     <row r="1051">
@@ -8776,7 +8776,7 @@
         <v>43796</v>
       </c>
       <c r="B1051" t="n">
-        <v>1.341549099226736</v>
+        <v>1.302895706221799</v>
       </c>
     </row>
     <row r="1052">
@@ -8784,7 +8784,7 @@
         <v>43797</v>
       </c>
       <c r="B1052" t="n">
-        <v>1.341568987673204</v>
+        <v>1.302914385402728</v>
       </c>
     </row>
     <row r="1053">
@@ -8792,7 +8792,7 @@
         <v>43798</v>
       </c>
       <c r="B1053" t="n">
-        <v>1.336775125673439</v>
+        <v>1.299063375231322</v>
       </c>
     </row>
     <row r="1054">
@@ -8800,7 +8800,7 @@
         <v>43801</v>
       </c>
       <c r="B1054" t="n">
-        <v>1.326434410522527</v>
+        <v>1.29028274926753</v>
       </c>
     </row>
     <row r="1055">
@@ -8808,7 +8808,7 @@
         <v>43802</v>
       </c>
       <c r="B1055" t="n">
-        <v>1.320965963339574</v>
+        <v>1.285718272665091</v>
       </c>
     </row>
     <row r="1056">
@@ -8816,7 +8816,7 @@
         <v>43803</v>
       </c>
       <c r="B1056" t="n">
-        <v>1.32664538196304</v>
+        <v>1.290730204408682</v>
       </c>
     </row>
     <row r="1057">
@@ -8824,7 +8824,7 @@
         <v>43804</v>
       </c>
       <c r="B1057" t="n">
-        <v>1.326099988860161</v>
+        <v>1.290593096210091</v>
       </c>
     </row>
     <row r="1058">
@@ -8832,7 +8832,7 @@
         <v>43805</v>
       </c>
       <c r="B1058" t="n">
-        <v>1.333610459104555</v>
+        <v>1.297488321188717</v>
       </c>
     </row>
     <row r="1059">
@@ -8840,7 +8840,7 @@
         <v>43808</v>
       </c>
       <c r="B1059" t="n">
-        <v>1.328086725990493</v>
+        <v>1.291287581082599</v>
       </c>
     </row>
     <row r="1060">
@@ -8848,7 +8848,7 @@
         <v>43809</v>
       </c>
       <c r="B1060" t="n">
-        <v>1.326312607494434</v>
+        <v>1.289768486315328</v>
       </c>
     </row>
     <row r="1061">
@@ -8856,7 +8856,7 @@
         <v>43810</v>
       </c>
       <c r="B1061" t="n">
-        <v>1.327439829554095</v>
+        <v>1.290956648418348</v>
       </c>
     </row>
     <row r="1062">
@@ -8864,7 +8864,7 @@
         <v>43811</v>
       </c>
       <c r="B1062" t="n">
-        <v>1.334969924133822</v>
+        <v>1.295935636415409</v>
       </c>
     </row>
     <row r="1063">
@@ -8872,7 +8872,7 @@
         <v>43812</v>
       </c>
       <c r="B1063" t="n">
-        <v>1.336211395779066</v>
+        <v>1.298346382256651</v>
       </c>
     </row>
     <row r="1064">
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="B1064" t="n">
-        <v>1.344609147429699</v>
+        <v>1.306540468579089</v>
       </c>
     </row>
     <row r="1065">
@@ -8888,7 +8888,7 @@
         <v>43816</v>
       </c>
       <c r="B1065" t="n">
-        <v>1.344367080315382</v>
+        <v>1.306351332002698</v>
       </c>
     </row>
     <row r="1066">
@@ -8896,7 +8896,7 @@
         <v>43817</v>
       </c>
       <c r="B1066" t="n">
-        <v>1.343845134960943</v>
+        <v>1.306527769337052</v>
       </c>
     </row>
     <row r="1067">
@@ -8904,7 +8904,7 @@
         <v>43818</v>
       </c>
       <c r="B1067" t="n">
-        <v>1.351536867913891</v>
+        <v>1.313952161586625</v>
       </c>
     </row>
     <row r="1068">
@@ -8912,7 +8912,7 @@
         <v>43819</v>
       </c>
       <c r="B1068" t="n">
-        <v>1.355032150147562</v>
+        <v>1.317024875728099</v>
       </c>
     </row>
     <row r="1069">
@@ -8920,7 +8920,7 @@
         <v>43822</v>
       </c>
       <c r="B1069" t="n">
-        <v>1.354703114309397</v>
+        <v>1.317225738985303</v>
       </c>
     </row>
     <row r="1070">
@@ -8928,7 +8928,7 @@
         <v>43823</v>
       </c>
       <c r="B1070" t="n">
-        <v>1.354095128584767</v>
+        <v>1.317138893010476</v>
       </c>
     </row>
     <row r="1071">
@@ -8936,7 +8936,7 @@
         <v>43824</v>
       </c>
       <c r="B1071" t="n">
-        <v>1.354095128584767</v>
+        <v>1.317138893010476</v>
       </c>
     </row>
     <row r="1072">
@@ -8944,7 +8944,7 @@
         <v>43825</v>
       </c>
       <c r="B1072" t="n">
-        <v>1.360575018231058</v>
+        <v>1.323419208025908</v>
       </c>
     </row>
     <row r="1073">
@@ -8952,7 +8952,7 @@
         <v>43826</v>
       </c>
       <c r="B1073" t="n">
-        <v>1.36036148917264</v>
+        <v>1.323633076768883</v>
       </c>
     </row>
     <row r="1074">
@@ -8960,7 +8960,7 @@
         <v>43829</v>
       </c>
       <c r="B1074" t="n">
-        <v>1.353031904460797</v>
+        <v>1.31577179198338</v>
       </c>
     </row>
     <row r="1075">
@@ -8968,7 +8968,7 @@
         <v>43830</v>
       </c>
       <c r="B1075" t="n">
-        <v>1.356458535738551</v>
+        <v>1.318892565050724</v>
       </c>
     </row>
     <row r="1076">
@@ -8976,7 +8976,7 @@
         <v>43831</v>
       </c>
       <c r="B1076" t="n">
-        <v>1.356481731198861</v>
+        <v>1.318914350944024</v>
       </c>
     </row>
     <row r="1077">
@@ -8984,7 +8984,7 @@
         <v>43832</v>
       </c>
       <c r="B1077" t="n">
-        <v>1.36695907544001</v>
+        <v>1.328645374446715</v>
       </c>
     </row>
     <row r="1078">
@@ -8992,7 +8992,7 @@
         <v>43833</v>
       </c>
       <c r="B1078" t="n">
-        <v>1.361794941352761</v>
+        <v>1.324636654007049</v>
       </c>
     </row>
     <row r="1079">
@@ -9000,7 +9000,7 @@
         <v>43836</v>
       </c>
       <c r="B1079" t="n">
-        <v>1.366899021685754</v>
+        <v>1.329499925948288</v>
       </c>
     </row>
     <row r="1080">
@@ -9008,7 +9008,7 @@
         <v>43837</v>
       </c>
       <c r="B1080" t="n">
-        <v>1.365861690697328</v>
+        <v>1.328178743614327</v>
       </c>
     </row>
     <row r="1081">
@@ -9016,7 +9016,7 @@
         <v>43838</v>
       </c>
       <c r="B1081" t="n">
-        <v>1.373538284562257</v>
+        <v>1.334890290218222</v>
       </c>
     </row>
     <row r="1082">
@@ -9024,7 +9024,7 @@
         <v>43839</v>
       </c>
       <c r="B1082" t="n">
-        <v>1.380468677546377</v>
+        <v>1.341087202182929</v>
       </c>
     </row>
     <row r="1083">
@@ -9032,7 +9032,7 @@
         <v>43840</v>
       </c>
       <c r="B1083" t="n">
-        <v>1.381127461857694</v>
+        <v>1.342403656957336</v>
       </c>
     </row>
     <row r="1084">
@@ -9040,7 +9040,7 @@
         <v>43843</v>
       </c>
       <c r="B1084" t="n">
-        <v>1.392658929933443</v>
+        <v>1.35291836618125</v>
       </c>
     </row>
     <row r="1085">
@@ -9048,7 +9048,7 @@
         <v>43844</v>
       </c>
       <c r="B1085" t="n">
-        <v>1.390828402820648</v>
+        <v>1.350948648778999</v>
       </c>
     </row>
     <row r="1086">
@@ -9056,7 +9056,7 @@
         <v>43845</v>
       </c>
       <c r="B1086" t="n">
-        <v>1.39197955346313</v>
+        <v>1.35288000848528</v>
       </c>
     </row>
     <row r="1087">
@@ -9064,7 +9064,7 @@
         <v>43846</v>
       </c>
       <c r="B1087" t="n">
-        <v>1.402303264254043</v>
+        <v>1.361699114721504</v>
       </c>
     </row>
     <row r="1088">
@@ -9072,7 +9072,7 @@
         <v>43847</v>
       </c>
       <c r="B1088" t="n">
-        <v>1.405862741010878</v>
+        <v>1.365341033391489</v>
       </c>
     </row>
     <row r="1089">
@@ -9080,7 +9080,7 @@
         <v>43851</v>
       </c>
       <c r="B1089" t="n">
-        <v>1.402910130906701</v>
+        <v>1.362439936477938</v>
       </c>
     </row>
     <row r="1090">
@@ -9088,7 +9088,7 @@
         <v>43852</v>
       </c>
       <c r="B1090" t="n">
-        <v>1.403708220363654</v>
+        <v>1.362686757624353</v>
       </c>
     </row>
     <row r="1091">
@@ -9096,7 +9096,7 @@
         <v>43853</v>
       </c>
       <c r="B1091" t="n">
-        <v>1.404340241022836</v>
+        <v>1.362534302475359</v>
       </c>
     </row>
     <row r="1092">
@@ -9104,7 +9104,7 @@
         <v>43854</v>
       </c>
       <c r="B1092" t="n">
-        <v>1.391673779568658</v>
+        <v>1.351881781360525</v>
       </c>
     </row>
     <row r="1093">
@@ -9112,7 +9112,7 @@
         <v>43857</v>
       </c>
       <c r="B1093" t="n">
-        <v>1.375418820966074</v>
+        <v>1.337676623297458</v>
       </c>
     </row>
     <row r="1094">
@@ -9120,7 +9120,7 @@
         <v>43858</v>
       </c>
       <c r="B1094" t="n">
-        <v>1.386761898102701</v>
+        <v>1.349326626230269</v>
       </c>
     </row>
     <row r="1095">
@@ -9128,7 +9128,7 @@
         <v>43859</v>
       </c>
       <c r="B1095" t="n">
-        <v>1.383368771175386</v>
+        <v>1.347218066408656</v>
       </c>
     </row>
     <row r="1096">
@@ -9136,7 +9136,7 @@
         <v>43860</v>
       </c>
       <c r="B1096" t="n">
-        <v>1.382770670423838</v>
+        <v>1.346703153111956</v>
       </c>
     </row>
     <row r="1097">
@@ -9144,7 +9144,7 @@
         <v>43861</v>
       </c>
       <c r="B1097" t="n">
-        <v>1.362828388644066</v>
+        <v>1.32946075186708</v>
       </c>
     </row>
     <row r="1098">
@@ -9152,7 +9152,7 @@
         <v>43864</v>
       </c>
       <c r="B1098" t="n">
-        <v>1.374804285655168</v>
+        <v>1.34065821001951</v>
       </c>
     </row>
     <row r="1099">
@@ -9160,7 +9160,7 @@
         <v>43865</v>
       </c>
       <c r="B1099" t="n">
-        <v>1.391102508449463</v>
+        <v>1.354062853867815</v>
       </c>
     </row>
     <row r="1100">
@@ -9168,7 +9168,7 @@
         <v>43866</v>
       </c>
       <c r="B1100" t="n">
-        <v>1.397330914870135</v>
+        <v>1.360350637008448</v>
       </c>
     </row>
     <row r="1101">
@@ -9176,7 +9176,7 @@
         <v>43867</v>
       </c>
       <c r="B1101" t="n">
-        <v>1.400099237985279</v>
+        <v>1.362855623367551</v>
       </c>
     </row>
     <row r="1102">
@@ -9184,7 +9184,7 @@
         <v>43868</v>
       </c>
       <c r="B1102" t="n">
-        <v>1.392619699447908</v>
+        <v>1.356262099790597</v>
       </c>
     </row>
     <row r="1103">
@@ -9192,7 +9192,7 @@
         <v>43871</v>
       </c>
       <c r="B1103" t="n">
-        <v>1.40075394525115</v>
+        <v>1.364630076394339</v>
       </c>
     </row>
     <row r="1104">
@@ -9200,7 +9200,7 @@
         <v>43872</v>
       </c>
       <c r="B1104" t="n">
-        <v>1.403734479189422</v>
+        <v>1.367790359563608</v>
       </c>
     </row>
     <row r="1105">
@@ -9208,7 +9208,7 @@
         <v>43873</v>
       </c>
       <c r="B1105" t="n">
-        <v>1.410949038162865</v>
+        <v>1.383482198921885</v>
       </c>
     </row>
     <row r="1106">
@@ -9216,7 +9216,7 @@
         <v>43874</v>
       </c>
       <c r="B1106" t="n">
-        <v>1.412759853305331</v>
+        <v>1.385331246770374</v>
       </c>
     </row>
     <row r="1107">
@@ -9224,7 +9224,7 @@
         <v>43875</v>
       </c>
       <c r="B1107" t="n">
-        <v>1.416703460551027</v>
+        <v>1.389447090193993</v>
       </c>
     </row>
     <row r="1108">
@@ -9232,7 +9232,7 @@
         <v>43879</v>
       </c>
       <c r="B1108" t="n">
-        <v>1.408128376624248</v>
+        <v>1.383304850413112</v>
       </c>
     </row>
     <row r="1109">
@@ -9240,7 +9240,7 @@
         <v>43880</v>
       </c>
       <c r="B1109" t="n">
-        <v>1.40951412162975</v>
+        <v>1.379874530567211</v>
       </c>
     </row>
     <row r="1110">
@@ -9248,7 +9248,7 @@
         <v>43881</v>
       </c>
       <c r="B1110" t="n">
-        <v>1.405427446569913</v>
+        <v>1.375844859911528</v>
       </c>
     </row>
     <row r="1111">
@@ -9256,7 +9256,7 @@
         <v>43882</v>
       </c>
       <c r="B1111" t="n">
-        <v>1.391768087863233</v>
+        <v>1.363976725648527</v>
       </c>
     </row>
     <row r="1112">
@@ -9264,7 +9264,7 @@
         <v>43885</v>
       </c>
       <c r="B1112" t="n">
-        <v>1.351778223562137</v>
+        <v>1.326960921619729</v>
       </c>
     </row>
     <row r="1113">
@@ -9272,7 +9272,7 @@
         <v>43886</v>
       </c>
       <c r="B1113" t="n">
-        <v>1.312251794021538</v>
+        <v>1.291211934448913</v>
       </c>
     </row>
     <row r="1114">
@@ -9280,7 +9280,7 @@
         <v>43887</v>
       </c>
       <c r="B1114" t="n">
-        <v>1.30614405727613</v>
+        <v>1.2859901189449</v>
       </c>
     </row>
     <row r="1115">
@@ -9288,7 +9288,55 @@
         <v>43888</v>
       </c>
       <c r="B1115" t="n">
-        <v>1.255790370003411</v>
+        <v>1.239517598353558</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1.229193291608761</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>43892</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1.277344995936526</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>43893</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>1.251240665407708</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>43894</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1.290160718358337</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>43895</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>1.250360130282633</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>43896</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>1.198357552994922</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/normalizedPortfolio.xlsx
+++ b/outputs/normalizedPortfolio.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1121"/>
+  <dimension ref="A1:B1145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,7 +3504,7 @@
         <v>42845</v>
       </c>
       <c r="B392" t="n">
-        <v>1.137124992462424</v>
+        <v>1.137041980781603</v>
       </c>
     </row>
     <row r="393">
@@ -3512,7 +3512,7 @@
         <v>42846</v>
       </c>
       <c r="B393" t="n">
-        <v>1.134744490013788</v>
+        <v>1.134714387813997</v>
       </c>
     </row>
     <row r="394">
@@ -3520,7 +3520,7 @@
         <v>42849</v>
       </c>
       <c r="B394" t="n">
-        <v>1.144282044939632</v>
+        <v>1.144042129665522</v>
       </c>
     </row>
     <row r="395">
@@ -3528,7 +3528,7 @@
         <v>42850</v>
       </c>
       <c r="B395" t="n">
-        <v>1.149487621003882</v>
+        <v>1.149132766691249</v>
       </c>
     </row>
     <row r="396">
@@ -3536,7 +3536,7 @@
         <v>42851</v>
       </c>
       <c r="B396" t="n">
-        <v>1.14736807356871</v>
+        <v>1.147060307755936</v>
       </c>
     </row>
     <row r="397">
@@ -3544,7 +3544,7 @@
         <v>42852</v>
       </c>
       <c r="B397" t="n">
-        <v>1.151484438910778</v>
+        <v>1.151085702114999</v>
       </c>
     </row>
     <row r="398">
@@ -3552,7 +3552,7 @@
         <v>42853</v>
       </c>
       <c r="B398" t="n">
-        <v>1.141179116396854</v>
+        <v>1.141010881194216</v>
       </c>
     </row>
     <row r="399">
@@ -3560,7 +3560,7 @@
         <v>42856</v>
       </c>
       <c r="B399" t="n">
-        <v>1.14153706040209</v>
+        <v>1.141360891011556</v>
       </c>
     </row>
     <row r="400">
@@ -3568,7 +3568,7 @@
         <v>42857</v>
       </c>
       <c r="B400" t="n">
-        <v>1.142553755107271</v>
+        <v>1.142355062293072</v>
       </c>
     </row>
     <row r="401">
@@ -3576,7 +3576,7 @@
         <v>42858</v>
       </c>
       <c r="B401" t="n">
-        <v>1.134354035030972</v>
+        <v>1.134338418198027</v>
       </c>
     </row>
     <row r="402">
@@ -3584,7 +3584,7 @@
         <v>42859</v>
       </c>
       <c r="B402" t="n">
-        <v>1.141473999052916</v>
+        <v>1.14130149732865</v>
       </c>
     </row>
     <row r="403">
@@ -3592,7 +3592,7 @@
         <v>42860</v>
       </c>
       <c r="B403" t="n">
-        <v>1.14614959110824</v>
+        <v>1.145873849377347</v>
       </c>
     </row>
     <row r="404">
@@ -3600,7 +3600,7 @@
         <v>42863</v>
       </c>
       <c r="B404" t="n">
-        <v>1.146022806780031</v>
+        <v>1.145749875920684</v>
       </c>
     </row>
     <row r="405">
@@ -3608,7 +3608,7 @@
         <v>42864</v>
       </c>
       <c r="B405" t="n">
-        <v>1.143314315050417</v>
+        <v>1.143101563663316</v>
       </c>
     </row>
     <row r="406">
@@ -3616,7 +3616,7 @@
         <v>42865</v>
       </c>
       <c r="B406" t="n">
-        <v>1.143631268379049</v>
+        <v>1.143411492695579</v>
       </c>
     </row>
     <row r="407">
@@ -3624,7 +3624,7 @@
         <v>42866</v>
       </c>
       <c r="B407" t="n">
-        <v>1.139228801341558</v>
+        <v>1.139106983249865</v>
       </c>
     </row>
     <row r="408">
@@ -3632,7 +3632,7 @@
         <v>42867</v>
       </c>
       <c r="B408" t="n">
-        <v>1.136082325162533</v>
+        <v>1.136030443268501</v>
       </c>
     </row>
     <row r="409">
@@ -3640,7 +3640,7 @@
         <v>42870</v>
       </c>
       <c r="B409" t="n">
-        <v>1.14213584128584</v>
+        <v>1.141950469389933</v>
       </c>
     </row>
     <row r="410">
@@ -3648,7 +3648,7 @@
         <v>42871</v>
       </c>
       <c r="B410" t="n">
-        <v>1.13827540306026</v>
+        <v>1.138175881310098</v>
       </c>
     </row>
     <row r="411">
@@ -3656,7 +3656,7 @@
         <v>42872</v>
       </c>
       <c r="B411" t="n">
-        <v>1.129158256633319</v>
+        <v>1.129262394863245</v>
       </c>
     </row>
     <row r="412">
@@ -3664,7 +3664,7 @@
         <v>42873</v>
       </c>
       <c r="B412" t="n">
-        <v>1.130891664110449</v>
+        <v>1.130957443658531</v>
       </c>
     </row>
     <row r="413">
@@ -3672,7 +3672,7 @@
         <v>42874</v>
       </c>
       <c r="B413" t="n">
-        <v>1.142394570374937</v>
+        <v>1.142207960967364</v>
       </c>
     </row>
     <row r="414">
@@ -3680,7 +3680,7 @@
         <v>42877</v>
       </c>
       <c r="B414" t="n">
-        <v>1.148709038082214</v>
+        <v>1.148383263803844</v>
       </c>
     </row>
     <row r="415">
@@ -3688,7 +3688,7 @@
         <v>42878</v>
       </c>
       <c r="B415" t="n">
-        <v>1.151236529566255</v>
+        <v>1.150854873477726</v>
       </c>
     </row>
     <row r="416">
@@ -3696,7 +3696,7 @@
         <v>42879</v>
       </c>
       <c r="B416" t="n">
-        <v>1.15435923147714</v>
+        <v>1.153908568188323</v>
       </c>
     </row>
     <row r="417">
@@ -3704,7 +3704,7 @@
         <v>42880</v>
       </c>
       <c r="B417" t="n">
-        <v>1.160633569583231</v>
+        <v>1.160044617286272</v>
       </c>
     </row>
     <row r="418">
@@ -3712,7 +3712,7 @@
         <v>42881</v>
       </c>
       <c r="B418" t="n">
-        <v>1.159933415636035</v>
+        <v>1.15935998413744</v>
       </c>
     </row>
     <row r="419">
@@ -3720,7 +3720,7 @@
         <v>42885</v>
       </c>
       <c r="B419" t="n">
-        <v>1.156777065235007</v>
+        <v>1.156273744370218</v>
       </c>
     </row>
     <row r="420">
@@ -3728,7 +3728,7 @@
         <v>42886</v>
       </c>
       <c r="B420" t="n">
-        <v>1.157578430168203</v>
+        <v>1.157057367186447</v>
       </c>
     </row>
     <row r="421">
@@ -3736,7 +3736,7 @@
         <v>42887</v>
       </c>
       <c r="B421" t="n">
-        <v>1.166330843262535</v>
+        <v>1.165617279690937</v>
       </c>
     </row>
     <row r="422">
@@ -3744,7 +3744,7 @@
         <v>42888</v>
       </c>
       <c r="B422" t="n">
-        <v>1.167020853757051</v>
+        <v>1.166292013547373</v>
       </c>
     </row>
     <row r="423">
@@ -3752,7 +3752,7 @@
         <v>42891</v>
       </c>
       <c r="B423" t="n">
-        <v>1.165096011305621</v>
+        <v>1.164409877409211</v>
       </c>
     </row>
     <row r="424">
@@ -3760,7 +3760,7 @@
         <v>42892</v>
       </c>
       <c r="B424" t="n">
-        <v>1.160851426509499</v>
+        <v>1.160259645129624</v>
       </c>
     </row>
     <row r="425">
@@ -3768,7 +3768,7 @@
         <v>42893</v>
       </c>
       <c r="B425" t="n">
-        <v>1.162927370782098</v>
+        <v>1.162289682721907</v>
       </c>
     </row>
     <row r="426">
@@ -3776,7 +3776,7 @@
         <v>42894</v>
       </c>
       <c r="B426" t="n">
-        <v>1.158350555481972</v>
+        <v>1.157814630830387</v>
       </c>
     </row>
     <row r="427">
@@ -3784,7 +3784,7 @@
         <v>42895</v>
       </c>
       <c r="B427" t="n">
-        <v>1.160566958238929</v>
+        <v>1.159982028656464</v>
       </c>
     </row>
     <row r="428">
@@ -3792,7 +3792,7 @@
         <v>42898</v>
       </c>
       <c r="B428" t="n">
-        <v>1.162175589686819</v>
+        <v>1.161555075228289</v>
       </c>
     </row>
     <row r="429">
@@ -3800,7 +3800,7 @@
         <v>42899</v>
       </c>
       <c r="B429" t="n">
-        <v>1.167818274430199</v>
+        <v>1.167073351240877</v>
       </c>
     </row>
     <row r="430">
@@ -3808,7 +3808,7 @@
         <v>42900</v>
       </c>
       <c r="B430" t="n">
-        <v>1.163391530573872</v>
+        <v>1.162745010732691</v>
       </c>
     </row>
     <row r="431">
@@ -3816,7 +3816,7 @@
         <v>42901</v>
       </c>
       <c r="B431" t="n">
-        <v>1.161074852840614</v>
+        <v>1.160479742328661</v>
       </c>
     </row>
     <row r="432">
@@ -3824,7 +3824,7 @@
         <v>42902</v>
       </c>
       <c r="B432" t="n">
-        <v>1.164810081969129</v>
+        <v>1.164132495227109</v>
       </c>
     </row>
     <row r="433">
@@ -3832,7 +3832,7 @@
         <v>42905</v>
       </c>
       <c r="B433" t="n">
-        <v>1.170474720135908</v>
+        <v>1.169672252614484</v>
       </c>
     </row>
     <row r="434">
@@ -3840,7 +3840,7 @@
         <v>42906</v>
       </c>
       <c r="B434" t="n">
-        <v>1.165509889142119</v>
+        <v>1.164817821559155</v>
       </c>
     </row>
     <row r="435">
@@ -3848,7 +3848,7 @@
         <v>42907</v>
       </c>
       <c r="B435" t="n">
-        <v>1.162463896324208</v>
+        <v>1.161839454902096</v>
       </c>
     </row>
     <row r="436">
@@ -3856,7 +3856,7 @@
         <v>42908</v>
       </c>
       <c r="B436" t="n">
-        <v>1.161489190586656</v>
+        <v>1.160886352555175</v>
       </c>
     </row>
     <row r="437">
@@ -3864,7 +3864,7 @@
         <v>42909</v>
       </c>
       <c r="B437" t="n">
-        <v>1.16543346146438</v>
+        <v>1.164743556030421</v>
       </c>
     </row>
     <row r="438">
@@ -3872,7 +3872,7 @@
         <v>42912</v>
       </c>
       <c r="B438" t="n">
-        <v>1.167859369990379</v>
+        <v>1.167115847427237</v>
       </c>
     </row>
     <row r="439">
@@ -3880,7 +3880,7 @@
         <v>42913</v>
       </c>
       <c r="B439" t="n">
-        <v>1.161071797172194</v>
+        <v>1.160479419593962</v>
       </c>
     </row>
     <row r="440">
@@ -3888,7 +3888,7 @@
         <v>42914</v>
       </c>
       <c r="B440" t="n">
-        <v>1.166938106719652</v>
+        <v>1.166216451932544</v>
       </c>
     </row>
     <row r="441">
@@ -3896,7 +3896,7 @@
         <v>42915</v>
       </c>
       <c r="B441" t="n">
-        <v>1.158545640669788</v>
+        <v>1.158011092238934</v>
       </c>
     </row>
     <row r="442">
@@ -3904,7 +3904,7 @@
         <v>42916</v>
       </c>
       <c r="B442" t="n">
-        <v>1.160434833089524</v>
+        <v>1.159858521490483</v>
       </c>
     </row>
     <row r="443">
@@ -3912,7 +3912,7 @@
         <v>42919</v>
       </c>
       <c r="B443" t="n">
-        <v>1.16414659745012</v>
+        <v>1.16348835571017</v>
       </c>
     </row>
     <row r="444">
@@ -3920,7 +3920,7 @@
         <v>42921</v>
       </c>
       <c r="B444" t="n">
-        <v>1.160941473164252</v>
+        <v>1.160354380447505</v>
       </c>
     </row>
     <row r="445">
@@ -3928,7 +3928,7 @@
         <v>42922</v>
       </c>
       <c r="B445" t="n">
-        <v>1.149329049594369</v>
+        <v>1.149001514989365</v>
       </c>
     </row>
     <row r="446">
@@ -3936,7 +3936,7 @@
         <v>42923</v>
       </c>
       <c r="B446" t="n">
-        <v>1.157878405482273</v>
+        <v>1.157362982985382</v>
       </c>
     </row>
     <row r="447">
@@ -3944,7 +3944,7 @@
         <v>42926</v>
       </c>
       <c r="B447" t="n">
-        <v>1.155717140333498</v>
+        <v>1.155249639871943</v>
       </c>
     </row>
     <row r="448">
@@ -3952,7 +3952,7 @@
         <v>42927</v>
       </c>
       <c r="B448" t="n">
-        <v>1.153253626555564</v>
+        <v>1.152840763624357</v>
       </c>
     </row>
     <row r="449">
@@ -3960,7 +3960,7 @@
         <v>42928</v>
       </c>
       <c r="B449" t="n">
-        <v>1.16453715089395</v>
+        <v>1.163876899563236</v>
       </c>
     </row>
     <row r="450">
@@ -3968,7 +3968,7 @@
         <v>42929</v>
       </c>
       <c r="B450" t="n">
-        <v>1.165910734475232</v>
+        <v>1.165220121015463</v>
       </c>
     </row>
     <row r="451">
@@ -3976,7 +3976,7 @@
         <v>42930</v>
       </c>
       <c r="B451" t="n">
-        <v>1.170602437757777</v>
+        <v>1.169808398795356</v>
       </c>
     </row>
     <row r="452">
@@ -3984,7 +3984,7 @@
         <v>42933</v>
       </c>
       <c r="B452" t="n">
-        <v>1.171182186619853</v>
+        <v>1.170375324727191</v>
       </c>
     </row>
     <row r="453">
@@ -3992,7 +3992,7 @@
         <v>42934</v>
       </c>
       <c r="B453" t="n">
-        <v>1.170636376292034</v>
+        <v>1.169841597679287</v>
       </c>
     </row>
     <row r="454">
@@ -4000,7 +4000,7 @@
         <v>42935</v>
       </c>
       <c r="B454" t="n">
-        <v>1.178252631335702</v>
+        <v>1.177290356974042</v>
       </c>
     </row>
     <row r="455">
@@ -4008,7 +4008,7 @@
         <v>42936</v>
       </c>
       <c r="B455" t="n">
-        <v>1.179193825435974</v>
+        <v>1.178210741228456</v>
       </c>
     </row>
     <row r="456">
@@ -4016,7 +4016,7 @@
         <v>42937</v>
       </c>
       <c r="B456" t="n">
-        <v>1.18317684535762</v>
+        <v>1.182105910524227</v>
       </c>
     </row>
     <row r="457">
@@ -4024,7 +4024,7 @@
         <v>42940</v>
       </c>
       <c r="B457" t="n">
-        <v>1.181449541692551</v>
+        <v>1.180416877919827</v>
       </c>
     </row>
     <row r="458">
@@ -4032,7 +4032,7 @@
         <v>42941</v>
       </c>
       <c r="B458" t="n">
-        <v>1.183568727396056</v>
+        <v>1.1824892533263</v>
       </c>
     </row>
     <row r="459">
@@ -4040,7 +4040,7 @@
         <v>42942</v>
       </c>
       <c r="B459" t="n">
-        <v>1.180095455068783</v>
+        <v>1.179093042214223</v>
       </c>
     </row>
     <row r="460">
@@ -4048,7 +4048,7 @@
         <v>42943</v>
       </c>
       <c r="B460" t="n">
-        <v>1.182851453763332</v>
+        <v>1.181788196714485</v>
       </c>
     </row>
     <row r="461">
@@ -4056,7 +4056,7 @@
         <v>42944</v>
       </c>
       <c r="B461" t="n">
-        <v>1.17267360182925</v>
+        <v>1.171837353048593</v>
       </c>
     </row>
     <row r="462">
@@ -4064,7 +4064,7 @@
         <v>42947</v>
       </c>
       <c r="B462" t="n">
-        <v>1.172847943775656</v>
+        <v>1.172007838685617</v>
       </c>
     </row>
     <row r="463">
@@ -4072,7 +4072,7 @@
         <v>42948</v>
       </c>
       <c r="B463" t="n">
-        <v>1.176272457048847</v>
+        <v>1.175356803170138</v>
       </c>
     </row>
     <row r="464">
@@ -4080,7 +4080,7 @@
         <v>42949</v>
       </c>
       <c r="B464" t="n">
-        <v>1.175495035443853</v>
+        <v>1.174596590410438</v>
       </c>
     </row>
     <row r="465">
@@ -4088,7 +4088,7 @@
         <v>42950</v>
       </c>
       <c r="B465" t="n">
-        <v>1.167071752024866</v>
+        <v>1.166360908012166</v>
       </c>
     </row>
     <row r="466">
@@ -4096,7 +4096,7 @@
         <v>42951</v>
       </c>
       <c r="B466" t="n">
-        <v>1.16746580874033</v>
+        <v>1.166746251059056</v>
       </c>
     </row>
     <row r="467">
@@ -4104,7 +4104,7 @@
         <v>42954</v>
       </c>
       <c r="B467" t="n">
-        <v>1.168569503286357</v>
+        <v>1.167825554025023</v>
       </c>
     </row>
     <row r="468">
@@ -4112,7 +4112,7 @@
         <v>42955</v>
       </c>
       <c r="B468" t="n">
-        <v>1.161262500829532</v>
+        <v>1.160681141283494</v>
       </c>
     </row>
     <row r="469">
@@ -4120,7 +4120,7 @@
         <v>42956</v>
       </c>
       <c r="B469" t="n">
-        <v>1.159039207085269</v>
+        <v>1.158507112719897</v>
       </c>
     </row>
     <row r="470">
@@ -4128,7 +4128,7 @@
         <v>42957</v>
       </c>
       <c r="B470" t="n">
-        <v>1.144759145181593</v>
+        <v>1.144546624335897</v>
       </c>
     </row>
     <row r="471">
@@ -4136,7 +4136,7 @@
         <v>42958</v>
       </c>
       <c r="B471" t="n">
-        <v>1.143393081253168</v>
+        <v>1.143210801172443</v>
       </c>
     </row>
     <row r="472">
@@ -4144,7 +4144,7 @@
         <v>42961</v>
       </c>
       <c r="B472" t="n">
-        <v>1.150651377879624</v>
+        <v>1.150309595355104</v>
       </c>
     </row>
     <row r="473">
@@ -4152,7 +4152,7 @@
         <v>42962</v>
       </c>
       <c r="B473" t="n">
-        <v>1.150016764092789</v>
+        <v>1.149689020220421</v>
       </c>
     </row>
     <row r="474">
@@ -4160,7 +4160,7 @@
         <v>42963</v>
       </c>
       <c r="B474" t="n">
-        <v>1.151740772147629</v>
+        <v>1.151374965999555</v>
       </c>
     </row>
     <row r="475">
@@ -4168,7 +4168,7 @@
         <v>42964</v>
       </c>
       <c r="B475" t="n">
-        <v>1.137681418253616</v>
+        <v>1.137630117626962</v>
       </c>
     </row>
     <row r="476">
@@ -4176,7 +4176,7 @@
         <v>42965</v>
       </c>
       <c r="B476" t="n">
-        <v>1.135837372661338</v>
+        <v>1.135826896065254</v>
       </c>
     </row>
     <row r="477">
@@ -4184,7 +4184,7 @@
         <v>42968</v>
       </c>
       <c r="B477" t="n">
-        <v>1.140505208751637</v>
+        <v>1.140391972440559</v>
       </c>
     </row>
     <row r="478">
@@ -4192,7 +4192,7 @@
         <v>42969</v>
       </c>
       <c r="B478" t="n">
-        <v>1.150480213245206</v>
+        <v>1.150148382107294</v>
       </c>
     </row>
     <row r="479">
@@ -4200,7 +4200,7 @@
         <v>42970</v>
       </c>
       <c r="B479" t="n">
-        <v>1.149573725654914</v>
+        <v>1.149261942472894</v>
       </c>
     </row>
     <row r="480">
@@ -4208,7 +4208,7 @@
         <v>42971</v>
       </c>
       <c r="B480" t="n">
-        <v>1.148691687512954</v>
+        <v>1.148399411160239</v>
       </c>
     </row>
     <row r="481">
@@ -4216,7 +4216,7 @@
         <v>42972</v>
       </c>
       <c r="B481" t="n">
-        <v>1.154892588970874</v>
+        <v>1.154463992849872</v>
       </c>
     </row>
     <row r="482">
@@ -4224,7 +4224,7 @@
         <v>42975</v>
       </c>
       <c r="B482" t="n">
-        <v>1.154823945838594</v>
+        <v>1.154396866680095</v>
       </c>
     </row>
     <row r="483">
@@ -4232,7 +4232,7 @@
         <v>42976</v>
       </c>
       <c r="B483" t="n">
-        <v>1.153937231281977</v>
+        <v>1.153529761211495</v>
       </c>
     </row>
     <row r="484">
@@ -4240,7 +4240,7 @@
         <v>42977</v>
       </c>
       <c r="B484" t="n">
-        <v>1.156309192928356</v>
+        <v>1.155849411032776</v>
       </c>
     </row>
     <row r="485">
@@ -4248,7 +4248,7 @@
         <v>42978</v>
       </c>
       <c r="B485" t="n">
-        <v>1.162073771022403</v>
+        <v>1.161487214813451</v>
       </c>
     </row>
     <row r="486">
@@ -4256,7 +4256,7 @@
         <v>42979</v>
       </c>
       <c r="B486" t="n">
-        <v>1.163629667344664</v>
+        <v>1.163008774883071</v>
       </c>
     </row>
     <row r="487">
@@ -4264,7 +4264,7 @@
         <v>42983</v>
       </c>
       <c r="B487" t="n">
-        <v>1.155122806035048</v>
+        <v>1.154691198861378</v>
       </c>
     </row>
     <row r="488">
@@ -4272,7 +4272,7 @@
         <v>42984</v>
       </c>
       <c r="B488" t="n">
-        <v>1.16276308015636</v>
+        <v>1.162163739399577</v>
       </c>
     </row>
     <row r="489">
@@ -4280,7 +4280,7 @@
         <v>42985</v>
       </c>
       <c r="B489" t="n">
-        <v>1.161413733460043</v>
+        <v>1.160844236347326</v>
       </c>
     </row>
     <row r="490">
@@ -4288,7 +4288,7 @@
         <v>42986</v>
       </c>
       <c r="B490" t="n">
-        <v>1.160953487227088</v>
+        <v>1.160394161982712</v>
       </c>
     </row>
     <row r="491">
@@ -4296,7 +4296,7 @@
         <v>42989</v>
       </c>
       <c r="B491" t="n">
-        <v>1.170346595449113</v>
+        <v>1.169581359692108</v>
       </c>
     </row>
     <row r="492">
@@ -4304,7 +4304,7 @@
         <v>42990</v>
       </c>
       <c r="B492" t="n">
-        <v>1.170361286289645</v>
+        <v>1.169595726018369</v>
       </c>
     </row>
     <row r="493">
@@ -4312,7 +4312,7 @@
         <v>42991</v>
       </c>
       <c r="B493" t="n">
-        <v>1.169120633578504</v>
+        <v>1.168382506698214</v>
       </c>
     </row>
     <row r="494">
@@ -4320,7 +4320,7 @@
         <v>42992</v>
       </c>
       <c r="B494" t="n">
-        <v>1.163831760132707</v>
+        <v>1.163210965647425</v>
       </c>
     </row>
     <row r="495">
@@ -4328,7 +4328,7 @@
         <v>42993</v>
       </c>
       <c r="B495" t="n">
-        <v>1.16571595409992</v>
+        <v>1.165053604128962</v>
       </c>
     </row>
     <row r="496">
@@ -4336,7 +4336,7 @@
         <v>42996</v>
       </c>
       <c r="B496" t="n">
-        <v>1.166543633519965</v>
+        <v>1.165863013463746</v>
       </c>
     </row>
     <row r="497">
@@ -4344,7 +4344,7 @@
         <v>42997</v>
       </c>
       <c r="B497" t="n">
-        <v>1.165008557883091</v>
+        <v>1.164361888306602</v>
       </c>
     </row>
     <row r="498">
@@ -4352,7 +4352,7 @@
         <v>42998</v>
       </c>
       <c r="B498" t="n">
-        <v>1.165402284604798</v>
+        <v>1.164746920910724</v>
       </c>
     </row>
     <row r="499">
@@ -4360,7 +4360,7 @@
         <v>42999</v>
       </c>
       <c r="B499" t="n">
-        <v>1.167160884600535</v>
+        <v>1.166466731580194</v>
       </c>
     </row>
     <row r="500">
@@ -4368,7 +4368,7 @@
         <v>43000</v>
       </c>
       <c r="B500" t="n">
-        <v>1.164862858899328</v>
+        <v>1.164219561263147</v>
       </c>
     </row>
     <row r="501">
@@ -4376,7 +4376,7 @@
         <v>43003</v>
       </c>
       <c r="B501" t="n">
-        <v>1.168798565754694</v>
+        <v>1.16806861462812</v>
       </c>
     </row>
     <row r="502">
@@ -4384,7 +4384,7 @@
         <v>43004</v>
       </c>
       <c r="B502" t="n">
-        <v>1.168894475687742</v>
+        <v>1.168162406268881</v>
       </c>
     </row>
     <row r="503">
@@ -4392,7 +4392,7 @@
         <v>43005</v>
       </c>
       <c r="B503" t="n">
-        <v>1.174339279260715</v>
+        <v>1.173487477762554</v>
       </c>
     </row>
     <row r="504">
@@ -4400,7 +4400,7 @@
         <v>43006</v>
       </c>
       <c r="B504" t="n">
-        <v>1.174571407279272</v>
+        <v>1.173714479707521</v>
       </c>
     </row>
     <row r="505">
@@ -4408,7 +4408,7 @@
         <v>43007</v>
       </c>
       <c r="B505" t="n">
-        <v>1.178492002907129</v>
+        <v>1.177548754328851</v>
       </c>
     </row>
     <row r="506">
@@ -4416,7 +4416,7 @@
         <v>43010</v>
       </c>
       <c r="B506" t="n">
-        <v>1.18115078896419</v>
+        <v>1.180148941730907</v>
       </c>
     </row>
     <row r="507">
@@ -4424,7 +4424,7 @@
         <v>43011</v>
       </c>
       <c r="B507" t="n">
-        <v>1.186279347409712</v>
+        <v>1.185164691600906</v>
       </c>
     </row>
     <row r="508">
@@ -4432,7 +4432,7 @@
         <v>43012</v>
       </c>
       <c r="B508" t="n">
-        <v>1.187924550353807</v>
+        <v>1.186773606398387</v>
       </c>
     </row>
     <row r="509">
@@ -4440,7 +4440,7 @@
         <v>43013</v>
       </c>
       <c r="B509" t="n">
-        <v>1.193681048602069</v>
+        <v>1.19240354575971</v>
       </c>
     </row>
     <row r="510">
@@ -4448,7 +4448,7 @@
         <v>43014</v>
       </c>
       <c r="B510" t="n">
-        <v>1.186395394742007</v>
+        <v>1.185279707450634</v>
       </c>
     </row>
     <row r="511">
@@ -4456,7 +4456,7 @@
         <v>43017</v>
       </c>
       <c r="B511" t="n">
-        <v>1.185013066767258</v>
+        <v>1.183927938878584</v>
       </c>
     </row>
     <row r="512">
@@ -4464,7 +4464,7 @@
         <v>43018</v>
       </c>
       <c r="B512" t="n">
-        <v>1.188970105966786</v>
+        <v>1.1877978684383</v>
       </c>
     </row>
     <row r="513">
@@ -4472,7 +4472,7 @@
         <v>43019</v>
       </c>
       <c r="B513" t="n">
-        <v>1.19131530405935</v>
+        <v>1.190091374044751</v>
       </c>
     </row>
     <row r="514">
@@ -4480,7 +4480,7 @@
         <v>43020</v>
       </c>
       <c r="B514" t="n">
-        <v>1.193586755871114</v>
+        <v>1.192312755975886</v>
       </c>
     </row>
     <row r="515">
@@ -4488,7 +4488,7 @@
         <v>43021</v>
       </c>
       <c r="B515" t="n">
-        <v>1.194445745491852</v>
+        <v>1.193152789873368</v>
       </c>
     </row>
     <row r="516">
@@ -4496,7 +4496,7 @@
         <v>43024</v>
       </c>
       <c r="B516" t="n">
-        <v>1.194318308532063</v>
+        <v>1.193028167287857</v>
       </c>
     </row>
     <row r="517">
@@ -4504,7 +4504,7 @@
         <v>43025</v>
       </c>
       <c r="B517" t="n">
-        <v>1.190559364414254</v>
+        <v>1.189352472339868</v>
       </c>
     </row>
     <row r="518">
@@ -4512,7 +4512,7 @@
         <v>43026</v>
       </c>
       <c r="B518" t="n">
-        <v>1.189233391886413</v>
+        <v>1.188055810187987</v>
       </c>
     </row>
     <row r="519">
@@ -4520,7 +4520,7 @@
         <v>43027</v>
       </c>
       <c r="B519" t="n">
-        <v>1.190508439573511</v>
+        <v>1.189302730759693</v>
       </c>
     </row>
     <row r="520">
@@ -4528,7 +4528,7 @@
         <v>43028</v>
       </c>
       <c r="B520" t="n">
-        <v>1.194517966009996</v>
+        <v>1.193223998375777</v>
       </c>
     </row>
     <row r="521">
@@ -4536,7 +4536,7 @@
         <v>43031</v>
       </c>
       <c r="B521" t="n">
-        <v>1.189654804073735</v>
+        <v>1.188468628275792</v>
       </c>
     </row>
     <row r="522">
@@ -4544,7 +4544,7 @@
         <v>43032</v>
       </c>
       <c r="B522" t="n">
-        <v>1.191990704208632</v>
+        <v>1.190753044977487</v>
       </c>
     </row>
     <row r="523">
@@ -4552,7 +4552,7 @@
         <v>43033</v>
       </c>
       <c r="B523" t="n">
-        <v>1.189607713601035</v>
+        <v>1.188372528659591</v>
       </c>
     </row>
     <row r="524">
@@ -4560,7 +4560,7 @@
         <v>43034</v>
       </c>
       <c r="B524" t="n">
-        <v>1.196051375873423</v>
+        <v>1.194809500394825</v>
       </c>
     </row>
     <row r="525">
@@ -4568,7 +4568,7 @@
         <v>43035</v>
       </c>
       <c r="B525" t="n">
-        <v>1.201041821612259</v>
+        <v>1.199794764489865</v>
       </c>
     </row>
     <row r="526">
@@ -4576,7 +4576,7 @@
         <v>43038</v>
       </c>
       <c r="B526" t="n">
-        <v>1.198930701193294</v>
+        <v>1.197685836074299</v>
       </c>
     </row>
     <row r="527">
@@ -4584,7 +4584,7 @@
         <v>43039</v>
       </c>
       <c r="B527" t="n">
-        <v>1.202289848275154</v>
+        <v>1.201041495310675</v>
       </c>
     </row>
     <row r="528">
@@ -4592,7 +4592,7 @@
         <v>43040</v>
       </c>
       <c r="B528" t="n">
-        <v>1.20454167369815</v>
+        <v>1.203290982634462</v>
       </c>
     </row>
     <row r="529">
@@ -4600,7 +4600,7 @@
         <v>43041</v>
       </c>
       <c r="B529" t="n">
-        <v>1.204347332735107</v>
+        <v>1.203096843458134</v>
       </c>
     </row>
     <row r="530">
@@ -4608,7 +4608,7 @@
         <v>43042</v>
       </c>
       <c r="B530" t="n">
-        <v>1.206618343362078</v>
+        <v>1.205365496065653</v>
       </c>
     </row>
     <row r="531">
@@ -4616,7 +4616,7 @@
         <v>43045</v>
       </c>
       <c r="B531" t="n">
-        <v>1.214173268260691</v>
+        <v>1.212912576588879</v>
       </c>
     </row>
     <row r="532">
@@ -4624,7 +4624,7 @@
         <v>43046</v>
       </c>
       <c r="B532" t="n">
-        <v>1.213411671917554</v>
+        <v>1.212151771020991</v>
       </c>
     </row>
     <row r="533">
@@ -4632,7 +4632,7 @@
         <v>43047</v>
       </c>
       <c r="B533" t="n">
-        <v>1.214271677542593</v>
+        <v>1.213010883691162</v>
       </c>
     </row>
     <row r="534">
@@ -4640,7 +4640,7 @@
         <v>43048</v>
       </c>
       <c r="B534" t="n">
-        <v>1.209660614012249</v>
+        <v>1.208404607887203</v>
       </c>
     </row>
     <row r="535">
@@ -4648,7 +4648,7 @@
         <v>43049</v>
       </c>
       <c r="B535" t="n">
-        <v>1.206755043878914</v>
+        <v>1.20550205464459</v>
       </c>
     </row>
     <row r="536">
@@ -4656,7 +4656,7 @@
         <v>43052</v>
       </c>
       <c r="B536" t="n">
-        <v>1.208498119838905</v>
+        <v>1.207243320746463</v>
       </c>
     </row>
     <row r="537">
@@ -4664,7 +4664,7 @@
         <v>43053</v>
       </c>
       <c r="B537" t="n">
-        <v>1.202787989104382</v>
+        <v>1.201539118913893</v>
       </c>
     </row>
     <row r="538">
@@ -4672,7 +4672,7 @@
         <v>43054</v>
       </c>
       <c r="B538" t="n">
-        <v>1.196298508207116</v>
+        <v>1.195056376127847</v>
       </c>
     </row>
     <row r="539">
@@ -4680,7 +4680,7 @@
         <v>43055</v>
       </c>
       <c r="B539" t="n">
-        <v>1.204717706624019</v>
+        <v>1.203466832783089</v>
       </c>
     </row>
     <row r="540">
@@ -4688,7 +4688,7 @@
         <v>43056</v>
       </c>
       <c r="B540" t="n">
-        <v>1.203566299905509</v>
+        <v>1.202316621584937</v>
       </c>
     </row>
     <row r="541">
@@ -4696,7 +4696,7 @@
         <v>43059</v>
       </c>
       <c r="B541" t="n">
-        <v>1.204103729460439</v>
+        <v>1.20285349311987</v>
       </c>
     </row>
     <row r="542">
@@ -4704,7 +4704,7 @@
         <v>43060</v>
       </c>
       <c r="B542" t="n">
-        <v>1.211501276518614</v>
+        <v>1.210243359210087</v>
       </c>
     </row>
     <row r="543">
@@ -4712,7 +4712,7 @@
         <v>43061</v>
       </c>
       <c r="B543" t="n">
-        <v>1.20900132787583</v>
+        <v>1.207746006296032</v>
       </c>
     </row>
     <row r="544">
@@ -4720,7 +4720,7 @@
         <v>43063</v>
       </c>
       <c r="B544" t="n">
-        <v>1.210874309629487</v>
+        <v>1.20961704330872</v>
       </c>
     </row>
     <row r="545">
@@ -4728,7 +4728,7 @@
         <v>43066</v>
       </c>
       <c r="B545" t="n">
-        <v>1.195067630618877</v>
+        <v>1.19382677657559</v>
       </c>
     </row>
     <row r="546">
@@ -4736,7 +4736,7 @@
         <v>43067</v>
       </c>
       <c r="B546" t="n">
-        <v>1.20401206087739</v>
+        <v>1.202761919717485</v>
       </c>
     </row>
     <row r="547">
@@ -4744,7 +4744,7 @@
         <v>43068</v>
       </c>
       <c r="B547" t="n">
-        <v>1.195019095103309</v>
+        <v>1.19377829145507</v>
       </c>
     </row>
     <row r="548">
@@ -4752,7 +4752,7 @@
         <v>43069</v>
       </c>
       <c r="B548" t="n">
-        <v>1.204300776299096</v>
+        <v>1.203050335362267</v>
       </c>
     </row>
     <row r="549">
@@ -4760,7 +4760,7 @@
         <v>43070</v>
       </c>
       <c r="B549" t="n">
-        <v>1.19913179438597</v>
+        <v>1.197886720469335</v>
       </c>
     </row>
     <row r="550">
@@ -4768,7 +4768,7 @@
         <v>43073</v>
       </c>
       <c r="B550" t="n">
-        <v>1.203473817427502</v>
+        <v>1.202224235132672</v>
       </c>
     </row>
     <row r="551">
@@ -4776,7 +4776,7 @@
         <v>43074</v>
       </c>
       <c r="B551" t="n">
-        <v>1.196360626085304</v>
+        <v>1.195118429508246</v>
       </c>
     </row>
     <row r="552">
@@ -4784,7 +4784,7 @@
         <v>43075</v>
       </c>
       <c r="B552" t="n">
-        <v>1.193911680946124</v>
+        <v>1.192672027140203</v>
       </c>
     </row>
     <row r="553">
@@ -4792,7 +4792,7 @@
         <v>43076</v>
       </c>
       <c r="B553" t="n">
-        <v>1.197670772055058</v>
+        <v>1.196427215136641</v>
       </c>
     </row>
     <row r="554">
@@ -4800,7 +4800,7 @@
         <v>43077</v>
       </c>
       <c r="B554" t="n">
-        <v>1.205903655067783</v>
+        <v>1.204651549841377</v>
       </c>
     </row>
     <row r="555">
@@ -4808,7 +4808,7 @@
         <v>43080</v>
       </c>
       <c r="B555" t="n">
-        <v>1.209137980130284</v>
+        <v>1.207882516662698</v>
       </c>
     </row>
     <row r="556">
@@ -4816,7 +4816,7 @@
         <v>43081</v>
       </c>
       <c r="B556" t="n">
-        <v>1.210438698661786</v>
+        <v>1.209181884641472</v>
       </c>
     </row>
     <row r="557">
@@ -4824,7 +4824,7 @@
         <v>43082</v>
       </c>
       <c r="B557" t="n">
-        <v>1.208579405263832</v>
+        <v>1.207324521771692</v>
       </c>
     </row>
     <row r="558">
@@ -4832,7 +4832,7 @@
         <v>43083</v>
       </c>
       <c r="B558" t="n">
-        <v>1.205766822293395</v>
+        <v>1.204514859142214</v>
       </c>
     </row>
     <row r="559">
@@ -4840,7 +4840,7 @@
         <v>43084</v>
       </c>
       <c r="B559" t="n">
-        <v>1.216800540006709</v>
+        <v>1.215537120404959</v>
       </c>
     </row>
     <row r="560">
@@ -4848,7 +4848,7 @@
         <v>43087</v>
       </c>
       <c r="B560" t="n">
-        <v>1.224472993445453</v>
+        <v>1.223201607436927</v>
       </c>
     </row>
     <row r="561">
@@ -4856,7 +4856,7 @@
         <v>43088</v>
       </c>
       <c r="B561" t="n">
-        <v>1.222054614319907</v>
+        <v>1.220785739345433</v>
       </c>
     </row>
     <row r="562">
@@ -4864,7 +4864,7 @@
         <v>43089</v>
       </c>
       <c r="B562" t="n">
-        <v>1.218431766617292</v>
+        <v>1.217166653292038</v>
       </c>
     </row>
     <row r="563">
@@ -4872,7 +4872,7 @@
         <v>43090</v>
       </c>
       <c r="B563" t="n">
-        <v>1.217902427866277</v>
+        <v>1.216637864160235</v>
       </c>
     </row>
     <row r="564">
@@ -4880,7 +4880,7 @@
         <v>43091</v>
       </c>
       <c r="B564" t="n">
-        <v>1.221148969080631</v>
+        <v>1.219881034449221</v>
       </c>
     </row>
     <row r="565">
@@ -4888,7 +4888,7 @@
         <v>43095</v>
       </c>
       <c r="B565" t="n">
-        <v>1.223487450905635</v>
+        <v>1.222217088198564</v>
       </c>
     </row>
     <row r="566">
@@ -4896,7 +4896,7 @@
         <v>43096</v>
       </c>
       <c r="B566" t="n">
-        <v>1.224106533330064</v>
+        <v>1.222835527821774</v>
       </c>
     </row>
     <row r="567">
@@ -4904,7 +4904,7 @@
         <v>43097</v>
       </c>
       <c r="B567" t="n">
-        <v>1.226625066277484</v>
+        <v>1.225351445744143</v>
       </c>
     </row>
     <row r="568">
@@ -4912,7 +4912,7 @@
         <v>43098</v>
       </c>
       <c r="B568" t="n">
-        <v>1.220586207654644</v>
+        <v>1.219318857345638</v>
       </c>
     </row>
     <row r="569">
@@ -4920,7 +4920,7 @@
         <v>43102</v>
       </c>
       <c r="B569" t="n">
-        <v>1.227738630439819</v>
+        <v>1.226463853678531</v>
       </c>
     </row>
     <row r="570">
@@ -4928,7 +4928,7 @@
         <v>43103</v>
       </c>
       <c r="B570" t="n">
-        <v>1.234391617183906</v>
+        <v>1.233109932541182</v>
       </c>
     </row>
     <row r="571">
@@ -4936,7 +4936,7 @@
         <v>43104</v>
       </c>
       <c r="B571" t="n">
-        <v>1.236252651580218</v>
+        <v>1.234969034601619</v>
       </c>
     </row>
     <row r="572">
@@ -4944,7 +4944,7 @@
         <v>43105</v>
       </c>
       <c r="B572" t="n">
-        <v>1.244401023822248</v>
+        <v>1.243108946284276</v>
       </c>
     </row>
     <row r="573">
@@ -4952,7 +4952,7 @@
         <v>43108</v>
       </c>
       <c r="B573" t="n">
-        <v>1.243594079384083</v>
+        <v>1.242302839706868</v>
       </c>
     </row>
     <row r="574">
@@ -4960,7 +4960,7 @@
         <v>43109</v>
       </c>
       <c r="B574" t="n">
-        <v>1.242530914113522</v>
+        <v>1.241240778334438</v>
       </c>
     </row>
     <row r="575">
@@ -4968,7 +4968,7 @@
         <v>43110</v>
       </c>
       <c r="B575" t="n">
-        <v>1.240235163855179</v>
+        <v>1.238947411783023</v>
       </c>
     </row>
     <row r="576">
@@ -4976,7 +4976,7 @@
         <v>43111</v>
       </c>
       <c r="B576" t="n">
-        <v>1.245356749689357</v>
+        <v>1.244063679808964</v>
       </c>
     </row>
     <row r="577">
@@ -4984,7 +4984,7 @@
         <v>43112</v>
       </c>
       <c r="B577" t="n">
-        <v>1.251403280785609</v>
+        <v>1.250103932714454</v>
       </c>
     </row>
     <row r="578">
@@ -4992,7 +4992,7 @@
         <v>43116</v>
       </c>
       <c r="B578" t="n">
-        <v>1.246007817681099</v>
+        <v>1.244714071788462</v>
       </c>
     </row>
     <row r="579">
@@ -5000,7 +5000,7 @@
         <v>43117</v>
       </c>
       <c r="B579" t="n">
-        <v>1.253561417134381</v>
+        <v>1.252259828242585</v>
       </c>
     </row>
     <row r="580">
@@ -5008,7 +5008,7 @@
         <v>43118</v>
       </c>
       <c r="B580" t="n">
-        <v>1.246741048323441</v>
+        <v>1.245446541108027</v>
       </c>
     </row>
     <row r="581">
@@ -5016,7 +5016,7 @@
         <v>43119</v>
       </c>
       <c r="B581" t="n">
-        <v>1.256254881982813</v>
+        <v>1.25495049643193</v>
       </c>
     </row>
     <row r="582">
@@ -5024,7 +5024,7 @@
         <v>43122</v>
       </c>
       <c r="B582" t="n">
-        <v>1.268554155677711</v>
+        <v>1.267236999633257</v>
       </c>
     </row>
     <row r="583">
@@ -5032,7 +5032,7 @@
         <v>43123</v>
       </c>
       <c r="B583" t="n">
-        <v>1.273435084358292</v>
+        <v>1.272112860383008</v>
       </c>
     </row>
     <row r="584">
@@ -5040,7 +5040,7 @@
         <v>43124</v>
       </c>
       <c r="B584" t="n">
-        <v>1.2670183729303</v>
+        <v>1.265702811508764</v>
       </c>
     </row>
     <row r="585">
@@ -5048,7 +5048,7 @@
         <v>43125</v>
       </c>
       <c r="B585" t="n">
-        <v>1.264923756166744</v>
+        <v>1.263610369612649</v>
       </c>
     </row>
     <row r="586">
@@ -5056,7 +5056,7 @@
         <v>43126</v>
       </c>
       <c r="B586" t="n">
-        <v>1.278368944676679</v>
+        <v>1.277041597810969</v>
       </c>
     </row>
     <row r="587">
@@ -5064,7 +5064,7 @@
         <v>43129</v>
       </c>
       <c r="B587" t="n">
-        <v>1.268370321052676</v>
+        <v>1.267053355886071</v>
       </c>
     </row>
     <row r="588">
@@ -5072,7 +5072,7 @@
         <v>43130</v>
       </c>
       <c r="B588" t="n">
-        <v>1.252979558856193</v>
+        <v>1.251678574115306</v>
       </c>
     </row>
     <row r="589">
@@ -5080,7 +5080,7 @@
         <v>43131</v>
       </c>
       <c r="B589" t="n">
-        <v>1.250454201513366</v>
+        <v>1.249155838883388</v>
       </c>
     </row>
     <row r="590">
@@ -5088,7 +5088,7 @@
         <v>43132</v>
       </c>
       <c r="B590" t="n">
-        <v>1.249281136054806</v>
+        <v>1.247983991433733</v>
       </c>
     </row>
     <row r="591">
@@ -5096,7 +5096,7 @@
         <v>43133</v>
       </c>
       <c r="B591" t="n">
-        <v>1.227990817610113</v>
+        <v>1.226715778999653</v>
       </c>
     </row>
     <row r="592">
@@ -5104,7 +5104,7 @@
         <v>43136</v>
       </c>
       <c r="B592" t="n">
-        <v>1.180317093072793</v>
+        <v>1.179091554701762</v>
       </c>
     </row>
     <row r="593">
@@ -5112,7 +5112,7 @@
         <v>43137</v>
       </c>
       <c r="B593" t="n">
-        <v>1.196582026718084</v>
+        <v>1.195339600257911</v>
       </c>
     </row>
     <row r="594">
@@ -5120,7 +5120,7 @@
         <v>43138</v>
       </c>
       <c r="B594" t="n">
-        <v>1.193902888520437</v>
+        <v>1.192663243843805</v>
       </c>
     </row>
     <row r="595">
@@ -5128,7 +5128,7 @@
         <v>43139</v>
       </c>
       <c r="B595" t="n">
-        <v>1.149181882633967</v>
+        <v>1.147988672351132</v>
       </c>
     </row>
     <row r="596">
@@ -5136,7 +5136,7 @@
         <v>43140</v>
       </c>
       <c r="B596" t="n">
-        <v>1.165037965536464</v>
+        <v>1.163828291679454</v>
       </c>
     </row>
     <row r="597">
@@ -5144,7 +5144,7 @@
         <v>43143</v>
       </c>
       <c r="B597" t="n">
-        <v>1.181054663700627</v>
+        <v>1.179828359500557</v>
       </c>
     </row>
     <row r="598">
@@ -5152,7 +5152,7 @@
         <v>43144</v>
       </c>
       <c r="B598" t="n">
-        <v>1.182113201628461</v>
+        <v>1.180885798334889</v>
       </c>
     </row>
     <row r="599">
@@ -5160,7 +5160,7 @@
         <v>43145</v>
       </c>
       <c r="B599" t="n">
-        <v>1.196633660938007</v>
+        <v>1.195391180865361</v>
       </c>
     </row>
     <row r="600">
@@ -5168,7 +5168,7 @@
         <v>43146</v>
       </c>
       <c r="B600" t="n">
-        <v>1.206242298305191</v>
+        <v>1.20498984146117</v>
       </c>
     </row>
     <row r="601">
@@ -5176,7 +5176,7 @@
         <v>43147</v>
       </c>
       <c r="B601" t="n">
-        <v>1.212338366591229</v>
+        <v>1.211079580121347</v>
       </c>
     </row>
     <row r="602">
@@ -5184,7 +5184,7 @@
         <v>43151</v>
       </c>
       <c r="B602" t="n">
-        <v>1.203311674041322</v>
+        <v>1.202062260102049</v>
       </c>
     </row>
     <row r="603">
@@ -5192,7 +5192,7 @@
         <v>43152</v>
       </c>
       <c r="B603" t="n">
-        <v>1.202681789455152</v>
+        <v>1.201433029533121</v>
       </c>
     </row>
     <row r="604">
@@ -5200,7 +5200,7 @@
         <v>43153</v>
       </c>
       <c r="B604" t="n">
-        <v>1.20305214777059</v>
+        <v>1.201803003300772</v>
       </c>
     </row>
     <row r="605">
@@ -5208,7 +5208,7 @@
         <v>43154</v>
       </c>
       <c r="B605" t="n">
-        <v>1.222544669974149</v>
+        <v>1.221275286168606</v>
       </c>
     </row>
     <row r="606">
@@ -5216,7 +5216,7 @@
         <v>43157</v>
       </c>
       <c r="B606" t="n">
-        <v>1.232190362792808</v>
+        <v>1.23091096374074</v>
       </c>
     </row>
     <row r="607">
@@ -5224,7 +5224,7 @@
         <v>43158</v>
       </c>
       <c r="B607" t="n">
-        <v>1.215606800065107</v>
+        <v>1.214344619938844</v>
       </c>
     </row>
     <row r="608">
@@ -5232,7 +5232,7 @@
         <v>43159</v>
       </c>
       <c r="B608" t="n">
-        <v>1.206102225307537</v>
+        <v>1.204849913903106</v>
       </c>
     </row>
     <row r="609">
@@ -5240,7 +5240,7 @@
         <v>43160</v>
       </c>
       <c r="B609" t="n">
-        <v>1.194257871545829</v>
+        <v>1.19301785828577</v>
       </c>
     </row>
     <row r="610">
@@ -5248,7 +5248,7 @@
         <v>43161</v>
       </c>
       <c r="B610" t="n">
-        <v>1.201076897261465</v>
+        <v>1.199829803719576</v>
       </c>
     </row>
     <row r="611">
@@ -5256,7 +5256,7 @@
         <v>43164</v>
       </c>
       <c r="B611" t="n">
-        <v>1.214927314596659</v>
+        <v>1.213665839988869</v>
       </c>
     </row>
     <row r="612">
@@ -5264,7 +5264,7 @@
         <v>43165</v>
       </c>
       <c r="B612" t="n">
-        <v>1.218543470171574</v>
+        <v>1.217278240863087</v>
       </c>
     </row>
     <row r="613">
@@ -5272,7 +5272,7 @@
         <v>43166</v>
       </c>
       <c r="B613" t="n">
-        <v>1.216858079595697</v>
+        <v>1.215594600249854</v>
       </c>
     </row>
     <row r="614">
@@ -5280,7 +5280,7 @@
         <v>43167</v>
       </c>
       <c r="B614" t="n">
-        <v>1.225355100079081</v>
+        <v>1.224082798167926</v>
       </c>
     </row>
     <row r="615">
@@ -5288,7 +5288,7 @@
         <v>43168</v>
       </c>
       <c r="B615" t="n">
-        <v>1.242903832922007</v>
+        <v>1.241613309936542</v>
       </c>
     </row>
     <row r="616">
@@ -5296,7 +5296,7 @@
         <v>43171</v>
       </c>
       <c r="B616" t="n">
-        <v>1.245105994870689</v>
+        <v>1.243813185352238</v>
       </c>
     </row>
     <row r="617">
@@ -5304,7 +5304,7 @@
         <v>43172</v>
       </c>
       <c r="B617" t="n">
-        <v>1.238773818749429</v>
+        <v>1.237487584010633</v>
       </c>
     </row>
     <row r="618">
@@ -5312,7 +5312,7 @@
         <v>43173</v>
       </c>
       <c r="B618" t="n">
-        <v>1.231271085616345</v>
+        <v>1.229992641061556</v>
       </c>
     </row>
     <row r="619">
@@ -5320,7 +5320,7 @@
         <v>43174</v>
       </c>
       <c r="B619" t="n">
-        <v>1.228327928734773</v>
+        <v>1.227052540097509</v>
       </c>
     </row>
     <row r="620">
@@ -5328,7 +5328,7 @@
         <v>43175</v>
       </c>
       <c r="B620" t="n">
-        <v>1.230552833271903</v>
+        <v>1.229275134487732</v>
       </c>
     </row>
     <row r="621">
@@ -5336,7 +5336,7 @@
         <v>43178</v>
       </c>
       <c r="B621" t="n">
-        <v>1.213525246957101</v>
+        <v>1.212265228134118</v>
       </c>
     </row>
     <row r="622">
@@ -5344,7 +5344,7 @@
         <v>43179</v>
       </c>
       <c r="B622" t="n">
-        <v>1.212668077445099</v>
+        <v>1.211408948632211</v>
       </c>
     </row>
     <row r="623">
@@ -5352,7 +5352,7 @@
         <v>43180</v>
       </c>
       <c r="B623" t="n">
-        <v>1.211363369802305</v>
+        <v>1.21010559568409</v>
       </c>
     </row>
     <row r="624">
@@ -5360,7 +5360,7 @@
         <v>43181</v>
       </c>
       <c r="B624" t="n">
-        <v>1.185128573388925</v>
+        <v>1.183898039196193</v>
       </c>
     </row>
     <row r="625">
@@ -5368,7 +5368,7 @@
         <v>43182</v>
       </c>
       <c r="B625" t="n">
-        <v>1.162512766787603</v>
+        <v>1.16130571487683</v>
       </c>
     </row>
     <row r="626">
@@ -5376,7 +5376,7 @@
         <v>43185</v>
       </c>
       <c r="B626" t="n">
-        <v>1.18548172972628</v>
+        <v>1.184250828846795</v>
       </c>
     </row>
     <row r="627">
@@ -5384,7 +5384,7 @@
         <v>43186</v>
       </c>
       <c r="B627" t="n">
-        <v>1.16903691805383</v>
+        <v>1.167823092033149</v>
       </c>
     </row>
     <row r="628">
@@ -5392,7 +5392,7 @@
         <v>43187</v>
       </c>
       <c r="B628" t="n">
-        <v>1.171726979798221</v>
+        <v>1.17051036065194</v>
       </c>
     </row>
     <row r="629">
@@ -5400,7 +5400,7 @@
         <v>43188</v>
       </c>
       <c r="B629" t="n">
-        <v>1.183542346007106</v>
+        <v>1.182313458814601</v>
       </c>
     </row>
     <row r="630">
@@ -5408,7 +5408,7 @@
         <v>43192</v>
       </c>
       <c r="B630" t="n">
-        <v>1.156719367160384</v>
+        <v>1.155518330610724</v>
       </c>
     </row>
     <row r="631">
@@ -5416,7 +5416,7 @@
         <v>43193</v>
       </c>
       <c r="B631" t="n">
-        <v>1.169298074744838</v>
+        <v>1.168083977561816</v>
       </c>
     </row>
     <row r="632">
@@ -5424,7 +5424,7 @@
         <v>43194</v>
       </c>
       <c r="B632" t="n">
-        <v>1.178063850247981</v>
+        <v>1.176840651447866</v>
       </c>
     </row>
     <row r="633">
@@ -5432,7 +5432,7 @@
         <v>43195</v>
       </c>
       <c r="B633" t="n">
-        <v>1.187440144164807</v>
+        <v>1.1862072098385</v>
       </c>
     </row>
     <row r="634">
@@ -5440,7 +5440,7 @@
         <v>43196</v>
       </c>
       <c r="B634" t="n">
-        <v>1.164603851318225</v>
+        <v>1.163394628207574</v>
       </c>
     </row>
     <row r="635">
@@ -5448,7 +5448,7 @@
         <v>43199</v>
       </c>
       <c r="B635" t="n">
-        <v>1.168144616132003</v>
+        <v>1.166931716599848</v>
       </c>
     </row>
     <row r="636">
@@ -5456,7 +5456,7 @@
         <v>43200</v>
       </c>
       <c r="B636" t="n">
-        <v>1.184294548931751</v>
+        <v>1.183064880717305</v>
       </c>
     </row>
     <row r="637">
@@ -5464,7 +5464,7 @@
         <v>43201</v>
       </c>
       <c r="B637" t="n">
-        <v>1.180835892278301</v>
+        <v>1.179609815231404</v>
       </c>
     </row>
     <row r="638">
@@ -5472,7 +5472,7 @@
         <v>43202</v>
       </c>
       <c r="B638" t="n">
-        <v>1.182893859506297</v>
+        <v>1.181665645645641</v>
       </c>
     </row>
     <row r="639">
@@ -5480,7 +5480,7 @@
         <v>43203</v>
       </c>
       <c r="B639" t="n">
-        <v>1.180712221672513</v>
+        <v>1.179486273034391</v>
       </c>
     </row>
     <row r="640">
@@ -5488,7 +5488,7 @@
         <v>43206</v>
       </c>
       <c r="B640" t="n">
-        <v>1.190170129381814</v>
+        <v>1.188934360476855</v>
       </c>
     </row>
     <row r="641">
@@ -5496,7 +5496,7 @@
         <v>43207</v>
       </c>
       <c r="B641" t="n">
-        <v>1.200245508150199</v>
+        <v>1.198999277850284</v>
       </c>
     </row>
     <row r="642">
@@ -5504,7 +5504,7 @@
         <v>43208</v>
       </c>
       <c r="B642" t="n">
-        <v>1.202426624294081</v>
+        <v>1.201178129313309</v>
       </c>
     </row>
     <row r="643">
@@ -5512,7 +5512,7 @@
         <v>43209</v>
       </c>
       <c r="B643" t="n">
-        <v>1.196657568299604</v>
+        <v>1.195415063403638</v>
       </c>
     </row>
     <row r="644">
@@ -5520,7 +5520,7 @@
         <v>43210</v>
       </c>
       <c r="B644" t="n">
-        <v>1.188125979291047</v>
+        <v>1.186892332853336</v>
       </c>
     </row>
     <row r="645">
@@ -5528,7 +5528,7 @@
         <v>43213</v>
       </c>
       <c r="B645" t="n">
-        <v>1.181107399021067</v>
+        <v>1.179881040065237</v>
       </c>
     </row>
     <row r="646">
@@ -5536,7 +5536,7 @@
         <v>43214</v>
       </c>
       <c r="B646" t="n">
-        <v>1.168294477796259</v>
+        <v>1.167081422660816</v>
       </c>
     </row>
     <row r="647">
@@ -5544,7 +5544,7 @@
         <v>43215</v>
       </c>
       <c r="B647" t="n">
-        <v>1.171997139408233</v>
+        <v>1.170780239751765</v>
       </c>
     </row>
     <row r="648">
@@ -5552,7 +5552,7 @@
         <v>43216</v>
       </c>
       <c r="B648" t="n">
-        <v>1.183825004761587</v>
+        <v>1.182595824080873</v>
       </c>
     </row>
     <row r="649">
@@ -5560,7 +5560,7 @@
         <v>43217</v>
       </c>
       <c r="B649" t="n">
-        <v>1.186783968445697</v>
+        <v>1.185551715435052</v>
       </c>
     </row>
     <row r="650">
@@ -5568,7 +5568,7 @@
         <v>43220</v>
       </c>
       <c r="B650" t="n">
-        <v>1.178671072970976</v>
+        <v>1.177447243683721</v>
       </c>
     </row>
     <row r="651">
@@ -5576,7 +5576,7 @@
         <v>43221</v>
       </c>
       <c r="B651" t="n">
-        <v>1.179938719922942</v>
+        <v>1.178713574421604</v>
       </c>
     </row>
     <row r="652">
@@ -5584,7 +5584,7 @@
         <v>43222</v>
       </c>
       <c r="B652" t="n">
-        <v>1.171556903217698</v>
+        <v>1.170340460664112</v>
       </c>
     </row>
     <row r="653">
@@ -5592,7 +5592,7 @@
         <v>43223</v>
       </c>
       <c r="B653" t="n">
-        <v>1.163747197430395</v>
+        <v>1.162538863794458</v>
       </c>
     </row>
     <row r="654">
@@ -5600,7 +5600,7 @@
         <v>43224</v>
       </c>
       <c r="B654" t="n">
-        <v>1.177879471874172</v>
+        <v>1.176656464516485</v>
       </c>
     </row>
     <row r="655">
@@ -5608,7 +5608,7 @@
         <v>43227</v>
       </c>
       <c r="B655" t="n">
-        <v>1.178655149273104</v>
+        <v>1.177431336519628</v>
       </c>
     </row>
     <row r="656">
@@ -5616,7 +5616,7 @@
         <v>43228</v>
       </c>
       <c r="B656" t="n">
-        <v>1.175807769817917</v>
+        <v>1.174586913535037</v>
       </c>
     </row>
     <row r="657">
@@ -5624,7 +5624,7 @@
         <v>43229</v>
       </c>
       <c r="B657" t="n">
-        <v>1.184725552186112</v>
+        <v>1.183495436455461</v>
       </c>
     </row>
     <row r="658">
@@ -5632,7 +5632,7 @@
         <v>43230</v>
       </c>
       <c r="B658" t="n">
-        <v>1.192247951434754</v>
+        <v>1.191010025100515</v>
       </c>
     </row>
     <row r="659">
@@ -5640,7 +5640,7 @@
         <v>43231</v>
       </c>
       <c r="B659" t="n">
-        <v>1.197330252620681</v>
+        <v>1.196087049267959</v>
       </c>
     </row>
     <row r="660">
@@ -5648,7 +5648,7 @@
         <v>43234</v>
       </c>
       <c r="B660" t="n">
-        <v>1.19885485125393</v>
+        <v>1.1976100648909</v>
       </c>
     </row>
     <row r="661">
@@ -5656,7 +5656,7 @@
         <v>43235</v>
       </c>
       <c r="B661" t="n">
-        <v>1.192070799627221</v>
+        <v>1.190833057231976</v>
       </c>
     </row>
     <row r="662">
@@ -5664,7 +5664,7 @@
         <v>43236</v>
       </c>
       <c r="B662" t="n">
-        <v>1.197479212321136</v>
+        <v>1.196235854301647</v>
       </c>
     </row>
     <row r="663">
@@ -5672,7 +5672,7 @@
         <v>43237</v>
       </c>
       <c r="B663" t="n">
-        <v>1.200709351921558</v>
+        <v>1.199462640006707</v>
       </c>
     </row>
     <row r="664">
@@ -5680,7 +5680,7 @@
         <v>43238</v>
       </c>
       <c r="B664" t="n">
-        <v>1.199348301373452</v>
+        <v>1.198103002654836</v>
       </c>
     </row>
     <row r="665">
@@ -5688,7 +5688,7 @@
         <v>43241</v>
       </c>
       <c r="B665" t="n">
-        <v>1.205627103690061</v>
+        <v>1.204375285610497</v>
       </c>
     </row>
     <row r="666">
@@ -5696,7 +5696,7 @@
         <v>43242</v>
       </c>
       <c r="B666" t="n">
-        <v>1.203702192907179</v>
+        <v>1.20245237348716</v>
       </c>
     </row>
     <row r="667">
@@ -5704,7 +5704,7 @@
         <v>43243</v>
       </c>
       <c r="B667" t="n">
-        <v>1.202794900808683</v>
+        <v>1.201546023441684</v>
       </c>
     </row>
     <row r="668">
@@ -5712,7 +5712,7 @@
         <v>43244</v>
       </c>
       <c r="B668" t="n">
-        <v>1.200059996443999</v>
+        <v>1.198813958763267</v>
       </c>
     </row>
     <row r="669">
@@ -5720,7 +5720,7 @@
         <v>43245</v>
       </c>
       <c r="B669" t="n">
-        <v>1.199787917937365</v>
+        <v>1.198542162759234</v>
       </c>
     </row>
     <row r="670">
@@ -5728,7 +5728,7 @@
         <v>43249</v>
       </c>
       <c r="B670" t="n">
-        <v>1.186172486863911</v>
+        <v>1.184940868762432</v>
       </c>
     </row>
     <row r="671">
@@ -5736,7 +5736,7 @@
         <v>43250</v>
       </c>
       <c r="B671" t="n">
-        <v>1.199929398647843</v>
+        <v>1.198683496568477</v>
       </c>
     </row>
     <row r="672">
@@ -5744,7 +5744,7 @@
         <v>43251</v>
       </c>
       <c r="B672" t="n">
-        <v>1.194647983169567</v>
+        <v>1.193407564851606</v>
       </c>
     </row>
     <row r="673">
@@ -5752,7 +5752,7 @@
         <v>43252</v>
       </c>
       <c r="B673" t="n">
-        <v>1.206151117981783</v>
+        <v>1.204898755811461</v>
       </c>
     </row>
     <row r="674">
@@ -5760,7 +5760,7 @@
         <v>43255</v>
       </c>
       <c r="B674" t="n">
-        <v>1.213018078514969</v>
+        <v>1.211758586291481</v>
       </c>
     </row>
     <row r="675">
@@ -5768,7 +5768,7 @@
         <v>43256</v>
       </c>
       <c r="B675" t="n">
-        <v>1.216282017087216</v>
+        <v>1.21501913587446</v>
       </c>
     </row>
     <row r="676">
@@ -5776,7 +5776,7 @@
         <v>43257</v>
       </c>
       <c r="B676" t="n">
-        <v>1.226251863862246</v>
+        <v>1.224978630829757</v>
       </c>
     </row>
     <row r="677">
@@ -5784,7 +5784,7 @@
         <v>43258</v>
       </c>
       <c r="B677" t="n">
-        <v>1.225481499165177</v>
+        <v>1.22420906601223</v>
       </c>
     </row>
     <row r="678">
@@ -5792,7 +5792,7 @@
         <v>43259</v>
       </c>
       <c r="B678" t="n">
-        <v>1.231021249547374</v>
+        <v>1.229743064400578</v>
       </c>
     </row>
     <row r="679">
@@ -5800,7 +5800,7 @@
         <v>43262</v>
       </c>
       <c r="B679" t="n">
-        <v>1.233445322947132</v>
+        <v>1.232164620853845</v>
       </c>
     </row>
     <row r="680">
@@ -5808,7 +5808,7 @@
         <v>43263</v>
       </c>
       <c r="B680" t="n">
-        <v>1.23533899152529</v>
+        <v>1.234056323211639</v>
       </c>
     </row>
     <row r="681">
@@ -5816,7 +5816,7 @@
         <v>43264</v>
       </c>
       <c r="B681" t="n">
-        <v>1.233037616133731</v>
+        <v>1.231757337367655</v>
       </c>
     </row>
     <row r="682">
@@ -5824,7 +5824,7 @@
         <v>43265</v>
       </c>
       <c r="B682" t="n">
-        <v>1.236653055445409</v>
+        <v>1.235369022722342</v>
       </c>
     </row>
     <row r="683">
@@ -5832,7 +5832,7 @@
         <v>43266</v>
       </c>
       <c r="B683" t="n">
-        <v>1.236996147311529</v>
+        <v>1.235711758351777</v>
       </c>
     </row>
     <row r="684">
@@ -5840,7 +5840,7 @@
         <v>43269</v>
       </c>
       <c r="B684" t="n">
-        <v>1.233726912858226</v>
+        <v>1.232445918386524</v>
       </c>
     </row>
     <row r="685">
@@ -5848,7 +5848,7 @@
         <v>43270</v>
       </c>
       <c r="B685" t="n">
-        <v>1.233555904588803</v>
+        <v>1.23227508767718</v>
       </c>
     </row>
     <row r="686">
@@ -5856,7 +5856,7 @@
         <v>43271</v>
       </c>
       <c r="B686" t="n">
-        <v>1.237656518104542</v>
+        <v>1.23637144347333</v>
       </c>
     </row>
     <row r="687">
@@ -5864,7 +5864,7 @@
         <v>43272</v>
       </c>
       <c r="B687" t="n">
-        <v>1.232069457138879</v>
+        <v>1.230790183624701</v>
       </c>
     </row>
     <row r="688">
@@ -5872,7 +5872,7 @@
         <v>43273</v>
       </c>
       <c r="B688" t="n">
-        <v>1.238950429292674</v>
+        <v>1.237664011176885</v>
       </c>
     </row>
     <row r="689">
@@ -5880,7 +5880,7 @@
         <v>43276</v>
       </c>
       <c r="B689" t="n">
-        <v>1.222879815101383</v>
+        <v>1.221610083310356</v>
       </c>
     </row>
     <row r="690">
@@ -5888,7 +5888,7 @@
         <v>43277</v>
       </c>
       <c r="B690" t="n">
-        <v>1.220536440324845</v>
+        <v>1.219269141689894</v>
       </c>
     </row>
     <row r="691">
@@ -5896,7 +5896,7 @@
         <v>43278</v>
       </c>
       <c r="B691" t="n">
-        <v>1.206605849168629</v>
+        <v>1.205353014845086</v>
       </c>
     </row>
     <row r="692">
@@ -5904,7 +5904,7 @@
         <v>43279</v>
       </c>
       <c r="B692" t="n">
-        <v>1.210734337900371</v>
+        <v>1.209477216914045</v>
       </c>
     </row>
     <row r="693">
@@ -5912,7 +5912,7 @@
         <v>43280</v>
       </c>
       <c r="B693" t="n">
-        <v>1.212521257083445</v>
+        <v>1.21126228071602</v>
       </c>
     </row>
     <row r="694">
@@ -5920,7 +5920,7 @@
         <v>43283</v>
       </c>
       <c r="B694" t="n">
-        <v>1.211539700899649</v>
+        <v>1.210281743694595</v>
       </c>
     </row>
     <row r="695">
@@ -5928,7 +5928,7 @@
         <v>43284</v>
       </c>
       <c r="B695" t="n">
-        <v>1.208281783266737</v>
+        <v>1.207027208799332</v>
       </c>
     </row>
     <row r="696">
@@ -5936,7 +5936,7 @@
         <v>43286</v>
       </c>
       <c r="B696" t="n">
-        <v>1.215725078516243</v>
+        <v>1.214462775579947</v>
       </c>
     </row>
     <row r="697">
@@ -5944,7 +5944,7 @@
         <v>43287</v>
       </c>
       <c r="B697" t="n">
-        <v>1.224377798296164</v>
+        <v>1.223106511129981</v>
       </c>
     </row>
     <row r="698">
@@ -5952,7 +5952,7 @@
         <v>43290</v>
       </c>
       <c r="B698" t="n">
-        <v>1.235303602107616</v>
+        <v>1.234020970539252</v>
       </c>
     </row>
     <row r="699">
@@ -5960,7 +5960,7 @@
         <v>43291</v>
       </c>
       <c r="B699" t="n">
-        <v>1.237049448442755</v>
+        <v>1.235765004139756</v>
       </c>
     </row>
     <row r="700">
@@ -5968,7 +5968,7 @@
         <v>43292</v>
       </c>
       <c r="B700" t="n">
-        <v>1.232118904345249</v>
+        <v>1.230839579489403</v>
       </c>
     </row>
     <row r="701">
@@ -5976,7 +5976,7 @@
         <v>43293</v>
       </c>
       <c r="B701" t="n">
-        <v>1.239735985970254</v>
+        <v>1.238448752200895</v>
       </c>
     </row>
     <row r="702">
@@ -5984,7 +5984,7 @@
         <v>43294</v>
       </c>
       <c r="B702" t="n">
-        <v>1.241953385417818</v>
+        <v>1.240663849294182</v>
       </c>
     </row>
     <row r="703">
@@ -5992,7 +5992,7 @@
         <v>43297</v>
       </c>
       <c r="B703" t="n">
-        <v>1.236156848514363</v>
+        <v>1.234873331009314</v>
       </c>
     </row>
     <row r="704">
@@ -6000,7 +6000,7 @@
         <v>43298</v>
       </c>
       <c r="B704" t="n">
-        <v>1.240966938027467</v>
+        <v>1.239678426144805</v>
       </c>
     </row>
     <row r="705">
@@ -6008,7 +6008,7 @@
         <v>43299</v>
       </c>
       <c r="B705" t="n">
-        <v>1.243633621528474</v>
+        <v>1.242342340794142</v>
       </c>
     </row>
     <row r="706">
@@ -6016,7 +6016,7 @@
         <v>43300</v>
       </c>
       <c r="B706" t="n">
-        <v>1.244713402092593</v>
+        <v>1.243421000208257</v>
       </c>
     </row>
     <row r="707">
@@ -6024,7 +6024,7 @@
         <v>43301</v>
       </c>
       <c r="B707" t="n">
-        <v>1.240146456398299</v>
+        <v>1.238858796432233</v>
       </c>
     </row>
     <row r="708">
@@ -6032,7 +6032,7 @@
         <v>43304</v>
       </c>
       <c r="B708" t="n">
-        <v>1.244227495196311</v>
+        <v>1.242935597835336</v>
       </c>
     </row>
     <row r="709">
@@ -6040,7 +6040,7 @@
         <v>43305</v>
       </c>
       <c r="B709" t="n">
-        <v>1.244872241880908</v>
+        <v>1.243579675071184</v>
       </c>
     </row>
     <row r="710">
@@ -6048,7 +6048,7 @@
         <v>43306</v>
       </c>
       <c r="B710" t="n">
-        <v>1.260952381191436</v>
+        <v>1.259643118166897</v>
       </c>
     </row>
     <row r="711">
@@ -6056,7 +6056,7 @@
         <v>43307</v>
       </c>
       <c r="B711" t="n">
-        <v>1.258267408402611</v>
+        <v>1.256960933219743</v>
       </c>
     </row>
     <row r="712">
@@ -6064,7 +6064,7 @@
         <v>43308</v>
       </c>
       <c r="B712" t="n">
-        <v>1.247562424350824</v>
+        <v>1.246267064290149</v>
       </c>
     </row>
     <row r="713">
@@ -6072,7 +6072,7 @@
         <v>43311</v>
       </c>
       <c r="B713" t="n">
-        <v>1.235433282667932</v>
+        <v>1.234150516450579</v>
       </c>
     </row>
     <row r="714">
@@ -6080,7 +6080,7 @@
         <v>43312</v>
       </c>
       <c r="B714" t="n">
-        <v>1.239657253631245</v>
+        <v>1.238370101610683</v>
       </c>
     </row>
     <row r="715">
@@ -6088,7 +6088,7 @@
         <v>43313</v>
       </c>
       <c r="B715" t="n">
-        <v>1.236039422425013</v>
+        <v>1.234756026844978</v>
       </c>
     </row>
     <row r="716">
@@ -6096,7 +6096,7 @@
         <v>43314</v>
       </c>
       <c r="B716" t="n">
-        <v>1.240008476595155</v>
+        <v>1.238720959895287</v>
       </c>
     </row>
     <row r="717">
@@ -6104,7 +6104,7 @@
         <v>43315</v>
       </c>
       <c r="B717" t="n">
-        <v>1.24305205840152</v>
+        <v>1.241761381511639</v>
       </c>
     </row>
     <row r="718">
@@ -6112,7 +6112,7 @@
         <v>43318</v>
       </c>
       <c r="B718" t="n">
-        <v>1.244027817697504</v>
+        <v>1.242736127664236</v>
       </c>
     </row>
     <row r="719">
@@ -6120,7 +6120,7 @@
         <v>43319</v>
       </c>
       <c r="B719" t="n">
-        <v>1.245245892533941</v>
+        <v>1.243952937757953</v>
       </c>
     </row>
     <row r="720">
@@ -6128,7 +6128,7 @@
         <v>43320</v>
       </c>
       <c r="B720" t="n">
-        <v>1.242807113751139</v>
+        <v>1.241516691190429</v>
       </c>
     </row>
     <row r="721">
@@ -6136,7 +6136,7 @@
         <v>43321</v>
       </c>
       <c r="B721" t="n">
-        <v>1.244225920536613</v>
+        <v>1.242934024810627</v>
       </c>
     </row>
     <row r="722">
@@ -6144,7 +6144,7 @@
         <v>43322</v>
       </c>
       <c r="B722" t="n">
-        <v>1.238426431847606</v>
+        <v>1.237140557805083</v>
       </c>
     </row>
     <row r="723">
@@ -6152,7 +6152,7 @@
         <v>43325</v>
       </c>
       <c r="B723" t="n">
-        <v>1.234538017577782</v>
+        <v>1.233256180925651</v>
       </c>
     </row>
     <row r="724">
@@ -6160,7 +6160,7 @@
         <v>43326</v>
       </c>
       <c r="B724" t="n">
-        <v>1.240995033875646</v>
+        <v>1.239706492820704</v>
       </c>
     </row>
     <row r="725">
@@ -6168,7 +6168,7 @@
         <v>43327</v>
       </c>
       <c r="B725" t="n">
-        <v>1.231254333250144</v>
+        <v>1.229975906089551</v>
       </c>
     </row>
     <row r="726">
@@ -6176,7 +6176,7 @@
         <v>43328</v>
       </c>
       <c r="B726" t="n">
-        <v>1.238332921502735</v>
+        <v>1.237047144553203</v>
       </c>
     </row>
     <row r="727">
@@ -6184,7 +6184,7 @@
         <v>43329</v>
       </c>
       <c r="B727" t="n">
-        <v>1.245172570191436</v>
+        <v>1.243879691546976</v>
       </c>
     </row>
     <row r="728">
@@ -6192,7 +6192,7 @@
         <v>43332</v>
       </c>
       <c r="B728" t="n">
-        <v>1.247858444681295</v>
+        <v>1.246562777258916</v>
       </c>
     </row>
     <row r="729">
@@ -6200,7 +6200,7 @@
         <v>43333</v>
       </c>
       <c r="B729" t="n">
-        <v>1.250294524150705</v>
+        <v>1.248996327315779</v>
       </c>
     </row>
     <row r="730">
@@ -6208,7 +6208,7 @@
         <v>43334</v>
       </c>
       <c r="B730" t="n">
-        <v>1.25082824010504</v>
+        <v>1.249529489105996</v>
       </c>
     </row>
     <row r="731">
@@ -6216,7 +6216,7 @@
         <v>43335</v>
       </c>
       <c r="B731" t="n">
-        <v>1.248265713659556</v>
+        <v>1.246969623364575</v>
       </c>
     </row>
     <row r="732">
@@ -6224,7 +6224,7 @@
         <v>43336</v>
       </c>
       <c r="B732" t="n">
-        <v>1.253024926024107</v>
+        <v>1.251723894177909</v>
       </c>
     </row>
     <row r="733">
@@ -6232,7 +6232,7 @@
         <v>43339</v>
       </c>
       <c r="B733" t="n">
-        <v>1.259924475049071</v>
+        <v>1.258616279312659</v>
       </c>
     </row>
     <row r="734">
@@ -6240,7 +6240,7 @@
         <v>43340</v>
       </c>
       <c r="B734" t="n">
-        <v>1.260702032413871</v>
+        <v>1.259393029329677</v>
       </c>
     </row>
     <row r="735">
@@ -6248,7 +6248,7 @@
         <v>43341</v>
       </c>
       <c r="B735" t="n">
-        <v>1.26879302410194</v>
+        <v>1.267475620037338</v>
       </c>
     </row>
     <row r="736">
@@ -6256,7 +6256,7 @@
         <v>43342</v>
       </c>
       <c r="B736" t="n">
-        <v>1.262245349981659</v>
+        <v>1.260934744451047</v>
       </c>
     </row>
     <row r="737">
@@ -6264,7 +6264,7 @@
         <v>43343</v>
       </c>
       <c r="B737" t="n">
-        <v>1.261998412999743</v>
+        <v>1.260688063866966</v>
       </c>
     </row>
     <row r="738">
@@ -6272,7 +6272,7 @@
         <v>43347</v>
       </c>
       <c r="B738" t="n">
-        <v>1.259628913061938</v>
+        <v>1.258321024211326</v>
       </c>
     </row>
     <row r="739">
@@ -6280,7 +6280,7 @@
         <v>43348</v>
       </c>
       <c r="B739" t="n">
-        <v>1.255158090624195</v>
+        <v>1.253854843885843</v>
       </c>
     </row>
     <row r="740">
@@ -6288,7 +6288,7 @@
         <v>43349</v>
       </c>
       <c r="B740" t="n">
-        <v>1.253849664080532</v>
+        <v>1.252547775898235</v>
       </c>
     </row>
     <row r="741">
@@ -6296,7 +6296,7 @@
         <v>43350</v>
       </c>
       <c r="B741" t="n">
-        <v>1.250626585020416</v>
+        <v>1.249328043402431</v>
       </c>
     </row>
     <row r="742">
@@ -6304,7 +6304,7 @@
         <v>43353</v>
       </c>
       <c r="B742" t="n">
-        <v>1.252988776932217</v>
+        <v>1.251687782620083</v>
       </c>
     </row>
     <row r="743">
@@ -6312,7 +6312,7 @@
         <v>43354</v>
       </c>
       <c r="B743" t="n">
-        <v>1.254831967594671</v>
+        <v>1.253529059474041</v>
       </c>
     </row>
     <row r="744">
@@ -6320,7 +6320,7 @@
         <v>43355</v>
       </c>
       <c r="B744" t="n">
-        <v>1.255805350319034</v>
+        <v>1.254501431522641</v>
       </c>
     </row>
     <row r="745">
@@ -6328,7 +6328,7 @@
         <v>43356</v>
       </c>
       <c r="B745" t="n">
-        <v>1.260439213295895</v>
+        <v>1.25913048310016</v>
       </c>
     </row>
     <row r="746">
@@ -6336,7 +6336,7 @@
         <v>43357</v>
       </c>
       <c r="B746" t="n">
-        <v>1.261800830739535</v>
+        <v>1.260490686758951</v>
       </c>
     </row>
     <row r="747">
@@ -6344,7 +6344,7 @@
         <v>43360</v>
       </c>
       <c r="B747" t="n">
-        <v>1.258248096425597</v>
+        <v>1.256941641294602</v>
       </c>
     </row>
     <row r="748">
@@ -6352,7 +6352,7 @@
         <v>43361</v>
       </c>
       <c r="B748" t="n">
-        <v>1.26569321919184</v>
+        <v>1.264379033694421</v>
       </c>
     </row>
     <row r="749">
@@ -6360,7 +6360,7 @@
         <v>43362</v>
       </c>
       <c r="B749" t="n">
-        <v>1.26536496950398</v>
+        <v>1.26405112483242</v>
       </c>
     </row>
     <row r="750">
@@ -6368,7 +6368,7 @@
         <v>43363</v>
       </c>
       <c r="B750" t="n">
-        <v>1.278312263972196</v>
+        <v>1.276984975958787</v>
       </c>
     </row>
     <row r="751">
@@ -6376,7 +6376,7 @@
         <v>43364</v>
       </c>
       <c r="B751" t="n">
-        <v>1.275086408825829</v>
+        <v>1.273762470259179</v>
       </c>
     </row>
     <row r="752">
@@ -6384,7 +6384,7 @@
         <v>43367</v>
       </c>
       <c r="B752" t="n">
-        <v>1.26857721032775</v>
+        <v>1.267260030345357</v>
       </c>
     </row>
     <row r="753">
@@ -6392,7 +6392,7 @@
         <v>43368</v>
       </c>
       <c r="B753" t="n">
-        <v>1.267269711386767</v>
+        <v>1.265953888997288</v>
       </c>
     </row>
     <row r="754">
@@ -6400,7 +6400,7 @@
         <v>43369</v>
       </c>
       <c r="B754" t="n">
-        <v>1.265624972268653</v>
+        <v>1.264310857632888</v>
       </c>
     </row>
     <row r="755">
@@ -6408,7 +6408,7 @@
         <v>43370</v>
       </c>
       <c r="B755" t="n">
-        <v>1.259124094490164</v>
+        <v>1.257816729799147</v>
       </c>
     </row>
     <row r="756">
@@ -6416,7 +6416,7 @@
         <v>43371</v>
       </c>
       <c r="B756" t="n">
-        <v>1.263415791620629</v>
+        <v>1.262103970805456</v>
       </c>
     </row>
     <row r="757">
@@ -6424,7 +6424,7 @@
         <v>43374</v>
       </c>
       <c r="B757" t="n">
-        <v>1.259474040524258</v>
+        <v>1.258166312479787</v>
       </c>
     </row>
     <row r="758">
@@ -6432,7 +6432,7 @@
         <v>43375</v>
       </c>
       <c r="B758" t="n">
-        <v>1.258059390354168</v>
+        <v>1.256753131159107</v>
       </c>
     </row>
     <row r="759">
@@ -6440,7 +6440,7 @@
         <v>43376</v>
       </c>
       <c r="B759" t="n">
-        <v>1.257669131667276</v>
+        <v>1.256363277682813</v>
       </c>
     </row>
     <row r="760">
@@ -6448,7 +6448,7 @@
         <v>43377</v>
       </c>
       <c r="B760" t="n">
-        <v>1.247738510247458</v>
+        <v>1.246442967354539</v>
       </c>
     </row>
     <row r="761">
@@ -6456,7 +6456,7 @@
         <v>43378</v>
       </c>
       <c r="B761" t="n">
-        <v>1.243842614550562</v>
+        <v>1.242551116816096</v>
       </c>
     </row>
     <row r="762">
@@ -6464,7 +6464,7 @@
         <v>43381</v>
       </c>
       <c r="B762" t="n">
-        <v>1.244808670542861</v>
+        <v>1.243516169740072</v>
       </c>
     </row>
     <row r="763">
@@ -6472,7 +6472,7 @@
         <v>43382</v>
       </c>
       <c r="B763" t="n">
-        <v>1.245460414695153</v>
+        <v>1.244167237178054</v>
       </c>
     </row>
     <row r="764">
@@ -6480,7 +6480,7 @@
         <v>43383</v>
       </c>
       <c r="B764" t="n">
-        <v>1.209605559828694</v>
+        <v>1.208349610867111</v>
       </c>
     </row>
     <row r="765">
@@ -6488,7 +6488,7 @@
         <v>43384</v>
       </c>
       <c r="B765" t="n">
-        <v>1.185892833178754</v>
+        <v>1.184661505445282</v>
       </c>
     </row>
     <row r="766">
@@ -6496,7 +6496,7 @@
         <v>43385</v>
       </c>
       <c r="B766" t="n">
-        <v>1.199182688100405</v>
+        <v>1.197937561340174</v>
       </c>
     </row>
     <row r="767">
@@ -6504,7 +6504,7 @@
         <v>43388</v>
       </c>
       <c r="B767" t="n">
-        <v>1.195622554048764</v>
+        <v>1.194381123821365</v>
       </c>
     </row>
     <row r="768">
@@ -6512,7 +6512,7 @@
         <v>43389</v>
       </c>
       <c r="B768" t="n">
-        <v>1.225570325631044</v>
+        <v>1.224297800248439</v>
       </c>
     </row>
     <row r="769">
@@ -6520,7 +6520,7 @@
         <v>43390</v>
       </c>
       <c r="B769" t="n">
-        <v>1.228748408523415</v>
+        <v>1.227472583296595</v>
       </c>
     </row>
     <row r="770">
@@ -6528,7 +6528,7 @@
         <v>43391</v>
       </c>
       <c r="B770" t="n">
-        <v>1.211267590420394</v>
+        <v>1.210009915751139</v>
       </c>
     </row>
     <row r="771">
@@ -6536,7 +6536,7 @@
         <v>43392</v>
       </c>
       <c r="B771" t="n">
-        <v>1.212293154086971</v>
+        <v>1.211034414561812</v>
       </c>
     </row>
     <row r="772">
@@ -6544,7 +6544,7 @@
         <v>43395</v>
       </c>
       <c r="B772" t="n">
-        <v>1.204542390535748</v>
+        <v>1.203291698727759</v>
       </c>
     </row>
     <row r="773">
@@ -6552,7 +6552,7 @@
         <v>43396</v>
       </c>
       <c r="B773" t="n">
-        <v>1.197047924874997</v>
+        <v>1.195805014666793</v>
       </c>
     </row>
     <row r="774">
@@ -6560,7 +6560,7 @@
         <v>43397</v>
       </c>
       <c r="B774" t="n">
-        <v>1.165582178560632</v>
+        <v>1.164371939640261</v>
       </c>
     </row>
     <row r="775">
@@ -6568,7 +6568,7 @@
         <v>43398</v>
       </c>
       <c r="B775" t="n">
-        <v>1.184266255442783</v>
+        <v>1.183036616605829</v>
       </c>
     </row>
     <row r="776">
@@ -6576,7 +6576,7 @@
         <v>43399</v>
       </c>
       <c r="B776" t="n">
-        <v>1.16727958016973</v>
+        <v>1.166067578815505</v>
       </c>
     </row>
     <row r="777">
@@ -6584,7 +6584,7 @@
         <v>43402</v>
       </c>
       <c r="B777" t="n">
-        <v>1.162423114056179</v>
+        <v>1.161216155232986</v>
       </c>
     </row>
     <row r="778">
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="B778" t="n">
-        <v>1.179845293489596</v>
+        <v>1.178620244994121</v>
       </c>
     </row>
     <row r="779">
@@ -6600,7 +6600,7 @@
         <v>43404</v>
       </c>
       <c r="B779" t="n">
-        <v>1.19188073120746</v>
+        <v>1.190643186162692</v>
       </c>
     </row>
     <row r="780">
@@ -6608,7 +6608,7 @@
         <v>43405</v>
       </c>
       <c r="B780" t="n">
-        <v>1.206591367385748</v>
+        <v>1.205338548098825</v>
       </c>
     </row>
     <row r="781">
@@ -6616,7 +6616,7 @@
         <v>43406</v>
       </c>
       <c r="B781" t="n">
-        <v>1.195473637700214</v>
+        <v>1.194232362094568</v>
       </c>
     </row>
     <row r="782">
@@ -6624,7 +6624,7 @@
         <v>43409</v>
       </c>
       <c r="B782" t="n">
-        <v>1.199096984528654</v>
+        <v>1.19785194675554</v>
       </c>
     </row>
     <row r="783">
@@ -6632,7 +6632,7 @@
         <v>43410</v>
       </c>
       <c r="B783" t="n">
-        <v>1.205474327479196</v>
+        <v>1.20422266802913</v>
       </c>
     </row>
     <row r="784">
@@ -6640,7 +6640,7 @@
         <v>43411</v>
       </c>
       <c r="B784" t="n">
-        <v>1.226858934575203</v>
+        <v>1.22558507121341</v>
       </c>
     </row>
     <row r="785">
@@ -6648,7 +6648,7 @@
         <v>43412</v>
       </c>
       <c r="B785" t="n">
-        <v>1.221869739401228</v>
+        <v>1.220601056384752</v>
       </c>
     </row>
     <row r="786">
@@ -6656,7 +6656,7 @@
         <v>43413</v>
       </c>
       <c r="B786" t="n">
-        <v>1.212362895419735</v>
+        <v>1.211104083481256</v>
       </c>
     </row>
     <row r="787">
@@ -6664,7 +6664,7 @@
         <v>43416</v>
       </c>
       <c r="B787" t="n">
-        <v>1.190813051088641</v>
+        <v>1.189576614629829</v>
       </c>
     </row>
     <row r="788">
@@ -6672,7 +6672,7 @@
         <v>43417</v>
       </c>
       <c r="B788" t="n">
-        <v>1.188666546817245</v>
+        <v>1.18743233910134</v>
       </c>
     </row>
     <row r="789">
@@ -6680,7 +6680,7 @@
         <v>43418</v>
       </c>
       <c r="B789" t="n">
-        <v>1.181976811591311</v>
+        <v>1.180749549913263</v>
       </c>
     </row>
     <row r="790">
@@ -6688,7 +6688,7 @@
         <v>43419</v>
       </c>
       <c r="B790" t="n">
-        <v>1.189323742098894</v>
+        <v>1.188088852008702</v>
       </c>
     </row>
     <row r="791">
@@ -6696,7 +6696,7 @@
         <v>43420</v>
       </c>
       <c r="B791" t="n">
-        <v>1.186021122849029</v>
+        <v>1.184789661910748</v>
       </c>
     </row>
     <row r="792">
@@ -6704,7 +6704,7 @@
         <v>43423</v>
       </c>
       <c r="B792" t="n">
-        <v>1.170264835174588</v>
+        <v>1.169049734191816</v>
       </c>
     </row>
     <row r="793">
@@ -6712,7 +6712,7 @@
         <v>43424</v>
       </c>
       <c r="B793" t="n">
-        <v>1.144109063841889</v>
+        <v>1.142921120731845</v>
       </c>
     </row>
     <row r="794">
@@ -6720,7 +6720,7 @@
         <v>43425</v>
       </c>
       <c r="B794" t="n">
-        <v>1.147880400148498</v>
+        <v>1.146688541211614</v>
       </c>
     </row>
     <row r="795">
@@ -6728,7 +6728,7 @@
         <v>43427</v>
       </c>
       <c r="B795" t="n">
-        <v>1.144625862928445</v>
+        <v>1.143437383219284</v>
       </c>
     </row>
     <row r="796">
@@ -6736,7 +6736,7 @@
         <v>43430</v>
       </c>
       <c r="B796" t="n">
-        <v>1.15832235548139</v>
+        <v>1.157119654528403</v>
       </c>
     </row>
     <row r="797">
@@ -6744,7 +6744,7 @@
         <v>43431</v>
       </c>
       <c r="B797" t="n">
-        <v>1.161473420300307</v>
+        <v>1.160267447556317</v>
       </c>
     </row>
     <row r="798">
@@ -6752,7 +6752,7 @@
         <v>43432</v>
       </c>
       <c r="B798" t="n">
-        <v>1.182394983600136</v>
+        <v>1.181167287728729</v>
       </c>
     </row>
     <row r="799">
@@ -6760,7 +6760,7 @@
         <v>43433</v>
       </c>
       <c r="B799" t="n">
-        <v>1.178460284026196</v>
+        <v>1.177236673603805</v>
       </c>
     </row>
     <row r="800">
@@ -6768,7 +6768,7 @@
         <v>43434</v>
       </c>
       <c r="B800" t="n">
-        <v>1.182263995815864</v>
+        <v>1.181036435950752</v>
       </c>
     </row>
     <row r="801">
@@ -6776,7 +6776,7 @@
         <v>43437</v>
       </c>
       <c r="B801" t="n">
-        <v>1.190447133285898</v>
+        <v>1.189211076764233</v>
       </c>
     </row>
     <row r="802">
@@ -6784,7 +6784,7 @@
         <v>43438</v>
       </c>
       <c r="B802" t="n">
-        <v>1.160667696527277</v>
+        <v>1.159462560376611</v>
       </c>
     </row>
     <row r="803">
@@ -6792,7 +6792,7 @@
         <v>43440</v>
       </c>
       <c r="B803" t="n">
-        <v>1.15900598440275</v>
+        <v>1.157802573629088</v>
       </c>
     </row>
     <row r="804">
@@ -6800,7 +6800,7 @@
         <v>43441</v>
       </c>
       <c r="B804" t="n">
-        <v>1.139923822279212</v>
+        <v>1.138740224759143</v>
       </c>
     </row>
     <row r="805">
@@ -6808,7 +6808,7 @@
         <v>43444</v>
       </c>
       <c r="B805" t="n">
-        <v>1.136638663389947</v>
+        <v>1.135458476892473</v>
       </c>
     </row>
     <row r="806">
@@ -6816,7 +6816,7 @@
         <v>43445</v>
       </c>
       <c r="B806" t="n">
-        <v>1.134612703171756</v>
+        <v>1.133434620254752</v>
       </c>
     </row>
     <row r="807">
@@ -6824,7 +6824,7 @@
         <v>43446</v>
       </c>
       <c r="B807" t="n">
-        <v>1.138679685343727</v>
+        <v>1.137497379626989</v>
       </c>
     </row>
     <row r="808">
@@ -6832,7 +6832,7 @@
         <v>43447</v>
       </c>
       <c r="B808" t="n">
-        <v>1.134440076492795</v>
+        <v>1.133262172816285</v>
       </c>
     </row>
     <row r="809">
@@ -6840,7 +6840,7 @@
         <v>43448</v>
       </c>
       <c r="B809" t="n">
-        <v>1.116616044329887</v>
+        <v>1.1154566475745</v>
       </c>
     </row>
     <row r="810">
@@ -6848,7 +6848,7 @@
         <v>43451</v>
       </c>
       <c r="B810" t="n">
-        <v>1.094571028979754</v>
+        <v>1.093434521846453</v>
       </c>
     </row>
     <row r="811">
@@ -6856,7 +6856,7 @@
         <v>43452</v>
       </c>
       <c r="B811" t="n">
-        <v>1.089270555558144</v>
+        <v>1.088139551974356</v>
       </c>
     </row>
     <row r="812">
@@ -6864,7 +6864,7 @@
         <v>43453</v>
       </c>
       <c r="B812" t="n">
-        <v>1.081250967381942</v>
+        <v>1.080128290639379</v>
       </c>
     </row>
     <row r="813">
@@ -6872,7 +6872,7 @@
         <v>43454</v>
       </c>
       <c r="B813" t="n">
-        <v>1.067931121260715</v>
+        <v>1.066822274685158</v>
       </c>
     </row>
     <row r="814">
@@ -6880,7 +6880,7 @@
         <v>43455</v>
       </c>
       <c r="B814" t="n">
-        <v>1.046988286719451</v>
+        <v>1.045901185357515</v>
       </c>
     </row>
     <row r="815">
@@ -6888,7 +6888,7 @@
         <v>43458</v>
       </c>
       <c r="B815" t="n">
-        <v>1.022431925184943</v>
+        <v>1.021370321008035</v>
       </c>
     </row>
     <row r="816">
@@ -6896,7 +6896,7 @@
         <v>43460</v>
       </c>
       <c r="B816" t="n">
-        <v>1.060697578676279</v>
+        <v>1.059596242780732</v>
       </c>
     </row>
     <row r="817">
@@ -6904,7 +6904,7 @@
         <v>43461</v>
       </c>
       <c r="B817" t="n">
-        <v>1.067366678190514</v>
+        <v>1.066258417683435</v>
       </c>
     </row>
     <row r="818">
@@ -6912,7 +6912,7 @@
         <v>43462</v>
       </c>
       <c r="B818" t="n">
-        <v>1.066584283070025</v>
+        <v>1.06547683493383</v>
       </c>
     </row>
     <row r="819">
@@ -6920,7 +6920,7 @@
         <v>43465</v>
       </c>
       <c r="B819" t="n">
-        <v>1.074986787710349</v>
+        <v>1.073870615145855</v>
       </c>
     </row>
     <row r="820">
@@ -6928,7 +6928,7 @@
         <v>43467</v>
       </c>
       <c r="B820" t="n">
-        <v>1.075814098101155</v>
+        <v>1.074697066529674</v>
       </c>
     </row>
     <row r="821">
@@ -6936,7 +6936,7 @@
         <v>43468</v>
       </c>
       <c r="B821" t="n">
-        <v>1.058776581250088</v>
+        <v>1.057677239950798</v>
       </c>
     </row>
     <row r="822">
@@ -6944,7 +6944,7 @@
         <v>43469</v>
       </c>
       <c r="B822" t="n">
-        <v>1.088755713261784</v>
+        <v>1.087625244245353</v>
       </c>
     </row>
     <row r="823">
@@ -6952,7 +6952,7 @@
         <v>43472</v>
       </c>
       <c r="B823" t="n">
-        <v>1.09286597863348</v>
+        <v>1.091731241875814</v>
       </c>
     </row>
     <row r="824">
@@ -6960,7 +6960,7 @@
         <v>43473</v>
       </c>
       <c r="B824" t="n">
-        <v>1.106606254194787</v>
+        <v>1.105457250732836</v>
       </c>
     </row>
     <row r="825">
@@ -6968,7 +6968,7 @@
         <v>43474</v>
       </c>
       <c r="B825" t="n">
-        <v>1.11221069143061</v>
+        <v>1.11105586880962</v>
       </c>
     </row>
     <row r="826">
@@ -6976,7 +6976,7 @@
         <v>43475</v>
       </c>
       <c r="B826" t="n">
-        <v>1.118850329949628</v>
+        <v>1.117688613306835</v>
       </c>
     </row>
     <row r="827">
@@ -6984,7 +6984,7 @@
         <v>43476</v>
       </c>
       <c r="B827" t="n">
-        <v>1.117599167930555</v>
+        <v>1.116438750385327</v>
       </c>
     </row>
     <row r="828">
@@ -6992,7 +6992,7 @@
         <v>43479</v>
       </c>
       <c r="B828" t="n">
-        <v>1.111511794286396</v>
+        <v>1.110357697339272</v>
       </c>
     </row>
     <row r="829">
@@ -7000,7 +7000,7 @@
         <v>43480</v>
       </c>
       <c r="B829" t="n">
-        <v>1.121063671158278</v>
+        <v>1.11989965637493</v>
       </c>
     </row>
     <row r="830">
@@ -7008,7 +7008,7 @@
         <v>43481</v>
       </c>
       <c r="B830" t="n">
-        <v>1.123002570868875</v>
+        <v>1.121836542901098</v>
       </c>
     </row>
     <row r="831">
@@ -7016,7 +7016,7 @@
         <v>43482</v>
       </c>
       <c r="B831" t="n">
-        <v>1.130162582923454</v>
+        <v>1.12898912062336</v>
       </c>
     </row>
     <row r="832">
@@ -7024,7 +7024,7 @@
         <v>43483</v>
       </c>
       <c r="B832" t="n">
-        <v>1.141756670843115</v>
+        <v>1.140571170252881</v>
       </c>
     </row>
     <row r="833">
@@ -7032,7 +7032,7 @@
         <v>43487</v>
       </c>
       <c r="B833" t="n">
-        <v>1.127462577795455</v>
+        <v>1.126291918945303</v>
       </c>
     </row>
     <row r="834">
@@ -7040,7 +7040,7 @@
         <v>43488</v>
       </c>
       <c r="B834" t="n">
-        <v>1.132903514028842</v>
+        <v>1.131727205784838</v>
       </c>
     </row>
     <row r="835">
@@ -7048,7 +7048,7 @@
         <v>43489</v>
       </c>
       <c r="B835" t="n">
-        <v>1.132970293625215</v>
+        <v>1.131793916043101</v>
       </c>
     </row>
     <row r="836">
@@ -7056,7 +7056,7 @@
         <v>43490</v>
       </c>
       <c r="B836" t="n">
-        <v>1.142055660588519</v>
+        <v>1.140869849553399</v>
       </c>
     </row>
     <row r="837">
@@ -7064,7 +7064,7 @@
         <v>43493</v>
       </c>
       <c r="B837" t="n">
-        <v>1.138222956870669</v>
+        <v>1.13704112538096</v>
       </c>
     </row>
     <row r="838">
@@ -7072,7 +7072,7 @@
         <v>43494</v>
       </c>
       <c r="B838" t="n">
-        <v>1.140233245869041</v>
+        <v>1.13904932707049</v>
       </c>
     </row>
     <row r="839">
@@ -7080,7 +7080,7 @@
         <v>43495</v>
       </c>
       <c r="B839" t="n">
-        <v>1.152854966525417</v>
+        <v>1.151657942432481</v>
       </c>
     </row>
     <row r="840">
@@ -7088,7 +7088,7 @@
         <v>43496</v>
       </c>
       <c r="B840" t="n">
-        <v>1.165023857865016</v>
+        <v>1.16381419865618</v>
       </c>
     </row>
     <row r="841">
@@ -7096,7 +7096,7 @@
         <v>43497</v>
       </c>
       <c r="B841" t="n">
-        <v>1.161526739245351</v>
+        <v>1.160320711139615</v>
       </c>
     </row>
     <row r="842">
@@ -7104,7 +7104,7 @@
         <v>43500</v>
       </c>
       <c r="B842" t="n">
-        <v>1.165838840274761</v>
+        <v>1.16462833485924</v>
       </c>
     </row>
     <row r="843">
@@ -7112,7 +7112,7 @@
         <v>43501</v>
       </c>
       <c r="B843" t="n">
-        <v>1.171399361385147</v>
+        <v>1.170183082409263</v>
       </c>
     </row>
     <row r="844">
@@ -7120,7 +7120,7 @@
         <v>43502</v>
       </c>
       <c r="B844" t="n">
-        <v>1.164524176680643</v>
+        <v>1.163315036297187</v>
       </c>
     </row>
     <row r="845">
@@ -7128,7 +7128,7 @@
         <v>43503</v>
       </c>
       <c r="B845" t="n">
-        <v>1.159748697343566</v>
+        <v>1.158544515401534</v>
       </c>
     </row>
     <row r="846">
@@ -7136,7 +7136,7 @@
         <v>43504</v>
       </c>
       <c r="B846" t="n">
-        <v>1.159201855482907</v>
+        <v>1.157998241333791</v>
       </c>
     </row>
     <row r="847">
@@ -7144,7 +7144,7 @@
         <v>43507</v>
       </c>
       <c r="B847" t="n">
-        <v>1.156836918914336</v>
+        <v>1.15563576030918</v>
       </c>
     </row>
     <row r="848">
@@ -7152,7 +7152,7 @@
         <v>43508</v>
       </c>
       <c r="B848" t="n">
-        <v>1.168654053476963</v>
+        <v>1.167440624989479</v>
       </c>
     </row>
     <row r="849">
@@ -7160,7 +7160,7 @@
         <v>43509</v>
       </c>
       <c r="B849" t="n">
-        <v>1.174874833171123</v>
+        <v>1.173654945568323</v>
       </c>
     </row>
     <row r="850">
@@ -7168,7 +7168,7 @@
         <v>43510</v>
       </c>
       <c r="B850" t="n">
-        <v>1.174482174087994</v>
+        <v>1.173262694188155</v>
       </c>
     </row>
     <row r="851">
@@ -7176,7 +7176,7 @@
         <v>43511</v>
       </c>
       <c r="B851" t="n">
-        <v>1.186091876085941</v>
+        <v>1.184860341683666</v>
       </c>
     </row>
     <row r="852">
@@ -7184,7 +7184,7 @@
         <v>43515</v>
       </c>
       <c r="B852" t="n">
-        <v>1.190284158142481</v>
+        <v>1.189048270839995</v>
       </c>
     </row>
     <row r="853">
@@ -7192,7 +7192,7 @@
         <v>43516</v>
       </c>
       <c r="B853" t="n">
-        <v>1.191100138900984</v>
+        <v>1.189863404355215</v>
       </c>
     </row>
     <row r="854">
@@ -7200,7 +7200,7 @@
         <v>43517</v>
       </c>
       <c r="B854" t="n">
-        <v>1.185716309101437</v>
+        <v>1.184485164655177</v>
       </c>
     </row>
     <row r="855">
@@ -7208,7 +7208,7 @@
         <v>43518</v>
       </c>
       <c r="B855" t="n">
-        <v>1.194054083665623</v>
+        <v>1.192814282001131</v>
       </c>
     </row>
     <row r="856">
@@ -7216,7 +7216,7 @@
         <v>43521</v>
       </c>
       <c r="B856" t="n">
-        <v>1.193564345323959</v>
+        <v>1.192325052161066</v>
       </c>
     </row>
     <row r="857">
@@ -7224,7 +7224,7 @@
         <v>43522</v>
       </c>
       <c r="B857" t="n">
-        <v>1.189141844357451</v>
+        <v>1.187907143134014</v>
       </c>
     </row>
     <row r="858">
@@ -7232,7 +7232,7 @@
         <v>43523</v>
       </c>
       <c r="B858" t="n">
-        <v>1.187293234118855</v>
+        <v>1.186060452331131</v>
       </c>
     </row>
     <row r="859">
@@ -7240,7 +7240,7 @@
         <v>43524</v>
       </c>
       <c r="B859" t="n">
-        <v>1.188285212837819</v>
+        <v>1.187051401065872</v>
       </c>
     </row>
     <row r="860">
@@ -7248,7 +7248,7 @@
         <v>43525</v>
       </c>
       <c r="B860" t="n">
-        <v>1.193456586507626</v>
+        <v>1.192217405232094</v>
       </c>
     </row>
     <row r="861">
@@ -7256,7 +7256,7 @@
         <v>43528</v>
       </c>
       <c r="B861" t="n">
-        <v>1.187451058763485</v>
+        <v>1.186218113104408</v>
       </c>
     </row>
     <row r="862">
@@ -7264,7 +7264,7 @@
         <v>43529</v>
       </c>
       <c r="B862" t="n">
-        <v>1.186902234978613</v>
+        <v>1.185669859170309</v>
       </c>
     </row>
     <row r="863">
@@ -7272,7 +7272,7 @@
         <v>43530</v>
       </c>
       <c r="B863" t="n">
-        <v>1.197961163804347</v>
+        <v>1.196717305368452</v>
       </c>
     </row>
     <row r="864">
@@ -7280,7 +7280,7 @@
         <v>43531</v>
       </c>
       <c r="B864" t="n">
-        <v>1.189502004218669</v>
+        <v>1.188266929036631</v>
       </c>
     </row>
     <row r="865">
@@ -7288,7 +7288,7 @@
         <v>43532</v>
       </c>
       <c r="B865" t="n">
-        <v>1.186068795441586</v>
+        <v>1.184837285004239</v>
       </c>
     </row>
     <row r="866">
@@ -7296,7 +7296,7 @@
         <v>43535</v>
       </c>
       <c r="B866" t="n">
-        <v>1.201966583021215</v>
+        <v>1.200718565707192</v>
       </c>
     </row>
     <row r="867">
@@ -7304,7 +7304,7 @@
         <v>43536</v>
       </c>
       <c r="B867" t="n">
-        <v>1.204570906938019</v>
+        <v>1.203320185521083</v>
       </c>
     </row>
     <row r="868">
@@ -7312,7 +7312,7 @@
         <v>43537</v>
       </c>
       <c r="B868" t="n">
-        <v>1.211455565232131</v>
+        <v>1.210197695386217</v>
       </c>
     </row>
     <row r="869">
@@ -7320,7 +7320,7 @@
         <v>43538</v>
       </c>
       <c r="B869" t="n">
-        <v>1.210583550429175</v>
+        <v>1.209326586007411</v>
       </c>
     </row>
     <row r="870">
@@ -7328,7 +7328,7 @@
         <v>43539</v>
       </c>
       <c r="B870" t="n">
-        <v>1.21637972661996</v>
+        <v>1.215116743954143</v>
       </c>
     </row>
     <row r="871">
@@ -7336,7 +7336,7 @@
         <v>43542</v>
       </c>
       <c r="B871" t="n">
-        <v>1.218924658956496</v>
+        <v>1.217659033854804</v>
       </c>
     </row>
     <row r="872">
@@ -7344,7 +7344,7 @@
         <v>43543</v>
       </c>
       <c r="B872" t="n">
-        <v>1.216373846166803</v>
+        <v>1.215110869606735</v>
       </c>
     </row>
     <row r="873">
@@ -7352,7 +7352,7 @@
         <v>43544</v>
       </c>
       <c r="B873" t="n">
-        <v>1.210359431956509</v>
+        <v>1.209102700239828</v>
       </c>
     </row>
     <row r="874">
@@ -7360,7 +7360,7 @@
         <v>43545</v>
       </c>
       <c r="B874" t="n">
-        <v>1.221211099717307</v>
+        <v>1.219943100574858</v>
       </c>
     </row>
     <row r="875">
@@ -7368,7 +7368,7 @@
         <v>43546</v>
       </c>
       <c r="B875" t="n">
-        <v>1.203044692081868</v>
+        <v>1.201795555353384</v>
       </c>
     </row>
     <row r="876">
@@ -7376,7 +7376,7 @@
         <v>43549</v>
       </c>
       <c r="B876" t="n">
-        <v>1.204971493751736</v>
+        <v>1.203720356400374</v>
       </c>
     </row>
     <row r="877">
@@ -7384,7 +7384,7 @@
         <v>43550</v>
       </c>
       <c r="B877" t="n">
-        <v>1.212355846495981</v>
+        <v>1.211097041876487</v>
       </c>
     </row>
     <row r="878">
@@ -7392,7 +7392,7 @@
         <v>43551</v>
       </c>
       <c r="B878" t="n">
-        <v>1.20726103614707</v>
+        <v>1.206007521534485</v>
       </c>
     </row>
     <row r="879">
@@ -7400,7 +7400,7 @@
         <v>43552</v>
       </c>
       <c r="B879" t="n">
-        <v>1.207612560806624</v>
+        <v>1.206358681201477</v>
       </c>
     </row>
     <row r="880">
@@ -7408,7 +7408,7 @@
         <v>43553</v>
       </c>
       <c r="B880" t="n">
-        <v>1.216197187872654</v>
+        <v>1.214934394739158</v>
       </c>
     </row>
     <row r="881">
@@ -7416,7 +7416,7 @@
         <v>43556</v>
       </c>
       <c r="B881" t="n">
-        <v>1.227391652231324</v>
+        <v>1.226117235741956</v>
       </c>
     </row>
     <row r="882">
@@ -7424,7 +7424,7 @@
         <v>43557</v>
       </c>
       <c r="B882" t="n">
-        <v>1.230424152473486</v>
+        <v>1.229146587300236</v>
       </c>
     </row>
     <row r="883">
@@ -7432,7 +7432,7 @@
         <v>43558</v>
       </c>
       <c r="B883" t="n">
-        <v>1.224253960793324</v>
+        <v>1.222982802209205</v>
       </c>
     </row>
     <row r="884">
@@ -7440,7 +7440,7 @@
         <v>43559</v>
       </c>
       <c r="B884" t="n">
-        <v>1.227125238592184</v>
+        <v>1.225851098723513</v>
       </c>
     </row>
     <row r="885">
@@ -7448,7 +7448,7 @@
         <v>43560</v>
       </c>
       <c r="B885" t="n">
-        <v>1.23433817570893</v>
+        <v>1.233056546555171</v>
       </c>
     </row>
     <row r="886">
@@ -7456,7 +7456,7 @@
         <v>43563</v>
       </c>
       <c r="B886" t="n">
-        <v>1.237937504867076</v>
+        <v>1.236652138483704</v>
       </c>
     </row>
     <row r="887">
@@ -7464,7 +7464,7 @@
         <v>43564</v>
       </c>
       <c r="B887" t="n">
-        <v>1.230456158120449</v>
+        <v>1.229178559715326</v>
       </c>
     </row>
     <row r="888">
@@ -7472,7 +7472,7 @@
         <v>43565</v>
       </c>
       <c r="B888" t="n">
-        <v>1.237125340327225</v>
+        <v>1.235840817224708</v>
       </c>
     </row>
     <row r="889">
@@ -7480,7 +7480,7 @@
         <v>43566</v>
       </c>
       <c r="B889" t="n">
-        <v>1.236221871195414</v>
+        <v>1.234938286176479</v>
       </c>
     </row>
     <row r="890">
@@ -7488,7 +7488,7 @@
         <v>43567</v>
       </c>
       <c r="B890" t="n">
-        <v>1.248475227891959</v>
+        <v>1.247178920055662</v>
       </c>
     </row>
     <row r="891">
@@ -7496,7 +7496,7 @@
         <v>43570</v>
       </c>
       <c r="B891" t="n">
-        <v>1.248151348549454</v>
+        <v>1.246855377001231</v>
       </c>
     </row>
     <row r="892">
@@ -7504,7 +7504,7 @@
         <v>43571</v>
       </c>
       <c r="B892" t="n">
-        <v>1.245653194447425</v>
+        <v>1.244359816764636</v>
       </c>
     </row>
     <row r="893">
@@ -7512,7 +7512,7 @@
         <v>43572</v>
       </c>
       <c r="B893" t="n">
-        <v>1.242558262246974</v>
+        <v>1.24126809807197</v>
       </c>
     </row>
     <row r="894">
@@ -7520,7 +7520,7 @@
         <v>43573</v>
       </c>
       <c r="B894" t="n">
-        <v>1.23470008258492</v>
+        <v>1.233418077658612</v>
       </c>
     </row>
     <row r="895">
@@ -7528,7 +7528,7 @@
         <v>43577</v>
       </c>
       <c r="B895" t="n">
-        <v>1.236782376404401</v>
+        <v>1.235498209405722</v>
       </c>
     </row>
     <row r="896">
@@ -7536,7 +7536,7 @@
         <v>43578</v>
       </c>
       <c r="B896" t="n">
-        <v>1.25030217959108</v>
+        <v>1.24900397480741</v>
       </c>
     </row>
     <row r="897">
@@ -7544,7 +7544,7 @@
         <v>43579</v>
       </c>
       <c r="B897" t="n">
-        <v>1.246677383372967</v>
+        <v>1.245382942261684</v>
       </c>
     </row>
     <row r="898">
@@ -7552,7 +7552,7 @@
         <v>43580</v>
       </c>
       <c r="B898" t="n">
-        <v>1.245245126430468</v>
+        <v>1.243967717444587</v>
       </c>
     </row>
     <row r="899">
@@ -7560,7 +7560,7 @@
         <v>43581</v>
       </c>
       <c r="B899" t="n">
-        <v>1.252763322280309</v>
+        <v>1.251397088521593</v>
       </c>
     </row>
     <row r="900">
@@ -7568,7 +7568,7 @@
         <v>43584</v>
       </c>
       <c r="B900" t="n">
-        <v>1.254897851128416</v>
+        <v>1.253506300782401</v>
       </c>
     </row>
     <row r="901">
@@ -7576,7 +7576,7 @@
         <v>43585</v>
       </c>
       <c r="B901" t="n">
-        <v>1.255695793301923</v>
+        <v>1.254294769905232</v>
       </c>
     </row>
     <row r="902">
@@ -7584,7 +7584,7 @@
         <v>43586</v>
       </c>
       <c r="B902" t="n">
-        <v>1.243272792058751</v>
+        <v>1.242020645150168</v>
       </c>
     </row>
     <row r="903">
@@ -7592,7 +7592,7 @@
         <v>43587</v>
       </c>
       <c r="B903" t="n">
-        <v>1.24356548043077</v>
+        <v>1.242309858142662</v>
       </c>
     </row>
     <row r="904">
@@ -7600,7 +7600,7 @@
         <v>43588</v>
       </c>
       <c r="B904" t="n">
-        <v>1.254071833010723</v>
+        <v>1.252692385966671</v>
       </c>
     </row>
     <row r="905">
@@ -7608,7 +7608,7 @@
         <v>43591</v>
       </c>
       <c r="B905" t="n">
-        <v>1.248401378923308</v>
+        <v>1.247089541846759</v>
       </c>
     </row>
     <row r="906">
@@ -7616,7 +7616,7 @@
         <v>43592</v>
       </c>
       <c r="B906" t="n">
-        <v>1.230051298058299</v>
+        <v>1.228960247712648</v>
       </c>
     </row>
     <row r="907">
@@ -7624,7 +7624,7 @@
         <v>43593</v>
       </c>
       <c r="B907" t="n">
-        <v>1.22708162098237</v>
+        <v>1.226025898295374</v>
       </c>
     </row>
     <row r="908">
@@ -7632,7 +7632,7 @@
         <v>43594</v>
       </c>
       <c r="B908" t="n">
-        <v>1.22561048686967</v>
+        <v>1.224572245421751</v>
       </c>
     </row>
     <row r="909">
@@ -7640,7 +7640,7 @@
         <v>43595</v>
       </c>
       <c r="B909" t="n">
-        <v>1.233185453636621</v>
+        <v>1.232057809643452</v>
       </c>
     </row>
     <row r="910">
@@ -7648,7 +7648,7 @@
         <v>43598</v>
       </c>
       <c r="B910" t="n">
-        <v>1.20407878785901</v>
+        <v>1.203304049966968</v>
       </c>
     </row>
     <row r="911">
@@ -7656,7 +7656,7 @@
         <v>43599</v>
       </c>
       <c r="B911" t="n">
-        <v>1.21443881870154</v>
+        <v>1.213542234138381</v>
       </c>
     </row>
     <row r="912">
@@ -7664,7 +7664,7 @@
         <v>43600</v>
       </c>
       <c r="B912" t="n">
-        <v>1.222876946668523</v>
+        <v>1.221880972546073</v>
       </c>
     </row>
     <row r="913">
@@ -7672,7 +7672,7 @@
         <v>43601</v>
       </c>
       <c r="B913" t="n">
-        <v>1.233817713425232</v>
+        <v>1.232693116587174</v>
       </c>
     </row>
     <row r="914">
@@ -7680,7 +7680,7 @@
         <v>43602</v>
       </c>
       <c r="B914" t="n">
-        <v>1.224977498500617</v>
+        <v>1.223958363378239</v>
       </c>
     </row>
     <row r="915">
@@ -7688,7 +7688,7 @@
         <v>43605</v>
       </c>
       <c r="B915" t="n">
-        <v>1.217286728160404</v>
+        <v>1.216359263514432</v>
       </c>
     </row>
     <row r="916">
@@ -7696,7 +7696,7 @@
         <v>43606</v>
       </c>
       <c r="B916" t="n">
-        <v>1.224805415005827</v>
+        <v>1.223789361149315</v>
       </c>
     </row>
     <row r="917">
@@ -7704,7 +7704,7 @@
         <v>43607</v>
       </c>
       <c r="B917" t="n">
-        <v>1.220669732631915</v>
+        <v>1.219702836495137</v>
       </c>
     </row>
     <row r="918">
@@ -7712,7 +7712,7 @@
         <v>43608</v>
       </c>
       <c r="B918" t="n">
-        <v>1.208320542574178</v>
+        <v>1.207501340367319</v>
       </c>
     </row>
     <row r="919">
@@ -7720,7 +7720,7 @@
         <v>43609</v>
       </c>
       <c r="B919" t="n">
-        <v>1.211916738569972</v>
+        <v>1.211055050627867</v>
       </c>
     </row>
     <row r="920">
@@ -7728,7 +7728,7 @@
         <v>43613</v>
       </c>
       <c r="B920" t="n">
-        <v>1.203589999726971</v>
+        <v>1.202827586541418</v>
       </c>
     </row>
     <row r="921">
@@ -7736,7 +7736,7 @@
         <v>43614</v>
       </c>
       <c r="B921" t="n">
-        <v>1.195246072144848</v>
+        <v>1.194583139967839</v>
       </c>
     </row>
     <row r="922">
@@ -7744,7 +7744,7 @@
         <v>43615</v>
       </c>
       <c r="B922" t="n">
-        <v>1.196440005094543</v>
+        <v>1.195762944517754</v>
       </c>
     </row>
     <row r="923">
@@ -7752,7 +7752,7 @@
         <v>43616</v>
       </c>
       <c r="B923" t="n">
-        <v>1.184049902392003</v>
+        <v>1.18352102858462</v>
       </c>
     </row>
     <row r="924">
@@ -7760,7 +7760,7 @@
         <v>43619</v>
       </c>
       <c r="B924" t="n">
-        <v>1.183301375599443</v>
+        <v>1.182781371342301</v>
       </c>
     </row>
     <row r="925">
@@ -7768,7 +7768,7 @@
         <v>43620</v>
       </c>
       <c r="B925" t="n">
-        <v>1.20412724008343</v>
+        <v>1.203364744148249</v>
       </c>
     </row>
     <row r="926">
@@ -7776,7 +7776,7 @@
         <v>43621</v>
       </c>
       <c r="B926" t="n">
-        <v>1.210652438352399</v>
+        <v>1.209813105871289</v>
       </c>
     </row>
     <row r="927">
@@ -7784,7 +7784,7 @@
         <v>43622</v>
       </c>
       <c r="B927" t="n">
-        <v>1.217692435957158</v>
+        <v>1.216770237968725</v>
       </c>
     </row>
     <row r="928">
@@ -7792,7 +7792,7 @@
         <v>43623</v>
       </c>
       <c r="B928" t="n">
-        <v>1.226946311013129</v>
+        <v>1.225915373010521</v>
       </c>
     </row>
     <row r="929">
@@ -7800,7 +7800,7 @@
         <v>43626</v>
       </c>
       <c r="B929" t="n">
-        <v>1.231513815530374</v>
+        <v>1.230429016216969</v>
       </c>
     </row>
     <row r="930">
@@ -7808,7 +7808,7 @@
         <v>43627</v>
       </c>
       <c r="B930" t="n">
-        <v>1.228623048702592</v>
+        <v>1.227572527763675</v>
       </c>
     </row>
     <row r="931">
@@ -7816,7 +7816,7 @@
         <v>43628</v>
       </c>
       <c r="B931" t="n">
-        <v>1.226301488771287</v>
+        <v>1.225278484941747</v>
       </c>
     </row>
     <row r="932">
@@ -7824,7 +7824,7 @@
         <v>43629</v>
       </c>
       <c r="B932" t="n">
-        <v>1.232871515794759</v>
+        <v>1.231771156570904</v>
       </c>
     </row>
     <row r="933">
@@ -7832,7 +7832,7 @@
         <v>43630</v>
       </c>
       <c r="B933" t="n">
-        <v>1.231177992176077</v>
+        <v>1.230097695290061</v>
       </c>
     </row>
     <row r="934">
@@ -7840,7 +7840,7 @@
         <v>43633</v>
       </c>
       <c r="B934" t="n">
-        <v>1.231985308032167</v>
+        <v>1.230895465040219</v>
       </c>
     </row>
     <row r="935">
@@ -7848,7 +7848,7 @@
         <v>43634</v>
       </c>
       <c r="B935" t="n">
-        <v>1.240417251455777</v>
+        <v>1.239228270001633</v>
       </c>
     </row>
     <row r="936">
@@ -7856,7 +7856,7 @@
         <v>43635</v>
       </c>
       <c r="B936" t="n">
-        <v>1.247782470720264</v>
+        <v>1.246506824676587</v>
       </c>
     </row>
     <row r="937">
@@ -7864,7 +7864,7 @@
         <v>43636</v>
       </c>
       <c r="B937" t="n">
-        <v>1.25850413825384</v>
+        <v>1.257102641551238</v>
       </c>
     </row>
     <row r="938">
@@ -7872,7 +7872,7 @@
         <v>43637</v>
       </c>
       <c r="B938" t="n">
-        <v>1.257384844664364</v>
+        <v>1.255996597837897</v>
       </c>
     </row>
     <row r="939">
@@ -7880,7 +7880,7 @@
         <v>43640</v>
       </c>
       <c r="B939" t="n">
-        <v>1.255636651370615</v>
+        <v>1.254269108430581</v>
       </c>
     </row>
     <row r="940">
@@ -7888,7 +7888,7 @@
         <v>43641</v>
       </c>
       <c r="B940" t="n">
-        <v>1.245114774654676</v>
+        <v>1.243872623479736</v>
       </c>
     </row>
     <row r="941">
@@ -7896,7 +7896,7 @@
         <v>43642</v>
       </c>
       <c r="B941" t="n">
-        <v>1.242562193572845</v>
+        <v>1.241350287143067</v>
       </c>
     </row>
     <row r="942">
@@ -7904,7 +7904,7 @@
         <v>43643</v>
       </c>
       <c r="B942" t="n">
-        <v>1.246248501665306</v>
+        <v>1.24499311597539</v>
       </c>
     </row>
     <row r="943">
@@ -7912,7 +7912,7 @@
         <v>43644</v>
       </c>
       <c r="B943" t="n">
-        <v>1.2533575899861</v>
+        <v>1.25201856300777</v>
       </c>
     </row>
     <row r="944">
@@ -7920,7 +7920,7 @@
         <v>43647</v>
       </c>
       <c r="B944" t="n">
-        <v>1.261688420812438</v>
+        <v>1.26025146468122</v>
       </c>
     </row>
     <row r="945">
@@ -7928,7 +7928,7 @@
         <v>43648</v>
       </c>
       <c r="B945" t="n">
-        <v>1.267057900223803</v>
+        <v>1.265557692461479</v>
       </c>
     </row>
     <row r="946">
@@ -7936,7 +7936,7 @@
         <v>43649</v>
       </c>
       <c r="B946" t="n">
-        <v>1.276058086318932</v>
+        <v>1.274452129289662</v>
       </c>
     </row>
     <row r="947">
@@ -7944,7 +7944,7 @@
         <v>43650</v>
       </c>
       <c r="B947" t="n">
-        <v>1.276058086318932</v>
+        <v>1.274452129289662</v>
       </c>
     </row>
     <row r="948">
@@ -7952,7 +7952,7 @@
         <v>43651</v>
       </c>
       <c r="B948" t="n">
-        <v>1.274967585460389</v>
+        <v>1.273374531609339</v>
       </c>
     </row>
     <row r="949">
@@ -7960,7 +7960,7 @@
         <v>43654</v>
       </c>
       <c r="B949" t="n">
-        <v>1.267672159351461</v>
+        <v>1.266165798896007</v>
       </c>
     </row>
     <row r="950">
@@ -7968,7 +7968,7 @@
         <v>43655</v>
       </c>
       <c r="B950" t="n">
-        <v>1.268210043844966</v>
+        <v>1.266697326539646</v>
       </c>
     </row>
     <row r="951">
@@ -7976,7 +7976,7 @@
         <v>43656</v>
       </c>
       <c r="B951" t="n">
-        <v>1.274188617146114</v>
+        <v>1.272605513359558</v>
       </c>
     </row>
     <row r="952">
@@ -7984,7 +7984,7 @@
         <v>43657</v>
       </c>
       <c r="B952" t="n">
-        <v>1.276813087559787</v>
+        <v>1.275199013237615</v>
       </c>
     </row>
     <row r="953">
@@ -7992,7 +7992,7 @@
         <v>43658</v>
       </c>
       <c r="B953" t="n">
-        <v>1.281713968501451</v>
+        <v>1.280042151734622</v>
       </c>
     </row>
     <row r="954">
@@ -8000,7 +8000,7 @@
         <v>43661</v>
       </c>
       <c r="B954" t="n">
-        <v>1.282319917678168</v>
+        <v>1.280640940453591</v>
       </c>
     </row>
     <row r="955">
@@ -8008,7 +8008,7 @@
         <v>43662</v>
       </c>
       <c r="B955" t="n">
-        <v>1.278904890514241</v>
+        <v>1.27726637980541</v>
       </c>
     </row>
     <row r="956">
@@ -8016,7 +8016,7 @@
         <v>43663</v>
       </c>
       <c r="B956" t="n">
-        <v>1.272935266735996</v>
+        <v>1.271367617700288</v>
       </c>
     </row>
     <row r="957">
@@ -8024,7 +8024,7 @@
         <v>43664</v>
       </c>
       <c r="B957" t="n">
-        <v>1.275903868413073</v>
+        <v>1.27430119935634</v>
       </c>
     </row>
     <row r="958">
@@ -8032,7 +8032,7 @@
         <v>43665</v>
       </c>
       <c r="B958" t="n">
-        <v>1.26717293036981</v>
+        <v>1.265674095344938</v>
       </c>
     </row>
     <row r="959">
@@ -8040,7 +8040,7 @@
         <v>43668</v>
       </c>
       <c r="B959" t="n">
-        <v>1.268663259399012</v>
+        <v>1.267146826910383</v>
       </c>
     </row>
     <row r="960">
@@ -8048,7 +8048,7 @@
         <v>43669</v>
       </c>
       <c r="B960" t="n">
-        <v>1.278412454312415</v>
+        <v>1.276781572770934</v>
       </c>
     </row>
     <row r="961">
@@ -8056,7 +8056,7 @@
         <v>43670</v>
       </c>
       <c r="B961" t="n">
-        <v>1.284394079545545</v>
+        <v>1.282692793789214</v>
       </c>
     </row>
     <row r="962">
@@ -8064,7 +8064,7 @@
         <v>43671</v>
       </c>
       <c r="B962" t="n">
-        <v>1.277331524219411</v>
+        <v>1.27571411008631</v>
       </c>
     </row>
     <row r="963">
@@ -8072,7 +8072,7 @@
         <v>43672</v>
       </c>
       <c r="B963" t="n">
-        <v>1.286072128191142</v>
+        <v>1.284352043704526</v>
       </c>
     </row>
     <row r="964">
@@ -8080,7 +8080,7 @@
         <v>43675</v>
       </c>
       <c r="B964" t="n">
-        <v>1.2828809077835</v>
+        <v>1.281198615571008</v>
       </c>
     </row>
     <row r="965">
@@ -8088,7 +8088,7 @@
         <v>43676</v>
       </c>
       <c r="B965" t="n">
-        <v>1.280748499093171</v>
+        <v>1.279091441801509</v>
       </c>
     </row>
     <row r="966">
@@ -8096,7 +8096,7 @@
         <v>43677</v>
       </c>
       <c r="B966" t="n">
-        <v>1.265852259515837</v>
+        <v>1.264373029787038</v>
       </c>
     </row>
     <row r="967">
@@ -8104,7 +8104,7 @@
         <v>43678</v>
       </c>
       <c r="B967" t="n">
-        <v>1.256762170138117</v>
+        <v>1.255391016586431</v>
       </c>
     </row>
     <row r="968">
@@ -8112,7 +8112,7 @@
         <v>43679</v>
       </c>
       <c r="B968" t="n">
-        <v>1.249541489374433</v>
+        <v>1.248256071850751</v>
       </c>
     </row>
     <row r="969">
@@ -8120,7 +8120,7 @@
         <v>43682</v>
       </c>
       <c r="B969" t="n">
-        <v>1.210623959296422</v>
+        <v>1.209811162268168</v>
       </c>
     </row>
     <row r="970">
@@ -8128,7 +8128,7 @@
         <v>43683</v>
       </c>
       <c r="B970" t="n">
-        <v>1.225721728605915</v>
+        <v>1.224732987325365</v>
       </c>
     </row>
     <row r="971">
@@ -8136,7 +8136,7 @@
         <v>43684</v>
       </c>
       <c r="B971" t="n">
-        <v>1.225479992366729</v>
+        <v>1.224494101056754</v>
       </c>
     </row>
     <row r="972">
@@ -8144,7 +8144,7 @@
         <v>43685</v>
       </c>
       <c r="B972" t="n">
-        <v>1.247953377881734</v>
+        <v>1.246707060293921</v>
       </c>
     </row>
     <row r="973">
@@ -8152,7 +8152,7 @@
         <v>43686</v>
       </c>
       <c r="B973" t="n">
-        <v>1.240935498527281</v>
+        <v>1.23977227459939</v>
       </c>
     </row>
     <row r="974">
@@ -8160,7 +8160,7 @@
         <v>43689</v>
       </c>
       <c r="B974" t="n">
-        <v>1.22608075773456</v>
+        <v>1.225094424006252</v>
       </c>
     </row>
     <row r="975">
@@ -8168,7 +8168,7 @@
         <v>43690</v>
       </c>
       <c r="B975" t="n">
-        <v>1.240161276626011</v>
+        <v>1.239010878062061</v>
       </c>
     </row>
     <row r="976">
@@ -8176,7 +8176,7 @@
         <v>43691</v>
       </c>
       <c r="B976" t="n">
-        <v>1.206667846289971</v>
+        <v>1.205921491849317</v>
       </c>
     </row>
     <row r="977">
@@ -8184,7 +8184,7 @@
         <v>43692</v>
       </c>
       <c r="B977" t="n">
-        <v>1.212071581632855</v>
+        <v>1.211261958074545</v>
       </c>
     </row>
     <row r="978">
@@ -8192,7 +8192,7 @@
         <v>43693</v>
       </c>
       <c r="B978" t="n">
-        <v>1.22904862999702</v>
+        <v>1.228042010326798</v>
       </c>
     </row>
     <row r="979">
@@ -8200,7 +8200,7 @@
         <v>43696</v>
       </c>
       <c r="B979" t="n">
-        <v>1.241324423743805</v>
+        <v>1.240174851844281</v>
       </c>
     </row>
     <row r="980">
@@ -8208,7 +8208,7 @@
         <v>43697</v>
       </c>
       <c r="B980" t="n">
-        <v>1.237361809757177</v>
+        <v>1.236258937783964</v>
       </c>
     </row>
     <row r="981">
@@ -8216,7 +8216,7 @@
         <v>43698</v>
       </c>
       <c r="B981" t="n">
-        <v>1.24825007200718</v>
+        <v>1.247020284219297</v>
       </c>
     </row>
     <row r="982">
@@ -8224,7 +8224,7 @@
         <v>43699</v>
       </c>
       <c r="B982" t="n">
-        <v>1.248345936845743</v>
+        <v>1.247115022811318</v>
       </c>
     </row>
     <row r="983">
@@ -8232,7 +8232,7 @@
         <v>43700</v>
       </c>
       <c r="B983" t="n">
-        <v>1.218799613641643</v>
+        <v>1.217923285875054</v>
       </c>
     </row>
     <row r="984">
@@ -8240,7 +8240,7 @@
         <v>43703</v>
       </c>
       <c r="B984" t="n">
-        <v>1.228753414432107</v>
+        <v>1.227761145316576</v>
       </c>
     </row>
     <row r="985">
@@ -8248,7 +8248,7 @@
         <v>43704</v>
       </c>
       <c r="B985" t="n">
-        <v>1.224979521484814</v>
+        <v>1.224031666208523</v>
       </c>
     </row>
     <row r="986">
@@ -8256,7 +8256,7 @@
         <v>43705</v>
       </c>
       <c r="B986" t="n">
-        <v>1.232500360208404</v>
+        <v>1.231464746198206</v>
       </c>
     </row>
     <row r="987">
@@ -8264,7 +8264,7 @@
         <v>43706</v>
       </c>
       <c r="B987" t="n">
-        <v>1.24698406390399</v>
+        <v>1.245780325140957</v>
       </c>
     </row>
     <row r="988">
@@ -8272,7 +8272,7 @@
         <v>43707</v>
       </c>
       <c r="B988" t="n">
-        <v>1.245221409074724</v>
+        <v>1.244038375562998</v>
       </c>
     </row>
     <row r="989">
@@ -8280,7 +8280,7 @@
         <v>43710</v>
       </c>
       <c r="B989" t="n">
-        <v>1.245214691981221</v>
+        <v>1.244031737271678</v>
       </c>
     </row>
     <row r="990">
@@ -8288,7 +8288,7 @@
         <v>43711</v>
       </c>
       <c r="B990" t="n">
-        <v>1.238731437783581</v>
+        <v>1.237624901562773</v>
       </c>
     </row>
     <row r="991">
@@ -8296,7 +8296,7 @@
         <v>43712</v>
       </c>
       <c r="B991" t="n">
-        <v>1.249616941782067</v>
+        <v>1.248383733776542</v>
       </c>
     </row>
     <row r="992">
@@ -8304,7 +8304,7 @@
         <v>43713</v>
       </c>
       <c r="B992" t="n">
-        <v>1.264319984744643</v>
+        <v>1.262916158682971</v>
       </c>
     </row>
     <row r="993">
@@ -8312,7 +8312,7 @@
         <v>43714</v>
       </c>
       <c r="B993" t="n">
-        <v>1.266291322815016</v>
+        <v>1.264864412283928</v>
       </c>
     </row>
     <row r="994">
@@ -8320,7 +8320,7 @@
         <v>43717</v>
       </c>
       <c r="B994" t="n">
-        <v>1.263016283703353</v>
+        <v>1.261627866342958</v>
       </c>
     </row>
     <row r="995">
@@ -8328,7 +8328,7 @@
         <v>43718</v>
       </c>
       <c r="B995" t="n">
-        <v>1.259476798302116</v>
+        <v>1.258129990073009</v>
       </c>
     </row>
     <row r="996">
@@ -8336,7 +8336,7 @@
         <v>43719</v>
       </c>
       <c r="B996" t="n">
-        <v>1.263489317165317</v>
+        <v>1.262095592627996</v>
       </c>
     </row>
     <row r="997">
@@ -8344,7 +8344,7 @@
         <v>43720</v>
       </c>
       <c r="B997" t="n">
-        <v>1.270618552295442</v>
+        <v>1.269141654141869</v>
       </c>
     </row>
     <row r="998">
@@ -8352,7 +8352,7 @@
         <v>43721</v>
       </c>
       <c r="B998" t="n">
-        <v>1.268254202925563</v>
+        <v>1.266805073217193</v>
       </c>
     </row>
     <row r="999">
@@ -8360,7 +8360,7 @@
         <v>43724</v>
       </c>
       <c r="B999" t="n">
-        <v>1.264454829962397</v>
+        <v>1.263050367552233</v>
       </c>
     </row>
     <row r="1000">
@@ -8368,7 +8368,7 @@
         <v>43725</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.268510228059361</v>
+        <v>1.26705835294668</v>
       </c>
     </row>
     <row r="1001">
@@ -8376,7 +8376,7 @@
         <v>43726</v>
       </c>
       <c r="B1001" t="n">
-        <v>1.265969114827444</v>
+        <v>1.264547086853822</v>
       </c>
     </row>
     <row r="1002">
@@ -8384,7 +8384,7 @@
         <v>43727</v>
       </c>
       <c r="B1002" t="n">
-        <v>1.266289591749363</v>
+        <v>1.264863807149834</v>
       </c>
     </row>
     <row r="1003">
@@ -8392,7 +8392,7 @@
         <v>43728</v>
       </c>
       <c r="B1003" t="n">
-        <v>1.26375596518923</v>
+        <v>1.262359939605288</v>
       </c>
     </row>
     <row r="1004">
@@ -8400,7 +8400,7 @@
         <v>43731</v>
       </c>
       <c r="B1004" t="n">
-        <v>1.262651385801066</v>
+        <v>1.261268321063859</v>
       </c>
     </row>
     <row r="1005">
@@ -8408,7 +8408,7 @@
         <v>43732</v>
       </c>
       <c r="B1005" t="n">
-        <v>1.254249675315767</v>
+        <v>1.252965704630082</v>
       </c>
     </row>
     <row r="1006">
@@ -8416,7 +8416,7 @@
         <v>43733</v>
       </c>
       <c r="B1006" t="n">
-        <v>1.261765255658849</v>
+        <v>1.260393651988176</v>
       </c>
     </row>
     <row r="1007">
@@ -8424,7 +8424,7 @@
         <v>43734</v>
       </c>
       <c r="B1007" t="n">
-        <v>1.259196153866499</v>
+        <v>1.257854722448343</v>
       </c>
     </row>
     <row r="1008">
@@ -8432,7 +8432,7 @@
         <v>43735</v>
       </c>
       <c r="B1008" t="n">
-        <v>1.247109505345044</v>
+        <v>1.245910986036483</v>
       </c>
     </row>
     <row r="1009">
@@ -8440,7 +8440,7 @@
         <v>43738</v>
       </c>
       <c r="B1009" t="n">
-        <v>1.253451803196492</v>
+        <v>1.252179290299899</v>
       </c>
     </row>
     <row r="1010">
@@ -8448,7 +8448,7 @@
         <v>43739</v>
       </c>
       <c r="B1010" t="n">
-        <v>1.241194010185424</v>
+        <v>1.240066431322444</v>
       </c>
     </row>
     <row r="1011">
@@ -8456,7 +8456,7 @@
         <v>43740</v>
       </c>
       <c r="B1011" t="n">
-        <v>1.227042167721879</v>
+        <v>1.22616344771024</v>
       </c>
     </row>
     <row r="1012">
@@ -8464,7 +8464,7 @@
         <v>43741</v>
       </c>
       <c r="B1012" t="n">
-        <v>1.235254615610604</v>
+        <v>1.234233935221786</v>
       </c>
     </row>
     <row r="1013">
@@ -8472,7 +8472,7 @@
         <v>43742</v>
       </c>
       <c r="B1013" t="n">
-        <v>1.253371121192209</v>
+        <v>1.252039646404035</v>
       </c>
     </row>
     <row r="1014">
@@ -8480,7 +8480,7 @@
         <v>43745</v>
       </c>
       <c r="B1014" t="n">
-        <v>1.24917598330603</v>
+        <v>1.247917676878889</v>
       </c>
     </row>
     <row r="1015">
@@ -8488,7 +8488,7 @@
         <v>43746</v>
       </c>
       <c r="B1015" t="n">
-        <v>1.23187882093546</v>
+        <v>1.23092512038848</v>
       </c>
     </row>
     <row r="1016">
@@ -8496,7 +8496,7 @@
         <v>43747</v>
       </c>
       <c r="B1016" t="n">
-        <v>1.251358177290449</v>
+        <v>1.250394597286964</v>
       </c>
     </row>
     <row r="1017">
@@ -8504,7 +8504,7 @@
         <v>43748</v>
       </c>
       <c r="B1017" t="n">
-        <v>1.257243110631627</v>
+        <v>1.256276563007853</v>
       </c>
     </row>
     <row r="1018">
@@ -8512,7 +8512,7 @@
         <v>43749</v>
       </c>
       <c r="B1018" t="n">
-        <v>1.265547222775854</v>
+        <v>1.264576483354721</v>
       </c>
     </row>
     <row r="1019">
@@ -8520,7 +8520,7 @@
         <v>43752</v>
       </c>
       <c r="B1019" t="n">
-        <v>1.264179695022006</v>
+        <v>1.263209643149608</v>
       </c>
     </row>
     <row r="1020">
@@ -8528,7 +8528,7 @@
         <v>43753</v>
       </c>
       <c r="B1020" t="n">
-        <v>1.273001461755573</v>
+        <v>1.272026955787716</v>
       </c>
     </row>
     <row r="1021">
@@ -8536,7 +8536,7 @@
         <v>43754</v>
       </c>
       <c r="B1021" t="n">
-        <v>1.272466630277006</v>
+        <v>1.271492393312755</v>
       </c>
     </row>
     <row r="1022">
@@ -8544,7 +8544,7 @@
         <v>43755</v>
       </c>
       <c r="B1022" t="n">
-        <v>1.278225386901617</v>
+        <v>1.277248245981758</v>
       </c>
     </row>
     <row r="1023">
@@ -8552,7 +8552,7 @@
         <v>43756</v>
       </c>
       <c r="B1023" t="n">
-        <v>1.272344406771554</v>
+        <v>1.271370217440293</v>
       </c>
     </row>
     <row r="1024">
@@ -8560,7 +8560,7 @@
         <v>43759</v>
       </c>
       <c r="B1024" t="n">
-        <v>1.278518107046145</v>
+        <v>1.277540803851883</v>
       </c>
     </row>
     <row r="1025">
@@ -8568,7 +8568,7 @@
         <v>43760</v>
       </c>
       <c r="B1025" t="n">
-        <v>1.274748971032359</v>
+        <v>1.273773561236942</v>
       </c>
     </row>
     <row r="1026">
@@ -8576,7 +8576,7 @@
         <v>43761</v>
       </c>
       <c r="B1026" t="n">
-        <v>1.278473296646443</v>
+        <v>1.277496010223582</v>
       </c>
     </row>
     <row r="1027">
@@ -8584,7 +8584,7 @@
         <v>43762</v>
       </c>
       <c r="B1027" t="n">
-        <v>1.260877148772407</v>
+        <v>1.25990873524847</v>
       </c>
     </row>
     <row r="1028">
@@ -8592,7 +8592,7 @@
         <v>43763</v>
       </c>
       <c r="B1028" t="n">
-        <v>1.26172159109466</v>
+        <v>1.260752748544792</v>
       </c>
     </row>
     <row r="1029">
@@ -8600,7 +8600,7 @@
         <v>43766</v>
       </c>
       <c r="B1029" t="n">
-        <v>1.263104312357641</v>
+        <v>1.262134767151354</v>
       </c>
     </row>
     <row r="1030">
@@ -8608,7 +8608,7 @@
         <v>43767</v>
       </c>
       <c r="B1030" t="n">
-        <v>1.262754045991314</v>
+        <v>1.261784678654783</v>
       </c>
     </row>
     <row r="1031">
@@ -8616,7 +8616,7 @@
         <v>43768</v>
       </c>
       <c r="B1031" t="n">
-        <v>1.270155079176984</v>
+        <v>1.269181946805036</v>
       </c>
     </row>
     <row r="1032">
@@ -8624,7 +8624,7 @@
         <v>43769</v>
       </c>
       <c r="B1032" t="n">
-        <v>1.264994899018006</v>
+        <v>1.264024378502465</v>
       </c>
     </row>
     <row r="1033">
@@ -8632,7 +8632,7 @@
         <v>43770</v>
       </c>
       <c r="B1033" t="n">
-        <v>1.277137186595721</v>
+        <v>1.276160476996294</v>
       </c>
     </row>
     <row r="1034">
@@ -8640,7 +8640,7 @@
         <v>43773</v>
       </c>
       <c r="B1034" t="n">
-        <v>1.275773915485517</v>
+        <v>1.274797897050147</v>
       </c>
     </row>
     <row r="1035">
@@ -8648,7 +8648,7 @@
         <v>43774</v>
       </c>
       <c r="B1035" t="n">
-        <v>1.270948838479284</v>
+        <v>1.269975262931123</v>
       </c>
     </row>
     <row r="1036">
@@ -8656,7 +8656,7 @@
         <v>43775</v>
       </c>
       <c r="B1036" t="n">
-        <v>1.271151403249722</v>
+        <v>1.270177724937693</v>
       </c>
     </row>
     <row r="1037">
@@ -8664,7 +8664,7 @@
         <v>43776</v>
       </c>
       <c r="B1037" t="n">
-        <v>1.273082617929182</v>
+        <v>1.272107959206023</v>
       </c>
     </row>
     <row r="1038">
@@ -8672,7 +8672,7 @@
         <v>43777</v>
       </c>
       <c r="B1038" t="n">
-        <v>1.279382381441857</v>
+        <v>1.278404518960325</v>
       </c>
     </row>
     <row r="1039">
@@ -8680,7 +8680,7 @@
         <v>43780</v>
       </c>
       <c r="B1039" t="n">
-        <v>1.275903289683041</v>
+        <v>1.274927189664214</v>
       </c>
     </row>
     <row r="1040">
@@ -8688,7 +8688,7 @@
         <v>43781</v>
       </c>
       <c r="B1040" t="n">
-        <v>1.279124332507973</v>
+        <v>1.278146596390037</v>
       </c>
     </row>
     <row r="1041">
@@ -8696,7 +8696,7 @@
         <v>43782</v>
       </c>
       <c r="B1041" t="n">
-        <v>1.26925038031905</v>
+        <v>1.268280191645438</v>
       </c>
     </row>
     <row r="1042">
@@ -8704,7 +8704,7 @@
         <v>43783</v>
       </c>
       <c r="B1042" t="n">
-        <v>1.274035804287098</v>
+        <v>1.273061957734627</v>
       </c>
     </row>
     <row r="1043">
@@ -8712,7 +8712,7 @@
         <v>43784</v>
       </c>
       <c r="B1043" t="n">
-        <v>1.281868799638465</v>
+        <v>1.280888965706759</v>
       </c>
     </row>
     <row r="1044">
@@ -8720,7 +8720,7 @@
         <v>43787</v>
       </c>
       <c r="B1044" t="n">
-        <v>1.281507908918769</v>
+        <v>1.280528350844447</v>
       </c>
     </row>
     <row r="1045">
@@ -8728,7 +8728,7 @@
         <v>43788</v>
       </c>
       <c r="B1045" t="n">
-        <v>1.283274299832419</v>
+        <v>1.282293391565507</v>
       </c>
     </row>
     <row r="1046">
@@ -8736,7 +8736,7 @@
         <v>43789</v>
       </c>
       <c r="B1046" t="n">
-        <v>1.278972847380043</v>
+        <v>1.277995227054198</v>
       </c>
     </row>
     <row r="1047">
@@ -8744,7 +8744,7 @@
         <v>43790</v>
       </c>
       <c r="B1047" t="n">
-        <v>1.27515754957898</v>
+        <v>1.274182845587667</v>
       </c>
     </row>
     <row r="1048">
@@ -8752,7 +8752,7 @@
         <v>43791</v>
       </c>
       <c r="B1048" t="n">
-        <v>1.278130983616177</v>
+        <v>1.277154006793538</v>
       </c>
     </row>
     <row r="1049">
@@ -8760,7 +8760,7 @@
         <v>43794</v>
       </c>
       <c r="B1049" t="n">
-        <v>1.289113255153382</v>
+        <v>1.28812788371009</v>
       </c>
     </row>
     <row r="1050">
@@ -8768,7 +8768,7 @@
         <v>43795</v>
       </c>
       <c r="B1050" t="n">
-        <v>1.29704686734866</v>
+        <v>1.296055431616705</v>
       </c>
     </row>
     <row r="1051">
@@ -8776,7 +8776,7 @@
         <v>43796</v>
       </c>
       <c r="B1051" t="n">
-        <v>1.302895706221799</v>
+        <v>1.30189979975868</v>
       </c>
     </row>
     <row r="1052">
@@ -8784,7 +8784,7 @@
         <v>43797</v>
       </c>
       <c r="B1052" t="n">
-        <v>1.302914385402728</v>
+        <v>1.301918464661631</v>
       </c>
     </row>
     <row r="1053">
@@ -8792,7 +8792,7 @@
         <v>43798</v>
       </c>
       <c r="B1053" t="n">
-        <v>1.299063375231322</v>
+        <v>1.298070398122552</v>
       </c>
     </row>
     <row r="1054">
@@ -8800,7 +8800,7 @@
         <v>43801</v>
       </c>
       <c r="B1054" t="n">
-        <v>1.29028274926753</v>
+        <v>1.289296483887185</v>
       </c>
     </row>
     <row r="1055">
@@ -8808,7 +8808,7 @@
         <v>43802</v>
       </c>
       <c r="B1055" t="n">
-        <v>1.285718272665091</v>
+        <v>1.28473549627602</v>
       </c>
     </row>
     <row r="1056">
@@ -8816,7 +8816,7 @@
         <v>43803</v>
       </c>
       <c r="B1056" t="n">
-        <v>1.290730204408682</v>
+        <v>1.289743597002906</v>
       </c>
     </row>
     <row r="1057">
@@ -8824,7 +8824,7 @@
         <v>43804</v>
       </c>
       <c r="B1057" t="n">
-        <v>1.290593096210091</v>
+        <v>1.289606593606979</v>
       </c>
     </row>
     <row r="1058">
@@ -8832,7 +8832,7 @@
         <v>43805</v>
       </c>
       <c r="B1058" t="n">
-        <v>1.297488321188717</v>
+        <v>1.296496548018599</v>
       </c>
     </row>
     <row r="1059">
@@ -8840,7 +8840,7 @@
         <v>43808</v>
       </c>
       <c r="B1059" t="n">
-        <v>1.291287581082599</v>
+        <v>1.29030054762965</v>
       </c>
     </row>
     <row r="1060">
@@ -8848,7 +8848,7 @@
         <v>43809</v>
       </c>
       <c r="B1060" t="n">
-        <v>1.289768486315328</v>
+        <v>1.288782614026921</v>
       </c>
     </row>
     <row r="1061">
@@ -8856,7 +8856,7 @@
         <v>43810</v>
       </c>
       <c r="B1061" t="n">
-        <v>1.290956648418348</v>
+        <v>1.289969867923466</v>
       </c>
     </row>
     <row r="1062">
@@ -8864,7 +8864,7 @@
         <v>43811</v>
       </c>
       <c r="B1062" t="n">
-        <v>1.295935636415409</v>
+        <v>1.294945050085338</v>
       </c>
     </row>
     <row r="1063">
@@ -8872,7 +8872,7 @@
         <v>43812</v>
       </c>
       <c r="B1063" t="n">
-        <v>1.298346382256651</v>
+        <v>1.297353953202444</v>
       </c>
     </row>
     <row r="1064">
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="B1064" t="n">
-        <v>1.306540468579089</v>
+        <v>1.305541776135197</v>
       </c>
     </row>
     <row r="1065">
@@ -8888,7 +8888,7 @@
         <v>43816</v>
       </c>
       <c r="B1065" t="n">
-        <v>1.306351332002698</v>
+        <v>1.305352784130883</v>
       </c>
     </row>
     <row r="1066">
@@ -8896,7 +8896,7 @@
         <v>43817</v>
       </c>
       <c r="B1066" t="n">
-        <v>1.306527769337052</v>
+        <v>1.305529086600197</v>
       </c>
     </row>
     <row r="1067">
@@ -8904,7 +8904,7 @@
         <v>43818</v>
       </c>
       <c r="B1067" t="n">
-        <v>1.313952161586625</v>
+        <v>1.312947803798275</v>
       </c>
     </row>
     <row r="1068">
@@ -8912,7 +8912,7 @@
         <v>43819</v>
       </c>
       <c r="B1068" t="n">
-        <v>1.317024875728099</v>
+        <v>1.316018169220769</v>
       </c>
     </row>
     <row r="1069">
@@ -8920,7 +8920,7 @@
         <v>43822</v>
       </c>
       <c r="B1069" t="n">
-        <v>1.317225738985303</v>
+        <v>1.316218878942264</v>
       </c>
     </row>
     <row r="1070">
@@ -8928,7 +8928,7 @@
         <v>43823</v>
       </c>
       <c r="B1070" t="n">
-        <v>1.317138893010476</v>
+        <v>1.3161320993507</v>
       </c>
     </row>
     <row r="1071">
@@ -8936,7 +8936,7 @@
         <v>43824</v>
       </c>
       <c r="B1071" t="n">
-        <v>1.317138893010476</v>
+        <v>1.3161320993507</v>
       </c>
     </row>
     <row r="1072">
@@ -8944,7 +8944,7 @@
         <v>43825</v>
       </c>
       <c r="B1072" t="n">
-        <v>1.323419208025908</v>
+        <v>1.322407613823552</v>
       </c>
     </row>
     <row r="1073">
@@ -8952,7 +8952,7 @@
         <v>43826</v>
       </c>
       <c r="B1073" t="n">
-        <v>1.323633076768883</v>
+        <v>1.322621319089694</v>
       </c>
     </row>
     <row r="1074">
@@ -8960,7 +8960,7 @@
         <v>43829</v>
       </c>
       <c r="B1074" t="n">
-        <v>1.31577179198338</v>
+        <v>1.314766043307283</v>
       </c>
     </row>
     <row r="1075">
@@ -8968,7 +8968,7 @@
         <v>43830</v>
       </c>
       <c r="B1075" t="n">
-        <v>1.318892565050724</v>
+        <v>1.317884430920401</v>
       </c>
     </row>
     <row r="1076">
@@ -8976,7 +8976,7 @@
         <v>43831</v>
       </c>
       <c r="B1076" t="n">
-        <v>1.318914350944024</v>
+        <v>1.317906200161016</v>
       </c>
     </row>
     <row r="1077">
@@ -8984,7 +8984,7 @@
         <v>43832</v>
       </c>
       <c r="B1077" t="n">
-        <v>1.328645374446715</v>
+        <v>1.327629785471108</v>
       </c>
     </row>
     <row r="1078">
@@ -8992,7 +8992,7 @@
         <v>43833</v>
       </c>
       <c r="B1078" t="n">
-        <v>1.324636654007049</v>
+        <v>1.323624129214229</v>
       </c>
     </row>
     <row r="1079">
@@ -9000,7 +9000,7 @@
         <v>43836</v>
       </c>
       <c r="B1079" t="n">
-        <v>1.329499925948288</v>
+        <v>1.328483683771232</v>
       </c>
     </row>
     <row r="1080">
@@ -9008,7 +9008,7 @@
         <v>43837</v>
       </c>
       <c r="B1080" t="n">
-        <v>1.328178743614327</v>
+        <v>1.327163511321653</v>
       </c>
     </row>
     <row r="1081">
@@ -9016,7 +9016,7 @@
         <v>43838</v>
       </c>
       <c r="B1081" t="n">
-        <v>1.334890290218222</v>
+        <v>1.333869927758484</v>
       </c>
     </row>
     <row r="1082">
@@ -9024,7 +9024,7 @@
         <v>43839</v>
       </c>
       <c r="B1082" t="n">
-        <v>1.341087202182929</v>
+        <v>1.340062102932174</v>
       </c>
     </row>
     <row r="1083">
@@ -9032,7 +9032,7 @@
         <v>43840</v>
       </c>
       <c r="B1083" t="n">
-        <v>1.342403656957336</v>
+        <v>1.341377551435847</v>
       </c>
     </row>
     <row r="1084">
@@ -9040,7 +9040,7 @@
         <v>43843</v>
       </c>
       <c r="B1084" t="n">
-        <v>1.35291836618125</v>
+        <v>1.351884223434047</v>
       </c>
     </row>
     <row r="1085">
@@ -9048,7 +9048,7 @@
         <v>43844</v>
       </c>
       <c r="B1085" t="n">
-        <v>1.350948648778999</v>
+        <v>1.349916011642937</v>
       </c>
     </row>
     <row r="1086">
@@ -9056,7 +9056,7 @@
         <v>43845</v>
       </c>
       <c r="B1086" t="n">
-        <v>1.35288000848528</v>
+        <v>1.351845895057904</v>
       </c>
     </row>
     <row r="1087">
@@ -9064,7 +9064,7 @@
         <v>43846</v>
       </c>
       <c r="B1087" t="n">
-        <v>1.361699114721504</v>
+        <v>1.360658260152179</v>
       </c>
     </row>
     <row r="1088">
@@ -9072,7 +9072,7 @@
         <v>43847</v>
       </c>
       <c r="B1088" t="n">
-        <v>1.365341033391489</v>
+        <v>1.364297395015046</v>
       </c>
     </row>
     <row r="1089">
@@ -9080,7 +9080,7 @@
         <v>43851</v>
       </c>
       <c r="B1089" t="n">
-        <v>1.362439936477938</v>
+        <v>1.361398515639824</v>
       </c>
     </row>
     <row r="1090">
@@ -9088,7 +9088,7 @@
         <v>43852</v>
       </c>
       <c r="B1090" t="n">
-        <v>1.362686757624353</v>
+        <v>1.361645148121271</v>
       </c>
     </row>
     <row r="1091">
@@ -9096,7 +9096,7 @@
         <v>43853</v>
       </c>
       <c r="B1091" t="n">
-        <v>1.362534302475359</v>
+        <v>1.361492809505833</v>
       </c>
     </row>
     <row r="1092">
@@ -9104,7 +9104,7 @@
         <v>43854</v>
       </c>
       <c r="B1092" t="n">
-        <v>1.351881781360525</v>
+        <v>1.350848430957265</v>
       </c>
     </row>
     <row r="1093">
@@ -9112,7 +9112,7 @@
         <v>43857</v>
       </c>
       <c r="B1093" t="n">
-        <v>1.337676623297458</v>
+        <v>1.336654131022487</v>
       </c>
     </row>
     <row r="1094">
@@ -9120,7 +9120,7 @@
         <v>43858</v>
       </c>
       <c r="B1094" t="n">
-        <v>1.349326626230269</v>
+        <v>1.348295228934612</v>
       </c>
     </row>
     <row r="1095">
@@ -9128,7 +9128,7 @@
         <v>43859</v>
       </c>
       <c r="B1095" t="n">
-        <v>1.347218066408656</v>
+        <v>1.346188280852407</v>
       </c>
     </row>
     <row r="1096">
@@ -9136,7 +9136,7 @@
         <v>43860</v>
       </c>
       <c r="B1096" t="n">
-        <v>1.346703153111956</v>
+        <v>1.345673761144754</v>
       </c>
     </row>
     <row r="1097">
@@ -9144,7 +9144,7 @@
         <v>43861</v>
       </c>
       <c r="B1097" t="n">
-        <v>1.32946075186708</v>
+        <v>1.32844453963388</v>
       </c>
     </row>
     <row r="1098">
@@ -9152,7 +9152,7 @@
         <v>43864</v>
       </c>
       <c r="B1098" t="n">
-        <v>1.34065821001951</v>
+        <v>1.33963343868147</v>
       </c>
     </row>
     <row r="1099">
@@ -9160,7 +9160,7 @@
         <v>43865</v>
       </c>
       <c r="B1099" t="n">
-        <v>1.354062853867815</v>
+        <v>1.353027836297955</v>
       </c>
     </row>
     <row r="1100">
@@ -9168,7 +9168,7 @@
         <v>43866</v>
       </c>
       <c r="B1100" t="n">
-        <v>1.360350637008448</v>
+        <v>1.359310813187528</v>
       </c>
     </row>
     <row r="1101">
@@ -9176,7 +9176,7 @@
         <v>43867</v>
       </c>
       <c r="B1101" t="n">
-        <v>1.362855623367551</v>
+        <v>1.361813884786997</v>
       </c>
     </row>
     <row r="1102">
@@ -9184,7 +9184,7 @@
         <v>43868</v>
       </c>
       <c r="B1102" t="n">
-        <v>1.356262099790597</v>
+        <v>1.355225401162752</v>
       </c>
     </row>
     <row r="1103">
@@ -9192,7 +9192,7 @@
         <v>43871</v>
       </c>
       <c r="B1103" t="n">
-        <v>1.364630076394339</v>
+        <v>1.363586981458684</v>
       </c>
     </row>
     <row r="1104">
@@ -9200,7 +9200,7 @@
         <v>43872</v>
       </c>
       <c r="B1104" t="n">
-        <v>1.367790359563608</v>
+        <v>1.366744848973025</v>
       </c>
     </row>
     <row r="1105">
@@ -9208,7 +9208,7 @@
         <v>43873</v>
       </c>
       <c r="B1105" t="n">
-        <v>1.383482198921885</v>
+        <v>1.382424693814656</v>
       </c>
     </row>
     <row r="1106">
@@ -9216,7 +9216,7 @@
         <v>43874</v>
       </c>
       <c r="B1106" t="n">
-        <v>1.385331246770374</v>
+        <v>1.384272328289309</v>
       </c>
     </row>
     <row r="1107">
@@ -9224,7 +9224,7 @@
         <v>43875</v>
       </c>
       <c r="B1107" t="n">
-        <v>1.389447090193993</v>
+        <v>1.388385025647553</v>
       </c>
     </row>
     <row r="1108">
@@ -9232,7 +9232,7 @@
         <v>43879</v>
       </c>
       <c r="B1108" t="n">
-        <v>1.383304850413112</v>
+        <v>1.382247480867406</v>
       </c>
     </row>
     <row r="1109">
@@ -9240,7 +9240,7 @@
         <v>43880</v>
       </c>
       <c r="B1109" t="n">
-        <v>1.379874530567211</v>
+        <v>1.378819783086869</v>
       </c>
     </row>
     <row r="1110">
@@ -9248,7 +9248,7 @@
         <v>43881</v>
       </c>
       <c r="B1110" t="n">
-        <v>1.375844859911528</v>
+        <v>1.374793192627884</v>
       </c>
     </row>
     <row r="1111">
@@ -9256,7 +9256,7 @@
         <v>43882</v>
       </c>
       <c r="B1111" t="n">
-        <v>1.363976725648527</v>
+        <v>1.362934130120635</v>
       </c>
     </row>
     <row r="1112">
@@ -9264,7 +9264,7 @@
         <v>43885</v>
       </c>
       <c r="B1112" t="n">
-        <v>1.326960921619729</v>
+        <v>1.325946620204937</v>
       </c>
     </row>
     <row r="1113">
@@ -9272,7 +9272,7 @@
         <v>43886</v>
       </c>
       <c r="B1113" t="n">
-        <v>1.291211934448913</v>
+        <v>1.290224958818682</v>
       </c>
     </row>
     <row r="1114">
@@ -9280,7 +9280,7 @@
         <v>43887</v>
       </c>
       <c r="B1114" t="n">
-        <v>1.2859901189449</v>
+        <v>1.285007134762169</v>
       </c>
     </row>
     <row r="1115">
@@ -9288,7 +9288,7 @@
         <v>43888</v>
       </c>
       <c r="B1115" t="n">
-        <v>1.239517598353558</v>
+        <v>1.238570136801989</v>
       </c>
     </row>
     <row r="1116">
@@ -9296,7 +9296,7 @@
         <v>43889</v>
       </c>
       <c r="B1116" t="n">
-        <v>1.229193291608761</v>
+        <v>1.2282537217432</v>
       </c>
     </row>
     <row r="1117">
@@ -9304,7 +9304,7 @@
         <v>43892</v>
       </c>
       <c r="B1117" t="n">
-        <v>1.277344995936526</v>
+        <v>1.276368619906571</v>
       </c>
     </row>
     <row r="1118">
@@ -9312,7 +9312,7 @@
         <v>43893</v>
       </c>
       <c r="B1118" t="n">
-        <v>1.251240665407708</v>
+        <v>1.250284242986753</v>
       </c>
     </row>
     <row r="1119">
@@ -9320,7 +9320,7 @@
         <v>43894</v>
       </c>
       <c r="B1119" t="n">
-        <v>1.290160718358337</v>
+        <v>1.289174546255889</v>
       </c>
     </row>
     <row r="1120">
@@ -9328,7 +9328,7 @@
         <v>43895</v>
       </c>
       <c r="B1120" t="n">
-        <v>1.250360130282633</v>
+        <v>1.249404380924471</v>
       </c>
     </row>
     <row r="1121">
@@ -9336,7 +9336,199 @@
         <v>43896</v>
       </c>
       <c r="B1121" t="n">
-        <v>1.198357552994922</v>
+        <v>1.197441553328598</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>43899</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1.109135497563201</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>1.145547638236415</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>1.091088239317429</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>43902</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>0.980948686327909</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>1.053848548613312</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>0.9230251033102715</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>0.9516205468150163</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>0.8950438594541226</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>0.9097500671361085</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>0.8765869116197061</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>0.8515999363878781</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>0.9189550415029368</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>0.9408527503777034</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>0.9898324498874735</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>0.9621244978718606</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>0.9837943793087502</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>0.9701454762992709</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>0.9288454449243371</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>43923</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>0.9421902756792044</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>43924</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>0.9277637237294234</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>0.9835713642679562</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>43928</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>0.9840774588921291</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1.01718942885623</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1.035025876828364</v>
       </c>
     </row>
   </sheetData>
